--- a/fsaautomation/resources/config_properties.xlsx
+++ b/fsaautomation/resources/config_properties.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/auto/SVMX_Catalyst/fsaautomation/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A4A9530-C924-5B4E-9794-0FBBA3C0D084}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F5E5CD5-ED37-3D43-A5EF-C0ABAC88B266}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="440" windowWidth="28040" windowHeight="16820" activeTab="1" xr2:uid="{F5AD2FE8-A01F-1E49-94AB-A1FBFAACC706}"/>
+    <workbookView xWindow="360" yWindow="440" windowWidth="28040" windowHeight="16720" xr2:uid="{F5AD2FE8-A01F-1E49-94AB-A1FBFAACC706}"/>
   </bookViews>
   <sheets>
     <sheet name="config_local" sheetId="1" r:id="rId1"/>
     <sheet name="config_automation_build" sheetId="2" r:id="rId2"/>
     <sheet name="config_automation_phone" sheetId="3" r:id="rId3"/>
     <sheet name="config_fsa_pqt_build" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="config_fsa_track_build" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="91">
   <si>
     <t>0053D000001fEk6QAE</t>
   </si>
@@ -43,9 +43,6 @@
     <t>servicemax01</t>
   </si>
   <si>
-    <t>https\://cs77.salesforce.com/services/data/v42.0/sobjects/SVMXC__Service_Order__c?</t>
-  </si>
-  <si>
     <t>WORECORD_URL</t>
   </si>
   <si>
@@ -73,9 +70,6 @@
     <t>DOMAIN_URL</t>
   </si>
   <si>
-    <t>https\://cs77.salesforce.com/</t>
-  </si>
-  <si>
     <t>UDID</t>
   </si>
   <si>
@@ -85,9 +79,6 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https\://test.salesforce.com</t>
-  </si>
-  <si>
     <t>TECH_USN_1</t>
   </si>
   <si>
@@ -103,9 +94,6 @@
     <t>CREATE_URL</t>
   </si>
   <si>
-    <t>https\://cs77.salesforce.com/services/data/v42.0/sobjects/</t>
-  </si>
-  <si>
     <t>IOS_PLATFORM_VERSION</t>
   </si>
   <si>
@@ -148,15 +136,9 @@
     <t>OAUTH_URL</t>
   </si>
   <si>
-    <t>https\://cs77.salesforce.com/services/oauth2/token?</t>
-  </si>
-  <si>
     <t>WONAME_URL</t>
   </si>
   <si>
-    <t>https\://cs77.salesforce.com/services/data/v42.0/query/?q\=</t>
-  </si>
-  <si>
     <t>ADMIN_PWD</t>
   </si>
   <si>
@@ -173,9 +155,6 @@
   </si>
   <si>
     <t>HOST_URL</t>
-  </si>
-  <si>
-    <t>http\://0.0.0.0\:4723/wd/hub</t>
   </si>
   <si>
     <t>TECH_ID</t>
@@ -265,17 +244,20 @@
     </r>
   </si>
   <si>
+    <t>a263D000000AagdQAC</t>
+  </si>
+  <si>
+    <t>VP29PT4S86</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>com.servicemaxinc.fsadev.WebDriverAgentRunner</t>
+  </si>
+  <si>
     <r>
-      <t>https</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3933FF"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>\://cs70.salesforce.com/services/data/v42.0/</t>
+      <t>auto-tech1</t>
     </r>
     <r>
       <rPr>
@@ -285,58 +267,24 @@
         <rFont val="Menlo"/>
         <family val="2"/>
       </rPr>
-      <t>sobjects</t>
+      <t>@servicemax.com</t>
     </r>
+  </si>
+  <si>
+    <t>3MVG98EE59.VIHmzUAQeDlO8PLKoRSsvmQFZcIaOttbgntlKdQW8JAHrXz_socctLL6nYWx5dUAlLzYl0CWkZ</t>
+  </si>
+  <si>
+    <t>svmx@automationwork.com</t>
+  </si>
+  <si>
+    <t>a2D550000012LBBEA2</t>
+  </si>
+  <si>
+    <t>005550000031CAhAAM</t>
+  </si>
+  <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3933FF"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>/SVMXC__Service_Order__c?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>https</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3933FF"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>\://cs70.salesforce.com/services/data/v42.0/query/?q\=</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>https</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3933FF"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>\://cs70.salesforce.com/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>https</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3933FF"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>\://cs70.salesforce.com/services/data/v42.0/</t>
+      <t>auto-</t>
     </r>
     <r>
       <rPr>
@@ -346,37 +294,53 @@
         <rFont val="Menlo"/>
         <family val="2"/>
       </rPr>
-      <t>sobjects</t>
+      <t>tech@servicemax.com</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3933FF"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>https</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3933FF"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>\://cs70.salesforce.com/services/oauth2/token?</t>
-    </r>
-  </si>
-  <si>
-    <t>a263D000000AagdQAC</t>
-  </si>
-  <si>
-    <t>VP29PT4S86</t>
+  </si>
+  <si>
+    <t>a2D550000012LB6EAM</t>
+  </si>
+  <si>
+    <t>android</t>
+  </si>
+  <si>
+    <t>http://0.0.0.0:4723/wd/hub</t>
+  </si>
+  <si>
+    <t>https://cs77.salesforce.com/services/data/v42.0/sobjects/SVMXC__Service_Order__c?</t>
+  </si>
+  <si>
+    <t>https://cs77.salesforce.com/</t>
+  </si>
+  <si>
+    <t>https://test.salesforce.com</t>
+  </si>
+  <si>
+    <t>https://cs77.salesforce.com/services/data/v42.0/sobjects/</t>
+  </si>
+  <si>
+    <t>https://cs77.salesforce.com/services/oauth2/token?</t>
+  </si>
+  <si>
+    <t>iPhone Developer: Rajesh Rao (76X824PR66)</t>
+  </si>
+  <si>
+    <t>http://0.0.0.0\:4723/wd/hub</t>
+  </si>
+  <si>
+    <t>https://cs70.salesforce.com/services/data/v42.0/sobjects/SVMXC__Service_Order__c?</t>
+  </si>
+  <si>
+    <t>https://cs70.salesforce.com/services/data/v42.0/query/?q=</t>
+  </si>
+  <si>
+    <t>https://cs70.salesforce.com/</t>
+  </si>
+  <si>
+    <t>https://cs70.salesforce.com/services/data/v42.0/sobjects/</t>
+  </si>
+  <si>
+    <t>https://cs70.salesforce.com/services/oauth2/token?</t>
   </si>
   <si>
     <r>
@@ -398,7 +362,7 @@
         <rFont val="Menlo"/>
         <family val="2"/>
       </rPr>
-      <t>Developer\:</t>
+      <t>Developer:</t>
     </r>
     <r>
       <rPr>
@@ -457,143 +421,29 @@
     </r>
   </si>
   <si>
-    <t>phone</t>
-  </si>
-  <si>
-    <t>com.servicemaxinc.fsadev.WebDriverAgentRunner</t>
-  </si>
-  <si>
-    <r>
-      <t>https</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3933FF"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>\://cs41.salesforce.com/services/data/v42.0/</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FF3933FF"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>sobjects</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3933FF"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>/SVMXC__Service_Order__c?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>https</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3933FF"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>\://cs41.salesforce.com/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>auto-tech1</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FF3933FF"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>@servicemax.com</t>
-    </r>
-  </si>
-  <si>
-    <t>3MVG98EE59.VIHmzUAQeDlO8PLKoRSsvmQFZcIaOttbgntlKdQW8JAHrXz_socctLL6nYWx5dUAlLzYl0CWkZ</t>
-  </si>
-  <si>
-    <t>https\://cs41.salesforce.com/services/data/v42.0/sobjects/</t>
-  </si>
-  <si>
-    <t>svmx@automationwork.com</t>
-  </si>
-  <si>
-    <t>a2D550000012LBBEA2</t>
-  </si>
-  <si>
-    <t>005550000031CAhAAM</t>
-  </si>
-  <si>
-    <r>
-      <t>auto-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FF3933FF"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>tech@servicemax.com</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>https</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3933FF"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>\://cs41.salesforce.com/services/oauth2/token?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>https</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3933FF"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>\://cs41.salesforce.com/services/data/v42.0/query/?q\=</t>
-    </r>
-  </si>
-  <si>
-    <t>a2D550000012LB6EAM</t>
-  </si>
-  <si>
-    <t>android</t>
+    <t>https://cs41.salesforce.com/services/data/v42.0/sobjects/SVMXC__Service_Order__c?</t>
+  </si>
+  <si>
+    <t>https://cs41.salesforce.com/services/data/v42.0/query/?q=</t>
+  </si>
+  <si>
+    <t>https://cs41.salesforce.com/</t>
+  </si>
+  <si>
+    <t>https://cs41.salesforce.com/services/data/v42.0/sobjects/</t>
+  </si>
+  <si>
+    <t>https://cs41.salesforce.com/services/oauth2/token?</t>
+  </si>
+  <si>
+    <t>https://cs77.salesforce.com/services/data/v42.0/query/?q=</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -626,6 +476,14 @@
       <name val="Menlo"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -650,10 +508,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -661,8 +520,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -977,8 +838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82747902-0905-9A4B-A648-FC506DD60323}">
   <dimension ref="A1:AN34"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1020,99 +881,99 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="K1" s="3" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Q1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="S1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="T1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="AD1" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="AE1" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2">
         <v>12.1</v>
@@ -1121,88 +982,88 @@
         <v>8.1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I2" s="2" t="b">
         <v>1</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="Q2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y2" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AA2" s="2">
         <v>3.8107772161676902E+18</v>
       </c>
-      <c r="AB2" s="2" t="s">
-        <v>39</v>
+      <c r="AB2" s="7" t="s">
+        <v>76</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.2">
@@ -1336,6 +1197,13 @@
     <hyperlink ref="P2" r:id="rId1" xr:uid="{65290685-B75F-2F47-A5A2-C5F98F0468A7}"/>
     <hyperlink ref="R2" r:id="rId2" xr:uid="{A8C94B01-4AE8-4A46-A8C0-F0B6766D6C5A}"/>
     <hyperlink ref="N2" r:id="rId3" xr:uid="{9021A63E-45E4-2247-B495-773BCC48D6BC}"/>
+    <hyperlink ref="T2" r:id="rId4" xr:uid="{111D145D-7C58-0241-B4B7-EC3C95D38325}"/>
+    <hyperlink ref="U2" r:id="rId5" xr:uid="{DA34061A-CC99-BD49-AFD7-59CA373B6607}"/>
+    <hyperlink ref="V2" r:id="rId6" xr:uid="{E3E98677-132E-E64D-A508-185D4810255C}"/>
+    <hyperlink ref="W2" r:id="rId7" xr:uid="{8DB1D18B-EA97-AA4D-9AC7-02A48CDE67A6}"/>
+    <hyperlink ref="X2" r:id="rId8" xr:uid="{64F0B1C6-CD58-A845-A599-DFE23DA422CC}"/>
+    <hyperlink ref="Y2" r:id="rId9" xr:uid="{4FAFCCA4-4F24-0B49-934E-AC441897C9C5}"/>
+    <hyperlink ref="AB2" r:id="rId10" xr:uid="{486C7ACD-3F79-B144-8138-AEDF137735C6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1345,8 +1213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61BF172F-CE08-6840-ACF9-880AB6E40DE2}">
   <dimension ref="A1:AF2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="AB7" sqref="AB7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1390,102 +1258,102 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="K1" s="3" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Q1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="S1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="T1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="AE1" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="AF1" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="B2" s="2">
         <v>12.1</v>
@@ -1494,94 +1362,103 @@
         <v>8.1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I2" s="2" t="b">
         <v>1</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="L2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="O2" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>61</v>
-      </c>
       <c r="P2" s="5" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="U2" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="V2" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="W2" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y2" s="6" t="s">
-        <v>69</v>
+        <v>54</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y2" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="Z2" s="5" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="AA2" s="5">
         <v>5.3287122460050104E+18</v>
       </c>
-      <c r="AB2" s="6" t="s">
-        <v>70</v>
+      <c r="AB2" s="7" t="s">
+        <v>83</v>
       </c>
       <c r="AC2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="AD2" s="5" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="AE2" s="5" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="T2" r:id="rId1" xr:uid="{2373DCCF-7CF7-6D48-9391-B2017EA3F6CB}"/>
+    <hyperlink ref="U2" r:id="rId2" xr:uid="{45EF8F3D-534D-2F45-94E3-C73D8504CC2F}"/>
+    <hyperlink ref="V2" r:id="rId3" xr:uid="{317C8481-D29E-9841-A568-E5293BF078E6}"/>
+    <hyperlink ref="W2" r:id="rId4" xr:uid="{2250E180-CC76-0844-A14E-BECC396552E1}"/>
+    <hyperlink ref="X2" r:id="rId5" xr:uid="{3B6377D4-E37D-8E4E-A566-7D3CA80B53F6}"/>
+    <hyperlink ref="Y2" r:id="rId6" xr:uid="{08609375-5C82-1140-80FE-D1DE3470E1BE}"/>
+    <hyperlink ref="AB2" r:id="rId7" xr:uid="{195848E9-E895-054F-8CD9-4B349763F02C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1591,7 +1468,7 @@
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:XFD2"/>
+      <selection activeCell="AF2" sqref="AF2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1633,102 +1510,102 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="K1" s="3" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Q1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="S1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="T1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="AE1" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="AF1" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2">
         <v>12.1</v>
@@ -1737,94 +1614,103 @@
         <v>8.1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I2" s="2" t="b">
         <v>1</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="L2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="O2" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="M2" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>61</v>
-      </c>
       <c r="P2" s="5" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="U2" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="V2" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="W2" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y2" s="6" t="s">
-        <v>69</v>
+        <v>54</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y2" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="Z2" s="5" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="AA2" s="5">
         <v>5.3287122460050104E+18</v>
       </c>
-      <c r="AB2" s="6" t="s">
-        <v>70</v>
+      <c r="AB2" s="7" t="s">
+        <v>83</v>
       </c>
       <c r="AC2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="AD2" s="5" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="AE2" s="5" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="T2" r:id="rId1" xr:uid="{FF8A98B7-8501-6F47-A2FB-10824115B353}"/>
+    <hyperlink ref="U2" r:id="rId2" xr:uid="{E5504FE2-E34C-AD4E-9FED-91F77342117E}"/>
+    <hyperlink ref="V2" r:id="rId3" xr:uid="{E3CFACEB-C525-FB4B-816E-5C98177D7B3A}"/>
+    <hyperlink ref="W2" r:id="rId4" xr:uid="{037F7191-EF8F-1B41-A957-BC232B559744}"/>
+    <hyperlink ref="X2" r:id="rId5" xr:uid="{C6F51406-8912-3748-8B88-9B0A0A8B059D}"/>
+    <hyperlink ref="Y2" r:id="rId6" xr:uid="{CDB08067-96F2-2742-872D-1B028C2950EE}"/>
+    <hyperlink ref="AB2" r:id="rId7" xr:uid="{14CBA3AC-4A89-454E-B774-B0687A1364CD}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1876,102 +1762,102 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="K1" s="3" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Q1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="S1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="T1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="AE1" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="AF1" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2">
         <v>12.1</v>
@@ -1980,94 +1866,103 @@
         <v>8.1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I2" s="2" t="b">
         <v>1</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="L2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="O2" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>61</v>
-      </c>
       <c r="P2" s="5" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="U2" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="V2" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="V2" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="W2" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y2" s="5" t="s">
-        <v>80</v>
+      <c r="W2" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y2" s="7" t="s">
+        <v>88</v>
       </c>
       <c r="Z2" s="5" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="AA2" s="5">
         <v>5.3287122460050104E+18</v>
       </c>
-      <c r="AB2" s="6" t="s">
-        <v>85</v>
+      <c r="AB2" s="7" t="s">
+        <v>89</v>
       </c>
       <c r="AC2" s="5" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="AD2" s="5" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="AE2" s="5" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="T2" r:id="rId1" xr:uid="{A71DD4B7-4F78-624F-8526-BC2C8DAF91F2}"/>
+    <hyperlink ref="U2" r:id="rId2" xr:uid="{1B540CF2-7A50-6B48-8B71-0C274B92DD51}"/>
+    <hyperlink ref="V2" r:id="rId3" xr:uid="{91AEDBB0-8784-C240-9F57-F0191D9A7F37}"/>
+    <hyperlink ref="W2" r:id="rId4" xr:uid="{4CBB3277-EAC2-1C4C-B5B0-6055F81AEB79}"/>
+    <hyperlink ref="X2" r:id="rId5" xr:uid="{43033950-1900-2048-9098-30C4C6B77A36}"/>
+    <hyperlink ref="Y2" r:id="rId6" xr:uid="{AF882D86-8162-1A40-9D4C-2B7AFACABB92}"/>
+    <hyperlink ref="AB2" r:id="rId7" xr:uid="{F85A03DD-44E5-6E49-B503-8C6C4E7ECC22}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2077,7 +1972,7 @@
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2087,102 +1982,102 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="K1" s="3" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Q1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="S1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="T1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="AE1" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="AF1" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2">
         <v>12.1</v>
@@ -2191,94 +2086,103 @@
         <v>8.1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I2" s="2" t="b">
         <v>1</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="L2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="O2" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>61</v>
-      </c>
       <c r="P2" s="5" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="U2" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="V2" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="V2" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="W2" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y2" s="5" t="s">
-        <v>80</v>
+      <c r="W2" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y2" s="7" t="s">
+        <v>88</v>
       </c>
       <c r="Z2" s="5" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="AA2" s="5">
         <v>5.3287122460050104E+18</v>
       </c>
-      <c r="AB2" s="6" t="s">
-        <v>85</v>
+      <c r="AB2" s="7" t="s">
+        <v>89</v>
       </c>
       <c r="AC2" s="5" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="AD2" s="5" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="AE2" s="5" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="T2" r:id="rId1" xr:uid="{B41713CD-0C7A-A94A-9E0C-2C92C9129EB5}"/>
+    <hyperlink ref="U2" r:id="rId2" xr:uid="{F8ED6A05-BFC1-7E48-A376-F7EF824AE76F}"/>
+    <hyperlink ref="V2" r:id="rId3" xr:uid="{B2E95E89-7408-7140-82FB-6817D1D4C34A}"/>
+    <hyperlink ref="W2" r:id="rId4" xr:uid="{7BA77DFF-CF38-3F44-95C3-4775F3663E98}"/>
+    <hyperlink ref="X2" r:id="rId5" xr:uid="{A95FE44D-A1CF-E248-A845-0A3B8C68FB3D}"/>
+    <hyperlink ref="Y2" r:id="rId6" xr:uid="{DCB51B4E-919D-6847-9170-E731E9B9D69D}"/>
+    <hyperlink ref="AB2" r:id="rId7" xr:uid="{2489425F-B372-874E-8A85-A3A1E07348EE}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/fsaautomation/resources/config_properties.xlsx
+++ b/fsaautomation/resources/config_properties.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/auto/SVMX_Catalyst/fsaautomation/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F5E5CD5-ED37-3D43-A5EF-C0ABAC88B266}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCF13774-0C56-BC40-97FE-F3498CA5951B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="440" windowWidth="28040" windowHeight="16720" xr2:uid="{F5AD2FE8-A01F-1E49-94AB-A1FBFAACC706}"/>
+    <workbookView xWindow="360" yWindow="440" windowWidth="28040" windowHeight="16500" activeTab="4" xr2:uid="{F5AD2FE8-A01F-1E49-94AB-A1FBFAACC706}"/>
   </bookViews>
   <sheets>
     <sheet name="config_local" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="config_fsa_pqt_build" sheetId="4" r:id="rId4"/>
     <sheet name="config_fsa_track_build" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="94">
   <si>
     <t>0053D000001fEk6QAE</t>
   </si>
@@ -438,6 +438,15 @@
   <si>
     <t>https://cs77.salesforce.com/services/data/v42.0/query/?q=</t>
   </si>
+  <si>
+    <t>5328712246005014352</t>
+  </si>
+  <si>
+    <t>3810777216167697283</t>
+  </si>
+  <si>
+    <t>1E94C9FB7620E324BEC3438EF1B6382AB6D4114F3AB9B6F16ACE938E16136123</t>
+  </si>
 </sst>
 </file>
 
@@ -512,7 +521,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -521,6 +530,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="12" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -838,8 +851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82747902-0905-9A4B-A648-FC506DD60323}">
   <dimension ref="A1:AN34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2"/>
+    <sheetView topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AA3" sqref="AA3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1050,8 +1063,8 @@
       <c r="Z2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="AA2" s="2">
-        <v>3.8107772161676902E+18</v>
+      <c r="AA2" s="11" t="s">
+        <v>92</v>
       </c>
       <c r="AB2" s="7" t="s">
         <v>76</v>
@@ -1213,8 +1226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61BF172F-CE08-6840-ACF9-880AB6E40DE2}">
   <dimension ref="A1:AF2"/>
   <sheetViews>
-    <sheetView topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="AB7" sqref="AB7"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="AA3" sqref="AA3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1430,8 +1443,8 @@
       <c r="Z2" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="AA2" s="5">
-        <v>5.3287122460050104E+18</v>
+      <c r="AA2" s="10" t="s">
+        <v>91</v>
       </c>
       <c r="AB2" s="7" t="s">
         <v>83</v>
@@ -1467,8 +1480,259 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ABD5772-2955-6C46-88A2-787F9D38DC97}">
   <dimension ref="A1:AF2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AF2" sqref="AF2"/>
+    <sheetView topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AB2" sqref="AB2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="46.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="51.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="99.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="71.83203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="70.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="62.1640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="103.1640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="34.33203125" customWidth="1"/>
+    <col min="29" max="31" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="2">
+        <v>12.1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>8.1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y2" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z2" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB2" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="T2" r:id="rId1" xr:uid="{FF8A98B7-8501-6F47-A2FB-10824115B353}"/>
+    <hyperlink ref="U2" r:id="rId2" xr:uid="{E5504FE2-E34C-AD4E-9FED-91F77342117E}"/>
+    <hyperlink ref="V2" r:id="rId3" xr:uid="{E3CFACEB-C525-FB4B-816E-5C98177D7B3A}"/>
+    <hyperlink ref="W2" r:id="rId4" xr:uid="{037F7191-EF8F-1B41-A957-BC232B559744}"/>
+    <hyperlink ref="X2" r:id="rId5" xr:uid="{C6F51406-8912-3748-8B88-9B0A0A8B059D}"/>
+    <hyperlink ref="Y2" r:id="rId6" xr:uid="{CDB08067-96F2-2742-872D-1B028C2950EE}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3ACBC21-67F9-9748-8578-54FDD50767ED}">
+  <dimension ref="A1:AF2"/>
+  <sheetViews>
+    <sheetView topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AA3" sqref="AA3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1614,16 +1878,16 @@
         <v>8.1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>60</v>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>14</v>
@@ -1631,8 +1895,8 @@
       <c r="I2" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J2" s="5" t="s">
-        <v>62</v>
+      <c r="J2" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>45</v>
@@ -1640,302 +1904,50 @@
       <c r="L2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="M2" s="5" t="s">
-        <v>84</v>
+      <c r="M2" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>54</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="Q2" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="R2" s="5" t="s">
-        <v>58</v>
+      <c r="R2" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="S2" s="5" t="s">
         <v>54</v>
       </c>
       <c r="T2" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="U2" s="7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="V2" s="7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="W2" s="7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="X2" s="7" t="s">
         <v>74</v>
       </c>
       <c r="Y2" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z2" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA2" s="5">
-        <v>5.3287122460050104E+18</v>
-      </c>
-      <c r="AB2" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="AC2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD2" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="AE2" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF2" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="T2" r:id="rId1" xr:uid="{FF8A98B7-8501-6F47-A2FB-10824115B353}"/>
-    <hyperlink ref="U2" r:id="rId2" xr:uid="{E5504FE2-E34C-AD4E-9FED-91F77342117E}"/>
-    <hyperlink ref="V2" r:id="rId3" xr:uid="{E3CFACEB-C525-FB4B-816E-5C98177D7B3A}"/>
-    <hyperlink ref="W2" r:id="rId4" xr:uid="{037F7191-EF8F-1B41-A957-BC232B559744}"/>
-    <hyperlink ref="X2" r:id="rId5" xr:uid="{C6F51406-8912-3748-8B88-9B0A0A8B059D}"/>
-    <hyperlink ref="Y2" r:id="rId6" xr:uid="{CDB08067-96F2-2742-872D-1B028C2950EE}"/>
-    <hyperlink ref="AB2" r:id="rId7" xr:uid="{14CBA3AC-4A89-454E-B774-B0687A1364CD}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3ACBC21-67F9-9748-8578-54FDD50767ED}">
-  <dimension ref="A1:AF2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="46.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="51.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="34.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="99.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="71.83203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="35.6640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="34.5" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="70.6640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="103.1640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="62.1640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="31" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AF1" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="2">
-        <v>12.1</v>
-      </c>
-      <c r="C2" s="2">
-        <v>8.1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="T2" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="U2" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="V2" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="W2" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="X2" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y2" s="7" t="s">
         <v>88</v>
       </c>
       <c r="Z2" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="AA2" s="5">
-        <v>5.3287122460050104E+18</v>
+      <c r="AA2" s="10" t="s">
+        <v>93</v>
       </c>
       <c r="AB2" s="7" t="s">
         <v>89</v>
@@ -1971,8 +1983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70778CC3-4254-DD46-A825-6190F74A8C8D}">
   <dimension ref="A1:AF2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AA3" sqref="AA3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2154,8 +2166,8 @@
       <c r="Z2" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="AA2" s="5">
-        <v>5.3287122460050104E+18</v>
+      <c r="AA2" s="10" t="s">
+        <v>93</v>
       </c>
       <c r="AB2" s="7" t="s">
         <v>89</v>

--- a/fsaautomation/resources/config_properties.xlsx
+++ b/fsaautomation/resources/config_properties.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/auto/SVMX_Catalyst/fsaautomation/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCF13774-0C56-BC40-97FE-F3498CA5951B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{CCF13774-0C56-BC40-97FE-F3498CA5951B}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="440" windowWidth="28040" windowHeight="16500" activeTab="4" xr2:uid="{F5AD2FE8-A01F-1E49-94AB-A1FBFAACC706}"/>
+    <workbookView activeTab="4" windowHeight="16500" windowWidth="28040" xWindow="360" xr2:uid="{F5AD2FE8-A01F-1E49-94AB-A1FBFAACC706}" yWindow="440"/>
   </bookViews>
   <sheets>
-    <sheet name="config_local" sheetId="1" r:id="rId1"/>
-    <sheet name="config_automation_build" sheetId="2" r:id="rId2"/>
-    <sheet name="config_automation_phone" sheetId="3" r:id="rId3"/>
-    <sheet name="config_fsa_pqt_build" sheetId="4" r:id="rId4"/>
-    <sheet name="config_fsa_track_build" sheetId="5" r:id="rId5"/>
+    <sheet name="config_local" r:id="rId1" sheetId="1"/>
+    <sheet name="config_automation_build" r:id="rId2" sheetId="2"/>
+    <sheet name="config_automation_phone" r:id="rId3" sheetId="3"/>
+    <sheet name="config_fsa_pqt_build" r:id="rId4" sheetId="4"/>
+    <sheet name="config_fsa_track_build" r:id="rId5" sheetId="5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="95">
   <si>
     <t>0053D000001fEk6QAE</t>
   </si>
@@ -447,11 +447,15 @@
   <si>
     <t>1E94C9FB7620E324BEC3438EF1B6382AB6D4114F3AB9B6F16ACE938E16136123</t>
   </si>
+  <si>
+    <t>true</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -518,29 +522,29 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="5" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="12" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="1"/>
+    <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="12" quotePrefix="1" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" quotePrefix="1" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -557,10 +561,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -595,7 +599,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -647,7 +651,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -758,21 +762,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -789,7 +793,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -841,14 +845,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82747902-0905-9A4B-A648-FC506DD60323}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82747902-0905-9A4B-A648-FC506DD60323}">
   <dimension ref="A1:AN34"/>
   <sheetViews>
     <sheetView topLeftCell="Z1" workbookViewId="0">
@@ -857,39 +861,39 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="65.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="40.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="67" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24.83203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="35.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="28.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="52.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="26" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="45.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="115.33203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="115.33203125" customWidth="1"/>
-    <col min="23" max="23" width="49" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="39.33203125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="84" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="115.33203125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="40.5" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="74.33203125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="28.5" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="34.5" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="21.1640625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="30.83203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="21.1640625" collapsed="true"/>
+    <col min="6" max="7" bestFit="true" customWidth="true" width="27.33203125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="65.83203125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="40.5" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="67.0" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="33.33203125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="35.6640625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="28.5" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="52.6640625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="45.33203125" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="115.33203125" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="115.33203125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="49.0" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="39.33203125" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="84.0" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="115.33203125" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="40.5" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="74.33203125" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="28.5" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="1" s="3" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -984,7 +988,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="2" s="2" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -1207,23 +1211,23 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="P2" r:id="rId1" xr:uid="{65290685-B75F-2F47-A5A2-C5F98F0468A7}"/>
-    <hyperlink ref="R2" r:id="rId2" xr:uid="{A8C94B01-4AE8-4A46-A8C0-F0B6766D6C5A}"/>
-    <hyperlink ref="N2" r:id="rId3" xr:uid="{9021A63E-45E4-2247-B495-773BCC48D6BC}"/>
-    <hyperlink ref="T2" r:id="rId4" xr:uid="{111D145D-7C58-0241-B4B7-EC3C95D38325}"/>
-    <hyperlink ref="U2" r:id="rId5" xr:uid="{DA34061A-CC99-BD49-AFD7-59CA373B6607}"/>
-    <hyperlink ref="V2" r:id="rId6" xr:uid="{E3E98677-132E-E64D-A508-185D4810255C}"/>
-    <hyperlink ref="W2" r:id="rId7" xr:uid="{8DB1D18B-EA97-AA4D-9AC7-02A48CDE67A6}"/>
-    <hyperlink ref="X2" r:id="rId8" xr:uid="{64F0B1C6-CD58-A845-A599-DFE23DA422CC}"/>
-    <hyperlink ref="Y2" r:id="rId9" xr:uid="{4FAFCCA4-4F24-0B49-934E-AC441897C9C5}"/>
-    <hyperlink ref="AB2" r:id="rId10" xr:uid="{486C7ACD-3F79-B144-8138-AEDF137735C6}"/>
+    <hyperlink r:id="rId1" ref="P2" xr:uid="{65290685-B75F-2F47-A5A2-C5F98F0468A7}"/>
+    <hyperlink r:id="rId2" ref="R2" xr:uid="{A8C94B01-4AE8-4A46-A8C0-F0B6766D6C5A}"/>
+    <hyperlink r:id="rId3" ref="N2" xr:uid="{9021A63E-45E4-2247-B495-773BCC48D6BC}"/>
+    <hyperlink r:id="rId4" ref="T2" xr:uid="{111D145D-7C58-0241-B4B7-EC3C95D38325}"/>
+    <hyperlink r:id="rId5" ref="U2" xr:uid="{DA34061A-CC99-BD49-AFD7-59CA373B6607}"/>
+    <hyperlink r:id="rId6" ref="V2" xr:uid="{E3E98677-132E-E64D-A508-185D4810255C}"/>
+    <hyperlink r:id="rId7" ref="W2" xr:uid="{8DB1D18B-EA97-AA4D-9AC7-02A48CDE67A6}"/>
+    <hyperlink r:id="rId8" ref="X2" xr:uid="{64F0B1C6-CD58-A845-A599-DFE23DA422CC}"/>
+    <hyperlink r:id="rId9" ref="Y2" xr:uid="{4FAFCCA4-4F24-0B49-934E-AC441897C9C5}"/>
+    <hyperlink r:id="rId10" ref="AB2" xr:uid="{486C7ACD-3F79-B144-8138-AEDF137735C6}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61BF172F-CE08-6840-ACF9-880AB6E40DE2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61BF172F-CE08-6840-ACF9-880AB6E40DE2}">
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView topLeftCell="K1" workbookViewId="0">
@@ -1232,41 +1236,41 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="46.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="51.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="40.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="34.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="99.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="71.83203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="35.6640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="34.5" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="70.6640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="103.1640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="62.1640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="62.1640625" customWidth="1"/>
-    <col min="30" max="30" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="5.83203125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="46.5" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="51.33203125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="40.5" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="99.6640625" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="71.83203125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="35.6640625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="70.6640625" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="103.1640625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="62.1640625" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" width="62.1640625" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="1" s="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1364,7 +1368,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="2" s="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>70</v>
       </c>
@@ -1464,20 +1468,20 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="T2" r:id="rId1" xr:uid="{2373DCCF-7CF7-6D48-9391-B2017EA3F6CB}"/>
-    <hyperlink ref="U2" r:id="rId2" xr:uid="{45EF8F3D-534D-2F45-94E3-C73D8504CC2F}"/>
-    <hyperlink ref="V2" r:id="rId3" xr:uid="{317C8481-D29E-9841-A568-E5293BF078E6}"/>
-    <hyperlink ref="W2" r:id="rId4" xr:uid="{2250E180-CC76-0844-A14E-BECC396552E1}"/>
-    <hyperlink ref="X2" r:id="rId5" xr:uid="{3B6377D4-E37D-8E4E-A566-7D3CA80B53F6}"/>
-    <hyperlink ref="Y2" r:id="rId6" xr:uid="{08609375-5C82-1140-80FE-D1DE3470E1BE}"/>
-    <hyperlink ref="AB2" r:id="rId7" xr:uid="{195848E9-E895-054F-8CD9-4B349763F02C}"/>
+    <hyperlink r:id="rId1" ref="T2" xr:uid="{2373DCCF-7CF7-6D48-9391-B2017EA3F6CB}"/>
+    <hyperlink r:id="rId2" ref="U2" xr:uid="{45EF8F3D-534D-2F45-94E3-C73D8504CC2F}"/>
+    <hyperlink r:id="rId3" ref="V2" xr:uid="{317C8481-D29E-9841-A568-E5293BF078E6}"/>
+    <hyperlink r:id="rId4" ref="W2" xr:uid="{2250E180-CC76-0844-A14E-BECC396552E1}"/>
+    <hyperlink r:id="rId5" ref="X2" xr:uid="{3B6377D4-E37D-8E4E-A566-7D3CA80B53F6}"/>
+    <hyperlink r:id="rId6" ref="Y2" xr:uid="{08609375-5C82-1140-80FE-D1DE3470E1BE}"/>
+    <hyperlink r:id="rId7" ref="AB2" xr:uid="{195848E9-E895-054F-8CD9-4B349763F02C}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ABD5772-2955-6C46-88A2-787F9D38DC97}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ABD5772-2955-6C46-88A2-787F9D38DC97}">
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView topLeftCell="Z1" workbookViewId="0">
@@ -1486,39 +1490,39 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="46.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="51.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="34.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="99.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="71.83203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="35.6640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="34.5" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="70.6640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="62.1640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="103.1640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="34.33203125" customWidth="1"/>
-    <col min="29" max="31" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="5.83203125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="46.5" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="51.33203125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="12.83203125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="99.6640625" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="71.83203125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="35.6640625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="70.6640625" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="62.1640625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="103.1640625" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" width="34.33203125" collapsed="true"/>
+    <col min="29" max="31" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="1" s="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1616,7 +1620,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="2" s="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>70</v>
       </c>
@@ -1641,8 +1645,8 @@
       <c r="H2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="2" t="b">
-        <v>1</v>
+      <c r="I2" t="s">
+        <v>94</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>62</v>
@@ -1716,19 +1720,19 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="T2" r:id="rId1" xr:uid="{FF8A98B7-8501-6F47-A2FB-10824115B353}"/>
-    <hyperlink ref="U2" r:id="rId2" xr:uid="{E5504FE2-E34C-AD4E-9FED-91F77342117E}"/>
-    <hyperlink ref="V2" r:id="rId3" xr:uid="{E3CFACEB-C525-FB4B-816E-5C98177D7B3A}"/>
-    <hyperlink ref="W2" r:id="rId4" xr:uid="{037F7191-EF8F-1B41-A957-BC232B559744}"/>
-    <hyperlink ref="X2" r:id="rId5" xr:uid="{C6F51406-8912-3748-8B88-9B0A0A8B059D}"/>
-    <hyperlink ref="Y2" r:id="rId6" xr:uid="{CDB08067-96F2-2742-872D-1B028C2950EE}"/>
+    <hyperlink r:id="rId1" ref="T2" xr:uid="{FF8A98B7-8501-6F47-A2FB-10824115B353}"/>
+    <hyperlink r:id="rId2" ref="U2" xr:uid="{E5504FE2-E34C-AD4E-9FED-91F77342117E}"/>
+    <hyperlink r:id="rId3" ref="V2" xr:uid="{E3CFACEB-C525-FB4B-816E-5C98177D7B3A}"/>
+    <hyperlink r:id="rId4" ref="W2" xr:uid="{037F7191-EF8F-1B41-A957-BC232B559744}"/>
+    <hyperlink r:id="rId5" ref="X2" xr:uid="{C6F51406-8912-3748-8B88-9B0A0A8B059D}"/>
+    <hyperlink r:id="rId6" ref="Y2" xr:uid="{CDB08067-96F2-2742-872D-1B028C2950EE}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3ACBC21-67F9-9748-8578-54FDD50767ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3ACBC21-67F9-9748-8578-54FDD50767ED}">
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView topLeftCell="X1" workbookViewId="0">
@@ -1737,39 +1741,39 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="46.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="51.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="34.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="99.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="71.83203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="35.6640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="34.5" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="70.6640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="103.1640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="62.1640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="31" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="5.83203125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="46.5" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="51.33203125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="12.83203125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="99.6640625" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="71.83203125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="35.6640625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="70.6640625" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="103.1640625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="62.1640625" collapsed="true"/>
+    <col min="29" max="31" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="1" s="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1867,7 +1871,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="2" s="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -1967,20 +1971,20 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="T2" r:id="rId1" xr:uid="{A71DD4B7-4F78-624F-8526-BC2C8DAF91F2}"/>
-    <hyperlink ref="U2" r:id="rId2" xr:uid="{1B540CF2-7A50-6B48-8B71-0C274B92DD51}"/>
-    <hyperlink ref="V2" r:id="rId3" xr:uid="{91AEDBB0-8784-C240-9F57-F0191D9A7F37}"/>
-    <hyperlink ref="W2" r:id="rId4" xr:uid="{4CBB3277-EAC2-1C4C-B5B0-6055F81AEB79}"/>
-    <hyperlink ref="X2" r:id="rId5" xr:uid="{43033950-1900-2048-9098-30C4C6B77A36}"/>
-    <hyperlink ref="Y2" r:id="rId6" xr:uid="{AF882D86-8162-1A40-9D4C-2B7AFACABB92}"/>
-    <hyperlink ref="AB2" r:id="rId7" xr:uid="{F85A03DD-44E5-6E49-B503-8C6C4E7ECC22}"/>
+    <hyperlink r:id="rId1" ref="T2" xr:uid="{A71DD4B7-4F78-624F-8526-BC2C8DAF91F2}"/>
+    <hyperlink r:id="rId2" ref="U2" xr:uid="{1B540CF2-7A50-6B48-8B71-0C274B92DD51}"/>
+    <hyperlink r:id="rId3" ref="V2" xr:uid="{91AEDBB0-8784-C240-9F57-F0191D9A7F37}"/>
+    <hyperlink r:id="rId4" ref="W2" xr:uid="{4CBB3277-EAC2-1C4C-B5B0-6055F81AEB79}"/>
+    <hyperlink r:id="rId5" ref="X2" xr:uid="{43033950-1900-2048-9098-30C4C6B77A36}"/>
+    <hyperlink r:id="rId6" ref="Y2" xr:uid="{AF882D86-8162-1A40-9D4C-2B7AFACABB92}"/>
+    <hyperlink r:id="rId7" ref="AB2" xr:uid="{F85A03DD-44E5-6E49-B503-8C6C4E7ECC22}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70778CC3-4254-DD46-A825-6190F74A8C8D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70778CC3-4254-DD46-A825-6190F74A8C8D}">
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
@@ -1989,7 +1993,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="1" s="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -2087,7 +2091,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="2" s="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -2187,14 +2191,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="T2" r:id="rId1" xr:uid="{B41713CD-0C7A-A94A-9E0C-2C92C9129EB5}"/>
-    <hyperlink ref="U2" r:id="rId2" xr:uid="{F8ED6A05-BFC1-7E48-A376-F7EF824AE76F}"/>
-    <hyperlink ref="V2" r:id="rId3" xr:uid="{B2E95E89-7408-7140-82FB-6817D1D4C34A}"/>
-    <hyperlink ref="W2" r:id="rId4" xr:uid="{7BA77DFF-CF38-3F44-95C3-4775F3663E98}"/>
-    <hyperlink ref="X2" r:id="rId5" xr:uid="{A95FE44D-A1CF-E248-A845-0A3B8C68FB3D}"/>
-    <hyperlink ref="Y2" r:id="rId6" xr:uid="{DCB51B4E-919D-6847-9170-E731E9B9D69D}"/>
-    <hyperlink ref="AB2" r:id="rId7" xr:uid="{2489425F-B372-874E-8A85-A3A1E07348EE}"/>
+    <hyperlink r:id="rId1" ref="T2" xr:uid="{B41713CD-0C7A-A94A-9E0C-2C92C9129EB5}"/>
+    <hyperlink r:id="rId2" ref="U2" xr:uid="{F8ED6A05-BFC1-7E48-A376-F7EF824AE76F}"/>
+    <hyperlink r:id="rId3" ref="V2" xr:uid="{B2E95E89-7408-7140-82FB-6817D1D4C34A}"/>
+    <hyperlink r:id="rId4" ref="W2" xr:uid="{7BA77DFF-CF38-3F44-95C3-4775F3663E98}"/>
+    <hyperlink r:id="rId5" ref="X2" xr:uid="{A95FE44D-A1CF-E248-A845-0A3B8C68FB3D}"/>
+    <hyperlink r:id="rId6" ref="Y2" xr:uid="{DCB51B4E-919D-6847-9170-E731E9B9D69D}"/>
+    <hyperlink r:id="rId7" ref="AB2" xr:uid="{2489425F-B372-874E-8A85-A3A1E07348EE}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/fsaautomation/resources/config_properties.xlsx
+++ b/fsaautomation/resources/config_properties.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="95">
   <si>
     <t>0053D000001fEk6QAE</t>
   </si>

--- a/fsaautomation/resources/config_properties.xlsx
+++ b/fsaautomation/resources/config_properties.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/auto/SVMX_Catalyst/fsaautomation/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{CCF13774-0C56-BC40-97FE-F3498CA5951B}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C68A06-245A-DD45-B285-4D299F1B44D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="4" windowHeight="16500" windowWidth="28040" xWindow="360" xr2:uid="{F5AD2FE8-A01F-1E49-94AB-A1FBFAACC706}" yWindow="440"/>
+    <workbookView xWindow="360" yWindow="440" windowWidth="28040" windowHeight="16500" activeTab="1" xr2:uid="{F5AD2FE8-A01F-1E49-94AB-A1FBFAACC706}"/>
   </bookViews>
   <sheets>
-    <sheet name="config_local" r:id="rId1" sheetId="1"/>
-    <sheet name="config_automation_build" r:id="rId2" sheetId="2"/>
-    <sheet name="config_automation_phone" r:id="rId3" sheetId="3"/>
-    <sheet name="config_fsa_pqt_build" r:id="rId4" sheetId="4"/>
-    <sheet name="config_fsa_track_build" r:id="rId5" sheetId="5"/>
+    <sheet name="config_local" sheetId="1" r:id="rId1"/>
+    <sheet name="config_automation_build" sheetId="2" r:id="rId2"/>
+    <sheet name="config_automation_phone" sheetId="3" r:id="rId3"/>
+    <sheet name="config_fsa_pqt_build" sheetId="4" r:id="rId4"/>
+    <sheet name="config_fsa_track_build" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="97">
   <si>
     <t>0053D000001fEk6QAE</t>
   </si>
@@ -450,12 +450,17 @@
   <si>
     <t>true</t>
   </si>
+  <si>
+    <t>8.1</t>
+  </si>
+  <si>
+    <t>12.1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -522,29 +527,29 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="5" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="1"/>
-    <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="12" quotePrefix="1" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="12" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -561,10 +566,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -599,7 +604,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -651,7 +656,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -762,21 +767,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -793,7 +798,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -845,14 +850,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82747902-0905-9A4B-A648-FC506DD60323}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82747902-0905-9A4B-A648-FC506DD60323}">
   <dimension ref="A1:AN34"/>
   <sheetViews>
     <sheetView topLeftCell="Z1" workbookViewId="0">
@@ -861,39 +866,39 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="21.1640625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="30.83203125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="21.1640625" collapsed="true"/>
-    <col min="6" max="7" bestFit="true" customWidth="true" width="27.33203125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="65.83203125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="40.5" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="67.0" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="33.33203125" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="35.6640625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="28.5" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="52.6640625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="45.33203125" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="115.33203125" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" width="115.33203125" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="49.0" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="39.33203125" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="84.0" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="115.33203125" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="40.5" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="74.33203125" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="28.5" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="1" max="1" width="21.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="7" width="27.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="65.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="29.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="40.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="67" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="33.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="35.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="28.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="52.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="45.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="115.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="115.33203125" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="49" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="39.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="84" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="115.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="40.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="74.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="28.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="3" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:40" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -988,7 +993,7 @@
         <v>39</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="2" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -1211,66 +1216,66 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="P2" xr:uid="{65290685-B75F-2F47-A5A2-C5F98F0468A7}"/>
-    <hyperlink r:id="rId2" ref="R2" xr:uid="{A8C94B01-4AE8-4A46-A8C0-F0B6766D6C5A}"/>
-    <hyperlink r:id="rId3" ref="N2" xr:uid="{9021A63E-45E4-2247-B495-773BCC48D6BC}"/>
-    <hyperlink r:id="rId4" ref="T2" xr:uid="{111D145D-7C58-0241-B4B7-EC3C95D38325}"/>
-    <hyperlink r:id="rId5" ref="U2" xr:uid="{DA34061A-CC99-BD49-AFD7-59CA373B6607}"/>
-    <hyperlink r:id="rId6" ref="V2" xr:uid="{E3E98677-132E-E64D-A508-185D4810255C}"/>
-    <hyperlink r:id="rId7" ref="W2" xr:uid="{8DB1D18B-EA97-AA4D-9AC7-02A48CDE67A6}"/>
-    <hyperlink r:id="rId8" ref="X2" xr:uid="{64F0B1C6-CD58-A845-A599-DFE23DA422CC}"/>
-    <hyperlink r:id="rId9" ref="Y2" xr:uid="{4FAFCCA4-4F24-0B49-934E-AC441897C9C5}"/>
-    <hyperlink r:id="rId10" ref="AB2" xr:uid="{486C7ACD-3F79-B144-8138-AEDF137735C6}"/>
+    <hyperlink ref="P2" r:id="rId1" xr:uid="{65290685-B75F-2F47-A5A2-C5F98F0468A7}"/>
+    <hyperlink ref="R2" r:id="rId2" xr:uid="{A8C94B01-4AE8-4A46-A8C0-F0B6766D6C5A}"/>
+    <hyperlink ref="N2" r:id="rId3" xr:uid="{9021A63E-45E4-2247-B495-773BCC48D6BC}"/>
+    <hyperlink ref="T2" r:id="rId4" xr:uid="{111D145D-7C58-0241-B4B7-EC3C95D38325}"/>
+    <hyperlink ref="U2" r:id="rId5" xr:uid="{DA34061A-CC99-BD49-AFD7-59CA373B6607}"/>
+    <hyperlink ref="V2" r:id="rId6" xr:uid="{E3E98677-132E-E64D-A508-185D4810255C}"/>
+    <hyperlink ref="W2" r:id="rId7" xr:uid="{8DB1D18B-EA97-AA4D-9AC7-02A48CDE67A6}"/>
+    <hyperlink ref="X2" r:id="rId8" xr:uid="{64F0B1C6-CD58-A845-A599-DFE23DA422CC}"/>
+    <hyperlink ref="Y2" r:id="rId9" xr:uid="{4FAFCCA4-4F24-0B49-934E-AC441897C9C5}"/>
+    <hyperlink ref="AB2" r:id="rId10" xr:uid="{486C7ACD-3F79-B144-8138-AEDF137735C6}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61BF172F-CE08-6840-ACF9-880AB6E40DE2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61BF172F-CE08-6840-ACF9-880AB6E40DE2}">
   <dimension ref="A1:AF2"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="AA3" sqref="AA3"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="5.83203125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="46.5" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="51.33203125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="40.5" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="99.6640625" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="71.83203125" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="35.6640625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="70.6640625" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="103.1640625" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="62.1640625" collapsed="true"/>
-    <col min="29" max="29" customWidth="true" width="62.1640625" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="5.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="46.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="51.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="40.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="99.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="71.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="35.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="70.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="103.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="62.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="62.1640625" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="3" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1368,15 +1373,15 @@
         <v>39</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="2" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="2">
-        <v>12.1</v>
-      </c>
-      <c r="C2" s="2">
-        <v>8.1</v>
+      <c r="B2" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
@@ -1468,61 +1473,61 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="T2" xr:uid="{2373DCCF-7CF7-6D48-9391-B2017EA3F6CB}"/>
-    <hyperlink r:id="rId2" ref="U2" xr:uid="{45EF8F3D-534D-2F45-94E3-C73D8504CC2F}"/>
-    <hyperlink r:id="rId3" ref="V2" xr:uid="{317C8481-D29E-9841-A568-E5293BF078E6}"/>
-    <hyperlink r:id="rId4" ref="W2" xr:uid="{2250E180-CC76-0844-A14E-BECC396552E1}"/>
-    <hyperlink r:id="rId5" ref="X2" xr:uid="{3B6377D4-E37D-8E4E-A566-7D3CA80B53F6}"/>
-    <hyperlink r:id="rId6" ref="Y2" xr:uid="{08609375-5C82-1140-80FE-D1DE3470E1BE}"/>
-    <hyperlink r:id="rId7" ref="AB2" xr:uid="{195848E9-E895-054F-8CD9-4B349763F02C}"/>
+    <hyperlink ref="T2" r:id="rId1" xr:uid="{2373DCCF-7CF7-6D48-9391-B2017EA3F6CB}"/>
+    <hyperlink ref="U2" r:id="rId2" xr:uid="{45EF8F3D-534D-2F45-94E3-C73D8504CC2F}"/>
+    <hyperlink ref="V2" r:id="rId3" xr:uid="{317C8481-D29E-9841-A568-E5293BF078E6}"/>
+    <hyperlink ref="W2" r:id="rId4" xr:uid="{2250E180-CC76-0844-A14E-BECC396552E1}"/>
+    <hyperlink ref="X2" r:id="rId5" xr:uid="{3B6377D4-E37D-8E4E-A566-7D3CA80B53F6}"/>
+    <hyperlink ref="Y2" r:id="rId6" xr:uid="{08609375-5C82-1140-80FE-D1DE3470E1BE}"/>
+    <hyperlink ref="AB2" r:id="rId7" xr:uid="{195848E9-E895-054F-8CD9-4B349763F02C}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ABD5772-2955-6C46-88A2-787F9D38DC97}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ABD5772-2955-6C46-88A2-787F9D38DC97}">
   <dimension ref="A1:AF2"/>
   <sheetViews>
-    <sheetView topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AB2" sqref="AB2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="5.83203125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="46.5" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="51.33203125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="12.83203125" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="99.6640625" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="71.83203125" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="35.6640625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="70.6640625" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="62.1640625" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="103.1640625" collapsed="true"/>
-    <col min="28" max="28" customWidth="true" width="34.33203125" collapsed="true"/>
-    <col min="29" max="31" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="5.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="46.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="51.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="12.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="99.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="71.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="35.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="70.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="62.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="103.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="34.33203125" customWidth="1" collapsed="1"/>
+    <col min="29" max="31" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="3" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1620,15 +1625,15 @@
         <v>39</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="2" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="2">
-        <v>12.1</v>
-      </c>
-      <c r="C2" s="2">
-        <v>8.1</v>
+      <c r="B2" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>61</v>
@@ -1720,19 +1725,19 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="T2" xr:uid="{FF8A98B7-8501-6F47-A2FB-10824115B353}"/>
-    <hyperlink r:id="rId2" ref="U2" xr:uid="{E5504FE2-E34C-AD4E-9FED-91F77342117E}"/>
-    <hyperlink r:id="rId3" ref="V2" xr:uid="{E3CFACEB-C525-FB4B-816E-5C98177D7B3A}"/>
-    <hyperlink r:id="rId4" ref="W2" xr:uid="{037F7191-EF8F-1B41-A957-BC232B559744}"/>
-    <hyperlink r:id="rId5" ref="X2" xr:uid="{C6F51406-8912-3748-8B88-9B0A0A8B059D}"/>
-    <hyperlink r:id="rId6" ref="Y2" xr:uid="{CDB08067-96F2-2742-872D-1B028C2950EE}"/>
+    <hyperlink ref="T2" r:id="rId1" xr:uid="{FF8A98B7-8501-6F47-A2FB-10824115B353}"/>
+    <hyperlink ref="U2" r:id="rId2" xr:uid="{E5504FE2-E34C-AD4E-9FED-91F77342117E}"/>
+    <hyperlink ref="V2" r:id="rId3" xr:uid="{E3CFACEB-C525-FB4B-816E-5C98177D7B3A}"/>
+    <hyperlink ref="W2" r:id="rId4" xr:uid="{037F7191-EF8F-1B41-A957-BC232B559744}"/>
+    <hyperlink ref="X2" r:id="rId5" xr:uid="{C6F51406-8912-3748-8B88-9B0A0A8B059D}"/>
+    <hyperlink ref="Y2" r:id="rId6" xr:uid="{CDB08067-96F2-2742-872D-1B028C2950EE}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3ACBC21-67F9-9748-8578-54FDD50767ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3ACBC21-67F9-9748-8578-54FDD50767ED}">
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView topLeftCell="X1" workbookViewId="0">
@@ -1741,39 +1746,39 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="5.83203125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="46.5" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="51.33203125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="12.83203125" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="99.6640625" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="71.83203125" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="35.6640625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="70.6640625" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="103.1640625" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="62.1640625" collapsed="true"/>
-    <col min="29" max="31" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="5.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="46.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="51.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="12.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="99.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="71.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="35.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="70.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="103.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="62.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="31" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="3" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1871,7 +1876,7 @@
         <v>39</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="2" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -1971,29 +1976,29 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="T2" xr:uid="{A71DD4B7-4F78-624F-8526-BC2C8DAF91F2}"/>
-    <hyperlink r:id="rId2" ref="U2" xr:uid="{1B540CF2-7A50-6B48-8B71-0C274B92DD51}"/>
-    <hyperlink r:id="rId3" ref="V2" xr:uid="{91AEDBB0-8784-C240-9F57-F0191D9A7F37}"/>
-    <hyperlink r:id="rId4" ref="W2" xr:uid="{4CBB3277-EAC2-1C4C-B5B0-6055F81AEB79}"/>
-    <hyperlink r:id="rId5" ref="X2" xr:uid="{43033950-1900-2048-9098-30C4C6B77A36}"/>
-    <hyperlink r:id="rId6" ref="Y2" xr:uid="{AF882D86-8162-1A40-9D4C-2B7AFACABB92}"/>
-    <hyperlink r:id="rId7" ref="AB2" xr:uid="{F85A03DD-44E5-6E49-B503-8C6C4E7ECC22}"/>
+    <hyperlink ref="T2" r:id="rId1" xr:uid="{A71DD4B7-4F78-624F-8526-BC2C8DAF91F2}"/>
+    <hyperlink ref="U2" r:id="rId2" xr:uid="{1B540CF2-7A50-6B48-8B71-0C274B92DD51}"/>
+    <hyperlink ref="V2" r:id="rId3" xr:uid="{91AEDBB0-8784-C240-9F57-F0191D9A7F37}"/>
+    <hyperlink ref="W2" r:id="rId4" xr:uid="{4CBB3277-EAC2-1C4C-B5B0-6055F81AEB79}"/>
+    <hyperlink ref="X2" r:id="rId5" xr:uid="{43033950-1900-2048-9098-30C4C6B77A36}"/>
+    <hyperlink ref="Y2" r:id="rId6" xr:uid="{AF882D86-8162-1A40-9D4C-2B7AFACABB92}"/>
+    <hyperlink ref="AB2" r:id="rId7" xr:uid="{F85A03DD-44E5-6E49-B503-8C6C4E7ECC22}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70778CC3-4254-DD46-A825-6190F74A8C8D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70778CC3-4254-DD46-A825-6190F74A8C8D}">
   <dimension ref="A1:AF2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AA3" sqref="AA3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row customFormat="1" r="1" s="3" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -2091,15 +2096,15 @@
         <v>39</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="2" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="2">
         <v>12.1</v>
       </c>
-      <c r="C2" s="2">
-        <v>8.1</v>
+      <c r="C2" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
@@ -2191,14 +2196,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="T2" xr:uid="{B41713CD-0C7A-A94A-9E0C-2C92C9129EB5}"/>
-    <hyperlink r:id="rId2" ref="U2" xr:uid="{F8ED6A05-BFC1-7E48-A376-F7EF824AE76F}"/>
-    <hyperlink r:id="rId3" ref="V2" xr:uid="{B2E95E89-7408-7140-82FB-6817D1D4C34A}"/>
-    <hyperlink r:id="rId4" ref="W2" xr:uid="{7BA77DFF-CF38-3F44-95C3-4775F3663E98}"/>
-    <hyperlink r:id="rId5" ref="X2" xr:uid="{A95FE44D-A1CF-E248-A845-0A3B8C68FB3D}"/>
-    <hyperlink r:id="rId6" ref="Y2" xr:uid="{DCB51B4E-919D-6847-9170-E731E9B9D69D}"/>
-    <hyperlink r:id="rId7" ref="AB2" xr:uid="{2489425F-B372-874E-8A85-A3A1E07348EE}"/>
+    <hyperlink ref="T2" r:id="rId1" xr:uid="{B41713CD-0C7A-A94A-9E0C-2C92C9129EB5}"/>
+    <hyperlink ref="U2" r:id="rId2" xr:uid="{F8ED6A05-BFC1-7E48-A376-F7EF824AE76F}"/>
+    <hyperlink ref="V2" r:id="rId3" xr:uid="{B2E95E89-7408-7140-82FB-6817D1D4C34A}"/>
+    <hyperlink ref="W2" r:id="rId4" xr:uid="{7BA77DFF-CF38-3F44-95C3-4775F3663E98}"/>
+    <hyperlink ref="X2" r:id="rId5" xr:uid="{A95FE44D-A1CF-E248-A845-0A3B8C68FB3D}"/>
+    <hyperlink ref="Y2" r:id="rId6" xr:uid="{DCB51B4E-919D-6847-9170-E731E9B9D69D}"/>
+    <hyperlink ref="AB2" r:id="rId7" xr:uid="{2489425F-B372-874E-8A85-A3A1E07348EE}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/fsaautomation/resources/config_properties.xlsx
+++ b/fsaautomation/resources/config_properties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/auto/SVMX_Catalyst/fsaautomation/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C68A06-245A-DD45-B285-4D299F1B44D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4423CEED-EF3B-CD49-9B2B-632C9BD51A7E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="440" windowWidth="28040" windowHeight="16500" activeTab="1" xr2:uid="{F5AD2FE8-A01F-1E49-94AB-A1FBFAACC706}"/>
+    <workbookView xWindow="360" yWindow="440" windowWidth="28040" windowHeight="16500" xr2:uid="{F5AD2FE8-A01F-1E49-94AB-A1FBFAACC706}"/>
   </bookViews>
   <sheets>
     <sheet name="config_local" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="97">
   <si>
     <t>0053D000001fEk6QAE</t>
   </si>
@@ -860,8 +860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82747902-0905-9A4B-A648-FC506DD60323}">
   <dimension ref="A1:AN34"/>
   <sheetViews>
-    <sheetView topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AA3" sqref="AA3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -997,11 +997,11 @@
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2">
-        <v>12.1</v>
-      </c>
-      <c r="C2" s="2">
-        <v>8.1</v>
+      <c r="B2" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
@@ -1235,7 +1235,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61BF172F-CE08-6840-ACF9-880AB6E40DE2}">
   <dimension ref="A1:AF2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+    <sheetView topLeftCell="T1" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -1740,8 +1740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3ACBC21-67F9-9748-8578-54FDD50767ED}">
   <dimension ref="A1:AF2"/>
   <sheetViews>
-    <sheetView topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AA3" sqref="AA3"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1880,11 +1880,11 @@
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2">
-        <v>12.1</v>
-      </c>
-      <c r="C2" s="2">
-        <v>8.1</v>
+      <c r="B2" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
@@ -1993,7 +1993,7 @@
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="Z2" sqref="Z2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2100,8 +2100,8 @@
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2">
-        <v>12.1</v>
+      <c r="B2" s="11" t="s">
+        <v>96</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>95</v>

--- a/fsaautomation/resources/config_properties.xlsx
+++ b/fsaautomation/resources/config_properties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/auto/SVMX_Catalyst/fsaautomation/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4423CEED-EF3B-CD49-9B2B-632C9BD51A7E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87BA0DEC-23D9-A247-A674-B1FC23FB8CA6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="440" windowWidth="28040" windowHeight="16500" xr2:uid="{F5AD2FE8-A01F-1E49-94AB-A1FBFAACC706}"/>
+    <workbookView xWindow="20" yWindow="1260" windowWidth="28040" windowHeight="16500" activeTab="2" xr2:uid="{F5AD2FE8-A01F-1E49-94AB-A1FBFAACC706}"/>
   </bookViews>
   <sheets>
     <sheet name="config_local" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="96">
   <si>
     <t>0053D000001fEk6QAE</t>
   </si>
@@ -322,9 +322,6 @@
     <t>https://cs77.salesforce.com/services/oauth2/token?</t>
   </si>
   <si>
-    <t>iPhone Developer: Rajesh Rao (76X824PR66)</t>
-  </si>
-  <si>
     <t>http://0.0.0.0\:4723/wd/hub</t>
   </si>
   <si>
@@ -343,84 +340,6 @@
     <t>https://cs70.salesforce.com/services/oauth2/token?</t>
   </si>
   <si>
-    <r>
-      <t>iPhone</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3933FF"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>Developer:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FF3933FF"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>Servicmax</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3933FF"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>FSA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3933FF"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>(6DFUZHHYAX)</t>
-    </r>
-  </si>
-  <si>
     <t>https://cs41.salesforce.com/services/data/v42.0/sobjects/SVMXC__Service_Order__c?</t>
   </si>
   <si>
@@ -455,6 +374,9 @@
   </si>
   <si>
     <t>12.1</t>
+  </si>
+  <si>
+    <t>iPhone Developer: Servicmax FSA (6DFUZHHYAX)</t>
   </si>
 </sst>
 </file>
@@ -860,8 +782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82747902-0905-9A4B-A648-FC506DD60323}">
   <dimension ref="A1:AN34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -998,10 +920,10 @@
         <v>7</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
@@ -1058,7 +980,7 @@
         <v>72</v>
       </c>
       <c r="V2" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="W2" s="7" t="s">
         <v>73</v>
@@ -1073,7 +995,7 @@
         <v>19</v>
       </c>
       <c r="AA2" s="11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AB2" s="7" t="s">
         <v>76</v>
@@ -1235,8 +1157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61BF172F-CE08-6840-ACF9-880AB6E40DE2}">
   <dimension ref="A1:AF2"/>
   <sheetViews>
-    <sheetView topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1247,13 +1169,13 @@
     <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="5.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="46.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="51.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="51.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="5.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="46.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="14" max="14" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="15" max="15" width="14" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="16" max="16" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
@@ -1295,25 +1217,25 @@
         <v>6</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>32</v>
@@ -1375,13 +1297,13 @@
     </row>
     <row r="2" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
@@ -1393,25 +1315,25 @@
         <v>50</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>57</v>
@@ -1432,31 +1354,31 @@
         <v>54</v>
       </c>
       <c r="T2" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="U2" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="U2" s="7" t="s">
+      <c r="V2" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="V2" s="7" t="s">
+      <c r="W2" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="W2" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="X2" s="7" t="s">
         <v>74</v>
       </c>
       <c r="Y2" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Z2" s="5" t="s">
         <v>55</v>
       </c>
       <c r="AA2" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AB2" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AC2" s="5" t="s">
         <v>0</v>
@@ -1482,15 +1404,16 @@
     <hyperlink ref="AB2" r:id="rId7" xr:uid="{195848E9-E895-054F-8CD9-4B349763F02C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ABD5772-2955-6C46-88A2-787F9D38DC97}">
-  <dimension ref="A1:AF2"/>
+  <dimension ref="A1:AE2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1501,33 +1424,32 @@
     <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="5.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="51.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="46.5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="51.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="12.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="99.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="71.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="35.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="70.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="62.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="103.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="34.33203125" customWidth="1" collapsed="1"/>
-    <col min="29" max="31" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="12.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="99.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="71.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="35.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="70.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="62.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="103.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="34.33203125" customWidth="1" collapsed="1"/>
+    <col min="28" max="30" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1547,10 +1469,10 @@
         <v>6</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>24</v>
@@ -1565,75 +1487,72 @@
         <v>46</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="U1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="V1" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="W1" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="Z1" s="3" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="AB1" s="3" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="AC1" s="3" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="AD1" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="AE1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AF1" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>70</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>61</v>
@@ -1644,14 +1563,14 @@
       <c r="F2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="I2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>62</v>
@@ -1663,25 +1582,25 @@
         <v>47</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="O2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="P2" s="5" t="s">
-        <v>53</v>
-      </c>
       <c r="Q2" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="R2" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="R2" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>54</v>
+      <c r="S2" s="7" t="s">
+        <v>77</v>
       </c>
       <c r="T2" s="7" t="s">
         <v>78</v>
@@ -1693,44 +1612,41 @@
         <v>80</v>
       </c>
       <c r="W2" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="X2" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="X2" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y2" s="7" t="s">
+      <c r="Y2" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="Z2" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="AA2" s="5" t="s">
+      <c r="Z2" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="AB2" s="9" t="s">
-        <v>91</v>
+      <c r="AA2" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB2" s="5" t="s">
+        <v>0</v>
       </c>
       <c r="AC2" s="5" t="s">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="AD2" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="AE2" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AE2" s="2" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="T2" r:id="rId1" xr:uid="{FF8A98B7-8501-6F47-A2FB-10824115B353}"/>
-    <hyperlink ref="U2" r:id="rId2" xr:uid="{E5504FE2-E34C-AD4E-9FED-91F77342117E}"/>
-    <hyperlink ref="V2" r:id="rId3" xr:uid="{E3CFACEB-C525-FB4B-816E-5C98177D7B3A}"/>
-    <hyperlink ref="W2" r:id="rId4" xr:uid="{037F7191-EF8F-1B41-A957-BC232B559744}"/>
-    <hyperlink ref="X2" r:id="rId5" xr:uid="{C6F51406-8912-3748-8B88-9B0A0A8B059D}"/>
-    <hyperlink ref="Y2" r:id="rId6" xr:uid="{CDB08067-96F2-2742-872D-1B028C2950EE}"/>
+    <hyperlink ref="S2" r:id="rId1" xr:uid="{FF8A98B7-8501-6F47-A2FB-10824115B353}"/>
+    <hyperlink ref="T2" r:id="rId2" xr:uid="{E5504FE2-E34C-AD4E-9FED-91F77342117E}"/>
+    <hyperlink ref="U2" r:id="rId3" xr:uid="{E3CFACEB-C525-FB4B-816E-5C98177D7B3A}"/>
+    <hyperlink ref="V2" r:id="rId4" xr:uid="{037F7191-EF8F-1B41-A957-BC232B559744}"/>
+    <hyperlink ref="W2" r:id="rId5" xr:uid="{C6F51406-8912-3748-8B88-9B0A0A8B059D}"/>
+    <hyperlink ref="X2" r:id="rId6" xr:uid="{CDB08067-96F2-2742-872D-1B028C2950EE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1881,10 +1797,10 @@
         <v>7</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
@@ -1938,28 +1854,28 @@
         <v>71</v>
       </c>
       <c r="U2" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="W2" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="V2" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="W2" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="X2" s="7" t="s">
         <v>74</v>
       </c>
       <c r="Y2" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Z2" s="5" t="s">
         <v>64</v>
       </c>
       <c r="AA2" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AB2" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AC2" s="5" t="s">
         <v>67</v>
@@ -2101,10 +2017,10 @@
         <v>7</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
@@ -2158,28 +2074,28 @@
         <v>71</v>
       </c>
       <c r="U2" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="W2" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="V2" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="W2" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="X2" s="7" t="s">
         <v>74</v>
       </c>
       <c r="Y2" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Z2" s="5" t="s">
         <v>64</v>
       </c>
       <c r="AA2" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AB2" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AC2" s="5" t="s">
         <v>67</v>

--- a/fsaautomation/resources/config_properties.xlsx
+++ b/fsaautomation/resources/config_properties.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/auto/SVMX_Catalyst/fsaautomation/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87BA0DEC-23D9-A247-A674-B1FC23FB8CA6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{108CD4CB-519C-4248-A071-FE764E3909BF}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="1260" windowWidth="28040" windowHeight="16500" activeTab="2" xr2:uid="{F5AD2FE8-A01F-1E49-94AB-A1FBFAACC706}"/>
+    <workbookView activeTab="1" windowHeight="16500" windowWidth="28040" xWindow="20" xr2:uid="{F5AD2FE8-A01F-1E49-94AB-A1FBFAACC706}" yWindow="540"/>
   </bookViews>
   <sheets>
-    <sheet name="config_local" sheetId="1" r:id="rId1"/>
-    <sheet name="config_automation_build" sheetId="2" r:id="rId2"/>
-    <sheet name="config_automation_phone" sheetId="3" r:id="rId3"/>
-    <sheet name="config_fsa_pqt_build" sheetId="4" r:id="rId4"/>
-    <sheet name="config_fsa_track_build" sheetId="5" r:id="rId5"/>
+    <sheet name="config_local" r:id="rId1" sheetId="1"/>
+    <sheet name="config_automation_build" r:id="rId2" sheetId="2"/>
+    <sheet name="config_automation_phone" r:id="rId3" sheetId="3"/>
+    <sheet name="config_fsa_pqt_build" r:id="rId4" sheetId="4"/>
+    <sheet name="config_fsa_track_build" r:id="rId5" sheetId="5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="96">
   <si>
     <t>0053D000001fEk6QAE</t>
   </si>
@@ -383,6 +383,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -449,29 +450,29 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="5" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="12" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="1"/>
+    <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="12" quotePrefix="1" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" quotePrefix="1" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -488,10 +489,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -526,7 +527,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -578,7 +579,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -689,21 +690,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -720,7 +721,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -772,14 +773,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82747902-0905-9A4B-A648-FC506DD60323}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82747902-0905-9A4B-A648-FC506DD60323}">
   <dimension ref="A1:AN34"/>
   <sheetViews>
     <sheetView topLeftCell="U1" workbookViewId="0">
@@ -788,39 +789,39 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="7" width="27.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="65.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="29.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="40.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="67" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="33.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="35.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="28.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="52.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="45.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="115.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="115.33203125" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="49" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="39.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="84" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="115.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="40.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="74.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="28.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="21.1640625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="30.83203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="21.1640625" collapsed="true"/>
+    <col min="6" max="7" bestFit="true" customWidth="true" width="27.33203125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="65.83203125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="40.5" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="67.0" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="33.33203125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="35.6640625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="28.5" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="52.6640625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="45.33203125" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="115.33203125" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="115.33203125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="49.0" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="39.33203125" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="84.0" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="115.33203125" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="40.5" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="74.33203125" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="28.5" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="1" s="3" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -915,7 +916,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="2" s="2" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -1138,66 +1139,66 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="P2" r:id="rId1" xr:uid="{65290685-B75F-2F47-A5A2-C5F98F0468A7}"/>
-    <hyperlink ref="R2" r:id="rId2" xr:uid="{A8C94B01-4AE8-4A46-A8C0-F0B6766D6C5A}"/>
-    <hyperlink ref="N2" r:id="rId3" xr:uid="{9021A63E-45E4-2247-B495-773BCC48D6BC}"/>
-    <hyperlink ref="T2" r:id="rId4" xr:uid="{111D145D-7C58-0241-B4B7-EC3C95D38325}"/>
-    <hyperlink ref="U2" r:id="rId5" xr:uid="{DA34061A-CC99-BD49-AFD7-59CA373B6607}"/>
-    <hyperlink ref="V2" r:id="rId6" xr:uid="{E3E98677-132E-E64D-A508-185D4810255C}"/>
-    <hyperlink ref="W2" r:id="rId7" xr:uid="{8DB1D18B-EA97-AA4D-9AC7-02A48CDE67A6}"/>
-    <hyperlink ref="X2" r:id="rId8" xr:uid="{64F0B1C6-CD58-A845-A599-DFE23DA422CC}"/>
-    <hyperlink ref="Y2" r:id="rId9" xr:uid="{4FAFCCA4-4F24-0B49-934E-AC441897C9C5}"/>
-    <hyperlink ref="AB2" r:id="rId10" xr:uid="{486C7ACD-3F79-B144-8138-AEDF137735C6}"/>
+    <hyperlink r:id="rId1" ref="P2" xr:uid="{65290685-B75F-2F47-A5A2-C5F98F0468A7}"/>
+    <hyperlink r:id="rId2" ref="R2" xr:uid="{A8C94B01-4AE8-4A46-A8C0-F0B6766D6C5A}"/>
+    <hyperlink r:id="rId3" ref="N2" xr:uid="{9021A63E-45E4-2247-B495-773BCC48D6BC}"/>
+    <hyperlink r:id="rId4" ref="T2" xr:uid="{111D145D-7C58-0241-B4B7-EC3C95D38325}"/>
+    <hyperlink r:id="rId5" ref="U2" xr:uid="{DA34061A-CC99-BD49-AFD7-59CA373B6607}"/>
+    <hyperlink r:id="rId6" ref="V2" xr:uid="{E3E98677-132E-E64D-A508-185D4810255C}"/>
+    <hyperlink r:id="rId7" ref="W2" xr:uid="{8DB1D18B-EA97-AA4D-9AC7-02A48CDE67A6}"/>
+    <hyperlink r:id="rId8" ref="X2" xr:uid="{64F0B1C6-CD58-A845-A599-DFE23DA422CC}"/>
+    <hyperlink r:id="rId9" ref="Y2" xr:uid="{4FAFCCA4-4F24-0B49-934E-AC441897C9C5}"/>
+    <hyperlink r:id="rId10" ref="AB2" xr:uid="{486C7ACD-3F79-B144-8138-AEDF137735C6}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61BF172F-CE08-6840-ACF9-880AB6E40DE2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61BF172F-CE08-6840-ACF9-880AB6E40DE2}">
   <dimension ref="A1:AF2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="51.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="5.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="46.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="40.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="99.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="71.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="35.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="70.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="103.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="62.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="62.1640625" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="5.83203125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="51.33203125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="46.5" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="40.5" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="99.6640625" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="71.83203125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="35.6640625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="70.6640625" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="103.1640625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="62.1640625" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" width="62.1640625" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="1" s="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1217,13 +1218,13 @@
         <v>6</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>24</v>
@@ -1295,7 +1296,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="2" s="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -1315,13 +1316,13 @@
         <v>50</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="J2" t="s">
         <v>92</v>
@@ -1395,61 +1396,62 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="T2" r:id="rId1" xr:uid="{2373DCCF-7CF7-6D48-9391-B2017EA3F6CB}"/>
-    <hyperlink ref="U2" r:id="rId2" xr:uid="{45EF8F3D-534D-2F45-94E3-C73D8504CC2F}"/>
-    <hyperlink ref="V2" r:id="rId3" xr:uid="{317C8481-D29E-9841-A568-E5293BF078E6}"/>
-    <hyperlink ref="W2" r:id="rId4" xr:uid="{2250E180-CC76-0844-A14E-BECC396552E1}"/>
-    <hyperlink ref="X2" r:id="rId5" xr:uid="{3B6377D4-E37D-8E4E-A566-7D3CA80B53F6}"/>
-    <hyperlink ref="Y2" r:id="rId6" xr:uid="{08609375-5C82-1140-80FE-D1DE3470E1BE}"/>
-    <hyperlink ref="AB2" r:id="rId7" xr:uid="{195848E9-E895-054F-8CD9-4B349763F02C}"/>
+    <hyperlink r:id="rId1" ref="T2" xr:uid="{2373DCCF-7CF7-6D48-9391-B2017EA3F6CB}"/>
+    <hyperlink r:id="rId2" ref="U2" xr:uid="{45EF8F3D-534D-2F45-94E3-C73D8504CC2F}"/>
+    <hyperlink r:id="rId3" ref="V2" xr:uid="{317C8481-D29E-9841-A568-E5293BF078E6}"/>
+    <hyperlink r:id="rId4" ref="W2" xr:uid="{2250E180-CC76-0844-A14E-BECC396552E1}"/>
+    <hyperlink r:id="rId5" ref="X2" xr:uid="{3B6377D4-E37D-8E4E-A566-7D3CA80B53F6}"/>
+    <hyperlink r:id="rId6" ref="Y2" xr:uid="{08609375-5C82-1140-80FE-D1DE3470E1BE}"/>
+    <hyperlink r:id="rId7" ref="AB2" xr:uid="{195848E9-E895-054F-8CD9-4B349763F02C}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ABD5772-2955-6C46-88A2-787F9D38DC97}">
-  <dimension ref="A1:AE2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ABD5772-2955-6C46-88A2-787F9D38DC97}">
+  <dimension ref="A1:AF2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:M1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="51.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="46.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="12.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="99.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="71.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="35.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="70.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="62.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="103.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="34.33203125" customWidth="1" collapsed="1"/>
-    <col min="28" max="30" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="5.83203125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="51.33203125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="46.5" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="12.83203125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="99.6640625" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="71.83203125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="35.6640625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="70.6640625" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="62.1640625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="103.1640625" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" width="34.33203125" collapsed="true"/>
+    <col min="29" max="31" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="1" s="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1469,82 +1471,85 @@
         <v>6</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="2" s="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>70</v>
       </c>
@@ -1564,137 +1569,140 @@
         <v>50</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>92</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="O2" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="P2" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="Q2" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="R2" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="S2" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="T2" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="T2" s="7" t="s">
+      <c r="U2" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="U2" s="7" t="s">
+      <c r="V2" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="V2" s="7" t="s">
+      <c r="W2" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="W2" s="7" t="s">
+      <c r="X2" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="X2" s="7" t="s">
+      <c r="Y2" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="Y2" s="8" t="s">
+      <c r="Z2" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="Z2" s="5" t="s">
+      <c r="AA2" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="AA2" s="9" t="s">
+      <c r="AB2" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="AB2" s="5" t="s">
+      <c r="AC2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="AC2" s="5" t="s">
+      <c r="AD2" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AD2" s="5" t="s">
+      <c r="AE2" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AF2" s="2" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="S2" r:id="rId1" xr:uid="{FF8A98B7-8501-6F47-A2FB-10824115B353}"/>
-    <hyperlink ref="T2" r:id="rId2" xr:uid="{E5504FE2-E34C-AD4E-9FED-91F77342117E}"/>
-    <hyperlink ref="U2" r:id="rId3" xr:uid="{E3CFACEB-C525-FB4B-816E-5C98177D7B3A}"/>
-    <hyperlink ref="V2" r:id="rId4" xr:uid="{037F7191-EF8F-1B41-A957-BC232B559744}"/>
-    <hyperlink ref="W2" r:id="rId5" xr:uid="{C6F51406-8912-3748-8B88-9B0A0A8B059D}"/>
-    <hyperlink ref="X2" r:id="rId6" xr:uid="{CDB08067-96F2-2742-872D-1B028C2950EE}"/>
+    <hyperlink r:id="rId1" ref="T2" xr:uid="{FF8A98B7-8501-6F47-A2FB-10824115B353}"/>
+    <hyperlink r:id="rId2" ref="U2" xr:uid="{E5504FE2-E34C-AD4E-9FED-91F77342117E}"/>
+    <hyperlink r:id="rId3" ref="V2" xr:uid="{E3CFACEB-C525-FB4B-816E-5C98177D7B3A}"/>
+    <hyperlink r:id="rId4" ref="W2" xr:uid="{037F7191-EF8F-1B41-A957-BC232B559744}"/>
+    <hyperlink r:id="rId5" ref="X2" xr:uid="{C6F51406-8912-3748-8B88-9B0A0A8B059D}"/>
+    <hyperlink r:id="rId6" ref="Y2" xr:uid="{CDB08067-96F2-2742-872D-1B028C2950EE}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3ACBC21-67F9-9748-8578-54FDD50767ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3ACBC21-67F9-9748-8578-54FDD50767ED}">
   <dimension ref="A1:AF2"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="5.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="46.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="51.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="12.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="99.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="71.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="35.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="70.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="103.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="62.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="31" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="5.83203125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="46.5" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="51.33203125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="12.83203125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="99.6640625" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="71.83203125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="35.6640625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="70.6640625" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="103.1640625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="62.1640625" collapsed="true"/>
+    <col min="29" max="31" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="1" s="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1792,7 +1800,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="2" s="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -1892,20 +1900,20 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="T2" r:id="rId1" xr:uid="{A71DD4B7-4F78-624F-8526-BC2C8DAF91F2}"/>
-    <hyperlink ref="U2" r:id="rId2" xr:uid="{1B540CF2-7A50-6B48-8B71-0C274B92DD51}"/>
-    <hyperlink ref="V2" r:id="rId3" xr:uid="{91AEDBB0-8784-C240-9F57-F0191D9A7F37}"/>
-    <hyperlink ref="W2" r:id="rId4" xr:uid="{4CBB3277-EAC2-1C4C-B5B0-6055F81AEB79}"/>
-    <hyperlink ref="X2" r:id="rId5" xr:uid="{43033950-1900-2048-9098-30C4C6B77A36}"/>
-    <hyperlink ref="Y2" r:id="rId6" xr:uid="{AF882D86-8162-1A40-9D4C-2B7AFACABB92}"/>
-    <hyperlink ref="AB2" r:id="rId7" xr:uid="{F85A03DD-44E5-6E49-B503-8C6C4E7ECC22}"/>
+    <hyperlink r:id="rId1" ref="T2" xr:uid="{A71DD4B7-4F78-624F-8526-BC2C8DAF91F2}"/>
+    <hyperlink r:id="rId2" ref="U2" xr:uid="{1B540CF2-7A50-6B48-8B71-0C274B92DD51}"/>
+    <hyperlink r:id="rId3" ref="V2" xr:uid="{91AEDBB0-8784-C240-9F57-F0191D9A7F37}"/>
+    <hyperlink r:id="rId4" ref="W2" xr:uid="{4CBB3277-EAC2-1C4C-B5B0-6055F81AEB79}"/>
+    <hyperlink r:id="rId5" ref="X2" xr:uid="{43033950-1900-2048-9098-30C4C6B77A36}"/>
+    <hyperlink r:id="rId6" ref="Y2" xr:uid="{AF882D86-8162-1A40-9D4C-2B7AFACABB92}"/>
+    <hyperlink r:id="rId7" ref="AB2" xr:uid="{F85A03DD-44E5-6E49-B503-8C6C4E7ECC22}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70778CC3-4254-DD46-A825-6190F74A8C8D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70778CC3-4254-DD46-A825-6190F74A8C8D}">
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1914,7 +1922,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="1" s="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -2012,7 +2020,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="2" s="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -2112,14 +2120,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="T2" r:id="rId1" xr:uid="{B41713CD-0C7A-A94A-9E0C-2C92C9129EB5}"/>
-    <hyperlink ref="U2" r:id="rId2" xr:uid="{F8ED6A05-BFC1-7E48-A376-F7EF824AE76F}"/>
-    <hyperlink ref="V2" r:id="rId3" xr:uid="{B2E95E89-7408-7140-82FB-6817D1D4C34A}"/>
-    <hyperlink ref="W2" r:id="rId4" xr:uid="{7BA77DFF-CF38-3F44-95C3-4775F3663E98}"/>
-    <hyperlink ref="X2" r:id="rId5" xr:uid="{A95FE44D-A1CF-E248-A845-0A3B8C68FB3D}"/>
-    <hyperlink ref="Y2" r:id="rId6" xr:uid="{DCB51B4E-919D-6847-9170-E731E9B9D69D}"/>
-    <hyperlink ref="AB2" r:id="rId7" xr:uid="{2489425F-B372-874E-8A85-A3A1E07348EE}"/>
+    <hyperlink r:id="rId1" ref="T2" xr:uid="{B41713CD-0C7A-A94A-9E0C-2C92C9129EB5}"/>
+    <hyperlink r:id="rId2" ref="U2" xr:uid="{F8ED6A05-BFC1-7E48-A376-F7EF824AE76F}"/>
+    <hyperlink r:id="rId3" ref="V2" xr:uid="{B2E95E89-7408-7140-82FB-6817D1D4C34A}"/>
+    <hyperlink r:id="rId4" ref="W2" xr:uid="{7BA77DFF-CF38-3F44-95C3-4775F3663E98}"/>
+    <hyperlink r:id="rId5" ref="X2" xr:uid="{A95FE44D-A1CF-E248-A845-0A3B8C68FB3D}"/>
+    <hyperlink r:id="rId6" ref="Y2" xr:uid="{DCB51B4E-919D-6847-9170-E731E9B9D69D}"/>
+    <hyperlink r:id="rId7" ref="AB2" xr:uid="{2489425F-B372-874E-8A85-A3A1E07348EE}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/fsaautomation/resources/config_properties.xlsx
+++ b/fsaautomation/resources/config_properties.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/auto/SVMX_Catalyst/fsaautomation/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{108CD4CB-519C-4248-A071-FE764E3909BF}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92DF8B0C-87A2-E940-A4E6-BB35D8570511}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="1" windowHeight="16500" windowWidth="28040" xWindow="20" xr2:uid="{F5AD2FE8-A01F-1E49-94AB-A1FBFAACC706}" yWindow="540"/>
+    <workbookView xWindow="20" yWindow="540" windowWidth="28040" windowHeight="16500" activeTab="1" xr2:uid="{F5AD2FE8-A01F-1E49-94AB-A1FBFAACC706}"/>
   </bookViews>
   <sheets>
-    <sheet name="config_local" r:id="rId1" sheetId="1"/>
-    <sheet name="config_automation_build" r:id="rId2" sheetId="2"/>
-    <sheet name="config_automation_phone" r:id="rId3" sheetId="3"/>
-    <sheet name="config_fsa_pqt_build" r:id="rId4" sheetId="4"/>
-    <sheet name="config_fsa_track_build" r:id="rId5" sheetId="5"/>
+    <sheet name="config_local" sheetId="1" r:id="rId1"/>
+    <sheet name="config_automation_build" sheetId="2" r:id="rId2"/>
+    <sheet name="config_automation_phone" sheetId="3" r:id="rId3"/>
+    <sheet name="config_fsa_pqt_build" sheetId="4" r:id="rId4"/>
+    <sheet name="config_fsa_track_build" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="96">
   <si>
     <t>0053D000001fEk6QAE</t>
   </si>
@@ -301,9 +301,6 @@
     <t>a2D550000012LB6EAM</t>
   </si>
   <si>
-    <t>android</t>
-  </si>
-  <si>
     <t>http://0.0.0.0:4723/wd/hub</t>
   </si>
   <si>
@@ -377,13 +374,15 @@
   </si>
   <si>
     <t>iPhone Developer: Servicmax FSA (6DFUZHHYAX)</t>
+  </si>
+  <si>
+    <t>iPhone Developer: Rajesh Rao (76X824PR66)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -450,29 +449,29 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="5" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="1"/>
-    <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="12" quotePrefix="1" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="12" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -489,10 +488,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -527,7 +526,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -579,7 +578,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -690,21 +689,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -721,7 +720,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -773,14 +772,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82747902-0905-9A4B-A648-FC506DD60323}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82747902-0905-9A4B-A648-FC506DD60323}">
   <dimension ref="A1:AN34"/>
   <sheetViews>
     <sheetView topLeftCell="U1" workbookViewId="0">
@@ -789,39 +788,39 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="21.1640625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="30.83203125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="21.1640625" collapsed="true"/>
-    <col min="6" max="7" bestFit="true" customWidth="true" width="27.33203125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="65.83203125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="40.5" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="67.0" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="33.33203125" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="35.6640625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="28.5" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="52.6640625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="45.33203125" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="115.33203125" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" width="115.33203125" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="49.0" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="39.33203125" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="84.0" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="115.33203125" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="40.5" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="74.33203125" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="28.5" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="1" max="1" width="21.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="7" width="27.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="65.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="29.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="40.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="67" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="33.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="35.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="28.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="52.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="45.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="115.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="115.33203125" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="49" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="39.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="84" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="115.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="40.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="74.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="28.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="3" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:40" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -916,15 +915,15 @@
         <v>39</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="2" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
@@ -975,31 +974,31 @@
         <v>28</v>
       </c>
       <c r="T2" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="U2" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="U2" s="7" t="s">
+      <c r="V2" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="W2" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="V2" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="W2" s="7" t="s">
+      <c r="X2" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="X2" s="7" t="s">
+      <c r="Y2" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="Y2" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="Z2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="AA2" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AB2" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AC2" s="2" t="s">
         <v>43</v>
@@ -1139,66 +1138,66 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="P2" xr:uid="{65290685-B75F-2F47-A5A2-C5F98F0468A7}"/>
-    <hyperlink r:id="rId2" ref="R2" xr:uid="{A8C94B01-4AE8-4A46-A8C0-F0B6766D6C5A}"/>
-    <hyperlink r:id="rId3" ref="N2" xr:uid="{9021A63E-45E4-2247-B495-773BCC48D6BC}"/>
-    <hyperlink r:id="rId4" ref="T2" xr:uid="{111D145D-7C58-0241-B4B7-EC3C95D38325}"/>
-    <hyperlink r:id="rId5" ref="U2" xr:uid="{DA34061A-CC99-BD49-AFD7-59CA373B6607}"/>
-    <hyperlink r:id="rId6" ref="V2" xr:uid="{E3E98677-132E-E64D-A508-185D4810255C}"/>
-    <hyperlink r:id="rId7" ref="W2" xr:uid="{8DB1D18B-EA97-AA4D-9AC7-02A48CDE67A6}"/>
-    <hyperlink r:id="rId8" ref="X2" xr:uid="{64F0B1C6-CD58-A845-A599-DFE23DA422CC}"/>
-    <hyperlink r:id="rId9" ref="Y2" xr:uid="{4FAFCCA4-4F24-0B49-934E-AC441897C9C5}"/>
-    <hyperlink r:id="rId10" ref="AB2" xr:uid="{486C7ACD-3F79-B144-8138-AEDF137735C6}"/>
+    <hyperlink ref="P2" r:id="rId1" xr:uid="{65290685-B75F-2F47-A5A2-C5F98F0468A7}"/>
+    <hyperlink ref="R2" r:id="rId2" xr:uid="{A8C94B01-4AE8-4A46-A8C0-F0B6766D6C5A}"/>
+    <hyperlink ref="N2" r:id="rId3" xr:uid="{9021A63E-45E4-2247-B495-773BCC48D6BC}"/>
+    <hyperlink ref="T2" r:id="rId4" xr:uid="{111D145D-7C58-0241-B4B7-EC3C95D38325}"/>
+    <hyperlink ref="U2" r:id="rId5" xr:uid="{DA34061A-CC99-BD49-AFD7-59CA373B6607}"/>
+    <hyperlink ref="V2" r:id="rId6" xr:uid="{E3E98677-132E-E64D-A508-185D4810255C}"/>
+    <hyperlink ref="W2" r:id="rId7" xr:uid="{8DB1D18B-EA97-AA4D-9AC7-02A48CDE67A6}"/>
+    <hyperlink ref="X2" r:id="rId8" xr:uid="{64F0B1C6-CD58-A845-A599-DFE23DA422CC}"/>
+    <hyperlink ref="Y2" r:id="rId9" xr:uid="{4FAFCCA4-4F24-0B49-934E-AC441897C9C5}"/>
+    <hyperlink ref="AB2" r:id="rId10" xr:uid="{486C7ACD-3F79-B144-8138-AEDF137735C6}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61BF172F-CE08-6840-ACF9-880AB6E40DE2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61BF172F-CE08-6840-ACF9-880AB6E40DE2}">
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="5.83203125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="51.33203125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="46.5" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="40.5" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="99.6640625" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="71.83203125" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="35.6640625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="70.6640625" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="103.1640625" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="62.1640625" collapsed="true"/>
-    <col min="29" max="29" customWidth="true" width="62.1640625" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="5.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="51.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="46.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="40.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="99.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="71.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="35.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="70.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="103.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="62.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="62.1640625" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="3" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1296,15 +1295,15 @@
         <v>39</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="2" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
@@ -1322,10 +1321,10 @@
         <v>95</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="J2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>26</v>
@@ -1355,31 +1354,31 @@
         <v>54</v>
       </c>
       <c r="T2" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="U2" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="U2" s="7" t="s">
+      <c r="V2" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="V2" s="7" t="s">
+      <c r="W2" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="W2" s="7" t="s">
+      <c r="X2" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y2" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="X2" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y2" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="Z2" s="5" t="s">
         <v>55</v>
       </c>
       <c r="AA2" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AB2" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AC2" s="5" t="s">
         <v>0</v>
@@ -1396,62 +1395,62 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="T2" xr:uid="{2373DCCF-7CF7-6D48-9391-B2017EA3F6CB}"/>
-    <hyperlink r:id="rId2" ref="U2" xr:uid="{45EF8F3D-534D-2F45-94E3-C73D8504CC2F}"/>
-    <hyperlink r:id="rId3" ref="V2" xr:uid="{317C8481-D29E-9841-A568-E5293BF078E6}"/>
-    <hyperlink r:id="rId4" ref="W2" xr:uid="{2250E180-CC76-0844-A14E-BECC396552E1}"/>
-    <hyperlink r:id="rId5" ref="X2" xr:uid="{3B6377D4-E37D-8E4E-A566-7D3CA80B53F6}"/>
-    <hyperlink r:id="rId6" ref="Y2" xr:uid="{08609375-5C82-1140-80FE-D1DE3470E1BE}"/>
-    <hyperlink r:id="rId7" ref="AB2" xr:uid="{195848E9-E895-054F-8CD9-4B349763F02C}"/>
+    <hyperlink ref="T2" r:id="rId1" xr:uid="{2373DCCF-7CF7-6D48-9391-B2017EA3F6CB}"/>
+    <hyperlink ref="U2" r:id="rId2" xr:uid="{45EF8F3D-534D-2F45-94E3-C73D8504CC2F}"/>
+    <hyperlink ref="V2" r:id="rId3" xr:uid="{317C8481-D29E-9841-A568-E5293BF078E6}"/>
+    <hyperlink ref="W2" r:id="rId4" xr:uid="{2250E180-CC76-0844-A14E-BECC396552E1}"/>
+    <hyperlink ref="X2" r:id="rId5" xr:uid="{3B6377D4-E37D-8E4E-A566-7D3CA80B53F6}"/>
+    <hyperlink ref="Y2" r:id="rId6" xr:uid="{08609375-5C82-1140-80FE-D1DE3470E1BE}"/>
+    <hyperlink ref="AB2" r:id="rId7" xr:uid="{195848E9-E895-054F-8CD9-4B349763F02C}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ABD5772-2955-6C46-88A2-787F9D38DC97}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ABD5772-2955-6C46-88A2-787F9D38DC97}">
   <dimension ref="A1:AF2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="5.83203125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="51.33203125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="46.5" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="12.83203125" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="99.6640625" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="71.83203125" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="35.6640625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="70.6640625" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="62.1640625" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="103.1640625" collapsed="true"/>
-    <col min="28" max="28" customWidth="true" width="34.33203125" collapsed="true"/>
-    <col min="29" max="31" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="5.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="51.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="46.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="12.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="99.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="71.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="35.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="70.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="62.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="103.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="34.33203125" customWidth="1" collapsed="1"/>
+    <col min="29" max="31" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="3" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1549,15 +1548,15 @@
         <v>39</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="2" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>61</v>
@@ -1572,13 +1571,13 @@
         <v>14</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>60</v>
       </c>
       <c r="J2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>62</v>
@@ -1608,31 +1607,31 @@
         <v>54</v>
       </c>
       <c r="T2" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="U2" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="U2" s="7" t="s">
+      <c r="V2" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="V2" s="7" t="s">
+      <c r="W2" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="W2" s="7" t="s">
+      <c r="X2" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y2" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="X2" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y2" s="7" t="s">
+      <c r="Z2" s="8" t="s">
         <v>81</v>
-      </c>
-      <c r="Z2" s="8" t="s">
-        <v>82</v>
       </c>
       <c r="AA2" s="5" t="s">
         <v>55</v>
       </c>
       <c r="AB2" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AC2" s="5" t="s">
         <v>0</v>
@@ -1649,19 +1648,19 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="T2" xr:uid="{FF8A98B7-8501-6F47-A2FB-10824115B353}"/>
-    <hyperlink r:id="rId2" ref="U2" xr:uid="{E5504FE2-E34C-AD4E-9FED-91F77342117E}"/>
-    <hyperlink r:id="rId3" ref="V2" xr:uid="{E3CFACEB-C525-FB4B-816E-5C98177D7B3A}"/>
-    <hyperlink r:id="rId4" ref="W2" xr:uid="{037F7191-EF8F-1B41-A957-BC232B559744}"/>
-    <hyperlink r:id="rId5" ref="X2" xr:uid="{C6F51406-8912-3748-8B88-9B0A0A8B059D}"/>
-    <hyperlink r:id="rId6" ref="Y2" xr:uid="{CDB08067-96F2-2742-872D-1B028C2950EE}"/>
+    <hyperlink ref="T2" r:id="rId1" xr:uid="{FF8A98B7-8501-6F47-A2FB-10824115B353}"/>
+    <hyperlink ref="U2" r:id="rId2" xr:uid="{E5504FE2-E34C-AD4E-9FED-91F77342117E}"/>
+    <hyperlink ref="V2" r:id="rId3" xr:uid="{E3CFACEB-C525-FB4B-816E-5C98177D7B3A}"/>
+    <hyperlink ref="W2" r:id="rId4" xr:uid="{037F7191-EF8F-1B41-A957-BC232B559744}"/>
+    <hyperlink ref="X2" r:id="rId5" xr:uid="{C6F51406-8912-3748-8B88-9B0A0A8B059D}"/>
+    <hyperlink ref="Y2" r:id="rId6" xr:uid="{CDB08067-96F2-2742-872D-1B028C2950EE}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3ACBC21-67F9-9748-8578-54FDD50767ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3ACBC21-67F9-9748-8578-54FDD50767ED}">
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -1670,39 +1669,39 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="5.83203125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="46.5" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="51.33203125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="12.83203125" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="99.6640625" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="71.83203125" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="35.6640625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="70.6640625" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="103.1640625" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="62.1640625" collapsed="true"/>
-    <col min="29" max="31" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="5.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="46.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="51.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="12.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="99.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="71.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="35.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="70.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="103.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="62.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="31" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="3" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1800,15 +1799,15 @@
         <v>39</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="2" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
@@ -1859,31 +1858,31 @@
         <v>54</v>
       </c>
       <c r="T2" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="U2" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="V2" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="V2" s="7" t="s">
+      <c r="W2" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="W2" s="7" t="s">
+      <c r="X2" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y2" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="X2" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y2" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="Z2" s="5" t="s">
         <v>64</v>
       </c>
       <c r="AA2" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB2" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AC2" s="5" t="s">
         <v>67</v>
@@ -1900,20 +1899,20 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="T2" xr:uid="{A71DD4B7-4F78-624F-8526-BC2C8DAF91F2}"/>
-    <hyperlink r:id="rId2" ref="U2" xr:uid="{1B540CF2-7A50-6B48-8B71-0C274B92DD51}"/>
-    <hyperlink r:id="rId3" ref="V2" xr:uid="{91AEDBB0-8784-C240-9F57-F0191D9A7F37}"/>
-    <hyperlink r:id="rId4" ref="W2" xr:uid="{4CBB3277-EAC2-1C4C-B5B0-6055F81AEB79}"/>
-    <hyperlink r:id="rId5" ref="X2" xr:uid="{43033950-1900-2048-9098-30C4C6B77A36}"/>
-    <hyperlink r:id="rId6" ref="Y2" xr:uid="{AF882D86-8162-1A40-9D4C-2B7AFACABB92}"/>
-    <hyperlink r:id="rId7" ref="AB2" xr:uid="{F85A03DD-44E5-6E49-B503-8C6C4E7ECC22}"/>
+    <hyperlink ref="T2" r:id="rId1" xr:uid="{A71DD4B7-4F78-624F-8526-BC2C8DAF91F2}"/>
+    <hyperlink ref="U2" r:id="rId2" xr:uid="{1B540CF2-7A50-6B48-8B71-0C274B92DD51}"/>
+    <hyperlink ref="V2" r:id="rId3" xr:uid="{91AEDBB0-8784-C240-9F57-F0191D9A7F37}"/>
+    <hyperlink ref="W2" r:id="rId4" xr:uid="{4CBB3277-EAC2-1C4C-B5B0-6055F81AEB79}"/>
+    <hyperlink ref="X2" r:id="rId5" xr:uid="{43033950-1900-2048-9098-30C4C6B77A36}"/>
+    <hyperlink ref="Y2" r:id="rId6" xr:uid="{AF882D86-8162-1A40-9D4C-2B7AFACABB92}"/>
+    <hyperlink ref="AB2" r:id="rId7" xr:uid="{F85A03DD-44E5-6E49-B503-8C6C4E7ECC22}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70778CC3-4254-DD46-A825-6190F74A8C8D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70778CC3-4254-DD46-A825-6190F74A8C8D}">
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1922,7 +1921,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row customFormat="1" r="1" s="3" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -2020,15 +2019,15 @@
         <v>39</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="2" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
@@ -2079,31 +2078,31 @@
         <v>54</v>
       </c>
       <c r="T2" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="U2" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="V2" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="V2" s="7" t="s">
+      <c r="W2" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="W2" s="7" t="s">
+      <c r="X2" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y2" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="X2" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y2" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="Z2" s="5" t="s">
         <v>64</v>
       </c>
       <c r="AA2" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB2" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AC2" s="5" t="s">
         <v>67</v>
@@ -2120,14 +2119,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="T2" xr:uid="{B41713CD-0C7A-A94A-9E0C-2C92C9129EB5}"/>
-    <hyperlink r:id="rId2" ref="U2" xr:uid="{F8ED6A05-BFC1-7E48-A376-F7EF824AE76F}"/>
-    <hyperlink r:id="rId3" ref="V2" xr:uid="{B2E95E89-7408-7140-82FB-6817D1D4C34A}"/>
-    <hyperlink r:id="rId4" ref="W2" xr:uid="{7BA77DFF-CF38-3F44-95C3-4775F3663E98}"/>
-    <hyperlink r:id="rId5" ref="X2" xr:uid="{A95FE44D-A1CF-E248-A845-0A3B8C68FB3D}"/>
-    <hyperlink r:id="rId6" ref="Y2" xr:uid="{DCB51B4E-919D-6847-9170-E731E9B9D69D}"/>
-    <hyperlink r:id="rId7" ref="AB2" xr:uid="{2489425F-B372-874E-8A85-A3A1E07348EE}"/>
+    <hyperlink ref="T2" r:id="rId1" xr:uid="{B41713CD-0C7A-A94A-9E0C-2C92C9129EB5}"/>
+    <hyperlink ref="U2" r:id="rId2" xr:uid="{F8ED6A05-BFC1-7E48-A376-F7EF824AE76F}"/>
+    <hyperlink ref="V2" r:id="rId3" xr:uid="{B2E95E89-7408-7140-82FB-6817D1D4C34A}"/>
+    <hyperlink ref="W2" r:id="rId4" xr:uid="{7BA77DFF-CF38-3F44-95C3-4775F3663E98}"/>
+    <hyperlink ref="X2" r:id="rId5" xr:uid="{A95FE44D-A1CF-E248-A845-0A3B8C68FB3D}"/>
+    <hyperlink ref="Y2" r:id="rId6" xr:uid="{DCB51B4E-919D-6847-9170-E731E9B9D69D}"/>
+    <hyperlink ref="AB2" r:id="rId7" xr:uid="{2489425F-B372-874E-8A85-A3A1E07348EE}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/fsaautomation/resources/config_properties.xlsx
+++ b/fsaautomation/resources/config_properties.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/auto/SVMX_Catalyst/fsaautomation/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92DF8B0C-87A2-E940-A4E6-BB35D8570511}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{7BCC110B-EF0A-1540-AC45-1CE8C4CDA36D}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="540" windowWidth="28040" windowHeight="16500" activeTab="1" xr2:uid="{F5AD2FE8-A01F-1E49-94AB-A1FBFAACC706}"/>
+    <workbookView activeTab="1" windowHeight="16500" windowWidth="28040" xWindow="20" xr2:uid="{F5AD2FE8-A01F-1E49-94AB-A1FBFAACC706}" yWindow="540"/>
   </bookViews>
   <sheets>
-    <sheet name="config_local" sheetId="1" r:id="rId1"/>
-    <sheet name="config_automation_build" sheetId="2" r:id="rId2"/>
-    <sheet name="config_automation_phone" sheetId="3" r:id="rId3"/>
-    <sheet name="config_fsa_pqt_build" sheetId="4" r:id="rId4"/>
-    <sheet name="config_fsa_track_build" sheetId="5" r:id="rId5"/>
+    <sheet name="config_local" r:id="rId1" sheetId="1"/>
+    <sheet name="config_automation_build" r:id="rId2" sheetId="2"/>
+    <sheet name="config_automation_phone" r:id="rId3" sheetId="3"/>
+    <sheet name="config_fsa_pqt_build" r:id="rId4" sheetId="4"/>
+    <sheet name="config_fsa_track_build" r:id="rId5" sheetId="5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="98">
   <si>
     <t>0053D000001fEk6QAE</t>
   </si>
@@ -378,11 +378,18 @@
   <si>
     <t>iPhone Developer: Rajesh Rao (76X824PR66)</t>
   </si>
+  <si>
+    <t>android</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -449,29 +456,29 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="5" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="12" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="1"/>
+    <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="12" quotePrefix="1" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" quotePrefix="1" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -488,10 +495,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -526,7 +533,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -578,7 +585,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -689,21 +696,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -720,7 +727,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -772,14 +779,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82747902-0905-9A4B-A648-FC506DD60323}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82747902-0905-9A4B-A648-FC506DD60323}">
   <dimension ref="A1:AN34"/>
   <sheetViews>
     <sheetView topLeftCell="U1" workbookViewId="0">
@@ -788,39 +795,39 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="7" width="27.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="65.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="29.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="40.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="67" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="33.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="35.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="28.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="52.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="45.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="115.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="115.33203125" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="49" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="39.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="84" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="115.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="40.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="74.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="28.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="21.1640625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="30.83203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="21.1640625" collapsed="true"/>
+    <col min="6" max="7" bestFit="true" customWidth="true" width="27.33203125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="65.83203125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="40.5" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="67.0" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="33.33203125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="35.6640625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="28.5" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="52.6640625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="45.33203125" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="115.33203125" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="115.33203125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="49.0" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="39.33203125" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="84.0" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="115.33203125" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="40.5" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="74.33203125" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="28.5" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="1" s="3" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -915,7 +922,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="2" s="2" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -1138,66 +1145,66 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="P2" r:id="rId1" xr:uid="{65290685-B75F-2F47-A5A2-C5F98F0468A7}"/>
-    <hyperlink ref="R2" r:id="rId2" xr:uid="{A8C94B01-4AE8-4A46-A8C0-F0B6766D6C5A}"/>
-    <hyperlink ref="N2" r:id="rId3" xr:uid="{9021A63E-45E4-2247-B495-773BCC48D6BC}"/>
-    <hyperlink ref="T2" r:id="rId4" xr:uid="{111D145D-7C58-0241-B4B7-EC3C95D38325}"/>
-    <hyperlink ref="U2" r:id="rId5" xr:uid="{DA34061A-CC99-BD49-AFD7-59CA373B6607}"/>
-    <hyperlink ref="V2" r:id="rId6" xr:uid="{E3E98677-132E-E64D-A508-185D4810255C}"/>
-    <hyperlink ref="W2" r:id="rId7" xr:uid="{8DB1D18B-EA97-AA4D-9AC7-02A48CDE67A6}"/>
-    <hyperlink ref="X2" r:id="rId8" xr:uid="{64F0B1C6-CD58-A845-A599-DFE23DA422CC}"/>
-    <hyperlink ref="Y2" r:id="rId9" xr:uid="{4FAFCCA4-4F24-0B49-934E-AC441897C9C5}"/>
-    <hyperlink ref="AB2" r:id="rId10" xr:uid="{486C7ACD-3F79-B144-8138-AEDF137735C6}"/>
+    <hyperlink r:id="rId1" ref="P2" xr:uid="{65290685-B75F-2F47-A5A2-C5F98F0468A7}"/>
+    <hyperlink r:id="rId2" ref="R2" xr:uid="{A8C94B01-4AE8-4A46-A8C0-F0B6766D6C5A}"/>
+    <hyperlink r:id="rId3" ref="N2" xr:uid="{9021A63E-45E4-2247-B495-773BCC48D6BC}"/>
+    <hyperlink r:id="rId4" ref="T2" xr:uid="{111D145D-7C58-0241-B4B7-EC3C95D38325}"/>
+    <hyperlink r:id="rId5" ref="U2" xr:uid="{DA34061A-CC99-BD49-AFD7-59CA373B6607}"/>
+    <hyperlink r:id="rId6" ref="V2" xr:uid="{E3E98677-132E-E64D-A508-185D4810255C}"/>
+    <hyperlink r:id="rId7" ref="W2" xr:uid="{8DB1D18B-EA97-AA4D-9AC7-02A48CDE67A6}"/>
+    <hyperlink r:id="rId8" ref="X2" xr:uid="{64F0B1C6-CD58-A845-A599-DFE23DA422CC}"/>
+    <hyperlink r:id="rId9" ref="Y2" xr:uid="{4FAFCCA4-4F24-0B49-934E-AC441897C9C5}"/>
+    <hyperlink r:id="rId10" ref="AB2" xr:uid="{486C7ACD-3F79-B144-8138-AEDF137735C6}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61BF172F-CE08-6840-ACF9-880AB6E40DE2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61BF172F-CE08-6840-ACF9-880AB6E40DE2}">
   <dimension ref="A1:AF2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="5.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="51.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="46.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="40.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="99.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="71.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="35.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="70.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="103.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="62.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="62.1640625" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="5.83203125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="51.33203125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="46.5" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="40.5" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="99.6640625" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="71.83203125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="35.6640625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="70.6640625" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="103.1640625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="62.1640625" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" width="62.1640625" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="1" s="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1295,9 +1302,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="2" s="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>96</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>93</v>
@@ -1395,21 +1402,21 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="T2" r:id="rId1" xr:uid="{2373DCCF-7CF7-6D48-9391-B2017EA3F6CB}"/>
-    <hyperlink ref="U2" r:id="rId2" xr:uid="{45EF8F3D-534D-2F45-94E3-C73D8504CC2F}"/>
-    <hyperlink ref="V2" r:id="rId3" xr:uid="{317C8481-D29E-9841-A568-E5293BF078E6}"/>
-    <hyperlink ref="W2" r:id="rId4" xr:uid="{2250E180-CC76-0844-A14E-BECC396552E1}"/>
-    <hyperlink ref="X2" r:id="rId5" xr:uid="{3B6377D4-E37D-8E4E-A566-7D3CA80B53F6}"/>
-    <hyperlink ref="Y2" r:id="rId6" xr:uid="{08609375-5C82-1140-80FE-D1DE3470E1BE}"/>
-    <hyperlink ref="AB2" r:id="rId7" xr:uid="{195848E9-E895-054F-8CD9-4B349763F02C}"/>
+    <hyperlink r:id="rId1" ref="T2" xr:uid="{2373DCCF-7CF7-6D48-9391-B2017EA3F6CB}"/>
+    <hyperlink r:id="rId2" ref="U2" xr:uid="{45EF8F3D-534D-2F45-94E3-C73D8504CC2F}"/>
+    <hyperlink r:id="rId3" ref="V2" xr:uid="{317C8481-D29E-9841-A568-E5293BF078E6}"/>
+    <hyperlink r:id="rId4" ref="W2" xr:uid="{2250E180-CC76-0844-A14E-BECC396552E1}"/>
+    <hyperlink r:id="rId5" ref="X2" xr:uid="{3B6377D4-E37D-8E4E-A566-7D3CA80B53F6}"/>
+    <hyperlink r:id="rId6" ref="Y2" xr:uid="{08609375-5C82-1140-80FE-D1DE3470E1BE}"/>
+    <hyperlink r:id="rId7" ref="AB2" xr:uid="{195848E9-E895-054F-8CD9-4B349763F02C}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ABD5772-2955-6C46-88A2-787F9D38DC97}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ABD5772-2955-6C46-88A2-787F9D38DC97}">
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
@@ -1418,39 +1425,39 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="5.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="51.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="46.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="12.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="99.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="71.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="35.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="70.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="62.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="103.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="34.33203125" customWidth="1" collapsed="1"/>
-    <col min="29" max="31" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="5.83203125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="51.33203125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="46.5" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="12.83203125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="99.6640625" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="71.83203125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="35.6640625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="70.6640625" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="62.1640625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="103.1640625" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" width="34.33203125" collapsed="true"/>
+    <col min="29" max="31" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="1" s="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1548,7 +1555,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="2" s="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -1648,19 +1655,19 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="T2" r:id="rId1" xr:uid="{FF8A98B7-8501-6F47-A2FB-10824115B353}"/>
-    <hyperlink ref="U2" r:id="rId2" xr:uid="{E5504FE2-E34C-AD4E-9FED-91F77342117E}"/>
-    <hyperlink ref="V2" r:id="rId3" xr:uid="{E3CFACEB-C525-FB4B-816E-5C98177D7B3A}"/>
-    <hyperlink ref="W2" r:id="rId4" xr:uid="{037F7191-EF8F-1B41-A957-BC232B559744}"/>
-    <hyperlink ref="X2" r:id="rId5" xr:uid="{C6F51406-8912-3748-8B88-9B0A0A8B059D}"/>
-    <hyperlink ref="Y2" r:id="rId6" xr:uid="{CDB08067-96F2-2742-872D-1B028C2950EE}"/>
+    <hyperlink r:id="rId1" ref="T2" xr:uid="{FF8A98B7-8501-6F47-A2FB-10824115B353}"/>
+    <hyperlink r:id="rId2" ref="U2" xr:uid="{E5504FE2-E34C-AD4E-9FED-91F77342117E}"/>
+    <hyperlink r:id="rId3" ref="V2" xr:uid="{E3CFACEB-C525-FB4B-816E-5C98177D7B3A}"/>
+    <hyperlink r:id="rId4" ref="W2" xr:uid="{037F7191-EF8F-1B41-A957-BC232B559744}"/>
+    <hyperlink r:id="rId5" ref="X2" xr:uid="{C6F51406-8912-3748-8B88-9B0A0A8B059D}"/>
+    <hyperlink r:id="rId6" ref="Y2" xr:uid="{CDB08067-96F2-2742-872D-1B028C2950EE}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3ACBC21-67F9-9748-8578-54FDD50767ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3ACBC21-67F9-9748-8578-54FDD50767ED}">
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -1669,39 +1676,39 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="5.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="46.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="51.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="12.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="99.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="71.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="35.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="70.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="103.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="62.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="31" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="5.83203125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="46.5" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="51.33203125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="12.83203125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="99.6640625" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="71.83203125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="35.6640625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="70.6640625" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="103.1640625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="62.1640625" collapsed="true"/>
+    <col min="29" max="31" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="1" s="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1799,7 +1806,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="2" s="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -1899,20 +1906,20 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="T2" r:id="rId1" xr:uid="{A71DD4B7-4F78-624F-8526-BC2C8DAF91F2}"/>
-    <hyperlink ref="U2" r:id="rId2" xr:uid="{1B540CF2-7A50-6B48-8B71-0C274B92DD51}"/>
-    <hyperlink ref="V2" r:id="rId3" xr:uid="{91AEDBB0-8784-C240-9F57-F0191D9A7F37}"/>
-    <hyperlink ref="W2" r:id="rId4" xr:uid="{4CBB3277-EAC2-1C4C-B5B0-6055F81AEB79}"/>
-    <hyperlink ref="X2" r:id="rId5" xr:uid="{43033950-1900-2048-9098-30C4C6B77A36}"/>
-    <hyperlink ref="Y2" r:id="rId6" xr:uid="{AF882D86-8162-1A40-9D4C-2B7AFACABB92}"/>
-    <hyperlink ref="AB2" r:id="rId7" xr:uid="{F85A03DD-44E5-6E49-B503-8C6C4E7ECC22}"/>
+    <hyperlink r:id="rId1" ref="T2" xr:uid="{A71DD4B7-4F78-624F-8526-BC2C8DAF91F2}"/>
+    <hyperlink r:id="rId2" ref="U2" xr:uid="{1B540CF2-7A50-6B48-8B71-0C274B92DD51}"/>
+    <hyperlink r:id="rId3" ref="V2" xr:uid="{91AEDBB0-8784-C240-9F57-F0191D9A7F37}"/>
+    <hyperlink r:id="rId4" ref="W2" xr:uid="{4CBB3277-EAC2-1C4C-B5B0-6055F81AEB79}"/>
+    <hyperlink r:id="rId5" ref="X2" xr:uid="{43033950-1900-2048-9098-30C4C6B77A36}"/>
+    <hyperlink r:id="rId6" ref="Y2" xr:uid="{AF882D86-8162-1A40-9D4C-2B7AFACABB92}"/>
+    <hyperlink r:id="rId7" ref="AB2" xr:uid="{F85A03DD-44E5-6E49-B503-8C6C4E7ECC22}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70778CC3-4254-DD46-A825-6190F74A8C8D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70778CC3-4254-DD46-A825-6190F74A8C8D}">
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1921,7 +1928,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="1" s="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -2019,7 +2026,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="2" s="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -2119,14 +2126,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="T2" r:id="rId1" xr:uid="{B41713CD-0C7A-A94A-9E0C-2C92C9129EB5}"/>
-    <hyperlink ref="U2" r:id="rId2" xr:uid="{F8ED6A05-BFC1-7E48-A376-F7EF824AE76F}"/>
-    <hyperlink ref="V2" r:id="rId3" xr:uid="{B2E95E89-7408-7140-82FB-6817D1D4C34A}"/>
-    <hyperlink ref="W2" r:id="rId4" xr:uid="{7BA77DFF-CF38-3F44-95C3-4775F3663E98}"/>
-    <hyperlink ref="X2" r:id="rId5" xr:uid="{A95FE44D-A1CF-E248-A845-0A3B8C68FB3D}"/>
-    <hyperlink ref="Y2" r:id="rId6" xr:uid="{DCB51B4E-919D-6847-9170-E731E9B9D69D}"/>
-    <hyperlink ref="AB2" r:id="rId7" xr:uid="{2489425F-B372-874E-8A85-A3A1E07348EE}"/>
+    <hyperlink r:id="rId1" ref="T2" xr:uid="{B41713CD-0C7A-A94A-9E0C-2C92C9129EB5}"/>
+    <hyperlink r:id="rId2" ref="U2" xr:uid="{F8ED6A05-BFC1-7E48-A376-F7EF824AE76F}"/>
+    <hyperlink r:id="rId3" ref="V2" xr:uid="{B2E95E89-7408-7140-82FB-6817D1D4C34A}"/>
+    <hyperlink r:id="rId4" ref="W2" xr:uid="{7BA77DFF-CF38-3F44-95C3-4775F3663E98}"/>
+    <hyperlink r:id="rId5" ref="X2" xr:uid="{A95FE44D-A1CF-E248-A845-0A3B8C68FB3D}"/>
+    <hyperlink r:id="rId6" ref="Y2" xr:uid="{DCB51B4E-919D-6847-9170-E731E9B9D69D}"/>
+    <hyperlink r:id="rId7" ref="AB2" xr:uid="{2489425F-B372-874E-8A85-A3A1E07348EE}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/fsaautomation/resources/config_properties.xlsx
+++ b/fsaautomation/resources/config_properties.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/auto/SVMX_Catalyst/fsaautomation/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{7BCC110B-EF0A-1540-AC45-1CE8C4CDA36D}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD7D7BED-86F9-594D-82B7-F0FDA4AC4A52}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="1" windowHeight="16500" windowWidth="28040" xWindow="20" xr2:uid="{F5AD2FE8-A01F-1E49-94AB-A1FBFAACC706}" yWindow="540"/>
+    <workbookView xWindow="20" yWindow="540" windowWidth="28040" windowHeight="16500" activeTab="1" xr2:uid="{F5AD2FE8-A01F-1E49-94AB-A1FBFAACC706}"/>
   </bookViews>
   <sheets>
-    <sheet name="config_local" r:id="rId1" sheetId="1"/>
-    <sheet name="config_automation_build" r:id="rId2" sheetId="2"/>
-    <sheet name="config_automation_phone" r:id="rId3" sheetId="3"/>
-    <sheet name="config_fsa_pqt_build" r:id="rId4" sheetId="4"/>
-    <sheet name="config_fsa_track_build" r:id="rId5" sheetId="5"/>
+    <sheet name="config_local" sheetId="1" r:id="rId1"/>
+    <sheet name="config_automation_build" sheetId="2" r:id="rId2"/>
+    <sheet name="config_automation_phone" sheetId="3" r:id="rId3"/>
+    <sheet name="config_fsa_pqt_build" sheetId="4" r:id="rId4"/>
+    <sheet name="config_fsa_track_build" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="97">
   <si>
     <t>0053D000001fEk6QAE</t>
   </si>
@@ -379,17 +379,13 @@
     <t>iPhone Developer: Rajesh Rao (76X824PR66)</t>
   </si>
   <si>
-    <t>android</t>
-  </si>
-  <si>
-    <t>false</t>
+    <t>browser</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -456,29 +452,29 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="5" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="1"/>
-    <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="12" quotePrefix="1" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="12" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -495,10 +491,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -533,7 +529,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -585,7 +581,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -696,21 +692,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -727,7 +723,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -779,14 +775,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82747902-0905-9A4B-A648-FC506DD60323}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82747902-0905-9A4B-A648-FC506DD60323}">
   <dimension ref="A1:AN34"/>
   <sheetViews>
     <sheetView topLeftCell="U1" workbookViewId="0">
@@ -795,39 +791,39 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="21.1640625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="30.83203125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="21.1640625" collapsed="true"/>
-    <col min="6" max="7" bestFit="true" customWidth="true" width="27.33203125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="65.83203125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="40.5" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="67.0" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="33.33203125" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="35.6640625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="28.5" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="52.6640625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="45.33203125" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="115.33203125" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" width="115.33203125" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="49.0" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="39.33203125" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="84.0" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="115.33203125" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="40.5" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="74.33203125" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="28.5" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="1" max="1" width="21.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="7" width="27.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="65.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="29.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="40.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="67" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="33.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="35.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="28.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="52.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="45.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="115.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="115.33203125" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="49" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="39.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="84" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="115.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="40.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="74.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="28.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="3" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:40" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -922,7 +918,7 @@
         <v>39</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="2" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -1145,23 +1141,23 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="P2" xr:uid="{65290685-B75F-2F47-A5A2-C5F98F0468A7}"/>
-    <hyperlink r:id="rId2" ref="R2" xr:uid="{A8C94B01-4AE8-4A46-A8C0-F0B6766D6C5A}"/>
-    <hyperlink r:id="rId3" ref="N2" xr:uid="{9021A63E-45E4-2247-B495-773BCC48D6BC}"/>
-    <hyperlink r:id="rId4" ref="T2" xr:uid="{111D145D-7C58-0241-B4B7-EC3C95D38325}"/>
-    <hyperlink r:id="rId5" ref="U2" xr:uid="{DA34061A-CC99-BD49-AFD7-59CA373B6607}"/>
-    <hyperlink r:id="rId6" ref="V2" xr:uid="{E3E98677-132E-E64D-A508-185D4810255C}"/>
-    <hyperlink r:id="rId7" ref="W2" xr:uid="{8DB1D18B-EA97-AA4D-9AC7-02A48CDE67A6}"/>
-    <hyperlink r:id="rId8" ref="X2" xr:uid="{64F0B1C6-CD58-A845-A599-DFE23DA422CC}"/>
-    <hyperlink r:id="rId9" ref="Y2" xr:uid="{4FAFCCA4-4F24-0B49-934E-AC441897C9C5}"/>
-    <hyperlink r:id="rId10" ref="AB2" xr:uid="{486C7ACD-3F79-B144-8138-AEDF137735C6}"/>
+    <hyperlink ref="P2" r:id="rId1" xr:uid="{65290685-B75F-2F47-A5A2-C5F98F0468A7}"/>
+    <hyperlink ref="R2" r:id="rId2" xr:uid="{A8C94B01-4AE8-4A46-A8C0-F0B6766D6C5A}"/>
+    <hyperlink ref="N2" r:id="rId3" xr:uid="{9021A63E-45E4-2247-B495-773BCC48D6BC}"/>
+    <hyperlink ref="T2" r:id="rId4" xr:uid="{111D145D-7C58-0241-B4B7-EC3C95D38325}"/>
+    <hyperlink ref="U2" r:id="rId5" xr:uid="{DA34061A-CC99-BD49-AFD7-59CA373B6607}"/>
+    <hyperlink ref="V2" r:id="rId6" xr:uid="{E3E98677-132E-E64D-A508-185D4810255C}"/>
+    <hyperlink ref="W2" r:id="rId7" xr:uid="{8DB1D18B-EA97-AA4D-9AC7-02A48CDE67A6}"/>
+    <hyperlink ref="X2" r:id="rId8" xr:uid="{64F0B1C6-CD58-A845-A599-DFE23DA422CC}"/>
+    <hyperlink ref="Y2" r:id="rId9" xr:uid="{4FAFCCA4-4F24-0B49-934E-AC441897C9C5}"/>
+    <hyperlink ref="AB2" r:id="rId10" xr:uid="{486C7ACD-3F79-B144-8138-AEDF137735C6}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61BF172F-CE08-6840-ACF9-880AB6E40DE2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61BF172F-CE08-6840-ACF9-880AB6E40DE2}">
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1170,41 +1166,41 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="5.83203125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="51.33203125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="46.5" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="40.5" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="99.6640625" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="71.83203125" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="35.6640625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="70.6640625" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="103.1640625" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="62.1640625" collapsed="true"/>
-    <col min="29" max="29" customWidth="true" width="62.1640625" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="5.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="51.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="46.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="40.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="99.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="71.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="35.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="70.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="103.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="62.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="62.1640625" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="3" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1302,7 +1298,7 @@
         <v>39</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="2" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>96</v>
       </c>
@@ -1402,21 +1398,21 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="T2" xr:uid="{2373DCCF-7CF7-6D48-9391-B2017EA3F6CB}"/>
-    <hyperlink r:id="rId2" ref="U2" xr:uid="{45EF8F3D-534D-2F45-94E3-C73D8504CC2F}"/>
-    <hyperlink r:id="rId3" ref="V2" xr:uid="{317C8481-D29E-9841-A568-E5293BF078E6}"/>
-    <hyperlink r:id="rId4" ref="W2" xr:uid="{2250E180-CC76-0844-A14E-BECC396552E1}"/>
-    <hyperlink r:id="rId5" ref="X2" xr:uid="{3B6377D4-E37D-8E4E-A566-7D3CA80B53F6}"/>
-    <hyperlink r:id="rId6" ref="Y2" xr:uid="{08609375-5C82-1140-80FE-D1DE3470E1BE}"/>
-    <hyperlink r:id="rId7" ref="AB2" xr:uid="{195848E9-E895-054F-8CD9-4B349763F02C}"/>
+    <hyperlink ref="T2" r:id="rId1" xr:uid="{2373DCCF-7CF7-6D48-9391-B2017EA3F6CB}"/>
+    <hyperlink ref="U2" r:id="rId2" xr:uid="{45EF8F3D-534D-2F45-94E3-C73D8504CC2F}"/>
+    <hyperlink ref="V2" r:id="rId3" xr:uid="{317C8481-D29E-9841-A568-E5293BF078E6}"/>
+    <hyperlink ref="W2" r:id="rId4" xr:uid="{2250E180-CC76-0844-A14E-BECC396552E1}"/>
+    <hyperlink ref="X2" r:id="rId5" xr:uid="{3B6377D4-E37D-8E4E-A566-7D3CA80B53F6}"/>
+    <hyperlink ref="Y2" r:id="rId6" xr:uid="{08609375-5C82-1140-80FE-D1DE3470E1BE}"/>
+    <hyperlink ref="AB2" r:id="rId7" xr:uid="{195848E9-E895-054F-8CD9-4B349763F02C}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ABD5772-2955-6C46-88A2-787F9D38DC97}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ABD5772-2955-6C46-88A2-787F9D38DC97}">
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
@@ -1425,39 +1421,39 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="5.83203125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="51.33203125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="46.5" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="12.83203125" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="99.6640625" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="71.83203125" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="35.6640625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="70.6640625" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="62.1640625" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="103.1640625" collapsed="true"/>
-    <col min="28" max="28" customWidth="true" width="34.33203125" collapsed="true"/>
-    <col min="29" max="31" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="5.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="51.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="46.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="12.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="99.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="71.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="35.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="70.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="62.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="103.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="34.33203125" customWidth="1" collapsed="1"/>
+    <col min="29" max="31" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="3" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1555,7 +1551,7 @@
         <v>39</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="2" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -1655,19 +1651,19 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="T2" xr:uid="{FF8A98B7-8501-6F47-A2FB-10824115B353}"/>
-    <hyperlink r:id="rId2" ref="U2" xr:uid="{E5504FE2-E34C-AD4E-9FED-91F77342117E}"/>
-    <hyperlink r:id="rId3" ref="V2" xr:uid="{E3CFACEB-C525-FB4B-816E-5C98177D7B3A}"/>
-    <hyperlink r:id="rId4" ref="W2" xr:uid="{037F7191-EF8F-1B41-A957-BC232B559744}"/>
-    <hyperlink r:id="rId5" ref="X2" xr:uid="{C6F51406-8912-3748-8B88-9B0A0A8B059D}"/>
-    <hyperlink r:id="rId6" ref="Y2" xr:uid="{CDB08067-96F2-2742-872D-1B028C2950EE}"/>
+    <hyperlink ref="T2" r:id="rId1" xr:uid="{FF8A98B7-8501-6F47-A2FB-10824115B353}"/>
+    <hyperlink ref="U2" r:id="rId2" xr:uid="{E5504FE2-E34C-AD4E-9FED-91F77342117E}"/>
+    <hyperlink ref="V2" r:id="rId3" xr:uid="{E3CFACEB-C525-FB4B-816E-5C98177D7B3A}"/>
+    <hyperlink ref="W2" r:id="rId4" xr:uid="{037F7191-EF8F-1B41-A957-BC232B559744}"/>
+    <hyperlink ref="X2" r:id="rId5" xr:uid="{C6F51406-8912-3748-8B88-9B0A0A8B059D}"/>
+    <hyperlink ref="Y2" r:id="rId6" xr:uid="{CDB08067-96F2-2742-872D-1B028C2950EE}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3ACBC21-67F9-9748-8578-54FDD50767ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3ACBC21-67F9-9748-8578-54FDD50767ED}">
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -1676,39 +1672,39 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="5.83203125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="46.5" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="51.33203125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="12.83203125" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="99.6640625" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="71.83203125" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="35.6640625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="70.6640625" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="103.1640625" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="62.1640625" collapsed="true"/>
-    <col min="29" max="31" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="5.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="46.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="51.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="12.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="99.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="71.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="35.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="70.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="103.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="62.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="31" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="3" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1806,7 +1802,7 @@
         <v>39</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="2" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -1906,20 +1902,20 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="T2" xr:uid="{A71DD4B7-4F78-624F-8526-BC2C8DAF91F2}"/>
-    <hyperlink r:id="rId2" ref="U2" xr:uid="{1B540CF2-7A50-6B48-8B71-0C274B92DD51}"/>
-    <hyperlink r:id="rId3" ref="V2" xr:uid="{91AEDBB0-8784-C240-9F57-F0191D9A7F37}"/>
-    <hyperlink r:id="rId4" ref="W2" xr:uid="{4CBB3277-EAC2-1C4C-B5B0-6055F81AEB79}"/>
-    <hyperlink r:id="rId5" ref="X2" xr:uid="{43033950-1900-2048-9098-30C4C6B77A36}"/>
-    <hyperlink r:id="rId6" ref="Y2" xr:uid="{AF882D86-8162-1A40-9D4C-2B7AFACABB92}"/>
-    <hyperlink r:id="rId7" ref="AB2" xr:uid="{F85A03DD-44E5-6E49-B503-8C6C4E7ECC22}"/>
+    <hyperlink ref="T2" r:id="rId1" xr:uid="{A71DD4B7-4F78-624F-8526-BC2C8DAF91F2}"/>
+    <hyperlink ref="U2" r:id="rId2" xr:uid="{1B540CF2-7A50-6B48-8B71-0C274B92DD51}"/>
+    <hyperlink ref="V2" r:id="rId3" xr:uid="{91AEDBB0-8784-C240-9F57-F0191D9A7F37}"/>
+    <hyperlink ref="W2" r:id="rId4" xr:uid="{4CBB3277-EAC2-1C4C-B5B0-6055F81AEB79}"/>
+    <hyperlink ref="X2" r:id="rId5" xr:uid="{43033950-1900-2048-9098-30C4C6B77A36}"/>
+    <hyperlink ref="Y2" r:id="rId6" xr:uid="{AF882D86-8162-1A40-9D4C-2B7AFACABB92}"/>
+    <hyperlink ref="AB2" r:id="rId7" xr:uid="{F85A03DD-44E5-6E49-B503-8C6C4E7ECC22}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70778CC3-4254-DD46-A825-6190F74A8C8D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70778CC3-4254-DD46-A825-6190F74A8C8D}">
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1928,7 +1924,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row customFormat="1" r="1" s="3" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -2026,7 +2022,7 @@
         <v>39</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="2" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -2126,14 +2122,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="T2" xr:uid="{B41713CD-0C7A-A94A-9E0C-2C92C9129EB5}"/>
-    <hyperlink r:id="rId2" ref="U2" xr:uid="{F8ED6A05-BFC1-7E48-A376-F7EF824AE76F}"/>
-    <hyperlink r:id="rId3" ref="V2" xr:uid="{B2E95E89-7408-7140-82FB-6817D1D4C34A}"/>
-    <hyperlink r:id="rId4" ref="W2" xr:uid="{7BA77DFF-CF38-3F44-95C3-4775F3663E98}"/>
-    <hyperlink r:id="rId5" ref="X2" xr:uid="{A95FE44D-A1CF-E248-A845-0A3B8C68FB3D}"/>
-    <hyperlink r:id="rId6" ref="Y2" xr:uid="{DCB51B4E-919D-6847-9170-E731E9B9D69D}"/>
-    <hyperlink r:id="rId7" ref="AB2" xr:uid="{2489425F-B372-874E-8A85-A3A1E07348EE}"/>
+    <hyperlink ref="T2" r:id="rId1" xr:uid="{B41713CD-0C7A-A94A-9E0C-2C92C9129EB5}"/>
+    <hyperlink ref="U2" r:id="rId2" xr:uid="{F8ED6A05-BFC1-7E48-A376-F7EF824AE76F}"/>
+    <hyperlink ref="V2" r:id="rId3" xr:uid="{B2E95E89-7408-7140-82FB-6817D1D4C34A}"/>
+    <hyperlink ref="W2" r:id="rId4" xr:uid="{7BA77DFF-CF38-3F44-95C3-4775F3663E98}"/>
+    <hyperlink ref="X2" r:id="rId5" xr:uid="{A95FE44D-A1CF-E248-A845-0A3B8C68FB3D}"/>
+    <hyperlink ref="Y2" r:id="rId6" xr:uid="{DCB51B4E-919D-6847-9170-E731E9B9D69D}"/>
+    <hyperlink ref="AB2" r:id="rId7" xr:uid="{2489425F-B372-874E-8A85-A3A1E07348EE}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/fsaautomation/resources/config_properties.xlsx
+++ b/fsaautomation/resources/config_properties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/auto/SVMX_Catalyst/fsaautomation/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4423CEED-EF3B-CD49-9B2B-632C9BD51A7E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD7D7BED-86F9-594D-82B7-F0FDA4AC4A52}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="440" windowWidth="28040" windowHeight="16500" xr2:uid="{F5AD2FE8-A01F-1E49-94AB-A1FBFAACC706}"/>
+    <workbookView xWindow="20" yWindow="540" windowWidth="28040" windowHeight="16500" activeTab="1" xr2:uid="{F5AD2FE8-A01F-1E49-94AB-A1FBFAACC706}"/>
   </bookViews>
   <sheets>
     <sheet name="config_local" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="97">
   <si>
     <t>0053D000001fEk6QAE</t>
   </si>
@@ -301,9 +301,6 @@
     <t>a2D550000012LB6EAM</t>
   </si>
   <si>
-    <t>android</t>
-  </si>
-  <si>
     <t>http://0.0.0.0:4723/wd/hub</t>
   </si>
   <si>
@@ -322,139 +319,67 @@
     <t>https://cs77.salesforce.com/services/oauth2/token?</t>
   </si>
   <si>
+    <t>http://0.0.0.0\:4723/wd/hub</t>
+  </si>
+  <si>
+    <t>https://cs70.salesforce.com/services/data/v42.0/sobjects/SVMXC__Service_Order__c?</t>
+  </si>
+  <si>
+    <t>https://cs70.salesforce.com/services/data/v42.0/query/?q=</t>
+  </si>
+  <si>
+    <t>https://cs70.salesforce.com/</t>
+  </si>
+  <si>
+    <t>https://cs70.salesforce.com/services/data/v42.0/sobjects/</t>
+  </si>
+  <si>
+    <t>https://cs70.salesforce.com/services/oauth2/token?</t>
+  </si>
+  <si>
+    <t>https://cs41.salesforce.com/services/data/v42.0/sobjects/SVMXC__Service_Order__c?</t>
+  </si>
+  <si>
+    <t>https://cs41.salesforce.com/services/data/v42.0/query/?q=</t>
+  </si>
+  <si>
+    <t>https://cs41.salesforce.com/</t>
+  </si>
+  <si>
+    <t>https://cs41.salesforce.com/services/data/v42.0/sobjects/</t>
+  </si>
+  <si>
+    <t>https://cs41.salesforce.com/services/oauth2/token?</t>
+  </si>
+  <si>
+    <t>https://cs77.salesforce.com/services/data/v42.0/query/?q=</t>
+  </si>
+  <si>
+    <t>5328712246005014352</t>
+  </si>
+  <si>
+    <t>3810777216167697283</t>
+  </si>
+  <si>
+    <t>1E94C9FB7620E324BEC3438EF1B6382AB6D4114F3AB9B6F16ACE938E16136123</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>8.1</t>
+  </si>
+  <si>
+    <t>12.1</t>
+  </si>
+  <si>
+    <t>iPhone Developer: Servicmax FSA (6DFUZHHYAX)</t>
+  </si>
+  <si>
     <t>iPhone Developer: Rajesh Rao (76X824PR66)</t>
   </si>
   <si>
-    <t>http://0.0.0.0\:4723/wd/hub</t>
-  </si>
-  <si>
-    <t>https://cs70.salesforce.com/services/data/v42.0/sobjects/SVMXC__Service_Order__c?</t>
-  </si>
-  <si>
-    <t>https://cs70.salesforce.com/services/data/v42.0/query/?q=</t>
-  </si>
-  <si>
-    <t>https://cs70.salesforce.com/</t>
-  </si>
-  <si>
-    <t>https://cs70.salesforce.com/services/data/v42.0/sobjects/</t>
-  </si>
-  <si>
-    <t>https://cs70.salesforce.com/services/oauth2/token?</t>
-  </si>
-  <si>
-    <r>
-      <t>iPhone</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3933FF"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>Developer:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FF3933FF"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>Servicmax</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3933FF"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>FSA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3933FF"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>(6DFUZHHYAX)</t>
-    </r>
-  </si>
-  <si>
-    <t>https://cs41.salesforce.com/services/data/v42.0/sobjects/SVMXC__Service_Order__c?</t>
-  </si>
-  <si>
-    <t>https://cs41.salesforce.com/services/data/v42.0/query/?q=</t>
-  </si>
-  <si>
-    <t>https://cs41.salesforce.com/</t>
-  </si>
-  <si>
-    <t>https://cs41.salesforce.com/services/data/v42.0/sobjects/</t>
-  </si>
-  <si>
-    <t>https://cs41.salesforce.com/services/oauth2/token?</t>
-  </si>
-  <si>
-    <t>https://cs77.salesforce.com/services/data/v42.0/query/?q=</t>
-  </si>
-  <si>
-    <t>5328712246005014352</t>
-  </si>
-  <si>
-    <t>3810777216167697283</t>
-  </si>
-  <si>
-    <t>1E94C9FB7620E324BEC3438EF1B6382AB6D4114F3AB9B6F16ACE938E16136123</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>8.1</t>
-  </si>
-  <si>
-    <t>12.1</t>
+    <t>browser</t>
   </si>
 </sst>
 </file>
@@ -860,8 +785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82747902-0905-9A4B-A648-FC506DD60323}">
   <dimension ref="A1:AN34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -998,10 +923,10 @@
         <v>7</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
@@ -1052,31 +977,31 @@
         <v>28</v>
       </c>
       <c r="T2" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="U2" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="U2" s="7" t="s">
+      <c r="V2" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="W2" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="V2" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="W2" s="7" t="s">
+      <c r="X2" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="X2" s="7" t="s">
+      <c r="Y2" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="Y2" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="Z2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="AA2" s="11" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="AB2" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AC2" s="2" t="s">
         <v>43</v>
@@ -1235,8 +1160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61BF172F-CE08-6840-ACF9-880AB6E40DE2}">
   <dimension ref="A1:AF2"/>
   <sheetViews>
-    <sheetView topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1247,13 +1172,13 @@
     <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="5.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="46.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="51.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="5.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="51.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="46.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="14" max="14" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="15" max="15" width="14" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="16" max="16" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
@@ -1295,25 +1220,25 @@
         <v>6</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>32</v>
@@ -1375,13 +1300,13 @@
     </row>
     <row r="2" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
@@ -1393,25 +1318,25 @@
         <v>50</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>57</v>
@@ -1432,31 +1357,31 @@
         <v>54</v>
       </c>
       <c r="T2" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="V2" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="U2" s="7" t="s">
+      <c r="W2" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="V2" s="7" t="s">
+      <c r="X2" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y2" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="W2" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="X2" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y2" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="Z2" s="5" t="s">
         <v>55</v>
       </c>
       <c r="AA2" s="10" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AB2" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AC2" s="5" t="s">
         <v>0</v>
@@ -1482,6 +1407,7 @@
     <hyperlink ref="AB2" r:id="rId7" xr:uid="{195848E9-E895-054F-8CD9-4B349763F02C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -1489,8 +1415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ABD5772-2955-6C46-88A2-787F9D38DC97}">
   <dimension ref="A1:AF2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1501,13 +1427,13 @@
     <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="5.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="46.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="51.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="5.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="51.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="46.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="14" max="14" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="15" max="15" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="16" max="16" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
@@ -1547,25 +1473,25 @@
         <v>6</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>32</v>
@@ -1627,13 +1553,13 @@
     </row>
     <row r="2" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>61</v>
@@ -1644,26 +1570,26 @@
       <c r="F2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" t="s">
-        <v>94</v>
-      </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>84</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>57</v>
@@ -1684,31 +1610,31 @@
         <v>54</v>
       </c>
       <c r="T2" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="V2" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="U2" s="7" t="s">
+      <c r="W2" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="V2" s="7" t="s">
+      <c r="X2" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y2" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="W2" s="7" t="s">
+      <c r="Z2" s="8" t="s">
         <v>81</v>
-      </c>
-      <c r="X2" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y2" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z2" s="8" t="s">
-        <v>83</v>
       </c>
       <c r="AA2" s="5" t="s">
         <v>55</v>
       </c>
       <c r="AB2" s="9" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AC2" s="5" t="s">
         <v>0</v>
@@ -1740,8 +1666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3ACBC21-67F9-9748-8578-54FDD50767ED}">
   <dimension ref="A1:AF2"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1881,10 +1807,10 @@
         <v>7</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
@@ -1935,31 +1861,31 @@
         <v>54</v>
       </c>
       <c r="T2" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="U2" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y2" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="V2" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="W2" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="X2" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y2" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="Z2" s="5" t="s">
         <v>64</v>
       </c>
       <c r="AA2" s="10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="AB2" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="AC2" s="5" t="s">
         <v>67</v>
@@ -2101,10 +2027,10 @@
         <v>7</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
@@ -2155,31 +2081,31 @@
         <v>54</v>
       </c>
       <c r="T2" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="U2" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y2" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="V2" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="W2" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="X2" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y2" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="Z2" s="5" t="s">
         <v>64</v>
       </c>
       <c r="AA2" s="10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="AB2" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="AC2" s="5" t="s">
         <v>67</v>

--- a/fsaautomation/resources/config_properties.xlsx
+++ b/fsaautomation/resources/config_properties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/auto/SVMX_Catalyst/fsaautomation/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD7D7BED-86F9-594D-82B7-F0FDA4AC4A52}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4423CEED-EF3B-CD49-9B2B-632C9BD51A7E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="540" windowWidth="28040" windowHeight="16500" activeTab="1" xr2:uid="{F5AD2FE8-A01F-1E49-94AB-A1FBFAACC706}"/>
+    <workbookView xWindow="360" yWindow="440" windowWidth="28040" windowHeight="16500" xr2:uid="{F5AD2FE8-A01F-1E49-94AB-A1FBFAACC706}"/>
   </bookViews>
   <sheets>
     <sheet name="config_local" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="97">
   <si>
     <t>0053D000001fEk6QAE</t>
   </si>
@@ -301,6 +301,9 @@
     <t>a2D550000012LB6EAM</t>
   </si>
   <si>
+    <t>android</t>
+  </si>
+  <si>
     <t>http://0.0.0.0:4723/wd/hub</t>
   </si>
   <si>
@@ -319,6 +322,9 @@
     <t>https://cs77.salesforce.com/services/oauth2/token?</t>
   </si>
   <si>
+    <t>iPhone Developer: Rajesh Rao (76X824PR66)</t>
+  </si>
+  <si>
     <t>http://0.0.0.0\:4723/wd/hub</t>
   </si>
   <si>
@@ -337,6 +343,84 @@
     <t>https://cs70.salesforce.com/services/oauth2/token?</t>
   </si>
   <si>
+    <r>
+      <t>iPhone</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3933FF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>Developer:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF3933FF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>Servicmax</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3933FF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>FSA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3933FF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>(6DFUZHHYAX)</t>
+    </r>
+  </si>
+  <si>
     <t>https://cs41.salesforce.com/services/data/v42.0/sobjects/SVMXC__Service_Order__c?</t>
   </si>
   <si>
@@ -371,15 +455,6 @@
   </si>
   <si>
     <t>12.1</t>
-  </si>
-  <si>
-    <t>iPhone Developer: Servicmax FSA (6DFUZHHYAX)</t>
-  </si>
-  <si>
-    <t>iPhone Developer: Rajesh Rao (76X824PR66)</t>
-  </si>
-  <si>
-    <t>browser</t>
   </si>
 </sst>
 </file>
@@ -785,8 +860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82747902-0905-9A4B-A648-FC506DD60323}">
   <dimension ref="A1:AN34"/>
   <sheetViews>
-    <sheetView topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -923,10 +998,10 @@
         <v>7</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
@@ -977,31 +1052,31 @@
         <v>28</v>
       </c>
       <c r="T2" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U2" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V2" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="W2" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X2" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y2" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="AA2" s="11" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AB2" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC2" s="2" t="s">
         <v>43</v>
@@ -1160,8 +1235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61BF172F-CE08-6840-ACF9-880AB6E40DE2}">
   <dimension ref="A1:AF2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1172,13 +1247,13 @@
     <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="5.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="51.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="46.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="5.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="46.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="51.33203125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="14" max="14" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="15" max="15" width="14" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="16" max="16" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
@@ -1220,25 +1295,25 @@
         <v>6</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>32</v>
@@ -1300,13 +1375,13 @@
     </row>
     <row r="2" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>93</v>
-      </c>
       <c r="C2" s="11" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
@@ -1318,25 +1393,25 @@
         <v>50</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" t="s">
-        <v>91</v>
+      <c r="I2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>57</v>
@@ -1357,31 +1432,31 @@
         <v>54</v>
       </c>
       <c r="T2" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U2" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="V2" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W2" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="X2" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y2" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Z2" s="5" t="s">
         <v>55</v>
       </c>
       <c r="AA2" s="10" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AB2" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AC2" s="5" t="s">
         <v>0</v>
@@ -1407,7 +1482,6 @@
     <hyperlink ref="AB2" r:id="rId7" xr:uid="{195848E9-E895-054F-8CD9-4B349763F02C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -1415,8 +1489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ABD5772-2955-6C46-88A2-787F9D38DC97}">
   <dimension ref="A1:AF2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1427,13 +1501,13 @@
     <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="5.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="51.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="46.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="5.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="46.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="51.33203125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="14" max="14" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="15" max="15" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="16" max="16" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
@@ -1473,25 +1547,25 @@
         <v>6</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>32</v>
@@ -1553,13 +1627,13 @@
     </row>
     <row r="2" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>61</v>
@@ -1570,26 +1644,26 @@
       <c r="F2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" t="s">
         <v>94</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="J2" t="s">
-        <v>91</v>
-      </c>
-      <c r="K2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>62</v>
       </c>
+      <c r="K2" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="L2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="M2" s="2" t="s">
         <v>47</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>84</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>57</v>
@@ -1610,31 +1684,31 @@
         <v>54</v>
       </c>
       <c r="T2" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U2" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="V2" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W2" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="X2" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y2" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Z2" s="8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AA2" s="5" t="s">
         <v>55</v>
       </c>
       <c r="AB2" s="9" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AC2" s="5" t="s">
         <v>0</v>
@@ -1666,8 +1740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3ACBC21-67F9-9748-8578-54FDD50767ED}">
   <dimension ref="A1:AF2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1807,10 +1881,10 @@
         <v>7</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
@@ -1861,31 +1935,31 @@
         <v>54</v>
       </c>
       <c r="T2" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U2" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="V2" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="W2" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="X2" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y2" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Z2" s="5" t="s">
         <v>64</v>
       </c>
       <c r="AA2" s="10" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="AB2" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AC2" s="5" t="s">
         <v>67</v>
@@ -2027,10 +2101,10 @@
         <v>7</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
@@ -2081,31 +2155,31 @@
         <v>54</v>
       </c>
       <c r="T2" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U2" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="V2" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="W2" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="X2" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y2" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Z2" s="5" t="s">
         <v>64</v>
       </c>
       <c r="AA2" s="10" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="AB2" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AC2" s="5" t="s">
         <v>67</v>

--- a/fsaautomation/resources/config_properties.xlsx
+++ b/fsaautomation/resources/config_properties.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/auto/SVMX_Catalyst/fsaautomation/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD7D7BED-86F9-594D-82B7-F0FDA4AC4A52}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{D63DBDB6-5674-5648-B73B-41F31F2151FE}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="540" windowWidth="28040" windowHeight="16500" activeTab="1" xr2:uid="{F5AD2FE8-A01F-1E49-94AB-A1FBFAACC706}"/>
+    <workbookView activeTab="3" windowHeight="16500" windowWidth="28040" xWindow="20" xr2:uid="{F5AD2FE8-A01F-1E49-94AB-A1FBFAACC706}" yWindow="540"/>
   </bookViews>
   <sheets>
-    <sheet name="config_local" sheetId="1" r:id="rId1"/>
-    <sheet name="config_automation_build" sheetId="2" r:id="rId2"/>
-    <sheet name="config_automation_phone" sheetId="3" r:id="rId3"/>
-    <sheet name="config_fsa_pqt_build" sheetId="4" r:id="rId4"/>
-    <sheet name="config_fsa_track_build" sheetId="5" r:id="rId5"/>
+    <sheet name="config_local" r:id="rId1" sheetId="1"/>
+    <sheet name="config_automation_build" r:id="rId2" sheetId="2"/>
+    <sheet name="config_automation_tablet_go" r:id="rId3" sheetId="6"/>
+    <sheet name="config_automation_phone" r:id="rId4" sheetId="3"/>
+    <sheet name="config_fsa_pqt_build" r:id="rId5" sheetId="4"/>
+    <sheet name="config_fsa_track_build" r:id="rId6" sheetId="5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="96">
   <si>
     <t>0053D000001fEk6QAE</t>
   </si>
@@ -250,12 +251,6 @@
     <t>VP29PT4S86</t>
   </si>
   <si>
-    <t>phone</t>
-  </si>
-  <si>
-    <t>com.servicemaxinc.fsadev.WebDriverAgentRunner</t>
-  </si>
-  <si>
     <r>
       <t>auto-tech1</t>
     </r>
@@ -379,13 +374,17 @@
     <t>iPhone Developer: Rajesh Rao (76X824PR66)</t>
   </si>
   <si>
-    <t>browser</t>
+    <t>fsaTabletGo</t>
+  </si>
+  <si>
+    <t>phone</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -452,29 +451,29 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="5" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="12" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="1"/>
+    <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="12" quotePrefix="1" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" quotePrefix="1" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -491,10 +490,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -529,7 +528,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -581,7 +580,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -692,21 +691,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -723,7 +722,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -775,14 +774,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82747902-0905-9A4B-A648-FC506DD60323}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82747902-0905-9A4B-A648-FC506DD60323}">
   <dimension ref="A1:AN34"/>
   <sheetViews>
     <sheetView topLeftCell="U1" workbookViewId="0">
@@ -791,39 +790,39 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="7" width="27.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="65.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="29.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="40.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="67" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="33.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="35.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="28.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="52.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="45.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="115.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="115.33203125" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="49" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="39.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="84" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="115.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="40.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="74.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="28.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="21.1640625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="30.83203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="21.1640625" collapsed="true"/>
+    <col min="6" max="7" bestFit="true" customWidth="true" width="27.33203125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="65.83203125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="40.5" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="67.0" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="33.33203125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="35.6640625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="28.5" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="52.6640625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="45.33203125" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="115.33203125" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="115.33203125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="49.0" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="39.33203125" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="84.0" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="115.33203125" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="40.5" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="74.33203125" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="28.5" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="1" s="3" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -918,15 +917,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="2" s="2" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
@@ -977,31 +976,31 @@
         <v>28</v>
       </c>
       <c r="T2" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="W2" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="U2" s="7" t="s">
+      <c r="X2" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="V2" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="W2" s="7" t="s">
+      <c r="Y2" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="X2" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y2" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="Z2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="AA2" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AB2" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AC2" s="2" t="s">
         <v>43</v>
@@ -1141,66 +1140,66 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="P2" r:id="rId1" xr:uid="{65290685-B75F-2F47-A5A2-C5F98F0468A7}"/>
-    <hyperlink ref="R2" r:id="rId2" xr:uid="{A8C94B01-4AE8-4A46-A8C0-F0B6766D6C5A}"/>
-    <hyperlink ref="N2" r:id="rId3" xr:uid="{9021A63E-45E4-2247-B495-773BCC48D6BC}"/>
-    <hyperlink ref="T2" r:id="rId4" xr:uid="{111D145D-7C58-0241-B4B7-EC3C95D38325}"/>
-    <hyperlink ref="U2" r:id="rId5" xr:uid="{DA34061A-CC99-BD49-AFD7-59CA373B6607}"/>
-    <hyperlink ref="V2" r:id="rId6" xr:uid="{E3E98677-132E-E64D-A508-185D4810255C}"/>
-    <hyperlink ref="W2" r:id="rId7" xr:uid="{8DB1D18B-EA97-AA4D-9AC7-02A48CDE67A6}"/>
-    <hyperlink ref="X2" r:id="rId8" xr:uid="{64F0B1C6-CD58-A845-A599-DFE23DA422CC}"/>
-    <hyperlink ref="Y2" r:id="rId9" xr:uid="{4FAFCCA4-4F24-0B49-934E-AC441897C9C5}"/>
-    <hyperlink ref="AB2" r:id="rId10" xr:uid="{486C7ACD-3F79-B144-8138-AEDF137735C6}"/>
+    <hyperlink r:id="rId1" ref="P2" xr:uid="{65290685-B75F-2F47-A5A2-C5F98F0468A7}"/>
+    <hyperlink r:id="rId2" ref="R2" xr:uid="{A8C94B01-4AE8-4A46-A8C0-F0B6766D6C5A}"/>
+    <hyperlink r:id="rId3" ref="N2" xr:uid="{9021A63E-45E4-2247-B495-773BCC48D6BC}"/>
+    <hyperlink r:id="rId4" ref="T2" xr:uid="{111D145D-7C58-0241-B4B7-EC3C95D38325}"/>
+    <hyperlink r:id="rId5" ref="U2" xr:uid="{DA34061A-CC99-BD49-AFD7-59CA373B6607}"/>
+    <hyperlink r:id="rId6" ref="V2" xr:uid="{E3E98677-132E-E64D-A508-185D4810255C}"/>
+    <hyperlink r:id="rId7" ref="W2" xr:uid="{8DB1D18B-EA97-AA4D-9AC7-02A48CDE67A6}"/>
+    <hyperlink r:id="rId8" ref="X2" xr:uid="{64F0B1C6-CD58-A845-A599-DFE23DA422CC}"/>
+    <hyperlink r:id="rId9" ref="Y2" xr:uid="{4FAFCCA4-4F24-0B49-934E-AC441897C9C5}"/>
+    <hyperlink r:id="rId10" ref="AB2" xr:uid="{486C7ACD-3F79-B144-8138-AEDF137735C6}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61BF172F-CE08-6840-ACF9-880AB6E40DE2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61BF172F-CE08-6840-ACF9-880AB6E40DE2}">
   <dimension ref="A1:AF2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="5.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="51.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="46.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="40.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="99.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="71.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="35.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="70.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="103.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="62.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="62.1640625" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="5.83203125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="51.33203125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="46.5" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="40.5" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="99.6640625" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="71.83203125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="35.6640625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="70.6640625" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="103.1640625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="62.1640625" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" width="62.1640625" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="1" s="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1298,15 +1297,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="2" s="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>96</v>
+        <v>7</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
@@ -1321,13 +1320,13 @@
         <v>14</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="J2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>26</v>
@@ -1357,31 +1356,31 @@
         <v>54</v>
       </c>
       <c r="T2" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="V2" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="U2" s="7" t="s">
+      <c r="W2" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="V2" s="7" t="s">
+      <c r="X2" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y2" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="W2" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="X2" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y2" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="Z2" s="5" t="s">
         <v>55</v>
       </c>
       <c r="AA2" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AB2" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AC2" s="5" t="s">
         <v>0</v>
@@ -1398,62 +1397,281 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="T2" r:id="rId1" xr:uid="{2373DCCF-7CF7-6D48-9391-B2017EA3F6CB}"/>
-    <hyperlink ref="U2" r:id="rId2" xr:uid="{45EF8F3D-534D-2F45-94E3-C73D8504CC2F}"/>
-    <hyperlink ref="V2" r:id="rId3" xr:uid="{317C8481-D29E-9841-A568-E5293BF078E6}"/>
-    <hyperlink ref="W2" r:id="rId4" xr:uid="{2250E180-CC76-0844-A14E-BECC396552E1}"/>
-    <hyperlink ref="X2" r:id="rId5" xr:uid="{3B6377D4-E37D-8E4E-A566-7D3CA80B53F6}"/>
-    <hyperlink ref="Y2" r:id="rId6" xr:uid="{08609375-5C82-1140-80FE-D1DE3470E1BE}"/>
-    <hyperlink ref="AB2" r:id="rId7" xr:uid="{195848E9-E895-054F-8CD9-4B349763F02C}"/>
+    <hyperlink r:id="rId1" ref="T2" xr:uid="{2373DCCF-7CF7-6D48-9391-B2017EA3F6CB}"/>
+    <hyperlink r:id="rId2" ref="U2" xr:uid="{45EF8F3D-534D-2F45-94E3-C73D8504CC2F}"/>
+    <hyperlink r:id="rId3" ref="V2" xr:uid="{317C8481-D29E-9841-A568-E5293BF078E6}"/>
+    <hyperlink r:id="rId4" ref="W2" xr:uid="{2250E180-CC76-0844-A14E-BECC396552E1}"/>
+    <hyperlink r:id="rId5" ref="X2" xr:uid="{3B6377D4-E37D-8E4E-A566-7D3CA80B53F6}"/>
+    <hyperlink r:id="rId6" ref="Y2" xr:uid="{08609375-5C82-1140-80FE-D1DE3470E1BE}"/>
+    <hyperlink r:id="rId7" ref="AB2" xr:uid="{195848E9-E895-054F-8CD9-4B349763F02C}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ABD5772-2955-6C46-88A2-787F9D38DC97}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82D87FB9-E79F-C448-84B3-9ECEDB0B9D6C}">
   <dimension ref="A1:AF2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row customFormat="1" r="1" s="3" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row customFormat="1" r="2" s="2" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y2" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z2" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB2" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="T2" xr:uid="{9C0A2FA3-D026-9E4C-AFEB-407FFF6AB5F7}"/>
+    <hyperlink r:id="rId2" ref="U2" xr:uid="{62BF66BD-5671-8745-81F6-40007E1D6B38}"/>
+    <hyperlink r:id="rId3" ref="V2" xr:uid="{10BE8D0A-E140-9D47-B409-EDBC9866DB9F}"/>
+    <hyperlink r:id="rId4" ref="W2" xr:uid="{060B867E-D0BD-A843-8FF0-4121D11DD600}"/>
+    <hyperlink r:id="rId5" ref="X2" xr:uid="{17038A87-A2DD-6F40-A78D-536DB6D1BD12}"/>
+    <hyperlink r:id="rId6" ref="Y2" xr:uid="{2A5AC05D-0451-694B-A65F-362B772BAD80}"/>
+  </hyperlinks>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ABD5772-2955-6C46-88A2-787F9D38DC97}">
+  <dimension ref="A1:AF2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="5.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="51.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="46.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="12.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="99.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="71.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="35.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="70.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="62.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="103.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="34.33203125" customWidth="1" collapsed="1"/>
-    <col min="29" max="31" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="5.83203125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="51.33203125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="46.5" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="12.83203125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="99.6640625" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="71.83203125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="35.6640625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="70.6640625" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="62.1640625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="103.1640625" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" width="34.33203125" collapsed="true"/>
+    <col min="29" max="31" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="1" s="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1551,18 +1769,18 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="2" s="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>8</v>
@@ -1574,16 +1792,16 @@
         <v>14</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>60</v>
       </c>
       <c r="J2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>45</v>
@@ -1610,31 +1828,31 @@
         <v>54</v>
       </c>
       <c r="T2" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="V2" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="U2" s="7" t="s">
+      <c r="W2" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="V2" s="7" t="s">
+      <c r="X2" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y2" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="W2" s="7" t="s">
+      <c r="Z2" s="8" t="s">
         <v>79</v>
-      </c>
-      <c r="X2" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y2" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z2" s="8" t="s">
-        <v>81</v>
       </c>
       <c r="AA2" s="5" t="s">
         <v>55</v>
       </c>
       <c r="AB2" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AC2" s="5" t="s">
         <v>0</v>
@@ -1651,19 +1869,19 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="T2" r:id="rId1" xr:uid="{FF8A98B7-8501-6F47-A2FB-10824115B353}"/>
-    <hyperlink ref="U2" r:id="rId2" xr:uid="{E5504FE2-E34C-AD4E-9FED-91F77342117E}"/>
-    <hyperlink ref="V2" r:id="rId3" xr:uid="{E3CFACEB-C525-FB4B-816E-5C98177D7B3A}"/>
-    <hyperlink ref="W2" r:id="rId4" xr:uid="{037F7191-EF8F-1B41-A957-BC232B559744}"/>
-    <hyperlink ref="X2" r:id="rId5" xr:uid="{C6F51406-8912-3748-8B88-9B0A0A8B059D}"/>
-    <hyperlink ref="Y2" r:id="rId6" xr:uid="{CDB08067-96F2-2742-872D-1B028C2950EE}"/>
+    <hyperlink r:id="rId1" ref="T2" xr:uid="{FF8A98B7-8501-6F47-A2FB-10824115B353}"/>
+    <hyperlink r:id="rId2" ref="U2" xr:uid="{E5504FE2-E34C-AD4E-9FED-91F77342117E}"/>
+    <hyperlink r:id="rId3" ref="V2" xr:uid="{E3CFACEB-C525-FB4B-816E-5C98177D7B3A}"/>
+    <hyperlink r:id="rId4" ref="W2" xr:uid="{037F7191-EF8F-1B41-A957-BC232B559744}"/>
+    <hyperlink r:id="rId5" ref="X2" xr:uid="{C6F51406-8912-3748-8B88-9B0A0A8B059D}"/>
+    <hyperlink r:id="rId6" ref="Y2" xr:uid="{CDB08067-96F2-2742-872D-1B028C2950EE}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3ACBC21-67F9-9748-8578-54FDD50767ED}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3ACBC21-67F9-9748-8578-54FDD50767ED}">
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -1672,39 +1890,39 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="5.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="46.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="51.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="12.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="99.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="71.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="35.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="70.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="103.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="62.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="31" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="5.83203125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="46.5" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="51.33203125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="12.83203125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="99.6640625" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="71.83203125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="35.6640625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="70.6640625" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="103.1640625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="62.1640625" collapsed="true"/>
+    <col min="29" max="31" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="1" s="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1802,15 +2020,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="2" s="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
@@ -1843,58 +2061,58 @@
         <v>49</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>54</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Q2" s="5" t="s">
         <v>54</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="S2" s="5" t="s">
         <v>54</v>
       </c>
       <c r="T2" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="U2" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="W2" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="V2" s="7" t="s">
+      <c r="X2" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y2" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="W2" s="7" t="s">
+      <c r="Z2" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA2" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB2" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="X2" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y2" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z2" s="5" t="s">
+      <c r="AC2" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD2" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE2" s="5" t="s">
         <v>64</v>
-      </c>
-      <c r="AA2" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="AB2" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="AC2" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD2" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE2" s="5" t="s">
-        <v>66</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>40</v>
@@ -1902,20 +2120,20 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="T2" r:id="rId1" xr:uid="{A71DD4B7-4F78-624F-8526-BC2C8DAF91F2}"/>
-    <hyperlink ref="U2" r:id="rId2" xr:uid="{1B540CF2-7A50-6B48-8B71-0C274B92DD51}"/>
-    <hyperlink ref="V2" r:id="rId3" xr:uid="{91AEDBB0-8784-C240-9F57-F0191D9A7F37}"/>
-    <hyperlink ref="W2" r:id="rId4" xr:uid="{4CBB3277-EAC2-1C4C-B5B0-6055F81AEB79}"/>
-    <hyperlink ref="X2" r:id="rId5" xr:uid="{43033950-1900-2048-9098-30C4C6B77A36}"/>
-    <hyperlink ref="Y2" r:id="rId6" xr:uid="{AF882D86-8162-1A40-9D4C-2B7AFACABB92}"/>
-    <hyperlink ref="AB2" r:id="rId7" xr:uid="{F85A03DD-44E5-6E49-B503-8C6C4E7ECC22}"/>
+    <hyperlink r:id="rId1" ref="T2" xr:uid="{A71DD4B7-4F78-624F-8526-BC2C8DAF91F2}"/>
+    <hyperlink r:id="rId2" ref="U2" xr:uid="{1B540CF2-7A50-6B48-8B71-0C274B92DD51}"/>
+    <hyperlink r:id="rId3" ref="V2" xr:uid="{91AEDBB0-8784-C240-9F57-F0191D9A7F37}"/>
+    <hyperlink r:id="rId4" ref="W2" xr:uid="{4CBB3277-EAC2-1C4C-B5B0-6055F81AEB79}"/>
+    <hyperlink r:id="rId5" ref="X2" xr:uid="{43033950-1900-2048-9098-30C4C6B77A36}"/>
+    <hyperlink r:id="rId6" ref="Y2" xr:uid="{AF882D86-8162-1A40-9D4C-2B7AFACABB92}"/>
+    <hyperlink r:id="rId7" ref="AB2" xr:uid="{F85A03DD-44E5-6E49-B503-8C6C4E7ECC22}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70778CC3-4254-DD46-A825-6190F74A8C8D}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70778CC3-4254-DD46-A825-6190F74A8C8D}">
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1924,7 +2142,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="1" s="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -2022,15 +2240,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="2" s="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
@@ -2063,58 +2281,58 @@
         <v>49</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>54</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Q2" s="5" t="s">
         <v>54</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="S2" s="5" t="s">
         <v>54</v>
       </c>
       <c r="T2" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="U2" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="W2" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="V2" s="7" t="s">
+      <c r="X2" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y2" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="W2" s="7" t="s">
+      <c r="Z2" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA2" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB2" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="X2" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y2" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z2" s="5" t="s">
+      <c r="AC2" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD2" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE2" s="5" t="s">
         <v>64</v>
-      </c>
-      <c r="AA2" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="AB2" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="AC2" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD2" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE2" s="5" t="s">
-        <v>66</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>40</v>
@@ -2122,14 +2340,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="T2" r:id="rId1" xr:uid="{B41713CD-0C7A-A94A-9E0C-2C92C9129EB5}"/>
-    <hyperlink ref="U2" r:id="rId2" xr:uid="{F8ED6A05-BFC1-7E48-A376-F7EF824AE76F}"/>
-    <hyperlink ref="V2" r:id="rId3" xr:uid="{B2E95E89-7408-7140-82FB-6817D1D4C34A}"/>
-    <hyperlink ref="W2" r:id="rId4" xr:uid="{7BA77DFF-CF38-3F44-95C3-4775F3663E98}"/>
-    <hyperlink ref="X2" r:id="rId5" xr:uid="{A95FE44D-A1CF-E248-A845-0A3B8C68FB3D}"/>
-    <hyperlink ref="Y2" r:id="rId6" xr:uid="{DCB51B4E-919D-6847-9170-E731E9B9D69D}"/>
-    <hyperlink ref="AB2" r:id="rId7" xr:uid="{2489425F-B372-874E-8A85-A3A1E07348EE}"/>
+    <hyperlink r:id="rId1" ref="T2" xr:uid="{B41713CD-0C7A-A94A-9E0C-2C92C9129EB5}"/>
+    <hyperlink r:id="rId2" ref="U2" xr:uid="{F8ED6A05-BFC1-7E48-A376-F7EF824AE76F}"/>
+    <hyperlink r:id="rId3" ref="V2" xr:uid="{B2E95E89-7408-7140-82FB-6817D1D4C34A}"/>
+    <hyperlink r:id="rId4" ref="W2" xr:uid="{7BA77DFF-CF38-3F44-95C3-4775F3663E98}"/>
+    <hyperlink r:id="rId5" ref="X2" xr:uid="{A95FE44D-A1CF-E248-A845-0A3B8C68FB3D}"/>
+    <hyperlink r:id="rId6" ref="Y2" xr:uid="{DCB51B4E-919D-6847-9170-E731E9B9D69D}"/>
+    <hyperlink r:id="rId7" ref="AB2" xr:uid="{2489425F-B372-874E-8A85-A3A1E07348EE}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/fsaautomation/resources/config_properties.xlsx
+++ b/fsaautomation/resources/config_properties.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/auto/SVMX_Catalyst/fsaautomation/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD7D7BED-86F9-594D-82B7-F0FDA4AC4A52}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{1505B2EF-B2A9-3E40-AD5C-6F62E991A426}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="540" windowWidth="28040" windowHeight="16500" activeTab="1" xr2:uid="{F5AD2FE8-A01F-1E49-94AB-A1FBFAACC706}"/>
+    <workbookView activeTab="2" windowHeight="16500" windowWidth="28040" xWindow="20" xr2:uid="{F5AD2FE8-A01F-1E49-94AB-A1FBFAACC706}" yWindow="440"/>
   </bookViews>
   <sheets>
-    <sheet name="config_local" sheetId="1" r:id="rId1"/>
-    <sheet name="config_automation_build" sheetId="2" r:id="rId2"/>
-    <sheet name="config_automation_phone" sheetId="3" r:id="rId3"/>
-    <sheet name="config_fsa_pqt_build" sheetId="4" r:id="rId4"/>
-    <sheet name="config_fsa_track_build" sheetId="5" r:id="rId5"/>
+    <sheet name="config_local" r:id="rId1" sheetId="1"/>
+    <sheet name="config_automation_build" r:id="rId2" sheetId="2"/>
+    <sheet name="config_automation_phone" r:id="rId3" sheetId="3"/>
+    <sheet name="config_fsa_pqt_build" r:id="rId4" sheetId="4"/>
+    <sheet name="config_fsa_track_build" r:id="rId5" sheetId="5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="99">
   <si>
     <t>0053D000001fEk6QAE</t>
   </si>
@@ -381,11 +381,18 @@
   <si>
     <t>browser</t>
   </si>
+  <si>
+    <t>android</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -452,29 +459,29 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="5" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="12" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="1"/>
+    <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="12" quotePrefix="1" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" quotePrefix="1" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -491,10 +498,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -529,7 +536,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -581,7 +588,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -692,21 +699,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -723,7 +730,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -775,55 +782,55 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82747902-0905-9A4B-A648-FC506DD60323}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82747902-0905-9A4B-A648-FC506DD60323}">
   <dimension ref="A1:AN34"/>
   <sheetViews>
-    <sheetView topLeftCell="U1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="7" width="27.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="65.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="29.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="40.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="67" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="33.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="35.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="28.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="52.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="45.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="115.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="115.33203125" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="49" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="39.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="84" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="115.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="40.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="74.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="28.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="21.1640625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="30.83203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="21.1640625" collapsed="true"/>
+    <col min="6" max="7" bestFit="true" customWidth="true" width="27.33203125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="65.83203125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="40.5" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="67.0" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="33.33203125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="35.6640625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="28.5" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="52.6640625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="45.33203125" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="115.33203125" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="115.33203125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="49.0" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="39.33203125" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="84.0" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="115.33203125" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="40.5" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="74.33203125" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="28.5" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="1" s="3" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -918,7 +925,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="2" s="2" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -1141,66 +1148,66 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="P2" r:id="rId1" xr:uid="{65290685-B75F-2F47-A5A2-C5F98F0468A7}"/>
-    <hyperlink ref="R2" r:id="rId2" xr:uid="{A8C94B01-4AE8-4A46-A8C0-F0B6766D6C5A}"/>
-    <hyperlink ref="N2" r:id="rId3" xr:uid="{9021A63E-45E4-2247-B495-773BCC48D6BC}"/>
-    <hyperlink ref="T2" r:id="rId4" xr:uid="{111D145D-7C58-0241-B4B7-EC3C95D38325}"/>
-    <hyperlink ref="U2" r:id="rId5" xr:uid="{DA34061A-CC99-BD49-AFD7-59CA373B6607}"/>
-    <hyperlink ref="V2" r:id="rId6" xr:uid="{E3E98677-132E-E64D-A508-185D4810255C}"/>
-    <hyperlink ref="W2" r:id="rId7" xr:uid="{8DB1D18B-EA97-AA4D-9AC7-02A48CDE67A6}"/>
-    <hyperlink ref="X2" r:id="rId8" xr:uid="{64F0B1C6-CD58-A845-A599-DFE23DA422CC}"/>
-    <hyperlink ref="Y2" r:id="rId9" xr:uid="{4FAFCCA4-4F24-0B49-934E-AC441897C9C5}"/>
-    <hyperlink ref="AB2" r:id="rId10" xr:uid="{486C7ACD-3F79-B144-8138-AEDF137735C6}"/>
+    <hyperlink r:id="rId1" ref="P2" xr:uid="{65290685-B75F-2F47-A5A2-C5F98F0468A7}"/>
+    <hyperlink r:id="rId2" ref="R2" xr:uid="{A8C94B01-4AE8-4A46-A8C0-F0B6766D6C5A}"/>
+    <hyperlink r:id="rId3" ref="N2" xr:uid="{9021A63E-45E4-2247-B495-773BCC48D6BC}"/>
+    <hyperlink r:id="rId4" ref="T2" xr:uid="{111D145D-7C58-0241-B4B7-EC3C95D38325}"/>
+    <hyperlink r:id="rId5" ref="U2" xr:uid="{DA34061A-CC99-BD49-AFD7-59CA373B6607}"/>
+    <hyperlink r:id="rId6" ref="V2" xr:uid="{E3E98677-132E-E64D-A508-185D4810255C}"/>
+    <hyperlink r:id="rId7" ref="W2" xr:uid="{8DB1D18B-EA97-AA4D-9AC7-02A48CDE67A6}"/>
+    <hyperlink r:id="rId8" ref="X2" xr:uid="{64F0B1C6-CD58-A845-A599-DFE23DA422CC}"/>
+    <hyperlink r:id="rId9" ref="Y2" xr:uid="{4FAFCCA4-4F24-0B49-934E-AC441897C9C5}"/>
+    <hyperlink r:id="rId10" ref="AB2" xr:uid="{486C7ACD-3F79-B144-8138-AEDF137735C6}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61BF172F-CE08-6840-ACF9-880AB6E40DE2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61BF172F-CE08-6840-ACF9-880AB6E40DE2}">
   <dimension ref="A1:AF2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="5.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="51.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="46.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="40.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="99.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="71.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="35.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="70.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="103.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="62.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="62.1640625" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="5.83203125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="51.33203125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="46.5" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="40.5" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="99.6640625" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="71.83203125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="35.6640625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="70.6640625" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="103.1640625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="62.1640625" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" width="62.1640625" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="1" s="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1298,7 +1305,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="2" s="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>96</v>
       </c>
@@ -1398,62 +1405,62 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="T2" r:id="rId1" xr:uid="{2373DCCF-7CF7-6D48-9391-B2017EA3F6CB}"/>
-    <hyperlink ref="U2" r:id="rId2" xr:uid="{45EF8F3D-534D-2F45-94E3-C73D8504CC2F}"/>
-    <hyperlink ref="V2" r:id="rId3" xr:uid="{317C8481-D29E-9841-A568-E5293BF078E6}"/>
-    <hyperlink ref="W2" r:id="rId4" xr:uid="{2250E180-CC76-0844-A14E-BECC396552E1}"/>
-    <hyperlink ref="X2" r:id="rId5" xr:uid="{3B6377D4-E37D-8E4E-A566-7D3CA80B53F6}"/>
-    <hyperlink ref="Y2" r:id="rId6" xr:uid="{08609375-5C82-1140-80FE-D1DE3470E1BE}"/>
-    <hyperlink ref="AB2" r:id="rId7" xr:uid="{195848E9-E895-054F-8CD9-4B349763F02C}"/>
+    <hyperlink r:id="rId1" ref="T2" xr:uid="{2373DCCF-7CF7-6D48-9391-B2017EA3F6CB}"/>
+    <hyperlink r:id="rId2" ref="U2" xr:uid="{45EF8F3D-534D-2F45-94E3-C73D8504CC2F}"/>
+    <hyperlink r:id="rId3" ref="V2" xr:uid="{317C8481-D29E-9841-A568-E5293BF078E6}"/>
+    <hyperlink r:id="rId4" ref="W2" xr:uid="{2250E180-CC76-0844-A14E-BECC396552E1}"/>
+    <hyperlink r:id="rId5" ref="X2" xr:uid="{3B6377D4-E37D-8E4E-A566-7D3CA80B53F6}"/>
+    <hyperlink r:id="rId6" ref="Y2" xr:uid="{08609375-5C82-1140-80FE-D1DE3470E1BE}"/>
+    <hyperlink r:id="rId7" ref="AB2" xr:uid="{195848E9-E895-054F-8CD9-4B349763F02C}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ABD5772-2955-6C46-88A2-787F9D38DC97}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ABD5772-2955-6C46-88A2-787F9D38DC97}">
   <dimension ref="A1:AF2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="5.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="51.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="46.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="12.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="99.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="71.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="35.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="70.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="62.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="103.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="34.33203125" customWidth="1" collapsed="1"/>
-    <col min="29" max="31" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="5.83203125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="51.33203125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="46.5" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="12.83203125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="99.6640625" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="71.83203125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="35.6640625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="70.6640625" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="62.1640625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="103.1640625" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" width="34.33203125" collapsed="true"/>
+    <col min="29" max="31" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="1" s="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1551,15 +1558,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="2" s="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>97</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>93</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>61</v>
@@ -1651,19 +1658,19 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="T2" r:id="rId1" xr:uid="{FF8A98B7-8501-6F47-A2FB-10824115B353}"/>
-    <hyperlink ref="U2" r:id="rId2" xr:uid="{E5504FE2-E34C-AD4E-9FED-91F77342117E}"/>
-    <hyperlink ref="V2" r:id="rId3" xr:uid="{E3CFACEB-C525-FB4B-816E-5C98177D7B3A}"/>
-    <hyperlink ref="W2" r:id="rId4" xr:uid="{037F7191-EF8F-1B41-A957-BC232B559744}"/>
-    <hyperlink ref="X2" r:id="rId5" xr:uid="{C6F51406-8912-3748-8B88-9B0A0A8B059D}"/>
-    <hyperlink ref="Y2" r:id="rId6" xr:uid="{CDB08067-96F2-2742-872D-1B028C2950EE}"/>
+    <hyperlink r:id="rId1" ref="T2" xr:uid="{FF8A98B7-8501-6F47-A2FB-10824115B353}"/>
+    <hyperlink r:id="rId2" ref="U2" xr:uid="{E5504FE2-E34C-AD4E-9FED-91F77342117E}"/>
+    <hyperlink r:id="rId3" ref="V2" xr:uid="{E3CFACEB-C525-FB4B-816E-5C98177D7B3A}"/>
+    <hyperlink r:id="rId4" ref="W2" xr:uid="{037F7191-EF8F-1B41-A957-BC232B559744}"/>
+    <hyperlink r:id="rId5" ref="X2" xr:uid="{C6F51406-8912-3748-8B88-9B0A0A8B059D}"/>
+    <hyperlink r:id="rId6" ref="Y2" xr:uid="{CDB08067-96F2-2742-872D-1B028C2950EE}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3ACBC21-67F9-9748-8578-54FDD50767ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3ACBC21-67F9-9748-8578-54FDD50767ED}">
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -1672,39 +1679,39 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="5.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="46.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="51.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="12.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="99.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="71.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="35.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="70.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="103.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="62.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="31" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="5.83203125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="46.5" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="51.33203125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="12.83203125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="99.6640625" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="71.83203125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="35.6640625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="70.6640625" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="103.1640625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="62.1640625" collapsed="true"/>
+    <col min="29" max="31" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="1" s="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1802,7 +1809,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="2" s="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -1902,20 +1909,20 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="T2" r:id="rId1" xr:uid="{A71DD4B7-4F78-624F-8526-BC2C8DAF91F2}"/>
-    <hyperlink ref="U2" r:id="rId2" xr:uid="{1B540CF2-7A50-6B48-8B71-0C274B92DD51}"/>
-    <hyperlink ref="V2" r:id="rId3" xr:uid="{91AEDBB0-8784-C240-9F57-F0191D9A7F37}"/>
-    <hyperlink ref="W2" r:id="rId4" xr:uid="{4CBB3277-EAC2-1C4C-B5B0-6055F81AEB79}"/>
-    <hyperlink ref="X2" r:id="rId5" xr:uid="{43033950-1900-2048-9098-30C4C6B77A36}"/>
-    <hyperlink ref="Y2" r:id="rId6" xr:uid="{AF882D86-8162-1A40-9D4C-2B7AFACABB92}"/>
-    <hyperlink ref="AB2" r:id="rId7" xr:uid="{F85A03DD-44E5-6E49-B503-8C6C4E7ECC22}"/>
+    <hyperlink r:id="rId1" ref="T2" xr:uid="{A71DD4B7-4F78-624F-8526-BC2C8DAF91F2}"/>
+    <hyperlink r:id="rId2" ref="U2" xr:uid="{1B540CF2-7A50-6B48-8B71-0C274B92DD51}"/>
+    <hyperlink r:id="rId3" ref="V2" xr:uid="{91AEDBB0-8784-C240-9F57-F0191D9A7F37}"/>
+    <hyperlink r:id="rId4" ref="W2" xr:uid="{4CBB3277-EAC2-1C4C-B5B0-6055F81AEB79}"/>
+    <hyperlink r:id="rId5" ref="X2" xr:uid="{43033950-1900-2048-9098-30C4C6B77A36}"/>
+    <hyperlink r:id="rId6" ref="Y2" xr:uid="{AF882D86-8162-1A40-9D4C-2B7AFACABB92}"/>
+    <hyperlink r:id="rId7" ref="AB2" xr:uid="{F85A03DD-44E5-6E49-B503-8C6C4E7ECC22}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70778CC3-4254-DD46-A825-6190F74A8C8D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70778CC3-4254-DD46-A825-6190F74A8C8D}">
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1924,7 +1931,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="1" s="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -2022,7 +2029,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="2" s="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -2122,14 +2129,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="T2" r:id="rId1" xr:uid="{B41713CD-0C7A-A94A-9E0C-2C92C9129EB5}"/>
-    <hyperlink ref="U2" r:id="rId2" xr:uid="{F8ED6A05-BFC1-7E48-A376-F7EF824AE76F}"/>
-    <hyperlink ref="V2" r:id="rId3" xr:uid="{B2E95E89-7408-7140-82FB-6817D1D4C34A}"/>
-    <hyperlink ref="W2" r:id="rId4" xr:uid="{7BA77DFF-CF38-3F44-95C3-4775F3663E98}"/>
-    <hyperlink ref="X2" r:id="rId5" xr:uid="{A95FE44D-A1CF-E248-A845-0A3B8C68FB3D}"/>
-    <hyperlink ref="Y2" r:id="rId6" xr:uid="{DCB51B4E-919D-6847-9170-E731E9B9D69D}"/>
-    <hyperlink ref="AB2" r:id="rId7" xr:uid="{2489425F-B372-874E-8A85-A3A1E07348EE}"/>
+    <hyperlink r:id="rId1" ref="T2" xr:uid="{B41713CD-0C7A-A94A-9E0C-2C92C9129EB5}"/>
+    <hyperlink r:id="rId2" ref="U2" xr:uid="{F8ED6A05-BFC1-7E48-A376-F7EF824AE76F}"/>
+    <hyperlink r:id="rId3" ref="V2" xr:uid="{B2E95E89-7408-7140-82FB-6817D1D4C34A}"/>
+    <hyperlink r:id="rId4" ref="W2" xr:uid="{7BA77DFF-CF38-3F44-95C3-4775F3663E98}"/>
+    <hyperlink r:id="rId5" ref="X2" xr:uid="{A95FE44D-A1CF-E248-A845-0A3B8C68FB3D}"/>
+    <hyperlink r:id="rId6" ref="Y2" xr:uid="{DCB51B4E-919D-6847-9170-E731E9B9D69D}"/>
+    <hyperlink r:id="rId7" ref="AB2" xr:uid="{2489425F-B372-874E-8A85-A3A1E07348EE}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/fsaautomation/resources/config_properties.xlsx
+++ b/fsaautomation/resources/config_properties.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/auto/SVMX_Catalyst/fsaautomation/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4374D4D-B8D9-1A4C-AD94-523AAA32867B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30E94C24-3D39-9548-9659-E2B765DBF16A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="440" windowWidth="28040" windowHeight="16500" activeTab="2" xr2:uid="{F5AD2FE8-A01F-1E49-94AB-A1FBFAACC706}"/>
   </bookViews>
   <sheets>
     <sheet name="config_local" sheetId="1" r:id="rId1"/>
     <sheet name="config_automation_build" sheetId="2" r:id="rId2"/>
-    <sheet name="config_automation_phone" sheetId="3" r:id="rId3"/>
-    <sheet name="config_fsa_pqt_build" sheetId="4" r:id="rId4"/>
-    <sheet name="config_fsa_track_build" sheetId="5" r:id="rId5"/>
+    <sheet name="config_automation_tablet_go" sheetId="6" r:id="rId3"/>
+    <sheet name="config_automation_phone" sheetId="3" r:id="rId4"/>
+    <sheet name="config_fsa_pqt_build" sheetId="4" r:id="rId5"/>
+    <sheet name="config_fsa_track_build" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="100">
   <si>
     <t>0053D000001fEk6QAE</t>
   </si>
@@ -386,6 +387,9 @@
   </si>
   <si>
     <t>9</t>
+  </si>
+  <si>
+    <t>fsaTabletGo</t>
   </si>
 </sst>
 </file>
@@ -1166,7 +1170,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61BF172F-CE08-6840-ACF9-880AB6E40DE2}">
   <dimension ref="A1:AF2"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -1418,11 +1422,230 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACA13EFD-5466-DB43-9A70-FA51FEB925E4}">
+  <dimension ref="A1:AF2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y2" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z2" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB2" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="T2" r:id="rId1" xr:uid="{62E806D6-9394-5B45-A604-655BD30F27F3}"/>
+    <hyperlink ref="U2" r:id="rId2" xr:uid="{2E4CDE15-9B66-2245-B748-BCAAA05AC9E4}"/>
+    <hyperlink ref="V2" r:id="rId3" xr:uid="{36A593B9-9976-C14C-B755-CA938AC79725}"/>
+    <hyperlink ref="W2" r:id="rId4" xr:uid="{C4819D61-6734-1A4F-84FA-001DDBD1671D}"/>
+    <hyperlink ref="X2" r:id="rId5" xr:uid="{A6B99C3B-70C7-E44A-A7A3-744369CCB48E}"/>
+    <hyperlink ref="Y2" r:id="rId6" xr:uid="{866CFB73-1B1F-9648-AF62-BBB387DC1218}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ABD5772-2955-6C46-88A2-787F9D38DC97}">
   <dimension ref="A1:AF2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1668,7 +1891,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3ACBC21-67F9-9748-8578-54FDD50767ED}">
   <dimension ref="A1:AF2"/>
   <sheetViews>
@@ -1920,7 +2143,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70778CC3-4254-DD46-A825-6190F74A8C8D}">
   <dimension ref="A1:AF2"/>
   <sheetViews>

--- a/fsaautomation/resources/config_properties.xlsx
+++ b/fsaautomation/resources/config_properties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/auto/SVMX_Catalyst/fsaautomation/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30E94C24-3D39-9548-9659-E2B765DBF16A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D02C91CC-6237-AE44-B476-4EEA1DE45192}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="440" windowWidth="28040" windowHeight="16500" activeTab="2" xr2:uid="{F5AD2FE8-A01F-1E49-94AB-A1FBFAACC706}"/>
+    <workbookView xWindow="20" yWindow="440" windowWidth="28040" windowHeight="16500" activeTab="4" xr2:uid="{F5AD2FE8-A01F-1E49-94AB-A1FBFAACC706}"/>
   </bookViews>
   <sheets>
     <sheet name="config_local" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="100">
   <si>
     <t>0053D000001fEk6QAE</t>
   </si>
@@ -254,9 +254,6 @@
     <t>phone</t>
   </si>
   <si>
-    <t>com.servicemaxinc.fsadev.WebDriverAgentRunner</t>
-  </si>
-  <si>
     <r>
       <t>auto-tech1</t>
     </r>
@@ -383,13 +380,16 @@
     <t>browser</t>
   </si>
   <si>
-    <t>android</t>
-  </si>
-  <si>
     <t>9</t>
   </si>
   <si>
     <t>fsaTabletGo</t>
+  </si>
+  <si>
+    <t>com.servicemaxinc.svmxfieldserviceapp</t>
+  </si>
+  <si>
+    <t>APP_BUNDLEID</t>
   </si>
 </sst>
 </file>
@@ -933,10 +933,10 @@
         <v>7</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
@@ -987,31 +987,31 @@
         <v>28</v>
       </c>
       <c r="T2" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="U2" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="U2" s="7" t="s">
+      <c r="V2" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="W2" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="V2" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="W2" s="7" t="s">
+      <c r="X2" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="X2" s="7" t="s">
+      <c r="Y2" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="Y2" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="Z2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="AA2" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AB2" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AC2" s="2" t="s">
         <v>43</v>
@@ -1168,10 +1168,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61BF172F-CE08-6840-ACF9-880AB6E40DE2}">
-  <dimension ref="A1:AF2"/>
+  <dimension ref="A1:AG2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1181,36 +1181,37 @@
     <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="5.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="51.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="46.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="40.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="99.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="71.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="35.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="70.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="103.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="62.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="62.1640625" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="45.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="5.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="51.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="46.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="40.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="99.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="71.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="35.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="70.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="103.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="62.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="62.1640625" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1227,96 +1228,99 @@
         <v>9</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
@@ -1324,97 +1328,100 @@
       <c r="E2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="I2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J2" t="s">
-        <v>91</v>
-      </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" t="s">
+        <v>90</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="O2" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="P2" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="Q2" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="R2" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="S2" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="T2" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="T2" s="7" t="s">
+      <c r="U2" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="V2" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="U2" s="7" t="s">
+      <c r="W2" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="V2" s="7" t="s">
+      <c r="X2" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="W2" s="7" t="s">
+      <c r="Y2" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z2" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="X2" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y2" s="7" t="s">
+      <c r="AA2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB2" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC2" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="Z2" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA2" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="AB2" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="AC2" s="5" t="s">
+      <c r="AD2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="AD2" s="5" t="s">
+      <c r="AE2" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AE2" s="5" t="s">
+      <c r="AF2" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AG2" s="2" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="T2" r:id="rId1" xr:uid="{2373DCCF-7CF7-6D48-9391-B2017EA3F6CB}"/>
-    <hyperlink ref="U2" r:id="rId2" xr:uid="{45EF8F3D-534D-2F45-94E3-C73D8504CC2F}"/>
-    <hyperlink ref="V2" r:id="rId3" xr:uid="{317C8481-D29E-9841-A568-E5293BF078E6}"/>
-    <hyperlink ref="W2" r:id="rId4" xr:uid="{2250E180-CC76-0844-A14E-BECC396552E1}"/>
-    <hyperlink ref="X2" r:id="rId5" xr:uid="{3B6377D4-E37D-8E4E-A566-7D3CA80B53F6}"/>
-    <hyperlink ref="Y2" r:id="rId6" xr:uid="{08609375-5C82-1140-80FE-D1DE3470E1BE}"/>
-    <hyperlink ref="AB2" r:id="rId7" xr:uid="{195848E9-E895-054F-8CD9-4B349763F02C}"/>
+    <hyperlink ref="U2" r:id="rId1" xr:uid="{2373DCCF-7CF7-6D48-9391-B2017EA3F6CB}"/>
+    <hyperlink ref="V2" r:id="rId2" xr:uid="{45EF8F3D-534D-2F45-94E3-C73D8504CC2F}"/>
+    <hyperlink ref="W2" r:id="rId3" xr:uid="{317C8481-D29E-9841-A568-E5293BF078E6}"/>
+    <hyperlink ref="X2" r:id="rId4" xr:uid="{2250E180-CC76-0844-A14E-BECC396552E1}"/>
+    <hyperlink ref="Y2" r:id="rId5" xr:uid="{3B6377D4-E37D-8E4E-A566-7D3CA80B53F6}"/>
+    <hyperlink ref="Z2" r:id="rId6" xr:uid="{08609375-5C82-1140-80FE-D1DE3470E1BE}"/>
+    <hyperlink ref="AC2" r:id="rId7" xr:uid="{195848E9-E895-054F-8CD9-4B349763F02C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -1423,15 +1430,47 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACA13EFD-5466-DB43-9A70-FA51FEB925E4}">
-  <dimension ref="A1:AF2"/>
+  <dimension ref="A1:AG2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="45.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="53.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="55" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="25" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="74.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="51.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="50.5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="45.1640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="103.1640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="32" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1448,193 +1487,199 @@
         <v>9</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>97</v>
+        <v>7</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>61</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="F2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="I2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="J2" t="s">
-        <v>91</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="L2" s="2" t="s">
+      <c r="K2" t="s">
+        <v>90</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="O2" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="P2" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="Q2" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="R2" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="S2" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="T2" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="T2" s="7" t="s">
+      <c r="U2" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="V2" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="U2" s="7" t="s">
+      <c r="W2" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="V2" s="7" t="s">
+      <c r="X2" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="W2" s="7" t="s">
+      <c r="Y2" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z2" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="X2" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y2" s="7" t="s">
+      <c r="AA2" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="Z2" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA2" s="5" t="s">
+      <c r="AB2" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="AB2" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="AC2" s="5" t="s">
+      <c r="AC2" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="AD2" s="5" t="s">
+      <c r="AE2" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AE2" s="5" t="s">
+      <c r="AF2" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AG2" s="2" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="T2" r:id="rId1" xr:uid="{62E806D6-9394-5B45-A604-655BD30F27F3}"/>
-    <hyperlink ref="U2" r:id="rId2" xr:uid="{2E4CDE15-9B66-2245-B748-BCAAA05AC9E4}"/>
-    <hyperlink ref="V2" r:id="rId3" xr:uid="{36A593B9-9976-C14C-B755-CA938AC79725}"/>
-    <hyperlink ref="W2" r:id="rId4" xr:uid="{C4819D61-6734-1A4F-84FA-001DDBD1671D}"/>
-    <hyperlink ref="X2" r:id="rId5" xr:uid="{A6B99C3B-70C7-E44A-A7A3-744369CCB48E}"/>
-    <hyperlink ref="Y2" r:id="rId6" xr:uid="{866CFB73-1B1F-9648-AF62-BBB387DC1218}"/>
+    <hyperlink ref="U2" r:id="rId1" xr:uid="{62E806D6-9394-5B45-A604-655BD30F27F3}"/>
+    <hyperlink ref="V2" r:id="rId2" xr:uid="{2E4CDE15-9B66-2245-B748-BCAAA05AC9E4}"/>
+    <hyperlink ref="W2" r:id="rId3" xr:uid="{36A593B9-9976-C14C-B755-CA938AC79725}"/>
+    <hyperlink ref="X2" r:id="rId4" xr:uid="{C4819D61-6734-1A4F-84FA-001DDBD1671D}"/>
+    <hyperlink ref="Y2" r:id="rId5" xr:uid="{A6B99C3B-70C7-E44A-A7A3-744369CCB48E}"/>
+    <hyperlink ref="Z2" r:id="rId6" xr:uid="{866CFB73-1B1F-9648-AF62-BBB387DC1218}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1642,10 +1687,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ABD5772-2955-6C46-88A2-787F9D38DC97}">
-  <dimension ref="A1:AF2"/>
+  <dimension ref="A1:AG2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:XFD2"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1655,34 +1700,35 @@
     <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="5.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="51.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="46.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="12.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="99.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="71.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="35.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="70.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="62.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="103.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="34.33203125" customWidth="1" collapsed="1"/>
-    <col min="29" max="31" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="45.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="5.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="51.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="46.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="12.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="99.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="71.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="35.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="70.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="62.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="103.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="34.33203125" customWidth="1" collapsed="1"/>
+    <col min="30" max="32" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1699,96 +1745,99 @@
         <v>9</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>97</v>
+        <v>7</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>61</v>
@@ -1796,96 +1845,99 @@
       <c r="E2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="I2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="J2" t="s">
-        <v>91</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="L2" s="2" t="s">
+      <c r="K2" t="s">
+        <v>90</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="O2" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="P2" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="Q2" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="R2" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="S2" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="T2" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="T2" s="7" t="s">
+      <c r="U2" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="V2" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="U2" s="7" t="s">
+      <c r="W2" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="V2" s="7" t="s">
+      <c r="X2" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="W2" s="7" t="s">
+      <c r="Y2" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z2" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="X2" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y2" s="7" t="s">
+      <c r="AA2" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="Z2" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA2" s="5" t="s">
+      <c r="AB2" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="AB2" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="AC2" s="5" t="s">
+      <c r="AC2" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="AD2" s="5" t="s">
+      <c r="AE2" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AE2" s="5" t="s">
+      <c r="AF2" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AG2" s="2" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="T2" r:id="rId1" xr:uid="{FF8A98B7-8501-6F47-A2FB-10824115B353}"/>
-    <hyperlink ref="U2" r:id="rId2" xr:uid="{E5504FE2-E34C-AD4E-9FED-91F77342117E}"/>
-    <hyperlink ref="V2" r:id="rId3" xr:uid="{E3CFACEB-C525-FB4B-816E-5C98177D7B3A}"/>
-    <hyperlink ref="W2" r:id="rId4" xr:uid="{037F7191-EF8F-1B41-A957-BC232B559744}"/>
-    <hyperlink ref="X2" r:id="rId5" xr:uid="{C6F51406-8912-3748-8B88-9B0A0A8B059D}"/>
-    <hyperlink ref="Y2" r:id="rId6" xr:uid="{CDB08067-96F2-2742-872D-1B028C2950EE}"/>
+    <hyperlink ref="U2" r:id="rId1" xr:uid="{FF8A98B7-8501-6F47-A2FB-10824115B353}"/>
+    <hyperlink ref="V2" r:id="rId2" xr:uid="{E5504FE2-E34C-AD4E-9FED-91F77342117E}"/>
+    <hyperlink ref="W2" r:id="rId3" xr:uid="{E3CFACEB-C525-FB4B-816E-5C98177D7B3A}"/>
+    <hyperlink ref="X2" r:id="rId4" xr:uid="{037F7191-EF8F-1B41-A957-BC232B559744}"/>
+    <hyperlink ref="Y2" r:id="rId5" xr:uid="{C6F51406-8912-3748-8B88-9B0A0A8B059D}"/>
+    <hyperlink ref="Z2" r:id="rId6" xr:uid="{CDB08067-96F2-2742-872D-1B028C2950EE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1893,10 +1945,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3ACBC21-67F9-9748-8578-54FDD50767ED}">
-  <dimension ref="A1:AF2"/>
+  <dimension ref="A1:AG2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1906,34 +1958,35 @@
     <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="5.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="46.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="51.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="12.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="99.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="71.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="35.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="70.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="103.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="62.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="31" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="45.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="5.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="46.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="51.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="12.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="99.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="71.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="35.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="70.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="103.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="62.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="32" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1950,96 +2003,99 @@
         <v>9</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
@@ -2047,97 +2103,100 @@
       <c r="E2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="2" t="b">
+      <c r="J2" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="O2" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y2" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z2" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA2" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB2" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC2" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD2" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE2" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="O2" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="R2" s="6" t="s">
+      <c r="AF2" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="S2" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="T2" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="U2" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="V2" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="W2" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="X2" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y2" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z2" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA2" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="AB2" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="AC2" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD2" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE2" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AG2" s="2" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="T2" r:id="rId1" xr:uid="{A71DD4B7-4F78-624F-8526-BC2C8DAF91F2}"/>
-    <hyperlink ref="U2" r:id="rId2" xr:uid="{1B540CF2-7A50-6B48-8B71-0C274B92DD51}"/>
-    <hyperlink ref="V2" r:id="rId3" xr:uid="{91AEDBB0-8784-C240-9F57-F0191D9A7F37}"/>
-    <hyperlink ref="W2" r:id="rId4" xr:uid="{4CBB3277-EAC2-1C4C-B5B0-6055F81AEB79}"/>
-    <hyperlink ref="X2" r:id="rId5" xr:uid="{43033950-1900-2048-9098-30C4C6B77A36}"/>
-    <hyperlink ref="Y2" r:id="rId6" xr:uid="{AF882D86-8162-1A40-9D4C-2B7AFACABB92}"/>
-    <hyperlink ref="AB2" r:id="rId7" xr:uid="{F85A03DD-44E5-6E49-B503-8C6C4E7ECC22}"/>
+    <hyperlink ref="U2" r:id="rId1" xr:uid="{A71DD4B7-4F78-624F-8526-BC2C8DAF91F2}"/>
+    <hyperlink ref="V2" r:id="rId2" xr:uid="{1B540CF2-7A50-6B48-8B71-0C274B92DD51}"/>
+    <hyperlink ref="W2" r:id="rId3" xr:uid="{91AEDBB0-8784-C240-9F57-F0191D9A7F37}"/>
+    <hyperlink ref="X2" r:id="rId4" xr:uid="{4CBB3277-EAC2-1C4C-B5B0-6055F81AEB79}"/>
+    <hyperlink ref="Y2" r:id="rId5" xr:uid="{43033950-1900-2048-9098-30C4C6B77A36}"/>
+    <hyperlink ref="Z2" r:id="rId6" xr:uid="{AF882D86-8162-1A40-9D4C-2B7AFACABB92}"/>
+    <hyperlink ref="AC2" r:id="rId7" xr:uid="{F85A03DD-44E5-6E49-B503-8C6C4E7ECC22}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2145,15 +2204,48 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70778CC3-4254-DD46-A825-6190F74A8C8D}">
-  <dimension ref="A1:AF2"/>
+  <dimension ref="A1:AG2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Z2" sqref="Z2"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="45.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="46.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="51.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="30.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="74.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="51.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="50.5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="103.1640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="77.83203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="45.1640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="32" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -2170,96 +2262,99 @@
         <v>9</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
@@ -2267,97 +2362,100 @@
       <c r="E2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="2" t="b">
+      <c r="J2" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="O2" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y2" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z2" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA2" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB2" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC2" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD2" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE2" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="O2" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="R2" s="6" t="s">
+      <c r="AF2" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="S2" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="T2" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="U2" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="V2" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="W2" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="X2" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y2" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z2" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA2" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="AB2" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="AC2" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD2" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE2" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AG2" s="2" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="T2" r:id="rId1" xr:uid="{B41713CD-0C7A-A94A-9E0C-2C92C9129EB5}"/>
-    <hyperlink ref="U2" r:id="rId2" xr:uid="{F8ED6A05-BFC1-7E48-A376-F7EF824AE76F}"/>
-    <hyperlink ref="V2" r:id="rId3" xr:uid="{B2E95E89-7408-7140-82FB-6817D1D4C34A}"/>
-    <hyperlink ref="W2" r:id="rId4" xr:uid="{7BA77DFF-CF38-3F44-95C3-4775F3663E98}"/>
-    <hyperlink ref="X2" r:id="rId5" xr:uid="{A95FE44D-A1CF-E248-A845-0A3B8C68FB3D}"/>
-    <hyperlink ref="Y2" r:id="rId6" xr:uid="{DCB51B4E-919D-6847-9170-E731E9B9D69D}"/>
-    <hyperlink ref="AB2" r:id="rId7" xr:uid="{2489425F-B372-874E-8A85-A3A1E07348EE}"/>
+    <hyperlink ref="U2" r:id="rId1" xr:uid="{B41713CD-0C7A-A94A-9E0C-2C92C9129EB5}"/>
+    <hyperlink ref="V2" r:id="rId2" xr:uid="{F8ED6A05-BFC1-7E48-A376-F7EF824AE76F}"/>
+    <hyperlink ref="W2" r:id="rId3" xr:uid="{B2E95E89-7408-7140-82FB-6817D1D4C34A}"/>
+    <hyperlink ref="X2" r:id="rId4" xr:uid="{7BA77DFF-CF38-3F44-95C3-4775F3663E98}"/>
+    <hyperlink ref="Y2" r:id="rId5" xr:uid="{A95FE44D-A1CF-E248-A845-0A3B8C68FB3D}"/>
+    <hyperlink ref="Z2" r:id="rId6" xr:uid="{DCB51B4E-919D-6847-9170-E731E9B9D69D}"/>
+    <hyperlink ref="AC2" r:id="rId7" xr:uid="{2489425F-B372-874E-8A85-A3A1E07348EE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/fsaautomation/resources/config_properties.xlsx
+++ b/fsaautomation/resources/config_properties.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/auto/SVMX_Catalyst/fsaautomation/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D02C91CC-6237-AE44-B476-4EEA1DE45192}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{D02C91CC-6237-AE44-B476-4EEA1DE45192}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="440" windowWidth="28040" windowHeight="16500" activeTab="4" xr2:uid="{F5AD2FE8-A01F-1E49-94AB-A1FBFAACC706}"/>
+    <workbookView activeTab="4" windowHeight="16500" windowWidth="28040" xWindow="20" xr2:uid="{F5AD2FE8-A01F-1E49-94AB-A1FBFAACC706}" yWindow="440"/>
   </bookViews>
   <sheets>
-    <sheet name="config_local" sheetId="1" r:id="rId1"/>
-    <sheet name="config_automation_build" sheetId="2" r:id="rId2"/>
-    <sheet name="config_automation_tablet_go" sheetId="6" r:id="rId3"/>
-    <sheet name="config_automation_phone" sheetId="3" r:id="rId4"/>
-    <sheet name="config_fsa_pqt_build" sheetId="4" r:id="rId5"/>
-    <sheet name="config_fsa_track_build" sheetId="5" r:id="rId6"/>
+    <sheet name="config_local" r:id="rId1" sheetId="1"/>
+    <sheet name="config_automation_build" r:id="rId2" sheetId="2"/>
+    <sheet name="config_automation_tablet_go" r:id="rId3" sheetId="6"/>
+    <sheet name="config_automation_phone" r:id="rId4" sheetId="3"/>
+    <sheet name="config_fsa_pqt_build" r:id="rId5" sheetId="4"/>
+    <sheet name="config_fsa_track_build" r:id="rId6" sheetId="5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="100">
   <si>
     <t>0053D000001fEk6QAE</t>
   </si>
@@ -396,6 +396,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -462,29 +463,29 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="5" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="12" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="1"/>
+    <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="12" quotePrefix="1" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" quotePrefix="1" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -501,10 +502,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -539,7 +540,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -591,7 +592,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -702,21 +703,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -733,7 +734,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -785,14 +786,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82747902-0905-9A4B-A648-FC506DD60323}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82747902-0905-9A4B-A648-FC506DD60323}">
   <dimension ref="A1:AN34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -801,39 +802,39 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="7" width="27.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="65.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="29.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="40.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="67" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="33.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="35.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="28.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="52.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="45.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="115.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="115.33203125" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="49" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="39.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="84" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="115.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="40.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="74.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="28.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="21.1640625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="30.83203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="21.1640625" collapsed="true"/>
+    <col min="6" max="7" bestFit="true" customWidth="true" width="27.33203125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="65.83203125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="40.5" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="67.0" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="33.33203125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="35.6640625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="28.5" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="52.6640625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="45.33203125" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="115.33203125" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="115.33203125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="49.0" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="39.33203125" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="84.0" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="115.33203125" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="40.5" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="74.33203125" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="28.5" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="1" s="3" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -928,7 +929,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="2" s="2" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -1151,23 +1152,23 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="P2" r:id="rId1" xr:uid="{65290685-B75F-2F47-A5A2-C5F98F0468A7}"/>
-    <hyperlink ref="R2" r:id="rId2" xr:uid="{A8C94B01-4AE8-4A46-A8C0-F0B6766D6C5A}"/>
-    <hyperlink ref="N2" r:id="rId3" xr:uid="{9021A63E-45E4-2247-B495-773BCC48D6BC}"/>
-    <hyperlink ref="T2" r:id="rId4" xr:uid="{111D145D-7C58-0241-B4B7-EC3C95D38325}"/>
-    <hyperlink ref="U2" r:id="rId5" xr:uid="{DA34061A-CC99-BD49-AFD7-59CA373B6607}"/>
-    <hyperlink ref="V2" r:id="rId6" xr:uid="{E3E98677-132E-E64D-A508-185D4810255C}"/>
-    <hyperlink ref="W2" r:id="rId7" xr:uid="{8DB1D18B-EA97-AA4D-9AC7-02A48CDE67A6}"/>
-    <hyperlink ref="X2" r:id="rId8" xr:uid="{64F0B1C6-CD58-A845-A599-DFE23DA422CC}"/>
-    <hyperlink ref="Y2" r:id="rId9" xr:uid="{4FAFCCA4-4F24-0B49-934E-AC441897C9C5}"/>
-    <hyperlink ref="AB2" r:id="rId10" xr:uid="{486C7ACD-3F79-B144-8138-AEDF137735C6}"/>
+    <hyperlink r:id="rId1" ref="P2" xr:uid="{65290685-B75F-2F47-A5A2-C5F98F0468A7}"/>
+    <hyperlink r:id="rId2" ref="R2" xr:uid="{A8C94B01-4AE8-4A46-A8C0-F0B6766D6C5A}"/>
+    <hyperlink r:id="rId3" ref="N2" xr:uid="{9021A63E-45E4-2247-B495-773BCC48D6BC}"/>
+    <hyperlink r:id="rId4" ref="T2" xr:uid="{111D145D-7C58-0241-B4B7-EC3C95D38325}"/>
+    <hyperlink r:id="rId5" ref="U2" xr:uid="{DA34061A-CC99-BD49-AFD7-59CA373B6607}"/>
+    <hyperlink r:id="rId6" ref="V2" xr:uid="{E3E98677-132E-E64D-A508-185D4810255C}"/>
+    <hyperlink r:id="rId7" ref="W2" xr:uid="{8DB1D18B-EA97-AA4D-9AC7-02A48CDE67A6}"/>
+    <hyperlink r:id="rId8" ref="X2" xr:uid="{64F0B1C6-CD58-A845-A599-DFE23DA422CC}"/>
+    <hyperlink r:id="rId9" ref="Y2" xr:uid="{4FAFCCA4-4F24-0B49-934E-AC441897C9C5}"/>
+    <hyperlink r:id="rId10" ref="AB2" xr:uid="{486C7ACD-3F79-B144-8138-AEDF137735C6}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61BF172F-CE08-6840-ACF9-880AB6E40DE2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61BF172F-CE08-6840-ACF9-880AB6E40DE2}">
   <dimension ref="A1:AG2"/>
   <sheetViews>
     <sheetView topLeftCell="I1" workbookViewId="0">
@@ -1176,42 +1177,42 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="45.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="5.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="51.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="46.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="40.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="99.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="71.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="35.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="70.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="103.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="62.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="62.1640625" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="45.33203125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="5.83203125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="51.33203125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="46.5" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="40.5" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="99.6640625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="71.83203125" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="35.6640625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="70.6640625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="103.1640625" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="62.1640625" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" width="62.1640625" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="1" s="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1312,7 +1313,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="2" s="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>95</v>
       </c>
@@ -1415,21 +1416,21 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="U2" r:id="rId1" xr:uid="{2373DCCF-7CF7-6D48-9391-B2017EA3F6CB}"/>
-    <hyperlink ref="V2" r:id="rId2" xr:uid="{45EF8F3D-534D-2F45-94E3-C73D8504CC2F}"/>
-    <hyperlink ref="W2" r:id="rId3" xr:uid="{317C8481-D29E-9841-A568-E5293BF078E6}"/>
-    <hyperlink ref="X2" r:id="rId4" xr:uid="{2250E180-CC76-0844-A14E-BECC396552E1}"/>
-    <hyperlink ref="Y2" r:id="rId5" xr:uid="{3B6377D4-E37D-8E4E-A566-7D3CA80B53F6}"/>
-    <hyperlink ref="Z2" r:id="rId6" xr:uid="{08609375-5C82-1140-80FE-D1DE3470E1BE}"/>
-    <hyperlink ref="AC2" r:id="rId7" xr:uid="{195848E9-E895-054F-8CD9-4B349763F02C}"/>
+    <hyperlink r:id="rId1" ref="U2" xr:uid="{2373DCCF-7CF7-6D48-9391-B2017EA3F6CB}"/>
+    <hyperlink r:id="rId2" ref="V2" xr:uid="{45EF8F3D-534D-2F45-94E3-C73D8504CC2F}"/>
+    <hyperlink r:id="rId3" ref="W2" xr:uid="{317C8481-D29E-9841-A568-E5293BF078E6}"/>
+    <hyperlink r:id="rId4" ref="X2" xr:uid="{2250E180-CC76-0844-A14E-BECC396552E1}"/>
+    <hyperlink r:id="rId5" ref="Y2" xr:uid="{3B6377D4-E37D-8E4E-A566-7D3CA80B53F6}"/>
+    <hyperlink r:id="rId6" ref="Z2" xr:uid="{08609375-5C82-1140-80FE-D1DE3470E1BE}"/>
+    <hyperlink r:id="rId7" ref="AC2" xr:uid="{195848E9-E895-054F-8CD9-4B349763F02C}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACA13EFD-5466-DB43-9A70-FA51FEB925E4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACA13EFD-5466-DB43-9A70-FA51FEB925E4}">
   <dimension ref="A1:AG2"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
@@ -1438,39 +1439,39 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="45.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="53.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="55" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="25" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="74.5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="51.33203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="25.1640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="23.83203125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="50.5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="45.1640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="103.1640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="32" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
+    <col min="4" max="5" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="45.33203125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="5.83203125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="53.83203125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="55.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="12.83203125" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="25.0" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="74.5" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="51.33203125" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="25.1640625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="23.83203125" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="50.5" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="45.1640625" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="103.1640625" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="30" max="32" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="1" s="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1571,7 +1572,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="2" s="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -1674,19 +1675,19 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="U2" r:id="rId1" xr:uid="{62E806D6-9394-5B45-A604-655BD30F27F3}"/>
-    <hyperlink ref="V2" r:id="rId2" xr:uid="{2E4CDE15-9B66-2245-B748-BCAAA05AC9E4}"/>
-    <hyperlink ref="W2" r:id="rId3" xr:uid="{36A593B9-9976-C14C-B755-CA938AC79725}"/>
-    <hyperlink ref="X2" r:id="rId4" xr:uid="{C4819D61-6734-1A4F-84FA-001DDBD1671D}"/>
-    <hyperlink ref="Y2" r:id="rId5" xr:uid="{A6B99C3B-70C7-E44A-A7A3-744369CCB48E}"/>
-    <hyperlink ref="Z2" r:id="rId6" xr:uid="{866CFB73-1B1F-9648-AF62-BBB387DC1218}"/>
+    <hyperlink r:id="rId1" ref="U2" xr:uid="{62E806D6-9394-5B45-A604-655BD30F27F3}"/>
+    <hyperlink r:id="rId2" ref="V2" xr:uid="{2E4CDE15-9B66-2245-B748-BCAAA05AC9E4}"/>
+    <hyperlink r:id="rId3" ref="W2" xr:uid="{36A593B9-9976-C14C-B755-CA938AC79725}"/>
+    <hyperlink r:id="rId4" ref="X2" xr:uid="{C4819D61-6734-1A4F-84FA-001DDBD1671D}"/>
+    <hyperlink r:id="rId5" ref="Y2" xr:uid="{A6B99C3B-70C7-E44A-A7A3-744369CCB48E}"/>
+    <hyperlink r:id="rId6" ref="Z2" xr:uid="{866CFB73-1B1F-9648-AF62-BBB387DC1218}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ABD5772-2955-6C46-88A2-787F9D38DC97}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ABD5772-2955-6C46-88A2-787F9D38DC97}">
   <dimension ref="A1:AG2"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
@@ -1695,40 +1696,40 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="45.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="5.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="51.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="46.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="12.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="99.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="71.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="35.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="70.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="62.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="103.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="34.33203125" customWidth="1" collapsed="1"/>
-    <col min="30" max="32" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="45.33203125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="5.83203125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="51.33203125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="46.5" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="12.83203125" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="99.6640625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="71.83203125" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="35.6640625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="70.6640625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="62.1640625" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="103.1640625" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" width="34.33203125" collapsed="true"/>
+    <col min="30" max="32" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="1" s="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1829,7 +1830,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="2" s="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -1932,19 +1933,19 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="U2" r:id="rId1" xr:uid="{FF8A98B7-8501-6F47-A2FB-10824115B353}"/>
-    <hyperlink ref="V2" r:id="rId2" xr:uid="{E5504FE2-E34C-AD4E-9FED-91F77342117E}"/>
-    <hyperlink ref="W2" r:id="rId3" xr:uid="{E3CFACEB-C525-FB4B-816E-5C98177D7B3A}"/>
-    <hyperlink ref="X2" r:id="rId4" xr:uid="{037F7191-EF8F-1B41-A957-BC232B559744}"/>
-    <hyperlink ref="Y2" r:id="rId5" xr:uid="{C6F51406-8912-3748-8B88-9B0A0A8B059D}"/>
-    <hyperlink ref="Z2" r:id="rId6" xr:uid="{CDB08067-96F2-2742-872D-1B028C2950EE}"/>
+    <hyperlink r:id="rId1" ref="U2" xr:uid="{FF8A98B7-8501-6F47-A2FB-10824115B353}"/>
+    <hyperlink r:id="rId2" ref="V2" xr:uid="{E5504FE2-E34C-AD4E-9FED-91F77342117E}"/>
+    <hyperlink r:id="rId3" ref="W2" xr:uid="{E3CFACEB-C525-FB4B-816E-5C98177D7B3A}"/>
+    <hyperlink r:id="rId4" ref="X2" xr:uid="{037F7191-EF8F-1B41-A957-BC232B559744}"/>
+    <hyperlink r:id="rId5" ref="Y2" xr:uid="{C6F51406-8912-3748-8B88-9B0A0A8B059D}"/>
+    <hyperlink r:id="rId6" ref="Z2" xr:uid="{CDB08067-96F2-2742-872D-1B028C2950EE}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3ACBC21-67F9-9748-8578-54FDD50767ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3ACBC21-67F9-9748-8578-54FDD50767ED}">
   <dimension ref="A1:AG2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
@@ -1953,40 +1954,40 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="45.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="5.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="46.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="51.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="12.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="99.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="71.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="35.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="70.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="103.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="62.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="32" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="45.33203125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="5.83203125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="46.5" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="51.33203125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="12.83203125" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="99.6640625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="71.83203125" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="35.6640625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="70.6640625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="103.1640625" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="62.1640625" collapsed="true"/>
+    <col min="30" max="32" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="1" s="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -2087,7 +2088,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="2" s="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -2190,20 +2191,20 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="U2" r:id="rId1" xr:uid="{A71DD4B7-4F78-624F-8526-BC2C8DAF91F2}"/>
-    <hyperlink ref="V2" r:id="rId2" xr:uid="{1B540CF2-7A50-6B48-8B71-0C274B92DD51}"/>
-    <hyperlink ref="W2" r:id="rId3" xr:uid="{91AEDBB0-8784-C240-9F57-F0191D9A7F37}"/>
-    <hyperlink ref="X2" r:id="rId4" xr:uid="{4CBB3277-EAC2-1C4C-B5B0-6055F81AEB79}"/>
-    <hyperlink ref="Y2" r:id="rId5" xr:uid="{43033950-1900-2048-9098-30C4C6B77A36}"/>
-    <hyperlink ref="Z2" r:id="rId6" xr:uid="{AF882D86-8162-1A40-9D4C-2B7AFACABB92}"/>
-    <hyperlink ref="AC2" r:id="rId7" xr:uid="{F85A03DD-44E5-6E49-B503-8C6C4E7ECC22}"/>
+    <hyperlink r:id="rId1" ref="U2" xr:uid="{A71DD4B7-4F78-624F-8526-BC2C8DAF91F2}"/>
+    <hyperlink r:id="rId2" ref="V2" xr:uid="{1B540CF2-7A50-6B48-8B71-0C274B92DD51}"/>
+    <hyperlink r:id="rId3" ref="W2" xr:uid="{91AEDBB0-8784-C240-9F57-F0191D9A7F37}"/>
+    <hyperlink r:id="rId4" ref="X2" xr:uid="{4CBB3277-EAC2-1C4C-B5B0-6055F81AEB79}"/>
+    <hyperlink r:id="rId5" ref="Y2" xr:uid="{43033950-1900-2048-9098-30C4C6B77A36}"/>
+    <hyperlink r:id="rId6" ref="Z2" xr:uid="{AF882D86-8162-1A40-9D4C-2B7AFACABB92}"/>
+    <hyperlink r:id="rId7" ref="AC2" xr:uid="{F85A03DD-44E5-6E49-B503-8C6C4E7ECC22}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70778CC3-4254-DD46-A825-6190F74A8C8D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70778CC3-4254-DD46-A825-6190F74A8C8D}">
   <dimension ref="A1:AG2"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
@@ -2212,40 +2213,40 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="45.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="46.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="51.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="30.83203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="28.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="24.1640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="74.5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="51.33203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="25.1640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="23.83203125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="50.5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="103.1640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="77.83203125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="45.1640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="32" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="45.33203125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="5.83203125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="46.5" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="51.33203125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="30.83203125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="12.83203125" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="28.5" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="24.1640625" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="74.5" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="51.33203125" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="25.1640625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="23.83203125" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="50.5" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="103.1640625" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="77.83203125" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="45.1640625" collapsed="true"/>
+    <col min="30" max="32" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="1" s="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -2346,7 +2347,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="2" s="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -2449,14 +2450,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="U2" r:id="rId1" xr:uid="{B41713CD-0C7A-A94A-9E0C-2C92C9129EB5}"/>
-    <hyperlink ref="V2" r:id="rId2" xr:uid="{F8ED6A05-BFC1-7E48-A376-F7EF824AE76F}"/>
-    <hyperlink ref="W2" r:id="rId3" xr:uid="{B2E95E89-7408-7140-82FB-6817D1D4C34A}"/>
-    <hyperlink ref="X2" r:id="rId4" xr:uid="{7BA77DFF-CF38-3F44-95C3-4775F3663E98}"/>
-    <hyperlink ref="Y2" r:id="rId5" xr:uid="{A95FE44D-A1CF-E248-A845-0A3B8C68FB3D}"/>
-    <hyperlink ref="Z2" r:id="rId6" xr:uid="{DCB51B4E-919D-6847-9170-E731E9B9D69D}"/>
-    <hyperlink ref="AC2" r:id="rId7" xr:uid="{2489425F-B372-874E-8A85-A3A1E07348EE}"/>
+    <hyperlink r:id="rId1" ref="U2" xr:uid="{B41713CD-0C7A-A94A-9E0C-2C92C9129EB5}"/>
+    <hyperlink r:id="rId2" ref="V2" xr:uid="{F8ED6A05-BFC1-7E48-A376-F7EF824AE76F}"/>
+    <hyperlink r:id="rId3" ref="W2" xr:uid="{B2E95E89-7408-7140-82FB-6817D1D4C34A}"/>
+    <hyperlink r:id="rId4" ref="X2" xr:uid="{7BA77DFF-CF38-3F44-95C3-4775F3663E98}"/>
+    <hyperlink r:id="rId5" ref="Y2" xr:uid="{A95FE44D-A1CF-E248-A845-0A3B8C68FB3D}"/>
+    <hyperlink r:id="rId6" ref="Z2" xr:uid="{DCB51B4E-919D-6847-9170-E731E9B9D69D}"/>
+    <hyperlink r:id="rId7" ref="AC2" xr:uid="{2489425F-B372-874E-8A85-A3A1E07348EE}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/fsaautomation/resources/config_properties.xlsx
+++ b/fsaautomation/resources/config_properties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/auto/SVMX_Catalyst/fsaautomation/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{D02C91CC-6237-AE44-B476-4EEA1DE45192}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36"/>
+  <xr:revisionPtr documentId="13_ncr:1_{3205CCC6-6A4C-AA41-980E-FE84701C1BDB}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36"/>
   <bookViews>
-    <workbookView activeTab="4" windowHeight="16500" windowWidth="28040" xWindow="20" xr2:uid="{F5AD2FE8-A01F-1E49-94AB-A1FBFAACC706}" yWindow="440"/>
+    <workbookView windowHeight="16500" windowWidth="28040" xWindow="20" xr2:uid="{F5AD2FE8-A01F-1E49-94AB-A1FBFAACC706}" yWindow="440"/>
   </bookViews>
   <sheets>
     <sheet name="config_local" r:id="rId1" sheetId="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="100">
   <si>
     <t>0053D000001fEk6QAE</t>
   </si>
@@ -794,10 +794,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82747902-0905-9A4B-A648-FC506DD60323}">
-  <dimension ref="A1:AN34"/>
+  <dimension ref="A1:AO34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -807,34 +807,35 @@
     <col min="3" max="3" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="21.1640625" collapsed="true"/>
-    <col min="6" max="7" bestFit="true" customWidth="true" width="27.33203125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="65.83203125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="40.5" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="67.0" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="33.33203125" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="35.6640625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="28.5" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="52.6640625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="45.33203125" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="115.33203125" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" width="115.33203125" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="49.0" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="39.33203125" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="84.0" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="115.33203125" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="40.5" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="74.33203125" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="28.5" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="45.33203125" collapsed="true"/>
+    <col min="7" max="8" bestFit="true" customWidth="true" width="27.33203125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="65.83203125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="40.5" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="67.0" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="33.33203125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="35.6640625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="28.5" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="52.6640625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="45.33203125" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="115.33203125" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="115.33203125" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="49.0" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="39.33203125" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="84.0" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="115.33203125" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="40.5" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="74.33203125" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="28.5" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="3" spans="1:40" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="1" s="3" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -851,85 +852,88 @@
         <v>9</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="2" spans="1:40" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="2" s="2" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -945,223 +949,226 @@
       <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="2" t="b">
+      <c r="J2" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="T2" s="7" t="s">
+      <c r="U2" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="U2" s="7" t="s">
+      <c r="V2" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="V2" s="7" t="s">
+      <c r="W2" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="W2" s="7" t="s">
+      <c r="X2" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="X2" s="7" t="s">
+      <c r="Y2" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="Y2" s="7" t="s">
+      <c r="Z2" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AA2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="AA2" s="11" t="s">
+      <c r="AB2" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="AB2" s="7" t="s">
+      <c r="AC2" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AD2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AD2" s="2" t="s">
+      <c r="AE2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AF2" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.2">
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-      <c r="H3" s="2"/>
       <c r="I3" s="2"/>
-      <c r="J3" s="1"/>
+      <c r="J3" s="2"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="2"/>
+      <c r="L3" s="1"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
-      <c r="R3" s="1"/>
+      <c r="Q3" s="2"/>
       <c r="S3" s="1"/>
-      <c r="T3" s="2"/>
-      <c r="Y3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="2"/>
       <c r="Z3" s="1"/>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="2"/>
       <c r="AC3" s="1"/>
-      <c r="AD3" s="2"/>
+      <c r="AD3" s="1"/>
       <c r="AE3" s="2"/>
       <c r="AF3" s="2"/>
       <c r="AG3" s="2"/>
       <c r="AH3" s="2"/>
-      <c r="AI3" s="1"/>
-      <c r="AJ3" s="2"/>
+      <c r="AI3" s="2"/>
+      <c r="AJ3" s="1"/>
       <c r="AK3" s="2"/>
-      <c r="AL3" s="1"/>
+      <c r="AL3" s="2"/>
       <c r="AM3" s="1"/>
-      <c r="AN3" s="2"/>
-    </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H23" s="1"/>
-    </row>
-    <row r="24" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H24" s="2"/>
-    </row>
-    <row r="25" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H25" s="2"/>
-    </row>
-    <row r="26" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H26" s="2"/>
-    </row>
-    <row r="27" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H27" s="2"/>
-    </row>
-    <row r="28" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H28" s="2"/>
-    </row>
-    <row r="29" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H29" s="1"/>
-    </row>
-    <row r="30" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H30" s="2"/>
-    </row>
-    <row r="31" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H31" s="2"/>
-    </row>
-    <row r="32" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H32" s="1"/>
-    </row>
-    <row r="33" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H33" s="1"/>
-    </row>
-    <row r="34" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H34" s="2"/>
+      <c r="AN3" s="1"/>
+      <c r="AO3" s="2"/>
+    </row>
+    <row r="4" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I28" s="2"/>
+    </row>
+    <row r="29" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I30" s="2"/>
+    </row>
+    <row r="31" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I31" s="2"/>
+    </row>
+    <row r="32" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I34" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="P2" xr:uid="{65290685-B75F-2F47-A5A2-C5F98F0468A7}"/>
-    <hyperlink r:id="rId2" ref="R2" xr:uid="{A8C94B01-4AE8-4A46-A8C0-F0B6766D6C5A}"/>
-    <hyperlink r:id="rId3" ref="N2" xr:uid="{9021A63E-45E4-2247-B495-773BCC48D6BC}"/>
-    <hyperlink r:id="rId4" ref="T2" xr:uid="{111D145D-7C58-0241-B4B7-EC3C95D38325}"/>
-    <hyperlink r:id="rId5" ref="U2" xr:uid="{DA34061A-CC99-BD49-AFD7-59CA373B6607}"/>
-    <hyperlink r:id="rId6" ref="V2" xr:uid="{E3E98677-132E-E64D-A508-185D4810255C}"/>
-    <hyperlink r:id="rId7" ref="W2" xr:uid="{8DB1D18B-EA97-AA4D-9AC7-02A48CDE67A6}"/>
-    <hyperlink r:id="rId8" ref="X2" xr:uid="{64F0B1C6-CD58-A845-A599-DFE23DA422CC}"/>
-    <hyperlink r:id="rId9" ref="Y2" xr:uid="{4FAFCCA4-4F24-0B49-934E-AC441897C9C5}"/>
-    <hyperlink r:id="rId10" ref="AB2" xr:uid="{486C7ACD-3F79-B144-8138-AEDF137735C6}"/>
+    <hyperlink r:id="rId1" ref="Q2" xr:uid="{65290685-B75F-2F47-A5A2-C5F98F0468A7}"/>
+    <hyperlink r:id="rId2" ref="S2" xr:uid="{A8C94B01-4AE8-4A46-A8C0-F0B6766D6C5A}"/>
+    <hyperlink r:id="rId3" ref="O2" xr:uid="{9021A63E-45E4-2247-B495-773BCC48D6BC}"/>
+    <hyperlink r:id="rId4" ref="U2" xr:uid="{111D145D-7C58-0241-B4B7-EC3C95D38325}"/>
+    <hyperlink r:id="rId5" ref="V2" xr:uid="{DA34061A-CC99-BD49-AFD7-59CA373B6607}"/>
+    <hyperlink r:id="rId6" ref="W2" xr:uid="{E3E98677-132E-E64D-A508-185D4810255C}"/>
+    <hyperlink r:id="rId7" ref="X2" xr:uid="{8DB1D18B-EA97-AA4D-9AC7-02A48CDE67A6}"/>
+    <hyperlink r:id="rId8" ref="Y2" xr:uid="{64F0B1C6-CD58-A845-A599-DFE23DA422CC}"/>
+    <hyperlink r:id="rId9" ref="Z2" xr:uid="{4FAFCCA4-4F24-0B49-934E-AC441897C9C5}"/>
+    <hyperlink r:id="rId10" ref="AC2" xr:uid="{486C7ACD-3F79-B144-8138-AEDF137735C6}"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1433,7 +1440,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACA13EFD-5466-DB43-9A70-FA51FEB925E4}">
   <dimension ref="A1:AG2"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
@@ -1948,7 +1955,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3ACBC21-67F9-9748-8578-54FDD50767ED}">
   <dimension ref="A1:AG2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+    <sheetView topLeftCell="L1" workbookViewId="0">
       <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>

--- a/fsaautomation/resources/config_properties.xlsx
+++ b/fsaautomation/resources/config_properties.xlsx
@@ -1,27 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27809"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/auto/SVMX_Catalyst/fsaautomation/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{3205CCC6-6A4C-AA41-980E-FE84701C1BDB}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36"/>
   <bookViews>
-    <workbookView windowHeight="16500" windowWidth="28040" xWindow="20" xr2:uid="{F5AD2FE8-A01F-1E49-94AB-A1FBFAACC706}" yWindow="440"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="28040" windowHeight="16500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="config_local" r:id="rId1" sheetId="1"/>
-    <sheet name="config_automation_build" r:id="rId2" sheetId="2"/>
-    <sheet name="config_automation_tablet_go" r:id="rId3" sheetId="6"/>
-    <sheet name="config_automation_phone" r:id="rId4" sheetId="3"/>
-    <sheet name="config_fsa_pqt_build" r:id="rId5" sheetId="4"/>
-    <sheet name="config_fsa_track_build" r:id="rId6" sheetId="5"/>
+    <sheet name="config_local" sheetId="1" r:id="rId1"/>
+    <sheet name="config_automation_build" sheetId="2" r:id="rId2"/>
+    <sheet name="config_automation_tablet_go" sheetId="6" r:id="rId3"/>
+    <sheet name="config_automation_phone" sheetId="3" r:id="rId4"/>
+    <sheet name="config_fsa_pqt_build" sheetId="4" r:id="rId5"/>
+    <sheet name="config_fsa_track_build" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -30,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="100">
   <si>
     <t>0053D000001fEk6QAE</t>
   </si>
@@ -377,9 +382,6 @@
     <t>iPhone Developer: Rajesh Rao (76X824PR66)</t>
   </si>
   <si>
-    <t>browser</t>
-  </si>
-  <si>
     <t>9</t>
   </si>
   <si>
@@ -390,13 +392,15 @@
   </si>
   <si>
     <t>APP_BUNDLEID</t>
+  </si>
+  <si>
+    <t>android</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -463,29 +467,29 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="5" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="1"/>
-    <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="12" quotePrefix="1" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="12" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -502,10 +506,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -540,7 +544,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -592,7 +596,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -703,21 +707,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -734,7 +738,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -786,56 +790,56 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82747902-0905-9A4B-A648-FC506DD60323}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="21.1640625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="30.83203125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="21.1640625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="45.33203125" collapsed="true"/>
-    <col min="7" max="8" bestFit="true" customWidth="true" width="27.33203125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="65.83203125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="40.5" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="67.0" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="33.33203125" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="35.6640625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="28.5" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="52.6640625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="45.33203125" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="115.33203125" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" width="115.33203125" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="49.0" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="39.33203125" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="84.0" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="115.33203125" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="40.5" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="74.33203125" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="28.5" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="1" max="1" width="21.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="45.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="8" width="27.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="65.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="29.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="40.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="67" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="33.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="35.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="28.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="52.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="45.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="115.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="115.33203125" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="49" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="39.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="84" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="115.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="40.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="74.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="28.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="3" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:41" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -852,7 +856,7 @@
         <v>9</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>6</v>
@@ -933,7 +937,7 @@
         <v>39</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="2" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -950,7 +954,7 @@
         <v>8</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>50</v>
@@ -1159,67 +1163,67 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="Q2" xr:uid="{65290685-B75F-2F47-A5A2-C5F98F0468A7}"/>
-    <hyperlink r:id="rId2" ref="S2" xr:uid="{A8C94B01-4AE8-4A46-A8C0-F0B6766D6C5A}"/>
-    <hyperlink r:id="rId3" ref="O2" xr:uid="{9021A63E-45E4-2247-B495-773BCC48D6BC}"/>
-    <hyperlink r:id="rId4" ref="U2" xr:uid="{111D145D-7C58-0241-B4B7-EC3C95D38325}"/>
-    <hyperlink r:id="rId5" ref="V2" xr:uid="{DA34061A-CC99-BD49-AFD7-59CA373B6607}"/>
-    <hyperlink r:id="rId6" ref="W2" xr:uid="{E3E98677-132E-E64D-A508-185D4810255C}"/>
-    <hyperlink r:id="rId7" ref="X2" xr:uid="{8DB1D18B-EA97-AA4D-9AC7-02A48CDE67A6}"/>
-    <hyperlink r:id="rId8" ref="Y2" xr:uid="{64F0B1C6-CD58-A845-A599-DFE23DA422CC}"/>
-    <hyperlink r:id="rId9" ref="Z2" xr:uid="{4FAFCCA4-4F24-0B49-934E-AC441897C9C5}"/>
-    <hyperlink r:id="rId10" ref="AC2" xr:uid="{486C7ACD-3F79-B144-8138-AEDF137735C6}"/>
+    <hyperlink ref="Q2" r:id="rId1"/>
+    <hyperlink ref="S2" r:id="rId2"/>
+    <hyperlink ref="O2" r:id="rId3"/>
+    <hyperlink ref="U2" r:id="rId4"/>
+    <hyperlink ref="V2" r:id="rId5"/>
+    <hyperlink ref="W2" r:id="rId6"/>
+    <hyperlink ref="X2" r:id="rId7"/>
+    <hyperlink ref="Y2" r:id="rId8"/>
+    <hyperlink ref="Z2" r:id="rId9"/>
+    <hyperlink ref="AC2" r:id="rId10"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61BF172F-CE08-6840-ACF9-880AB6E40DE2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG2"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="45.33203125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="5.83203125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="51.33203125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="46.5" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="40.5" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="99.6640625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="71.83203125" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="35.6640625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="70.6640625" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="103.1640625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="62.1640625" collapsed="true"/>
-    <col min="30" max="30" customWidth="true" width="62.1640625" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="45.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="5.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="51.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="46.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="40.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="99.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="71.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="35.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="70.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="103.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="62.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="62.1640625" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="3" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1236,7 +1240,7 @@
         <v>9</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>6</v>
@@ -1320,9 +1324,9 @@
         <v>39</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="2" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>95</v>
+        <v>7</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>92</v>
@@ -1337,7 +1341,7 @@
         <v>52</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>50</v>
@@ -1423,21 +1427,21 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="U2" xr:uid="{2373DCCF-7CF7-6D48-9391-B2017EA3F6CB}"/>
-    <hyperlink r:id="rId2" ref="V2" xr:uid="{45EF8F3D-534D-2F45-94E3-C73D8504CC2F}"/>
-    <hyperlink r:id="rId3" ref="W2" xr:uid="{317C8481-D29E-9841-A568-E5293BF078E6}"/>
-    <hyperlink r:id="rId4" ref="X2" xr:uid="{2250E180-CC76-0844-A14E-BECC396552E1}"/>
-    <hyperlink r:id="rId5" ref="Y2" xr:uid="{3B6377D4-E37D-8E4E-A566-7D3CA80B53F6}"/>
-    <hyperlink r:id="rId6" ref="Z2" xr:uid="{08609375-5C82-1140-80FE-D1DE3470E1BE}"/>
-    <hyperlink r:id="rId7" ref="AC2" xr:uid="{195848E9-E895-054F-8CD9-4B349763F02C}"/>
+    <hyperlink ref="U2" r:id="rId1"/>
+    <hyperlink ref="V2" r:id="rId2"/>
+    <hyperlink ref="W2" r:id="rId3"/>
+    <hyperlink ref="X2" r:id="rId4"/>
+    <hyperlink ref="Y2" r:id="rId5"/>
+    <hyperlink ref="Z2" r:id="rId6"/>
+    <hyperlink ref="AC2" r:id="rId7"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACA13EFD-5466-DB43-9A70-FA51FEB925E4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -1446,39 +1450,39 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
-    <col min="4" max="5" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="45.33203125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="5.83203125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="53.83203125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="55.0" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="12.83203125" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="25.0" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="74.5" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="51.33203125" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="25.1640625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="23.83203125" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="50.5" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="45.1640625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="103.1640625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="30" max="32" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="45.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="5.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="53.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="55" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="12.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="25" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="74.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="51.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="25.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="23.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="50.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="45.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="103.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="32" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="3" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1495,7 +1499,7 @@
         <v>9</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>6</v>
@@ -1579,7 +1583,7 @@
         <v>39</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="2" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -1587,16 +1591,16 @@
         <v>92</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>61</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>97</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>98</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>50</v>
@@ -1682,61 +1686,61 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="U2" xr:uid="{62E806D6-9394-5B45-A604-655BD30F27F3}"/>
-    <hyperlink r:id="rId2" ref="V2" xr:uid="{2E4CDE15-9B66-2245-B748-BCAAA05AC9E4}"/>
-    <hyperlink r:id="rId3" ref="W2" xr:uid="{36A593B9-9976-C14C-B755-CA938AC79725}"/>
-    <hyperlink r:id="rId4" ref="X2" xr:uid="{C4819D61-6734-1A4F-84FA-001DDBD1671D}"/>
-    <hyperlink r:id="rId5" ref="Y2" xr:uid="{A6B99C3B-70C7-E44A-A7A3-744369CCB48E}"/>
-    <hyperlink r:id="rId6" ref="Z2" xr:uid="{866CFB73-1B1F-9648-AF62-BBB387DC1218}"/>
+    <hyperlink ref="U2" r:id="rId1"/>
+    <hyperlink ref="V2" r:id="rId2"/>
+    <hyperlink ref="W2" r:id="rId3"/>
+    <hyperlink ref="X2" r:id="rId4"/>
+    <hyperlink ref="Y2" r:id="rId5"/>
+    <hyperlink ref="Z2" r:id="rId6"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ABD5772-2955-6C46-88A2-787F9D38DC97}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG2"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="45.33203125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="5.83203125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="51.33203125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="46.5" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="12.83203125" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="99.6640625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="71.83203125" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="35.6640625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="70.6640625" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="62.1640625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="103.1640625" collapsed="true"/>
-    <col min="29" max="29" customWidth="true" width="34.33203125" collapsed="true"/>
-    <col min="30" max="32" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="45.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="5.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="51.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="46.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="12.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="99.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="71.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="35.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="70.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="62.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="103.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="34.33203125" customWidth="1" collapsed="1"/>
+    <col min="30" max="32" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="3" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1753,7 +1757,7 @@
         <v>9</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>6</v>
@@ -1837,15 +1841,15 @@
         <v>39</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="2" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>92</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>61</v>
@@ -1854,7 +1858,7 @@
         <v>8</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>50</v>
@@ -1940,61 +1944,61 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="U2" xr:uid="{FF8A98B7-8501-6F47-A2FB-10824115B353}"/>
-    <hyperlink r:id="rId2" ref="V2" xr:uid="{E5504FE2-E34C-AD4E-9FED-91F77342117E}"/>
-    <hyperlink r:id="rId3" ref="W2" xr:uid="{E3CFACEB-C525-FB4B-816E-5C98177D7B3A}"/>
-    <hyperlink r:id="rId4" ref="X2" xr:uid="{037F7191-EF8F-1B41-A957-BC232B559744}"/>
-    <hyperlink r:id="rId5" ref="Y2" xr:uid="{C6F51406-8912-3748-8B88-9B0A0A8B059D}"/>
-    <hyperlink r:id="rId6" ref="Z2" xr:uid="{CDB08067-96F2-2742-872D-1B028C2950EE}"/>
+    <hyperlink ref="U2" r:id="rId1"/>
+    <hyperlink ref="V2" r:id="rId2"/>
+    <hyperlink ref="W2" r:id="rId3"/>
+    <hyperlink ref="X2" r:id="rId4"/>
+    <hyperlink ref="Y2" r:id="rId5"/>
+    <hyperlink ref="Z2" r:id="rId6"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3ACBC21-67F9-9748-8578-54FDD50767ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG2"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="45.33203125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="5.83203125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="46.5" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="51.33203125" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="12.83203125" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="99.6640625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="71.83203125" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="35.6640625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="70.6640625" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="103.1640625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="62.1640625" collapsed="true"/>
-    <col min="30" max="32" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="45.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="5.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="46.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="51.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="12.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="99.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="71.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="35.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="70.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="103.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="62.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="32" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="3" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -2011,7 +2015,7 @@
         <v>9</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>6</v>
@@ -2095,9 +2099,9 @@
         <v>39</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="2" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>92</v>
@@ -2106,13 +2110,13 @@
         <v>91</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>52</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>50</v>
@@ -2198,20 +2202,20 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="U2" xr:uid="{A71DD4B7-4F78-624F-8526-BC2C8DAF91F2}"/>
-    <hyperlink r:id="rId2" ref="V2" xr:uid="{1B540CF2-7A50-6B48-8B71-0C274B92DD51}"/>
-    <hyperlink r:id="rId3" ref="W2" xr:uid="{91AEDBB0-8784-C240-9F57-F0191D9A7F37}"/>
-    <hyperlink r:id="rId4" ref="X2" xr:uid="{4CBB3277-EAC2-1C4C-B5B0-6055F81AEB79}"/>
-    <hyperlink r:id="rId5" ref="Y2" xr:uid="{43033950-1900-2048-9098-30C4C6B77A36}"/>
-    <hyperlink r:id="rId6" ref="Z2" xr:uid="{AF882D86-8162-1A40-9D4C-2B7AFACABB92}"/>
-    <hyperlink r:id="rId7" ref="AC2" xr:uid="{F85A03DD-44E5-6E49-B503-8C6C4E7ECC22}"/>
+    <hyperlink ref="U2" r:id="rId1"/>
+    <hyperlink ref="V2" r:id="rId2"/>
+    <hyperlink ref="W2" r:id="rId3"/>
+    <hyperlink ref="X2" r:id="rId4"/>
+    <hyperlink ref="Y2" r:id="rId5"/>
+    <hyperlink ref="Z2" r:id="rId6"/>
+    <hyperlink ref="AC2" r:id="rId7"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70778CC3-4254-DD46-A825-6190F74A8C8D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG2"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
@@ -2220,40 +2224,40 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="45.33203125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="5.83203125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="46.5" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="51.33203125" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="30.83203125" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="12.83203125" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="28.5" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="24.1640625" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="74.5" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="51.33203125" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="25.1640625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="23.83203125" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="50.5" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="103.1640625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="77.83203125" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="45.1640625" collapsed="true"/>
-    <col min="30" max="32" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="45.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="5.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="46.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="51.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="29.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="30.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="12.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="28.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="24.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="74.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="51.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="25.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="23.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="50.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="103.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="77.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="45.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="32" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="3" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -2270,7 +2274,7 @@
         <v>9</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>6</v>
@@ -2354,7 +2358,7 @@
         <v>39</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="2" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -2371,7 +2375,7 @@
         <v>52</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>50</v>
@@ -2457,14 +2461,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="U2" xr:uid="{B41713CD-0C7A-A94A-9E0C-2C92C9129EB5}"/>
-    <hyperlink r:id="rId2" ref="V2" xr:uid="{F8ED6A05-BFC1-7E48-A376-F7EF824AE76F}"/>
-    <hyperlink r:id="rId3" ref="W2" xr:uid="{B2E95E89-7408-7140-82FB-6817D1D4C34A}"/>
-    <hyperlink r:id="rId4" ref="X2" xr:uid="{7BA77DFF-CF38-3F44-95C3-4775F3663E98}"/>
-    <hyperlink r:id="rId5" ref="Y2" xr:uid="{A95FE44D-A1CF-E248-A845-0A3B8C68FB3D}"/>
-    <hyperlink r:id="rId6" ref="Z2" xr:uid="{DCB51B4E-919D-6847-9170-E731E9B9D69D}"/>
-    <hyperlink r:id="rId7" ref="AC2" xr:uid="{2489425F-B372-874E-8A85-A3A1E07348EE}"/>
+    <hyperlink ref="U2" r:id="rId1"/>
+    <hyperlink ref="V2" r:id="rId2"/>
+    <hyperlink ref="W2" r:id="rId3"/>
+    <hyperlink ref="X2" r:id="rId4"/>
+    <hyperlink ref="Y2" r:id="rId5"/>
+    <hyperlink ref="Z2" r:id="rId6"/>
+    <hyperlink ref="AC2" r:id="rId7"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/fsaautomation/resources/config_properties.xlsx
+++ b/fsaautomation/resources/config_properties.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27809"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28315"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/auto/SVMX_Catalyst/fsaautomation/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="28040" windowHeight="16500" activeTab="1"/>
+    <workbookView activeTab="3" windowHeight="16240" windowWidth="28040" xWindow="20" yWindow="460"/>
   </bookViews>
   <sheets>
-    <sheet name="config_local" sheetId="1" r:id="rId1"/>
-    <sheet name="config_automation_build" sheetId="2" r:id="rId2"/>
-    <sheet name="config_automation_tablet_go" sheetId="6" r:id="rId3"/>
-    <sheet name="config_automation_phone" sheetId="3" r:id="rId4"/>
-    <sheet name="config_fsa_pqt_build" sheetId="4" r:id="rId5"/>
-    <sheet name="config_fsa_track_build" sheetId="5" r:id="rId6"/>
+    <sheet name="config_local" r:id="rId1" sheetId="1"/>
+    <sheet name="config_automation_build" r:id="rId2" sheetId="2"/>
+    <sheet name="config_automation_tablet_go" r:id="rId3" sheetId="6"/>
+    <sheet name="config_automation_phone" r:id="rId4" sheetId="3"/>
+    <sheet name="config_fsa_pqt_build" r:id="rId5" sheetId="4"/>
+    <sheet name="config_fsa_track_build" r:id="rId6" sheetId="5"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="100">
   <si>
     <t>0053D000001fEk6QAE</t>
   </si>
@@ -382,10 +382,10 @@
     <t>iPhone Developer: Rajesh Rao (76X824PR66)</t>
   </si>
   <si>
+    <t>browser</t>
+  </si>
+  <si>
     <t>9</t>
-  </si>
-  <si>
-    <t>fsaTabletGo</t>
   </si>
   <si>
     <t>com.servicemaxinc.svmxfieldserviceapp</t>
@@ -401,6 +401,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -467,29 +468,29 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="5" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="12" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="1"/>
+    <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="12" quotePrefix="1" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" quotePrefix="1" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -506,10 +507,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -544,7 +545,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -596,7 +597,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -707,21 +708,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -738,7 +739,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -790,56 +791,56 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="45.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="8" width="27.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="65.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="29.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="40.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="67" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="33.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="35.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="28.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="52.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="45.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="115.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="115.33203125" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="49" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="39.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="84" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="115.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="40.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="74.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="28.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="21.1640625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="30.83203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="21.1640625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="45.33203125" collapsed="true"/>
+    <col min="7" max="8" bestFit="true" customWidth="true" width="27.33203125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="65.83203125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="40.5" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="67.0" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="33.33203125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="35.6640625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="28.5" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="52.6640625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="45.33203125" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="115.33203125" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="115.33203125" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="49.0" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="39.33203125" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="84.0" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="115.33203125" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="40.5" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="74.33203125" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="28.5" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="1" s="3" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -937,9 +938,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="2" s="2" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>92</v>
@@ -1163,23 +1164,542 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="Q2" r:id="rId1"/>
-    <hyperlink ref="S2" r:id="rId2"/>
-    <hyperlink ref="O2" r:id="rId3"/>
-    <hyperlink ref="U2" r:id="rId4"/>
-    <hyperlink ref="V2" r:id="rId5"/>
-    <hyperlink ref="W2" r:id="rId6"/>
-    <hyperlink ref="X2" r:id="rId7"/>
-    <hyperlink ref="Y2" r:id="rId8"/>
-    <hyperlink ref="Z2" r:id="rId9"/>
-    <hyperlink ref="AC2" r:id="rId10"/>
+    <hyperlink r:id="rId1" ref="Q2"/>
+    <hyperlink r:id="rId2" ref="S2"/>
+    <hyperlink r:id="rId3" ref="O2"/>
+    <hyperlink r:id="rId4" ref="U2"/>
+    <hyperlink r:id="rId5" ref="V2"/>
+    <hyperlink r:id="rId6" ref="W2"/>
+    <hyperlink r:id="rId7" ref="X2"/>
+    <hyperlink r:id="rId8" ref="Y2"/>
+    <hyperlink r:id="rId9" ref="Z2"/>
+    <hyperlink r:id="rId10" ref="AC2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AG2"/>
+  <sheetViews>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="45.33203125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="5.83203125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="51.33203125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="46.5" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="40.5" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="99.6640625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="71.83203125" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="35.6640625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="70.6640625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="103.1640625" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="62.1640625" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" width="62.1640625" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row customFormat="1" r="1" s="3" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row customFormat="1" r="2" s="2" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" t="s">
+        <v>90</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y2" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z2" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB2" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC2" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="U2"/>
+    <hyperlink r:id="rId2" ref="V2"/>
+    <hyperlink r:id="rId3" ref="W2"/>
+    <hyperlink r:id="rId4" ref="X2"/>
+    <hyperlink r:id="rId5" ref="Y2"/>
+    <hyperlink r:id="rId6" ref="Z2"/>
+    <hyperlink r:id="rId7" ref="AC2"/>
+  </hyperlinks>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AG2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
+    <col min="4" max="5" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="45.33203125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="5.83203125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="53.83203125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="55.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="12.83203125" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="25.0" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="74.5" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="51.33203125" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="25.1640625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="23.83203125" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="50.5" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="45.1640625" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="103.1640625" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="30" max="32" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row customFormat="1" r="1" s="3" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row customFormat="1" r="2" s="2" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K2" t="s">
+        <v>90</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y2" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z2" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA2" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC2" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="U2"/>
+    <hyperlink r:id="rId2" ref="V2"/>
+    <hyperlink r:id="rId3" ref="W2"/>
+    <hyperlink r:id="rId4" ref="X2"/>
+    <hyperlink r:id="rId5" ref="Y2"/>
+    <hyperlink r:id="rId6" ref="Z2"/>
+  </hyperlinks>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1188,42 +1708,40 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="45.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="5.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="51.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="46.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="40.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="99.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="71.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="35.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="70.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="103.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="62.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="62.1640625" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="45.33203125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="5.83203125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="51.33203125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="46.5" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="12.83203125" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="99.6640625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="71.83203125" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="35.6640625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="70.6640625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="62.1640625" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="103.1640625" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" width="34.33203125" collapsed="true"/>
+    <col min="30" max="32" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="1" s="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1303,13 +1821,13 @@
         <v>20</v>
       </c>
       <c r="AA1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="AD1" s="3" t="s">
         <v>56</v>
@@ -1324,21 +1842,21 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="2" s="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>92</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>52</v>
+        <v>61</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>97</v>
@@ -1350,15 +1868,15 @@
         <v>14</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="K2" t="s">
         <v>90</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="5" t="s">
         <v>26</v>
       </c>
       <c r="M2" s="2" t="s">
@@ -1403,14 +1921,14 @@
       <c r="Z2" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="AA2" s="5" t="s">
+      <c r="AA2" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB2" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="AB2" s="10" t="s">
+      <c r="AC2" s="9" t="s">
         <v>87</v>
-      </c>
-      <c r="AC2" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="AD2" s="5" t="s">
         <v>0</v>
@@ -1427,62 +1945,61 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="U2" r:id="rId1"/>
-    <hyperlink ref="V2" r:id="rId2"/>
-    <hyperlink ref="W2" r:id="rId3"/>
-    <hyperlink ref="X2" r:id="rId4"/>
-    <hyperlink ref="Y2" r:id="rId5"/>
-    <hyperlink ref="Z2" r:id="rId6"/>
-    <hyperlink ref="AC2" r:id="rId7"/>
+    <hyperlink r:id="rId1" ref="U2"/>
+    <hyperlink r:id="rId2" ref="V2"/>
+    <hyperlink r:id="rId3" ref="W2"/>
+    <hyperlink r:id="rId4" ref="X2"/>
+    <hyperlink r:id="rId5" ref="Y2"/>
+    <hyperlink r:id="rId6" ref="Z2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="45.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="5.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="53.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="55" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="12.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="74.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="51.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="25.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="23.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="50.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="45.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="103.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="32" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="45.33203125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="5.83203125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="46.5" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="51.33203125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="12.83203125" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="99.6640625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="71.83203125" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="35.6640625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="70.6640625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="103.1640625" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="62.1640625" collapsed="true"/>
+    <col min="30" max="32" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="1" s="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1505,25 +2022,25 @@
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="O1" s="3" t="s">
         <v>32</v>
@@ -1562,13 +2079,13 @@
         <v>20</v>
       </c>
       <c r="AA1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC1" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="AD1" s="3" t="s">
         <v>56</v>
@@ -1583,7 +2100,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="2" s="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -1591,13 +2108,13 @@
         <v>92</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>96</v>
+        <v>5</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>97</v>
@@ -1606,79 +2123,79 @@
         <v>50</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="K2" t="s">
-        <v>90</v>
-      </c>
-      <c r="L2" s="5" t="s">
+      <c r="J2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>26</v>
       </c>
+      <c r="L2" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="M2" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="P2" s="5" t="s">
         <v>54</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="R2" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="S2" s="5" t="s">
-        <v>58</v>
+      <c r="S2" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="T2" s="5" t="s">
         <v>54</v>
       </c>
       <c r="U2" s="7" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="V2" s="7" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="W2" s="7" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="X2" s="7" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="Y2" s="7" t="s">
         <v>72</v>
       </c>
       <c r="Z2" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA2" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB2" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC2" s="9" t="s">
-        <v>87</v>
+        <v>84</v>
+      </c>
+      <c r="AA2" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB2" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC2" s="7" t="s">
+        <v>85</v>
       </c>
       <c r="AD2" s="5" t="s">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="AE2" s="5" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="AF2" s="5" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="AG2" s="2" t="s">
         <v>40</v>
@@ -1686,61 +2203,62 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="U2" r:id="rId1"/>
-    <hyperlink ref="V2" r:id="rId2"/>
-    <hyperlink ref="W2" r:id="rId3"/>
-    <hyperlink ref="X2" r:id="rId4"/>
-    <hyperlink ref="Y2" r:id="rId5"/>
-    <hyperlink ref="Z2" r:id="rId6"/>
+    <hyperlink r:id="rId1" ref="U2"/>
+    <hyperlink r:id="rId2" ref="V2"/>
+    <hyperlink r:id="rId3" ref="W2"/>
+    <hyperlink r:id="rId4" ref="X2"/>
+    <hyperlink r:id="rId5" ref="Y2"/>
+    <hyperlink r:id="rId6" ref="Z2"/>
+    <hyperlink r:id="rId7" ref="AC2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="45.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="5.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="51.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="46.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="12.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="99.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="71.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="35.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="70.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="62.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="103.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="34.33203125" customWidth="1" collapsed="1"/>
-    <col min="30" max="32" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="45.33203125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="5.83203125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="46.5" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="51.33203125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="30.83203125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="12.83203125" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="28.5" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="24.1640625" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="74.5" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="51.33203125" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="25.1640625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="23.83203125" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="50.5" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="103.1640625" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="77.83203125" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="45.1640625" collapsed="true"/>
+    <col min="30" max="32" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="1" s="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1763,25 +2281,25 @@
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="O1" s="3" t="s">
         <v>32</v>
@@ -1820,13 +2338,13 @@
         <v>20</v>
       </c>
       <c r="AA1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC1" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="AD1" s="3" t="s">
         <v>56</v>
@@ -1841,7 +2359,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="2" s="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>99</v>
       </c>
@@ -1852,10 +2370,10 @@
         <v>91</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>97</v>
@@ -1864,79 +2382,79 @@
         <v>50</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="J2" t="s">
         <v>90</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="K2" s="2" t="s">
         <v>26</v>
       </c>
+      <c r="L2" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="M2" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="P2" s="5" t="s">
         <v>54</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="R2" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="S2" s="5" t="s">
-        <v>58</v>
+      <c r="S2" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="T2" s="5" t="s">
         <v>54</v>
       </c>
       <c r="U2" s="7" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="V2" s="7" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="W2" s="7" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="X2" s="7" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="Y2" s="7" t="s">
         <v>72</v>
       </c>
       <c r="Z2" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA2" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB2" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC2" s="9" t="s">
-        <v>87</v>
+        <v>84</v>
+      </c>
+      <c r="AA2" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB2" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC2" s="7" t="s">
+        <v>85</v>
       </c>
       <c r="AD2" s="5" t="s">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="AE2" s="5" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="AF2" s="5" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="AG2" s="2" t="s">
         <v>40</v>
@@ -1944,531 +2462,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="U2" r:id="rId1"/>
-    <hyperlink ref="V2" r:id="rId2"/>
-    <hyperlink ref="W2" r:id="rId3"/>
-    <hyperlink ref="X2" r:id="rId4"/>
-    <hyperlink ref="Y2" r:id="rId5"/>
-    <hyperlink ref="Z2" r:id="rId6"/>
+    <hyperlink r:id="rId1" ref="U2"/>
+    <hyperlink r:id="rId2" ref="V2"/>
+    <hyperlink r:id="rId3" ref="W2"/>
+    <hyperlink r:id="rId4" ref="X2"/>
+    <hyperlink r:id="rId5" ref="Y2"/>
+    <hyperlink r:id="rId6" ref="Z2"/>
+    <hyperlink r:id="rId7" ref="AC2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="45.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="5.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="46.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="51.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="12.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="99.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="71.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="35.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="70.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="103.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="62.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="32" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AF1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG1" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="U2" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="V2" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="W2" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="X2" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y2" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z2" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA2" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="AB2" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="AC2" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AD2" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE2" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="AF2" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="U2" r:id="rId1"/>
-    <hyperlink ref="V2" r:id="rId2"/>
-    <hyperlink ref="W2" r:id="rId3"/>
-    <hyperlink ref="X2" r:id="rId4"/>
-    <hyperlink ref="Y2" r:id="rId5"/>
-    <hyperlink ref="Z2" r:id="rId6"/>
-    <hyperlink ref="AC2" r:id="rId7"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG2"/>
-  <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="45.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="5.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="46.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="51.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="29.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="30.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="12.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="28.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="24.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="74.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="51.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="25.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="23.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="50.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="103.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="77.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="45.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="32" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AF1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG1" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="U2" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="V2" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="W2" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="X2" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y2" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z2" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA2" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="AB2" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="AC2" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AD2" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE2" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="AF2" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="U2" r:id="rId1"/>
-    <hyperlink ref="V2" r:id="rId2"/>
-    <hyperlink ref="W2" r:id="rId3"/>
-    <hyperlink ref="X2" r:id="rId4"/>
-    <hyperlink ref="Y2" r:id="rId5"/>
-    <hyperlink ref="Z2" r:id="rId6"/>
-    <hyperlink ref="AC2" r:id="rId7"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/fsaautomation/resources/config_properties.xlsx
+++ b/fsaautomation/resources/config_properties.xlsx
@@ -1,41 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28315"/>
-  <workbookPr/>
-  <mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/auto/SVMX_Catalyst/fsaautomation/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0470449-7100-3849-9C9D-C7EFD9D382E3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="3" windowHeight="16240" windowWidth="28040" xWindow="20" yWindow="460"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="28040" windowHeight="16240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="config_local" r:id="rId1" sheetId="1"/>
-    <sheet name="config_automation_build" r:id="rId2" sheetId="2"/>
-    <sheet name="config_automation_tablet_go" r:id="rId3" sheetId="6"/>
-    <sheet name="config_automation_phone" r:id="rId4" sheetId="3"/>
-    <sheet name="config_fsa_pqt_build" r:id="rId5" sheetId="4"/>
-    <sheet name="config_fsa_track_build" r:id="rId6" sheetId="5"/>
+    <sheet name="config_local" sheetId="1" r:id="rId1"/>
+    <sheet name="config_automation_build" sheetId="2" r:id="rId2"/>
+    <sheet name="config_automation_tablet_go" sheetId="6" r:id="rId3"/>
+    <sheet name="config_automation_phone_go" sheetId="7" r:id="rId4"/>
+    <sheet name="config_automation_phone" sheetId="3" r:id="rId5"/>
+    <sheet name="config_fsa_pqt_build" sheetId="4" r:id="rId6"/>
+    <sheet name="config_fsa_track_build" sheetId="5" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="150001"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="113">
   <si>
     <t>0053D000001fEk6QAE</t>
   </si>
@@ -385,9 +387,6 @@
     <t>browser</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
     <t>com.servicemaxinc.svmxfieldserviceapp</t>
   </si>
   <si>
@@ -395,14 +394,67 @@
   </si>
   <si>
     <t>android</t>
+  </si>
+  <si>
+    <t>8.1.0</t>
+  </si>
+  <si>
+    <t>technician@qa.com</t>
+  </si>
+  <si>
+    <t>servicemax19</t>
+  </si>
+  <si>
+    <r>
+      <t>auto-tech1</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF4180FF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>@svmx.com</t>
+    </r>
+  </si>
+  <si>
+    <t>automation@qa.com</t>
+  </si>
+  <si>
+    <t>https://cs97.salesforce.com/services/data/v42.0/sobjects/SVMXC__Service_Order__c?</t>
+  </si>
+  <si>
+    <t>https://cs97.salesforce.com/services/data/v42.0/query/?q=</t>
+  </si>
+  <si>
+    <t>https://cs97.salesforce.com/</t>
+  </si>
+  <si>
+    <t>https://cs97.salesforce.com/services/data/v42.0/sobjects/</t>
+  </si>
+  <si>
+    <t>https://cs97.salesforce.com/services/oauth2/token?</t>
+  </si>
+  <si>
+    <t>3MVG9CxwbdV68qJLei70tYda4HqqPg3gw4XyesifFxsCHkLTItMFOcGqjZ_P2pu07pN9i_cWmeA==</t>
+  </si>
+  <si>
+    <t>E0E07F0D41882F593109A7C8DA8A11F96F812EA680C25B4AA1A954B1BB92420D</t>
+  </si>
+  <si>
+    <t>0050U000001DmahQAC</t>
+  </si>
+  <si>
+    <t>a2D0U000000DPnLUAW</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -443,6 +495,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF4180FF"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF007DD6"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF4180FF"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -468,29 +541,31 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="5" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="1"/>
-    <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="12" quotePrefix="1" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" quotePrefix="1" xfId="0"/>
+  <cellXfs count="14">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="12" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -507,10 +582,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -545,7 +620,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -597,7 +672,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -708,21 +783,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -739,7 +814,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -791,14 +866,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AO34"/>
   <sheetViews>
     <sheetView topLeftCell="N1" workbookViewId="0">
@@ -807,40 +882,40 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="21.1640625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="30.83203125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="21.1640625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="45.33203125" collapsed="true"/>
-    <col min="7" max="8" bestFit="true" customWidth="true" width="27.33203125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="65.83203125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="40.5" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="67.0" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="33.33203125" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="35.6640625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="28.5" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="52.6640625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="45.33203125" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="115.33203125" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" width="115.33203125" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="49.0" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="39.33203125" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="84.0" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="115.33203125" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="40.5" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="74.33203125" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="28.5" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="1" max="1" width="21.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="45.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="8" width="27.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="65.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="29.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="40.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="67" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="33.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="35.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="28.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="52.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="45.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="115.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="115.33203125" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="49" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="39.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="84" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="115.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="40.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="74.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="28.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="3" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:41" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -857,7 +932,7 @@
         <v>9</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>6</v>
@@ -938,9 +1013,9 @@
         <v>39</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="2" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>92</v>
@@ -955,7 +1030,7 @@
         <v>8</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>50</v>
@@ -1164,23 +1239,23 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="Q2"/>
-    <hyperlink r:id="rId2" ref="S2"/>
-    <hyperlink r:id="rId3" ref="O2"/>
-    <hyperlink r:id="rId4" ref="U2"/>
-    <hyperlink r:id="rId5" ref="V2"/>
-    <hyperlink r:id="rId6" ref="W2"/>
-    <hyperlink r:id="rId7" ref="X2"/>
-    <hyperlink r:id="rId8" ref="Y2"/>
-    <hyperlink r:id="rId9" ref="Z2"/>
-    <hyperlink r:id="rId10" ref="AC2"/>
+    <hyperlink ref="Q2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="S2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="O2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="U2" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="V2" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="W2" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="X2" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="Y2" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="Z2" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="AC2" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AG2"/>
   <sheetViews>
     <sheetView topLeftCell="I1" workbookViewId="0">
@@ -1189,42 +1264,42 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="45.33203125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="5.83203125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="51.33203125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="46.5" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="40.5" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="99.6640625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="71.83203125" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="35.6640625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="70.6640625" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="103.1640625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="62.1640625" collapsed="true"/>
-    <col min="30" max="30" customWidth="true" width="62.1640625" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="45.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="5.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="51.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="46.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="40.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="99.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="71.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="35.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="70.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="103.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="62.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="62.1640625" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="3" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1241,7 +1316,7 @@
         <v>9</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>6</v>
@@ -1325,7 +1400,7 @@
         <v>39</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="2" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>95</v>
       </c>
@@ -1342,7 +1417,7 @@
         <v>52</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>50</v>
@@ -1428,21 +1503,21 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="U2"/>
-    <hyperlink r:id="rId2" ref="V2"/>
-    <hyperlink r:id="rId3" ref="W2"/>
-    <hyperlink r:id="rId4" ref="X2"/>
-    <hyperlink r:id="rId5" ref="Y2"/>
-    <hyperlink r:id="rId6" ref="Z2"/>
-    <hyperlink r:id="rId7" ref="AC2"/>
+    <hyperlink ref="U2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="V2" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="W2" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="X2" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="Y2" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="Z2" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="AC2" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AG2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1451,39 +1526,39 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
-    <col min="4" max="5" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="45.33203125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="5.83203125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="53.83203125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="55.0" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="12.83203125" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="25.0" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="74.5" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="51.33203125" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="25.1640625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="23.83203125" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="50.5" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="45.1640625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="103.1640625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="30" max="32" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="45.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="5.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="53.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="55" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="12.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="25" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="74.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="51.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="25.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="23.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="50.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="45.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="103.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="32" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="3" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1500,7 +1575,7 @@
         <v>9</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>6</v>
@@ -1584,9 +1659,9 @@
         <v>39</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="2" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>92</v>
@@ -1601,7 +1676,7 @@
         <v>52</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>50</v>
@@ -1687,277 +1762,499 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="U2"/>
-    <hyperlink r:id="rId2" ref="V2"/>
-    <hyperlink r:id="rId3" ref="W2"/>
-    <hyperlink r:id="rId4" ref="X2"/>
-    <hyperlink r:id="rId5" ref="Y2"/>
-    <hyperlink r:id="rId6" ref="Z2"/>
+    <hyperlink ref="U2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="V2" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="W2" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="X2" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="Y2" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="Z2" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA133DF5-A521-F54D-842D-E7B424603702}">
   <dimension ref="A1:AG2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="45.33203125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="5.83203125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="51.33203125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="46.5" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="12.83203125" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="99.6640625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="71.83203125" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="35.6640625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="70.6640625" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="62.1640625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="103.1640625" collapsed="true"/>
-    <col min="29" max="29" customWidth="true" width="34.33203125" collapsed="true"/>
-    <col min="30" max="32" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
+    <col min="12" max="12" width="46.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="3" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AF1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG1" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row customFormat="1" r="2" s="2" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="1">
+        <v>12.1</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="C2" s="11" t="s">
+      <c r="D2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="K2" t="s">
-        <v>90</v>
-      </c>
-      <c r="L2" s="5" t="s">
+      <c r="K2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L2" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="O2" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="P2" s="5" t="s">
+      <c r="O2" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="R2" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="Q2" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="U2" s="7" t="s">
+      <c r="S2" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="T2" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="U2" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="V2" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="W2" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="X2" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y2" s="7" t="s">
+      <c r="V2" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="W2" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="X2" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y2" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="Z2" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA2" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB2" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC2" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="AD2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE2" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="AF2" s="5" t="s">
+      <c r="Z2" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB2" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC2" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD2" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE2" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF2" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AG2" s="1" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink r:id="rId1" ref="U2"/>
-    <hyperlink r:id="rId2" ref="V2"/>
-    <hyperlink r:id="rId3" ref="W2"/>
-    <hyperlink r:id="rId4" ref="X2"/>
-    <hyperlink r:id="rId5" ref="Y2"/>
-    <hyperlink r:id="rId6" ref="Z2"/>
-  </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:AG2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="45.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="5.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="51.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="46.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="12.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="99.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="71.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="35.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="70.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="62.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="103.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="34.33203125" customWidth="1" collapsed="1"/>
+    <col min="30" max="32" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K2" t="s">
+        <v>90</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y2" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z2" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA2" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC2" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="U2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="V2" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="W2" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="X2" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="Y2" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
+    <hyperlink ref="Z2" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AG2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1966,40 +2263,40 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="45.33203125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="5.83203125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="46.5" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="51.33203125" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="12.83203125" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="99.6640625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="71.83203125" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="35.6640625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="70.6640625" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="103.1640625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="62.1640625" collapsed="true"/>
-    <col min="30" max="32" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="45.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="5.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="46.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="51.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="12.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="99.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="71.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="35.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="70.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="103.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="62.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="32" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="3" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -2016,7 +2313,7 @@
         <v>9</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>6</v>
@@ -2100,7 +2397,7 @@
         <v>39</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="2" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -2117,7 +2414,7 @@
         <v>52</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>50</v>
@@ -2203,20 +2500,20 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="U2"/>
-    <hyperlink r:id="rId2" ref="V2"/>
-    <hyperlink r:id="rId3" ref="W2"/>
-    <hyperlink r:id="rId4" ref="X2"/>
-    <hyperlink r:id="rId5" ref="Y2"/>
-    <hyperlink r:id="rId6" ref="Z2"/>
-    <hyperlink r:id="rId7" ref="AC2"/>
+    <hyperlink ref="U2" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="V2" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="W2" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink ref="X2" r:id="rId4" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
+    <hyperlink ref="Y2" r:id="rId5" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
+    <hyperlink ref="Z2" r:id="rId6" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
+    <hyperlink ref="AC2" r:id="rId7" xr:uid="{00000000-0004-0000-0400-000006000000}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AG2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2225,40 +2522,40 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="45.33203125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="5.83203125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="46.5" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="51.33203125" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="30.83203125" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="12.83203125" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="28.5" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="24.1640625" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="74.5" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="51.33203125" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="25.1640625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="23.83203125" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="50.5" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="103.1640625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="77.83203125" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="45.1640625" collapsed="true"/>
-    <col min="30" max="32" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="45.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="5.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="46.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="51.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="29.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="30.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="12.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="28.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="24.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="74.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="51.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="25.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="23.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="50.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="103.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="77.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="45.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="32" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="3" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -2275,7 +2572,7 @@
         <v>9</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>6</v>
@@ -2359,9 +2656,9 @@
         <v>39</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="2" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>92</v>
@@ -2376,7 +2673,7 @@
         <v>52</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>50</v>
@@ -2462,14 +2759,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="U2"/>
-    <hyperlink r:id="rId2" ref="V2"/>
-    <hyperlink r:id="rId3" ref="W2"/>
-    <hyperlink r:id="rId4" ref="X2"/>
-    <hyperlink r:id="rId5" ref="Y2"/>
-    <hyperlink r:id="rId6" ref="Z2"/>
-    <hyperlink r:id="rId7" ref="AC2"/>
+    <hyperlink ref="U2" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="V2" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
+    <hyperlink ref="W2" r:id="rId3" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
+    <hyperlink ref="X2" r:id="rId4" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
+    <hyperlink ref="Y2" r:id="rId5" xr:uid="{00000000-0004-0000-0500-000004000000}"/>
+    <hyperlink ref="Z2" r:id="rId6" xr:uid="{00000000-0004-0000-0500-000005000000}"/>
+    <hyperlink ref="AC2" r:id="rId7" xr:uid="{00000000-0004-0000-0500-000006000000}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/fsaautomation/resources/config_properties.xlsx
+++ b/fsaautomation/resources/config_properties.xlsx
@@ -1,32 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/auto/SVMX_Catalyst/fsaautomation/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0470449-7100-3849-9C9D-C7EFD9D382E3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{62654407-45CF-7F41-8C3B-F6D608D63FB5}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="28040" windowHeight="16240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="6" windowHeight="16240" windowWidth="28040" xWindow="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="460"/>
   </bookViews>
   <sheets>
-    <sheet name="config_local" sheetId="1" r:id="rId1"/>
-    <sheet name="config_automation_build" sheetId="2" r:id="rId2"/>
-    <sheet name="config_automation_tablet_go" sheetId="6" r:id="rId3"/>
-    <sheet name="config_automation_phone_go" sheetId="7" r:id="rId4"/>
-    <sheet name="config_automation_phone" sheetId="3" r:id="rId5"/>
-    <sheet name="config_fsa_pqt_build" sheetId="4" r:id="rId6"/>
-    <sheet name="config_fsa_track_build" sheetId="5" r:id="rId7"/>
+    <sheet name="config_local" r:id="rId1" sheetId="1"/>
+    <sheet name="config_automation_build" r:id="rId2" sheetId="2"/>
+    <sheet name="config_automation_tablet_go" r:id="rId3" sheetId="6"/>
+    <sheet name="config_automation_phone_go" r:id="rId4" sheetId="7"/>
+    <sheet name="config_automation_phone" r:id="rId5" sheetId="3"/>
+    <sheet name="config_fsa_pqt_build" r:id="rId6" sheetId="4"/>
+    <sheet name="config_fsa_track_build" r:id="rId7" sheetId="5"/>
   </sheets>
   <calcPr calcId="150001"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="118">
   <si>
     <t>0053D000001fEk6QAE</t>
   </si>
@@ -384,9 +384,6 @@
     <t>iPhone Developer: Rajesh Rao (76X824PR66)</t>
   </si>
   <si>
-    <t>browser</t>
-  </si>
-  <si>
     <t>com.servicemaxinc.svmxfieldserviceapp</t>
   </si>
   <si>
@@ -449,12 +446,31 @@
   <si>
     <t>a2D0U000000DPnLUAW</t>
   </si>
+  <si>
+    <t>PROFILE_NAME</t>
+  </si>
+  <si>
+    <t>System Administrator</t>
+  </si>
+  <si>
+    <t>PAGE_LAYOUT</t>
+  </si>
+  <si>
+    <t>SVMX Work Order - Admin</t>
+  </si>
+  <si>
+    <t>APPIUM_ORG_INSTANCE</t>
+  </si>
+  <si>
+    <t>cs70</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -516,6 +532,12 @@
       <name val="Menlo"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3933FF"/>
+      <name val="Monaco"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -541,31 +563,32 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="5" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="12" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+  <cellXfs count="15">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="1"/>
+    <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="12" quotePrefix="1" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -582,10 +605,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -620,7 +643,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -672,7 +695,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -783,21 +806,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -814,7 +837,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -866,56 +889,58 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AO34"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="AG1" sqref="AG1:AI1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="45.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="8" width="27.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="65.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="29.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="40.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="67" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="33.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="35.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="28.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="52.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="45.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="115.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="115.33203125" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="49" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="39.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="84" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="115.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="40.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="74.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="28.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="21.1640625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="30.83203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="21.1640625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="45.33203125" collapsed="true"/>
+    <col min="7" max="8" bestFit="true" customWidth="true" width="27.33203125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="65.83203125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="40.5" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="67.0" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="33.33203125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="35.6640625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="28.5" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="52.6640625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="45.33203125" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="115.33203125" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="115.33203125" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="49.0" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="39.33203125" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="84.0" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="115.33203125" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="40.5" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="74.33203125" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="28.5" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="28.5" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="1" s="3" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -932,7 +957,7 @@
         <v>9</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>6</v>
@@ -1012,10 +1037,19 @@
       <c r="AF1" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AG1" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AI1" s="14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row customFormat="1" r="2" s="2" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>92</v>
@@ -1030,7 +1064,7 @@
         <v>8</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>50</v>
@@ -1041,8 +1075,8 @@
       <c r="I2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="2" t="b">
-        <v>1</v>
+      <c r="J2" t="s">
+        <v>90</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>26</v>
@@ -1109,6 +1143,15 @@
       </c>
       <c r="AF2" s="2" t="s">
         <v>40</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.2">
@@ -1134,9 +1177,6 @@
       <c r="AD3" s="1"/>
       <c r="AE3" s="2"/>
       <c r="AF3" s="2"/>
-      <c r="AG3" s="2"/>
-      <c r="AH3" s="2"/>
-      <c r="AI3" s="2"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="2"/>
       <c r="AL3" s="2"/>
@@ -1239,67 +1279,68 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="Q2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="S2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="O2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="U2" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="V2" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="W2" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="X2" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="Y2" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="Z2" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="AC2" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink r:id="rId1" ref="Q2" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink r:id="rId2" ref="S2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink r:id="rId3" ref="O2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink r:id="rId4" ref="U2" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink r:id="rId5" ref="V2" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink r:id="rId6" ref="W2" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink r:id="rId7" ref="X2" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink r:id="rId8" ref="Y2" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink r:id="rId9" ref="Z2" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink r:id="rId10" ref="AC2" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AG2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AJ2"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="AH1" sqref="AH1:AJ1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="45.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="5.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="51.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="46.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="40.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="99.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="71.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="35.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="70.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="103.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="62.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="62.1640625" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="45.33203125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="5.83203125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="51.33203125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="46.5" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="40.5" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="99.6640625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="71.83203125" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="35.6640625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="70.6640625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="103.1640625" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="62.1640625" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" width="62.1640625" collapsed="true"/>
+    <col min="31" max="32" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="28.5" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="1" s="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1316,7 +1357,7 @@
         <v>9</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>6</v>
@@ -1399,10 +1440,19 @@
       <c r="AG1" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH1" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AJ1" s="14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row customFormat="1" r="2" s="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>95</v>
+        <v>7</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>92</v>
@@ -1417,7 +1467,7 @@
         <v>52</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>50</v>
@@ -1500,65 +1550,76 @@
       <c r="AG2" s="2" t="s">
         <v>40</v>
       </c>
+      <c r="AH2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>117</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="U2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="V2" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="W2" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="X2" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="Y2" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="Z2" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="AC2" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink r:id="rId1" ref="U2" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink r:id="rId2" ref="V2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink r:id="rId3" ref="W2" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink r:id="rId4" ref="X2" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink r:id="rId5" ref="Y2" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink r:id="rId6" ref="Z2" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink r:id="rId7" ref="AC2" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AG2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:AJ2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="AH1" sqref="AH1:AJ1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="45.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="5.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="53.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="55" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="12.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="74.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="51.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="25.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="23.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="50.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="45.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="103.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="32" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
+    <col min="4" max="5" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="45.33203125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="5.83203125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="53.83203125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="55.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="12.83203125" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="25.0" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="74.5" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="51.33203125" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="25.1640625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="23.83203125" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="50.5" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="45.1640625" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="103.1640625" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="30" max="32" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="28.5" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="1" s="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1575,7 +1636,7 @@
         <v>9</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>6</v>
@@ -1658,10 +1719,19 @@
       <c r="AG1" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH1" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AJ1" s="14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row customFormat="1" r="2" s="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>92</v>
@@ -1676,7 +1746,7 @@
         <v>52</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>50</v>
@@ -1759,36 +1829,76 @@
       <c r="AG2" s="2" t="s">
         <v>40</v>
       </c>
+      <c r="AH2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>117</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="U2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="V2" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="W2" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="X2" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="Y2" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink ref="Z2" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink r:id="rId1" ref="U2" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink r:id="rId2" ref="V2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink r:id="rId3" ref="W2" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink r:id="rId4" ref="X2" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink r:id="rId5" ref="Y2" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink r:id="rId6" ref="Z2" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA133DF5-A521-F54D-842D-E7B424603702}">
-  <dimension ref="A1:AG2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA133DF5-A521-F54D-842D-E7B424603702}">
+  <dimension ref="A1:AJ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="AH1" sqref="AH1:AJ1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="12" max="12" width="46.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="45.33203125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="5.83203125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="53.83203125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="46.5" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="12.83203125" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="25.0" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="74.5" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="51.33203125" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="25.1640625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="23.83203125" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="50.5" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="45.1640625" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="93.5" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="77.83203125" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="31" max="32" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="28.5" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1805,7 +1915,7 @@
         <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
@@ -1888,16 +1998,25 @@
       <c r="AG1" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH1" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AJ1" s="14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>98</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1">
         <v>12.1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>61</v>
@@ -1906,7 +2025,7 @@
         <v>8</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>50</v>
@@ -1933,55 +2052,55 @@
         <v>47</v>
       </c>
       <c r="O2" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="P2" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="P2" s="12" t="s">
+      <c r="Q2" s="12" t="s">
         <v>101</v>
-      </c>
-      <c r="Q2" s="12" t="s">
-        <v>102</v>
       </c>
       <c r="R2" s="12" t="s">
         <v>54</v>
       </c>
       <c r="S2" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="T2" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U2" s="13" t="s">
         <v>75</v>
       </c>
       <c r="V2" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="W2" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="W2" s="13" t="s">
+      <c r="X2" s="13" t="s">
         <v>105</v>
-      </c>
-      <c r="X2" s="13" t="s">
-        <v>106</v>
       </c>
       <c r="Y2" s="13" t="s">
         <v>72</v>
       </c>
       <c r="Z2" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA2" t="s">
         <v>107</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="AB2" s="12" t="s">
+      <c r="AC2" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="AC2" s="12" t="s">
+      <c r="AD2" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="AD2" s="13" t="s">
+      <c r="AE2" s="12" t="s">
         <v>111</v>
-      </c>
-      <c r="AE2" s="12" t="s">
-        <v>112</v>
       </c>
       <c r="AF2" s="12" t="s">
         <v>51</v>
@@ -1989,56 +2108,67 @@
       <c r="AG2" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="AH2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>117</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AG2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:AJ2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="AE1" workbookViewId="0">
+      <selection activeCell="AH1" sqref="AH1:AJ1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="45.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="5.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="51.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="46.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="12.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="99.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="71.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="35.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="70.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="62.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="103.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="34.33203125" customWidth="1" collapsed="1"/>
-    <col min="30" max="32" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="45.33203125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="5.83203125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="51.33203125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="46.5" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="12.83203125" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="99.6640625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="71.83203125" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="35.6640625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="70.6640625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="62.1640625" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="103.1640625" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" width="34.33203125" collapsed="true"/>
+    <col min="30" max="32" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="28.5" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="1" s="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -2055,7 +2185,7 @@
         <v>9</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>6</v>
@@ -2105,7 +2235,7 @@
       <c r="V1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="W1" s="3" t="s">
         <v>35</v>
       </c>
       <c r="X1" s="3" t="s">
@@ -2138,16 +2268,25 @@
       <c r="AG1" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH1" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AJ1" s="14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row customFormat="1" r="2" s="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>92</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>61</v>
@@ -2156,7 +2295,7 @@
         <v>8</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>50</v>
@@ -2239,64 +2378,75 @@
       <c r="AG2" s="2" t="s">
         <v>40</v>
       </c>
+      <c r="AH2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>117</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="U2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="V2" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
-    <hyperlink ref="W2" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
-    <hyperlink ref="X2" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
-    <hyperlink ref="Y2" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
-    <hyperlink ref="Z2" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
+    <hyperlink r:id="rId1" ref="U2" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink r:id="rId2" ref="V2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink r:id="rId3" ref="W2" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink r:id="rId4" ref="X2" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink r:id="rId5" ref="Y2" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
+    <hyperlink r:id="rId6" ref="Z2" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:AG2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:AJ2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="AH1" sqref="AH1:AJ1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="45.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="5.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="46.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="51.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="12.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="99.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="71.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="35.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="70.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="103.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="62.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="32" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="45.33203125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="5.83203125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="46.5" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="51.33203125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="12.83203125" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="99.6640625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="71.83203125" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="35.6640625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="70.6640625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="103.1640625" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="62.1640625" collapsed="true"/>
+    <col min="30" max="32" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="28.5" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="1" s="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -2313,7 +2463,7 @@
         <v>9</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>6</v>
@@ -2396,8 +2546,17 @@
       <c r="AG1" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH1" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AJ1" s="14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row customFormat="1" r="2" s="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -2414,7 +2573,7 @@
         <v>52</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>50</v>
@@ -2497,65 +2656,76 @@
       <c r="AG2" s="2" t="s">
         <v>40</v>
       </c>
+      <c r="AH2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>117</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="U2" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
-    <hyperlink ref="V2" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
-    <hyperlink ref="W2" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
-    <hyperlink ref="X2" r:id="rId4" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
-    <hyperlink ref="Y2" r:id="rId5" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
-    <hyperlink ref="Z2" r:id="rId6" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
-    <hyperlink ref="AC2" r:id="rId7" xr:uid="{00000000-0004-0000-0400-000006000000}"/>
+    <hyperlink r:id="rId1" ref="U2" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink r:id="rId2" ref="V2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink r:id="rId3" ref="W2" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink r:id="rId4" ref="X2" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
+    <hyperlink r:id="rId5" ref="Y2" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
+    <hyperlink r:id="rId6" ref="Z2" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
+    <hyperlink r:id="rId7" ref="AC2" xr:uid="{00000000-0004-0000-0400-000006000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:AG2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:AJ2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="AH1" sqref="AH1:AJ1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="45.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="5.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="46.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="51.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="29.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="30.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="12.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="28.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="24.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="74.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="51.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="25.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="23.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="50.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="103.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="77.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="45.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="32" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="45.33203125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="5.83203125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="46.5" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="51.33203125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="30.83203125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="12.83203125" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="28.5" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="24.1640625" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="74.5" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="51.33203125" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="25.1640625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="23.83203125" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="50.5" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="103.1640625" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="77.83203125" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="45.1640625" collapsed="true"/>
+    <col min="30" max="32" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="28.5" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="1" s="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -2572,7 +2742,7 @@
         <v>9</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>6</v>
@@ -2655,10 +2825,19 @@
       <c r="AG1" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH1" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AJ1" s="14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row customFormat="1" r="2" s="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>92</v>
@@ -2673,7 +2852,7 @@
         <v>52</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>50</v>
@@ -2756,17 +2935,26 @@
       <c r="AG2" s="2" t="s">
         <v>40</v>
       </c>
+      <c r="AH2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>117</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="U2" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
-    <hyperlink ref="V2" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
-    <hyperlink ref="W2" r:id="rId3" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
-    <hyperlink ref="X2" r:id="rId4" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
-    <hyperlink ref="Y2" r:id="rId5" xr:uid="{00000000-0004-0000-0500-000004000000}"/>
-    <hyperlink ref="Z2" r:id="rId6" xr:uid="{00000000-0004-0000-0500-000005000000}"/>
-    <hyperlink ref="AC2" r:id="rId7" xr:uid="{00000000-0004-0000-0500-000006000000}"/>
+    <hyperlink r:id="rId1" ref="U2" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink r:id="rId2" ref="V2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
+    <hyperlink r:id="rId3" ref="W2" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
+    <hyperlink r:id="rId4" ref="X2" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
+    <hyperlink r:id="rId5" ref="Y2" xr:uid="{00000000-0004-0000-0500-000004000000}"/>
+    <hyperlink r:id="rId6" ref="Z2" xr:uid="{00000000-0004-0000-0500-000005000000}"/>
+    <hyperlink r:id="rId7" ref="AC2" xr:uid="{00000000-0004-0000-0500-000006000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/fsaautomation/resources/config_properties.xlsx
+++ b/fsaautomation/resources/config_properties.xlsx
@@ -1,32 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/auto/SVMX_Catalyst/fsaautomation/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{62654407-45CF-7F41-8C3B-F6D608D63FB5}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0470449-7100-3849-9C9D-C7EFD9D382E3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="6" windowHeight="16240" windowWidth="28040" xWindow="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="460"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="28040" windowHeight="16240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="config_local" r:id="rId1" sheetId="1"/>
-    <sheet name="config_automation_build" r:id="rId2" sheetId="2"/>
-    <sheet name="config_automation_tablet_go" r:id="rId3" sheetId="6"/>
-    <sheet name="config_automation_phone_go" r:id="rId4" sheetId="7"/>
-    <sheet name="config_automation_phone" r:id="rId5" sheetId="3"/>
-    <sheet name="config_fsa_pqt_build" r:id="rId6" sheetId="4"/>
-    <sheet name="config_fsa_track_build" r:id="rId7" sheetId="5"/>
+    <sheet name="config_local" sheetId="1" r:id="rId1"/>
+    <sheet name="config_automation_build" sheetId="2" r:id="rId2"/>
+    <sheet name="config_automation_tablet_go" sheetId="6" r:id="rId3"/>
+    <sheet name="config_automation_phone_go" sheetId="7" r:id="rId4"/>
+    <sheet name="config_automation_phone" sheetId="3" r:id="rId5"/>
+    <sheet name="config_fsa_pqt_build" sheetId="4" r:id="rId6"/>
+    <sheet name="config_fsa_track_build" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="150001"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="113">
   <si>
     <t>0053D000001fEk6QAE</t>
   </si>
@@ -384,6 +384,9 @@
     <t>iPhone Developer: Rajesh Rao (76X824PR66)</t>
   </si>
   <si>
+    <t>browser</t>
+  </si>
+  <si>
     <t>com.servicemaxinc.svmxfieldserviceapp</t>
   </si>
   <si>
@@ -446,31 +449,12 @@
   <si>
     <t>a2D0U000000DPnLUAW</t>
   </si>
-  <si>
-    <t>PROFILE_NAME</t>
-  </si>
-  <si>
-    <t>System Administrator</t>
-  </si>
-  <si>
-    <t>PAGE_LAYOUT</t>
-  </si>
-  <si>
-    <t>SVMX Work Order - Admin</t>
-  </si>
-  <si>
-    <t>APPIUM_ORG_INSTANCE</t>
-  </si>
-  <si>
-    <t>cs70</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -532,12 +516,6 @@
       <name val="Menlo"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3933FF"/>
-      <name val="Monaco"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -563,32 +541,31 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="5" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="1"/>
-    <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="12" quotePrefix="1" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0"/>
+  <cellXfs count="14">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="12" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -605,10 +582,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -643,7 +620,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -695,7 +672,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -806,21 +783,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -837,7 +814,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -889,58 +866,56 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AO34"/>
   <sheetViews>
-    <sheetView topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="AG1" sqref="AG1:AI1048576"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="21.1640625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="30.83203125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="21.1640625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="45.33203125" collapsed="true"/>
-    <col min="7" max="8" bestFit="true" customWidth="true" width="27.33203125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="65.83203125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="40.5" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="67.0" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="33.33203125" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="35.6640625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="28.5" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="52.6640625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="45.33203125" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="115.33203125" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" width="115.33203125" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="49.0" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="39.33203125" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="84.0" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="115.33203125" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="40.5" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="74.33203125" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="28.5" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="28.5" collapsed="true"/>
+    <col min="1" max="1" width="21.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="45.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="8" width="27.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="65.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="29.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="40.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="67" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="33.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="35.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="28.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="52.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="45.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="115.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="115.33203125" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="49" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="39.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="84" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="115.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="40.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="74.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="28.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="3" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:41" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -957,7 +932,7 @@
         <v>9</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>6</v>
@@ -1037,19 +1012,10 @@
       <c r="AF1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AG1" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH1" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="AI1" s="14" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row customFormat="1" r="2" s="2" spans="1:41" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>92</v>
@@ -1064,7 +1030,7 @@
         <v>8</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>50</v>
@@ -1075,8 +1041,8 @@
       <c r="I2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J2" t="s">
-        <v>90</v>
+      <c r="J2" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>26</v>
@@ -1143,15 +1109,6 @@
       </c>
       <c r="AF2" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="AH2" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="AI2" s="2" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.2">
@@ -1177,6 +1134,9 @@
       <c r="AD3" s="1"/>
       <c r="AE3" s="2"/>
       <c r="AF3" s="2"/>
+      <c r="AG3" s="2"/>
+      <c r="AH3" s="2"/>
+      <c r="AI3" s="2"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="2"/>
       <c r="AL3" s="2"/>
@@ -1279,68 +1239,67 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="Q2" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink r:id="rId2" ref="S2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink r:id="rId3" ref="O2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink r:id="rId4" ref="U2" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink r:id="rId5" ref="V2" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink r:id="rId6" ref="W2" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink r:id="rId7" ref="X2" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink r:id="rId8" ref="Y2" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink r:id="rId9" ref="Z2" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink r:id="rId10" ref="AC2" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="Q2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="S2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="O2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="U2" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="V2" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="W2" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="X2" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="Y2" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="Z2" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="AC2" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AJ2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AG2"/>
   <sheetViews>
-    <sheetView topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="AH1" sqref="AH1:AJ1048576"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="45.33203125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="5.83203125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="51.33203125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="46.5" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="40.5" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="99.6640625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="71.83203125" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="35.6640625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="70.6640625" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="103.1640625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="62.1640625" collapsed="true"/>
-    <col min="30" max="30" customWidth="true" width="62.1640625" collapsed="true"/>
-    <col min="31" max="32" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="28.5" collapsed="true"/>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="45.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="5.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="51.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="46.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="40.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="99.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="71.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="35.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="70.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="103.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="62.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="62.1640625" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="3" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1357,7 +1316,7 @@
         <v>9</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>6</v>
@@ -1440,19 +1399,10 @@
       <c r="AG1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AH1" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="AI1" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="AJ1" s="14" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row customFormat="1" r="2" s="2" spans="1:36" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>95</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>92</v>
@@ -1467,7 +1417,7 @@
         <v>52</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>50</v>
@@ -1550,76 +1500,65 @@
       <c r="AG2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AH2" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="AI2" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="AJ2" s="2" t="s">
-        <v>117</v>
-      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="U2" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink r:id="rId2" ref="V2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink r:id="rId3" ref="W2" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink r:id="rId4" ref="X2" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink r:id="rId5" ref="Y2" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink r:id="rId6" ref="Z2" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink r:id="rId7" ref="AC2" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="U2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="V2" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="W2" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="X2" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="Y2" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="Z2" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="AC2" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AJ2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:AG2"/>
   <sheetViews>
-    <sheetView topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="AH1" sqref="AH1:AJ1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
-    <col min="4" max="5" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="45.33203125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="5.83203125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="53.83203125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="55.0" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="12.83203125" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="25.0" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="74.5" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="51.33203125" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="25.1640625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="23.83203125" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="50.5" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="45.1640625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="103.1640625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="30" max="32" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="28.5" collapsed="true"/>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="45.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="5.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="53.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="55" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="12.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="25" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="74.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="51.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="25.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="23.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="50.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="45.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="103.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="32" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="3" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1636,7 +1575,7 @@
         <v>9</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>6</v>
@@ -1719,19 +1658,10 @@
       <c r="AG1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AH1" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="AI1" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="AJ1" s="14" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row customFormat="1" r="2" s="2" spans="1:36" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>92</v>
@@ -1746,7 +1676,7 @@
         <v>52</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>50</v>
@@ -1829,76 +1759,36 @@
       <c r="AG2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AH2" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="AI2" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="AJ2" s="2" t="s">
-        <v>117</v>
-      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="U2" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink r:id="rId2" ref="V2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink r:id="rId3" ref="W2" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink r:id="rId4" ref="X2" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink r:id="rId5" ref="Y2" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink r:id="rId6" ref="Z2" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="U2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="V2" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="W2" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="X2" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="Y2" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="Z2" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA133DF5-A521-F54D-842D-E7B424603702}">
-  <dimension ref="A1:AJ2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA133DF5-A521-F54D-842D-E7B424603702}">
+  <dimension ref="A1:AG2"/>
   <sheetViews>
-    <sheetView topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="AH1" sqref="AH1:AJ1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="45.33203125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="5.83203125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="53.83203125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="46.5" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="12.83203125" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="18.6640625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="25.0" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="74.5" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="51.33203125" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="25.1640625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="23.83203125" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="50.5" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="45.1640625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="93.5" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="77.83203125" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="31" max="32" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="28.5" collapsed="true"/>
+    <col min="12" max="12" width="46.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1915,7 +1805,7 @@
         <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
@@ -1998,25 +1888,16 @@
       <c r="AG1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AH1" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="AI1" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="AJ1" s="14" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>98</v>
       </c>
       <c r="B2" s="1">
         <v>12.1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>61</v>
@@ -2025,7 +1906,7 @@
         <v>8</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>50</v>
@@ -2052,55 +1933,55 @@
         <v>47</v>
       </c>
       <c r="O2" s="13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P2" s="12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q2" s="12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="R2" s="12" t="s">
         <v>54</v>
       </c>
       <c r="S2" s="13" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="T2" s="12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="U2" s="13" t="s">
         <v>75</v>
       </c>
       <c r="V2" s="13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="W2" s="13" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="X2" s="13" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Y2" s="13" t="s">
         <v>72</v>
       </c>
       <c r="Z2" s="13" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AA2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AB2" s="12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AC2" s="12" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AD2" s="13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AE2" s="12" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AF2" s="12" t="s">
         <v>51</v>
@@ -2108,67 +1989,56 @@
       <c r="AG2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AH2" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="AI2" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="AJ2" s="2" t="s">
-        <v>117</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AJ2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:AG2"/>
   <sheetViews>
-    <sheetView topLeftCell="AE1" workbookViewId="0">
-      <selection activeCell="AH1" sqref="AH1:AJ1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="45.33203125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="5.83203125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="51.33203125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="46.5" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="12.83203125" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="99.6640625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="71.83203125" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="35.6640625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="70.6640625" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="62.1640625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="103.1640625" collapsed="true"/>
-    <col min="29" max="29" customWidth="true" width="34.33203125" collapsed="true"/>
-    <col min="30" max="32" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="28.5" collapsed="true"/>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="45.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="5.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="51.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="46.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="12.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="99.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="71.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="35.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="70.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="62.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="103.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="34.33203125" customWidth="1" collapsed="1"/>
+    <col min="30" max="32" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="3" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -2185,7 +2055,7 @@
         <v>9</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>6</v>
@@ -2235,7 +2105,7 @@
       <c r="V1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="4" t="s">
         <v>35</v>
       </c>
       <c r="X1" s="3" t="s">
@@ -2268,25 +2138,16 @@
       <c r="AG1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AH1" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="AI1" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="AJ1" s="14" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row customFormat="1" r="2" s="2" spans="1:36" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>92</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>61</v>
@@ -2295,7 +2156,7 @@
         <v>8</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>50</v>
@@ -2378,75 +2239,64 @@
       <c r="AG2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AH2" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="AI2" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="AJ2" s="2" t="s">
-        <v>117</v>
-      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="U2" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink r:id="rId2" ref="V2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
-    <hyperlink r:id="rId3" ref="W2" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
-    <hyperlink r:id="rId4" ref="X2" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
-    <hyperlink r:id="rId5" ref="Y2" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
-    <hyperlink r:id="rId6" ref="Z2" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
+    <hyperlink ref="U2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="V2" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="W2" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="X2" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="Y2" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
+    <hyperlink ref="Z2" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:AJ2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:AG2"/>
   <sheetViews>
-    <sheetView topLeftCell="AA1" workbookViewId="0">
-      <selection activeCell="AH1" sqref="AH1:AJ1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="45.33203125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="5.83203125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="46.5" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="51.33203125" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="12.83203125" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="99.6640625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="71.83203125" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="35.6640625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="70.6640625" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="103.1640625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="62.1640625" collapsed="true"/>
-    <col min="30" max="32" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="28.5" collapsed="true"/>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="45.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="5.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="46.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="51.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="12.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="99.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="71.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="35.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="70.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="103.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="62.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="32" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="3" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -2463,7 +2313,7 @@
         <v>9</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>6</v>
@@ -2546,17 +2396,8 @@
       <c r="AG1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AH1" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="AI1" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="AJ1" s="14" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row customFormat="1" r="2" s="2" spans="1:36" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -2573,7 +2414,7 @@
         <v>52</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>50</v>
@@ -2656,76 +2497,65 @@
       <c r="AG2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AH2" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="AI2" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="AJ2" s="2" t="s">
-        <v>117</v>
-      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="U2" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
-    <hyperlink r:id="rId2" ref="V2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
-    <hyperlink r:id="rId3" ref="W2" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
-    <hyperlink r:id="rId4" ref="X2" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
-    <hyperlink r:id="rId5" ref="Y2" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
-    <hyperlink r:id="rId6" ref="Z2" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
-    <hyperlink r:id="rId7" ref="AC2" xr:uid="{00000000-0004-0000-0400-000006000000}"/>
+    <hyperlink ref="U2" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="V2" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="W2" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink ref="X2" r:id="rId4" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
+    <hyperlink ref="Y2" r:id="rId5" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
+    <hyperlink ref="Z2" r:id="rId6" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
+    <hyperlink ref="AC2" r:id="rId7" xr:uid="{00000000-0004-0000-0400-000006000000}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:AJ2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:AG2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="AH1" sqref="AH1:AJ1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="45.33203125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="5.83203125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="46.5" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="51.33203125" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="30.83203125" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="12.83203125" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="28.5" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="24.1640625" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="74.5" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="51.33203125" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="25.1640625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="23.83203125" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="50.5" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="103.1640625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="77.83203125" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="45.1640625" collapsed="true"/>
-    <col min="30" max="32" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="28.5" collapsed="true"/>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="45.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="5.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="46.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="51.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="29.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="30.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="12.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="28.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="24.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="74.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="51.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="25.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="23.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="50.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="103.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="77.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="45.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="32" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="3" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -2742,7 +2572,7 @@
         <v>9</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>6</v>
@@ -2825,19 +2655,10 @@
       <c r="AG1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AH1" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="AI1" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="AJ1" s="14" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row customFormat="1" r="2" s="2" spans="1:36" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>92</v>
@@ -2852,7 +2673,7 @@
         <v>52</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>50</v>
@@ -2935,26 +2756,17 @@
       <c r="AG2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AH2" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="AI2" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="AJ2" s="2" t="s">
-        <v>117</v>
-      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="U2" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
-    <hyperlink r:id="rId2" ref="V2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
-    <hyperlink r:id="rId3" ref="W2" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
-    <hyperlink r:id="rId4" ref="X2" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
-    <hyperlink r:id="rId5" ref="Y2" xr:uid="{00000000-0004-0000-0500-000004000000}"/>
-    <hyperlink r:id="rId6" ref="Z2" xr:uid="{00000000-0004-0000-0500-000005000000}"/>
-    <hyperlink r:id="rId7" ref="AC2" xr:uid="{00000000-0004-0000-0500-000006000000}"/>
+    <hyperlink ref="U2" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="V2" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
+    <hyperlink ref="W2" r:id="rId3" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
+    <hyperlink ref="X2" r:id="rId4" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
+    <hyperlink ref="Y2" r:id="rId5" xr:uid="{00000000-0004-0000-0500-000004000000}"/>
+    <hyperlink ref="Z2" r:id="rId6" xr:uid="{00000000-0004-0000-0500-000005000000}"/>
+    <hyperlink ref="AC2" r:id="rId7" xr:uid="{00000000-0004-0000-0500-000006000000}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/fsaautomation/resources/config_properties.xlsx
+++ b/fsaautomation/resources/config_properties.xlsx
@@ -1,32 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/auto/SVMX_Catalyst/fsaautomation/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0470449-7100-3849-9C9D-C7EFD9D382E3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{C0546D99-03D9-3044-9F87-97DCE2832803}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="28040" windowHeight="16240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="6" windowHeight="16240" windowWidth="28040" xWindow="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="460"/>
   </bookViews>
   <sheets>
-    <sheet name="config_local" sheetId="1" r:id="rId1"/>
-    <sheet name="config_automation_build" sheetId="2" r:id="rId2"/>
-    <sheet name="config_automation_tablet_go" sheetId="6" r:id="rId3"/>
-    <sheet name="config_automation_phone_go" sheetId="7" r:id="rId4"/>
-    <sheet name="config_automation_phone" sheetId="3" r:id="rId5"/>
-    <sheet name="config_fsa_pqt_build" sheetId="4" r:id="rId6"/>
-    <sheet name="config_fsa_track_build" sheetId="5" r:id="rId7"/>
+    <sheet name="config_local" r:id="rId1" sheetId="1"/>
+    <sheet name="config_automation_build" r:id="rId2" sheetId="2"/>
+    <sheet name="config_automation_tablet_go" r:id="rId3" sheetId="6"/>
+    <sheet name="config_automation_phone_go" r:id="rId4" sheetId="7"/>
+    <sheet name="config_automation_phone" r:id="rId5" sheetId="3"/>
+    <sheet name="config_fsa_pqt_build" r:id="rId6" sheetId="4"/>
+    <sheet name="config_fsa_track_build" r:id="rId7" sheetId="5"/>
   </sheets>
   <calcPr calcId="150001"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="118">
   <si>
     <t>0053D000001fEk6QAE</t>
   </si>
@@ -384,9 +384,6 @@
     <t>iPhone Developer: Rajesh Rao (76X824PR66)</t>
   </si>
   <si>
-    <t>browser</t>
-  </si>
-  <si>
     <t>com.servicemaxinc.svmxfieldserviceapp</t>
   </si>
   <si>
@@ -449,12 +446,31 @@
   <si>
     <t>a2D0U000000DPnLUAW</t>
   </si>
+  <si>
+    <t>PROFILE_NAME</t>
+  </si>
+  <si>
+    <t>System Administrator</t>
+  </si>
+  <si>
+    <t>PAGE_LAYOUT</t>
+  </si>
+  <si>
+    <t>SVMX Work Order - Admin</t>
+  </si>
+  <si>
+    <t>APPIUM_ORG_INSTANCE</t>
+  </si>
+  <si>
+    <t>cs70</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -516,6 +532,12 @@
       <name val="Menlo"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3933FF"/>
+      <name val="Monaco"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -541,31 +563,32 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="5" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="12" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+  <cellXfs count="15">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="1"/>
+    <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="12" quotePrefix="1" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -582,10 +605,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -620,7 +643,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -672,7 +695,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -783,21 +806,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -814,7 +837,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -866,56 +889,58 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AO34"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="AG1" sqref="AG1:AI1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="45.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="8" width="27.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="65.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="29.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="40.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="67" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="33.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="35.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="28.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="52.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="45.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="115.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="115.33203125" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="49" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="39.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="84" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="115.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="40.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="74.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="28.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="21.1640625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="30.83203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="21.1640625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="45.33203125" collapsed="true"/>
+    <col min="7" max="8" bestFit="true" customWidth="true" width="27.33203125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="65.83203125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="40.5" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="67.0" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="33.33203125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="35.6640625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="28.5" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="52.6640625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="45.33203125" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="115.33203125" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="115.33203125" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="49.0" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="39.33203125" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="84.0" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="115.33203125" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="40.5" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="74.33203125" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="28.5" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="28.5" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="1" s="3" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -932,7 +957,7 @@
         <v>9</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>6</v>
@@ -1012,10 +1037,19 @@
       <c r="AF1" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AG1" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AI1" s="14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row customFormat="1" r="2" s="2" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>92</v>
@@ -1030,7 +1064,7 @@
         <v>8</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>50</v>
@@ -1041,8 +1075,8 @@
       <c r="I2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="2" t="b">
-        <v>1</v>
+      <c r="J2" t="s">
+        <v>90</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>26</v>
@@ -1109,6 +1143,15 @@
       </c>
       <c r="AF2" s="2" t="s">
         <v>40</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.2">
@@ -1134,9 +1177,6 @@
       <c r="AD3" s="1"/>
       <c r="AE3" s="2"/>
       <c r="AF3" s="2"/>
-      <c r="AG3" s="2"/>
-      <c r="AH3" s="2"/>
-      <c r="AI3" s="2"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="2"/>
       <c r="AL3" s="2"/>
@@ -1239,67 +1279,68 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="Q2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="S2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="O2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="U2" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="V2" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="W2" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="X2" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="Y2" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="Z2" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="AC2" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink r:id="rId1" ref="Q2" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink r:id="rId2" ref="S2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink r:id="rId3" ref="O2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink r:id="rId4" ref="U2" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink r:id="rId5" ref="V2" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink r:id="rId6" ref="W2" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink r:id="rId7" ref="X2" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink r:id="rId8" ref="Y2" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink r:id="rId9" ref="Z2" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink r:id="rId10" ref="AC2" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AG2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AJ2"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="AH1" sqref="AH1:AJ1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="45.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="5.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="51.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="46.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="40.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="99.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="71.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="35.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="70.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="103.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="62.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="62.1640625" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="45.33203125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="5.83203125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="51.33203125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="46.5" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="40.5" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="99.6640625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="71.83203125" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="35.6640625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="70.6640625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="103.1640625" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="62.1640625" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" width="62.1640625" collapsed="true"/>
+    <col min="31" max="32" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="28.5" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="1" s="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1316,7 +1357,7 @@
         <v>9</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>6</v>
@@ -1399,10 +1440,19 @@
       <c r="AG1" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH1" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AJ1" s="14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row customFormat="1" r="2" s="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>95</v>
+        <v>7</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>92</v>
@@ -1417,7 +1467,7 @@
         <v>52</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>50</v>
@@ -1500,65 +1550,76 @@
       <c r="AG2" s="2" t="s">
         <v>40</v>
       </c>
+      <c r="AH2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>117</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="U2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="V2" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="W2" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="X2" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="Y2" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="Z2" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="AC2" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink r:id="rId1" ref="U2" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink r:id="rId2" ref="V2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink r:id="rId3" ref="W2" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink r:id="rId4" ref="X2" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink r:id="rId5" ref="Y2" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink r:id="rId6" ref="Z2" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink r:id="rId7" ref="AC2" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AG2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:AJ2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="AH1" sqref="AH1:AJ1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="45.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="5.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="53.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="55" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="12.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="74.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="51.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="25.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="23.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="50.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="45.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="103.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="32" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
+    <col min="4" max="5" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="45.33203125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="5.83203125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="53.83203125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="55.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="12.83203125" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="25.0" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="74.5" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="51.33203125" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="25.1640625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="23.83203125" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="50.5" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="45.1640625" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="103.1640625" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="30" max="32" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="28.5" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="1" s="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1575,7 +1636,7 @@
         <v>9</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>6</v>
@@ -1658,10 +1719,19 @@
       <c r="AG1" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH1" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AJ1" s="14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row customFormat="1" r="2" s="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>92</v>
@@ -1676,7 +1746,7 @@
         <v>52</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>50</v>
@@ -1759,36 +1829,76 @@
       <c r="AG2" s="2" t="s">
         <v>40</v>
       </c>
+      <c r="AH2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>117</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="U2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="V2" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="W2" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="X2" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="Y2" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink ref="Z2" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink r:id="rId1" ref="U2" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink r:id="rId2" ref="V2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink r:id="rId3" ref="W2" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink r:id="rId4" ref="X2" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink r:id="rId5" ref="Y2" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink r:id="rId6" ref="Z2" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA133DF5-A521-F54D-842D-E7B424603702}">
-  <dimension ref="A1:AG2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA133DF5-A521-F54D-842D-E7B424603702}">
+  <dimension ref="A1:AJ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="AH1" sqref="AH1:AJ1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="12" max="12" width="46.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="45.33203125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="5.83203125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="53.83203125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="46.5" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="12.83203125" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="25.0" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="74.5" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="51.33203125" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="25.1640625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="23.83203125" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="50.5" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="45.1640625" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="93.5" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="77.83203125" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="31" max="32" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="28.5" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1805,7 +1915,7 @@
         <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
@@ -1888,16 +1998,25 @@
       <c r="AG1" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH1" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AJ1" s="14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>98</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1">
         <v>12.1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>61</v>
@@ -1906,7 +2025,7 @@
         <v>8</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>50</v>
@@ -1920,8 +2039,8 @@
       <c r="J2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="K2" t="b">
-        <v>1</v>
+      <c r="K2" t="s">
+        <v>90</v>
       </c>
       <c r="L2" s="12" t="s">
         <v>26</v>
@@ -1933,55 +2052,55 @@
         <v>47</v>
       </c>
       <c r="O2" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="P2" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="P2" s="12" t="s">
+      <c r="Q2" s="12" t="s">
         <v>101</v>
-      </c>
-      <c r="Q2" s="12" t="s">
-        <v>102</v>
       </c>
       <c r="R2" s="12" t="s">
         <v>54</v>
       </c>
       <c r="S2" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="T2" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U2" s="13" t="s">
         <v>75</v>
       </c>
       <c r="V2" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="W2" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="W2" s="13" t="s">
+      <c r="X2" s="13" t="s">
         <v>105</v>
-      </c>
-      <c r="X2" s="13" t="s">
-        <v>106</v>
       </c>
       <c r="Y2" s="13" t="s">
         <v>72</v>
       </c>
       <c r="Z2" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA2" t="s">
         <v>107</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="AB2" s="12" t="s">
+      <c r="AC2" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="AC2" s="12" t="s">
+      <c r="AD2" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="AD2" s="13" t="s">
+      <c r="AE2" s="12" t="s">
         <v>111</v>
-      </c>
-      <c r="AE2" s="12" t="s">
-        <v>112</v>
       </c>
       <c r="AF2" s="12" t="s">
         <v>51</v>
@@ -1989,56 +2108,67 @@
       <c r="AG2" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="AH2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>117</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AG2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:AJ2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="AE1" workbookViewId="0">
+      <selection activeCell="AH1" sqref="AH1:AJ1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="45.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="5.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="51.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="46.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="12.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="99.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="71.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="35.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="70.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="62.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="103.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="34.33203125" customWidth="1" collapsed="1"/>
-    <col min="30" max="32" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="45.33203125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="5.83203125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="51.33203125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="46.5" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="12.83203125" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="99.6640625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="71.83203125" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="35.6640625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="70.6640625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="62.1640625" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="103.1640625" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" width="34.33203125" collapsed="true"/>
+    <col min="30" max="32" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="28.5" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="1" s="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -2055,7 +2185,7 @@
         <v>9</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>6</v>
@@ -2105,7 +2235,7 @@
       <c r="V1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="W1" s="3" t="s">
         <v>35</v>
       </c>
       <c r="X1" s="3" t="s">
@@ -2138,16 +2268,25 @@
       <c r="AG1" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH1" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AJ1" s="14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row customFormat="1" r="2" s="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>92</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>61</v>
@@ -2156,7 +2295,7 @@
         <v>8</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>50</v>
@@ -2239,64 +2378,75 @@
       <c r="AG2" s="2" t="s">
         <v>40</v>
       </c>
+      <c r="AH2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>117</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="U2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="V2" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
-    <hyperlink ref="W2" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
-    <hyperlink ref="X2" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
-    <hyperlink ref="Y2" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
-    <hyperlink ref="Z2" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
+    <hyperlink r:id="rId1" ref="U2" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink r:id="rId2" ref="V2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink r:id="rId3" ref="W2" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink r:id="rId4" ref="X2" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink r:id="rId5" ref="Y2" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
+    <hyperlink r:id="rId6" ref="Z2" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:AG2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:AJ2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="AH1" sqref="AH1:AJ1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="45.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="5.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="46.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="51.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="12.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="99.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="71.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="35.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="70.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="103.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="62.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="32" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="45.33203125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="5.83203125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="46.5" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="51.33203125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="12.83203125" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="99.6640625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="71.83203125" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="35.6640625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="70.6640625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="103.1640625" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="62.1640625" collapsed="true"/>
+    <col min="30" max="32" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="28.5" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="1" s="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -2313,7 +2463,7 @@
         <v>9</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>6</v>
@@ -2396,8 +2546,17 @@
       <c r="AG1" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH1" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AJ1" s="14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row customFormat="1" r="2" s="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -2414,7 +2573,7 @@
         <v>52</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>50</v>
@@ -2497,65 +2656,76 @@
       <c r="AG2" s="2" t="s">
         <v>40</v>
       </c>
+      <c r="AH2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>117</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="U2" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
-    <hyperlink ref="V2" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
-    <hyperlink ref="W2" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
-    <hyperlink ref="X2" r:id="rId4" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
-    <hyperlink ref="Y2" r:id="rId5" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
-    <hyperlink ref="Z2" r:id="rId6" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
-    <hyperlink ref="AC2" r:id="rId7" xr:uid="{00000000-0004-0000-0400-000006000000}"/>
+    <hyperlink r:id="rId1" ref="U2" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink r:id="rId2" ref="V2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink r:id="rId3" ref="W2" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink r:id="rId4" ref="X2" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
+    <hyperlink r:id="rId5" ref="Y2" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
+    <hyperlink r:id="rId6" ref="Z2" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
+    <hyperlink r:id="rId7" ref="AC2" xr:uid="{00000000-0004-0000-0400-000006000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:AG2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:AJ2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="AI3" sqref="AI3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="45.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="5.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="46.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="51.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="29.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="30.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="12.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="28.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="24.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="74.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="51.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="25.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="23.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="50.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="103.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="77.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="45.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="32" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="45.33203125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="5.83203125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="46.5" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="51.33203125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="30.83203125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="12.83203125" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="28.5" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="24.1640625" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="74.5" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="51.33203125" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="25.1640625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="23.83203125" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="50.5" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="103.1640625" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="77.83203125" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="45.1640625" collapsed="true"/>
+    <col min="30" max="32" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="28.5" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="1" s="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -2572,7 +2742,7 @@
         <v>9</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>6</v>
@@ -2655,10 +2825,19 @@
       <c r="AG1" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH1" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AJ1" s="14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row customFormat="1" r="2" s="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>92</v>
@@ -2673,7 +2852,7 @@
         <v>52</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>50</v>
@@ -2756,17 +2935,26 @@
       <c r="AG2" s="2" t="s">
         <v>40</v>
       </c>
+      <c r="AH2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>117</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="U2" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
-    <hyperlink ref="V2" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
-    <hyperlink ref="W2" r:id="rId3" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
-    <hyperlink ref="X2" r:id="rId4" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
-    <hyperlink ref="Y2" r:id="rId5" xr:uid="{00000000-0004-0000-0500-000004000000}"/>
-    <hyperlink ref="Z2" r:id="rId6" xr:uid="{00000000-0004-0000-0500-000005000000}"/>
-    <hyperlink ref="AC2" r:id="rId7" xr:uid="{00000000-0004-0000-0500-000006000000}"/>
+    <hyperlink r:id="rId1" ref="U2" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink r:id="rId2" ref="V2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
+    <hyperlink r:id="rId3" ref="W2" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
+    <hyperlink r:id="rId4" ref="X2" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
+    <hyperlink r:id="rId5" ref="Y2" xr:uid="{00000000-0004-0000-0500-000004000000}"/>
+    <hyperlink r:id="rId6" ref="Z2" xr:uid="{00000000-0004-0000-0500-000005000000}"/>
+    <hyperlink r:id="rId7" ref="AC2" xr:uid="{00000000-0004-0000-0500-000006000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/fsaautomation/resources/config_properties.xlsx
+++ b/fsaautomation/resources/config_properties.xlsx
@@ -1,32 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/auto/SVMX_Catalyst/fsaautomation/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{C0546D99-03D9-3044-9F87-97DCE2832803}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3CDA755-36CF-634C-93C3-84AC1D18296C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="6" windowHeight="16240" windowWidth="28040" xWindow="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="460"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="28040" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="config_local" r:id="rId1" sheetId="1"/>
-    <sheet name="config_automation_build" r:id="rId2" sheetId="2"/>
-    <sheet name="config_automation_tablet_go" r:id="rId3" sheetId="6"/>
-    <sheet name="config_automation_phone_go" r:id="rId4" sheetId="7"/>
-    <sheet name="config_automation_phone" r:id="rId5" sheetId="3"/>
-    <sheet name="config_fsa_pqt_build" r:id="rId6" sheetId="4"/>
-    <sheet name="config_fsa_track_build" r:id="rId7" sheetId="5"/>
+    <sheet name="config_local" sheetId="1" r:id="rId1"/>
+    <sheet name="config_automation_build" sheetId="2" r:id="rId2"/>
+    <sheet name="config_automation_tablet_go" sheetId="6" r:id="rId3"/>
+    <sheet name="config_automation_phone_go" sheetId="7" r:id="rId4"/>
+    <sheet name="config_automation_phone" sheetId="3" r:id="rId5"/>
+    <sheet name="config_fsa_pqt_build" sheetId="4" r:id="rId6"/>
+    <sheet name="config_fsa_track_build" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="150001"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="121">
   <si>
     <t>0053D000001fEk6QAE</t>
   </si>
@@ -464,12 +464,20 @@
   <si>
     <t>cs70</t>
   </si>
+  <si>
+    <t>cs41</t>
+  </si>
+  <si>
+    <t>cs97</t>
+  </si>
+  <si>
+    <t>cs77</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -563,32 +571,32 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="5" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="1"/>
-    <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="12" quotePrefix="1" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="12" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -605,10 +613,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -643,7 +651,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -695,7 +703,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -806,21 +814,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -837,7 +845,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -889,58 +897,58 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AO34"/>
   <sheetViews>
-    <sheetView topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="AG1" sqref="AG1:AI1048576"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
+      <selection activeCell="AI2" sqref="AI2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="21.1640625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="30.83203125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="21.1640625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="45.33203125" collapsed="true"/>
-    <col min="7" max="8" bestFit="true" customWidth="true" width="27.33203125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="65.83203125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="40.5" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="67.0" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="33.33203125" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="35.6640625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="28.5" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="52.6640625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="45.33203125" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="115.33203125" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" width="115.33203125" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="49.0" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="39.33203125" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="84.0" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="115.33203125" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="40.5" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="74.33203125" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="28.5" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="28.5" collapsed="true"/>
+    <col min="1" max="1" width="21.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="45.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="8" width="27.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="65.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="29.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="40.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="67" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="33.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="35.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="28.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="52.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="45.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="115.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="115.33203125" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="49" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="39.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="84" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="115.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="40.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="74.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="28.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="28.5" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="3" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:41" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1047,7 +1055,7 @@
         <v>116</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="2" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>97</v>
       </c>
@@ -1150,8 +1158,8 @@
       <c r="AH2" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="AI2" s="2" t="s">
-        <v>117</v>
+      <c r="AI2" s="14" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.2">
@@ -1279,68 +1287,68 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="Q2" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink r:id="rId2" ref="S2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink r:id="rId3" ref="O2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink r:id="rId4" ref="U2" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink r:id="rId5" ref="V2" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink r:id="rId6" ref="W2" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink r:id="rId7" ref="X2" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink r:id="rId8" ref="Y2" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink r:id="rId9" ref="Z2" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink r:id="rId10" ref="AC2" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="Q2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="S2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="O2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="U2" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="V2" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="W2" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="X2" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="Y2" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="Z2" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="AC2" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AJ2"/>
   <sheetViews>
-    <sheetView topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="AH1" sqref="AH1:AJ1048576"/>
+    <sheetView topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="AF15" sqref="AF15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="45.33203125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="5.83203125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="51.33203125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="46.5" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="40.5" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="99.6640625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="71.83203125" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="35.6640625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="70.6640625" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="103.1640625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="62.1640625" collapsed="true"/>
-    <col min="30" max="30" customWidth="true" width="62.1640625" collapsed="true"/>
-    <col min="31" max="32" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="28.5" collapsed="true"/>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="45.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="5.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="51.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="46.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="40.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="99.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="71.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="35.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="70.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="103.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="62.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="62.1640625" customWidth="1" collapsed="1"/>
+    <col min="31" max="32" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="28.5" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="3" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1450,7 +1458,7 @@
         <v>116</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="2" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -1562,21 +1570,21 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="U2" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink r:id="rId2" ref="V2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink r:id="rId3" ref="W2" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink r:id="rId4" ref="X2" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink r:id="rId5" ref="Y2" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink r:id="rId6" ref="Z2" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink r:id="rId7" ref="AC2" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="U2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="V2" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="W2" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="X2" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="Y2" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="Z2" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="AC2" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AJ2"/>
   <sheetViews>
     <sheetView topLeftCell="AB1" workbookViewId="0">
@@ -1585,41 +1593,41 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
-    <col min="4" max="5" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="45.33203125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="5.83203125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="53.83203125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="55.0" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="12.83203125" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="25.0" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="74.5" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="51.33203125" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="25.1640625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="23.83203125" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="50.5" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="45.1640625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="103.1640625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="30" max="32" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="28.5" collapsed="true"/>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="45.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="5.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="53.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="55" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="12.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="25" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="74.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="51.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="25.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="23.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="50.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="45.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="103.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="32" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="28.5" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="3" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1729,7 +1737,7 @@
         <v>116</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="2" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>97</v>
       </c>
@@ -1841,61 +1849,61 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="U2" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink r:id="rId2" ref="V2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink r:id="rId3" ref="W2" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink r:id="rId4" ref="X2" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink r:id="rId5" ref="Y2" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink r:id="rId6" ref="Z2" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="U2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="V2" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="W2" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="X2" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="Y2" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="Z2" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA133DF5-A521-F54D-842D-E7B424603702}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA133DF5-A521-F54D-842D-E7B424603702}">
   <dimension ref="A1:AJ2"/>
   <sheetViews>
-    <sheetView topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="AH1" sqref="AH1:AJ1048576"/>
+    <sheetView topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AJ2" sqref="AJ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="45.33203125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="5.83203125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="53.83203125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="46.5" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="12.83203125" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="18.6640625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="25.0" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="74.5" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="51.33203125" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="25.1640625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="23.83203125" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="50.5" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="45.1640625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="93.5" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="77.83203125" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="31" max="32" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="28.5" collapsed="true"/>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="45.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="5.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="53.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="46.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="12.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="18.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="25" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="74.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="51.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="25.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="23.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="50.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="45.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="93.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="77.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="21" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="32" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="28.5" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.2">
@@ -2114,61 +2122,61 @@
       <c r="AI2" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="AJ2" s="2" t="s">
-        <v>117</v>
+      <c r="AJ2" s="14" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AJ2"/>
   <sheetViews>
-    <sheetView topLeftCell="AE1" workbookViewId="0">
-      <selection activeCell="AH1" sqref="AH1:AJ1048576"/>
+    <sheetView topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="AJ32" sqref="AJ32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="45.33203125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="5.83203125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="51.33203125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="46.5" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="12.83203125" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="99.6640625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="71.83203125" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="35.6640625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="70.6640625" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="62.1640625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="103.1640625" collapsed="true"/>
-    <col min="29" max="29" customWidth="true" width="34.33203125" collapsed="true"/>
-    <col min="30" max="32" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="28.5" collapsed="true"/>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="45.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="5.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="51.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="46.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="12.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="99.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="71.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="35.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="70.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="62.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="103.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="34.33203125" customWidth="1" collapsed="1"/>
+    <col min="30" max="32" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="28.5" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="3" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -2278,7 +2286,7 @@
         <v>116</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="2" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>97</v>
       </c>
@@ -2390,63 +2398,63 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="U2" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink r:id="rId2" ref="V2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
-    <hyperlink r:id="rId3" ref="W2" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
-    <hyperlink r:id="rId4" ref="X2" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
-    <hyperlink r:id="rId5" ref="Y2" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
-    <hyperlink r:id="rId6" ref="Z2" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
+    <hyperlink ref="U2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="V2" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="W2" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="X2" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="Y2" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
+    <hyperlink ref="Z2" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AJ2"/>
   <sheetViews>
-    <sheetView topLeftCell="AA1" workbookViewId="0">
-      <selection activeCell="AH1" sqref="AH1:AJ1048576"/>
+    <sheetView topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AJ2" sqref="AJ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="45.33203125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="5.83203125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="46.5" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="51.33203125" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="12.83203125" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="99.6640625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="71.83203125" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="35.6640625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="70.6640625" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="103.1640625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="62.1640625" collapsed="true"/>
-    <col min="30" max="32" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="28.5" collapsed="true"/>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="45.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="5.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="46.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="51.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="12.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="99.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="71.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="35.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="70.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="103.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="62.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="32" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="28.5" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="3" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -2556,7 +2564,7 @@
         <v>116</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="2" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -2662,70 +2670,70 @@
       <c r="AI2" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="AJ2" s="2" t="s">
-        <v>117</v>
+      <c r="AJ2" s="14" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="U2" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
-    <hyperlink r:id="rId2" ref="V2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
-    <hyperlink r:id="rId3" ref="W2" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
-    <hyperlink r:id="rId4" ref="X2" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
-    <hyperlink r:id="rId5" ref="Y2" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
-    <hyperlink r:id="rId6" ref="Z2" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
-    <hyperlink r:id="rId7" ref="AC2" xr:uid="{00000000-0004-0000-0400-000006000000}"/>
+    <hyperlink ref="U2" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="V2" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="W2" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink ref="X2" r:id="rId4" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
+    <hyperlink ref="Y2" r:id="rId5" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
+    <hyperlink ref="Z2" r:id="rId6" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
+    <hyperlink ref="AC2" r:id="rId7" xr:uid="{00000000-0004-0000-0400-000006000000}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AJ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="AI3" sqref="AI3"/>
+    <sheetView topLeftCell="AE1" workbookViewId="0">
+      <selection activeCell="AJ2" sqref="AJ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="45.33203125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="5.83203125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="46.5" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="51.33203125" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="30.83203125" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="12.83203125" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="28.5" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="24.1640625" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="74.5" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="51.33203125" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="25.1640625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="23.83203125" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="50.5" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="103.1640625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="77.83203125" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="45.1640625" collapsed="true"/>
-    <col min="30" max="32" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="28.5" collapsed="true"/>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="45.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="5.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="46.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="51.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="29.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="30.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="12.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="28.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="24.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="74.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="51.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="25.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="23.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="50.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="103.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="77.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="45.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="32" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="28.5" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="3" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -2835,7 +2843,7 @@
         <v>116</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="2" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>97</v>
       </c>
@@ -2941,20 +2949,20 @@
       <c r="AI2" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="AJ2" s="2" t="s">
-        <v>117</v>
+      <c r="AJ2" s="14" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="U2" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
-    <hyperlink r:id="rId2" ref="V2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
-    <hyperlink r:id="rId3" ref="W2" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
-    <hyperlink r:id="rId4" ref="X2" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
-    <hyperlink r:id="rId5" ref="Y2" xr:uid="{00000000-0004-0000-0500-000004000000}"/>
-    <hyperlink r:id="rId6" ref="Z2" xr:uid="{00000000-0004-0000-0500-000005000000}"/>
-    <hyperlink r:id="rId7" ref="AC2" xr:uid="{00000000-0004-0000-0500-000006000000}"/>
+    <hyperlink ref="U2" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="V2" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
+    <hyperlink ref="W2" r:id="rId3" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
+    <hyperlink ref="X2" r:id="rId4" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
+    <hyperlink ref="Y2" r:id="rId5" xr:uid="{00000000-0004-0000-0500-000004000000}"/>
+    <hyperlink ref="Z2" r:id="rId6" xr:uid="{00000000-0004-0000-0500-000005000000}"/>
+    <hyperlink ref="AC2" r:id="rId7" xr:uid="{00000000-0004-0000-0500-000006000000}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/fsaautomation/resources/config_properties.xlsx
+++ b/fsaautomation/resources/config_properties.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28315"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/auto/SVMX_Catalyst/fsaautomation/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3CDA755-36CF-634C-93C3-84AC1D18296C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="28040" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="28040" windowHeight="16240"/>
   </bookViews>
   <sheets>
     <sheet name="config_local" sheetId="1" r:id="rId1"/>
@@ -21,23 +20,23 @@
     <sheet name="config_fsa_pqt_build" sheetId="4" r:id="rId6"/>
     <sheet name="config_fsa_track_build" sheetId="5" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="150001"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="121">
   <si>
     <t>0053D000001fEk6QAE</t>
   </si>
@@ -477,8 +476,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -546,6 +545,14 @@
       <name val="Monaco"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -570,9 +577,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -591,7 +599,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -904,51 +913,54 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AO34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AJ31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
-      <selection activeCell="AI2" sqref="AI2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="45.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="8" width="27.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="65.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="29.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="40.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="67" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="33.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="35.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="28.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="52.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="45.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="115.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="115.33203125" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="49" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="39.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="84" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="115.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="40.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="74.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="28.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="28.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="25.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="45.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="19.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="5.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="54" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="10.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="46.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="19.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="22.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="14.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="22.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="15.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="40.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="14.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="24.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="98.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="49.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="24.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="23.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="48.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="43.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="103.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="22.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="19.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="22.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="15.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="25.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -971,25 +983,25 @@
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="O1" s="3" t="s">
         <v>32</v>
@@ -1015,7 +1027,7 @@
       <c r="V1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="W1" s="3" t="s">
         <v>35</v>
       </c>
       <c r="X1" s="3" t="s">
@@ -1028,34 +1040,37 @@
         <v>20</v>
       </c>
       <c r="AA1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AC1" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="AD1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AI1" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="AI1" s="14" t="s">
+      <c r="AJ1" s="14" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>97</v>
       </c>
@@ -1063,12 +1078,12 @@
         <v>92</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="5" t="s">
@@ -1078,25 +1093,25 @@
         <v>50</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K2" t="s">
         <v>90</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>33</v>
@@ -1117,9 +1132,9 @@
         <v>28</v>
       </c>
       <c r="U2" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="V2" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="V2" s="2" t="s">
         <v>70</v>
       </c>
       <c r="W2" s="7" t="s">
@@ -1134,123 +1149,99 @@
       <c r="Z2" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AA2" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="AB2" s="11" t="s">
+      <c r="AC2" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="AC2" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AD2" s="2" t="s">
+      <c r="AD2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AF2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AG2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AH2" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AH2" s="2" t="s">
+      <c r="AI2" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="AI2" s="14" t="s">
+      <c r="AJ2" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="B3" s="1"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="2"/>
-      <c r="Z3" s="1"/>
-      <c r="AA3" s="1"/>
-      <c r="AB3" s="2"/>
-      <c r="AC3" s="1"/>
-      <c r="AD3" s="1"/>
-      <c r="AE3" s="2"/>
-      <c r="AF3" s="2"/>
-      <c r="AJ3" s="1"/>
-      <c r="AK3" s="2"/>
-      <c r="AL3" s="2"/>
-      <c r="AM3" s="1"/>
-      <c r="AN3" s="1"/>
-      <c r="AO3" s="2"/>
-    </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="I16" s="1"/>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="I16" s="2"/>
     </row>
     <row r="17" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I17" s="2"/>
     </row>
     <row r="18" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I18" s="1"/>
+      <c r="I18" s="2"/>
     </row>
     <row r="19" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I19" s="2"/>
+      <c r="I19" s="1"/>
     </row>
     <row r="20" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I20" s="2"/>
+      <c r="I20" s="1"/>
     </row>
     <row r="21" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I21" s="2"/>
     </row>
     <row r="22" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I22" s="1"/>
+      <c r="I22" s="2"/>
     </row>
     <row r="23" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I23" s="1"/>
+      <c r="I23" s="2"/>
     </row>
     <row r="24" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I24" s="2"/>
@@ -1259,7 +1250,7 @@
       <c r="I25" s="2"/>
     </row>
     <row r="26" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I26" s="2"/>
+      <c r="I26" s="1"/>
     </row>
     <row r="27" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I27" s="2"/>
@@ -1271,39 +1262,28 @@
       <c r="I29" s="1"/>
     </row>
     <row r="30" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I30" s="2"/>
+      <c r="I30" s="1"/>
     </row>
     <row r="31" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I31" s="2"/>
     </row>
-    <row r="32" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I32" s="1"/>
-    </row>
-    <row r="33" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I33" s="1"/>
-    </row>
-    <row r="34" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I34" s="2"/>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="Q2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="S2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="O2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="U2" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="V2" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="W2" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="X2" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="Y2" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="Z2" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="AC2" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="U2" r:id="rId1"/>
+    <hyperlink ref="W2" r:id="rId2" display="https://cs70.salesforce.com/services/data/v42.0/query/?q="/>
+    <hyperlink ref="Y2" r:id="rId3"/>
+    <hyperlink ref="O2" r:id="rId4"/>
+    <hyperlink ref="Q2" r:id="rId5"/>
+    <hyperlink ref="S2" r:id="rId6"/>
+    <hyperlink ref="X2" r:id="rId7"/>
+    <hyperlink ref="Z2" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ2"/>
   <sheetViews>
     <sheetView topLeftCell="AD1" workbookViewId="0">
@@ -1570,13 +1550,13 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="U2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="V2" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="W2" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="X2" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="Y2" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="Z2" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="AC2" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="U2" r:id="rId1"/>
+    <hyperlink ref="V2" r:id="rId2"/>
+    <hyperlink ref="W2" r:id="rId3"/>
+    <hyperlink ref="X2" r:id="rId4"/>
+    <hyperlink ref="Y2" r:id="rId5"/>
+    <hyperlink ref="Z2" r:id="rId6"/>
+    <hyperlink ref="AC2" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -1584,7 +1564,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ2"/>
   <sheetViews>
     <sheetView topLeftCell="AB1" workbookViewId="0">
@@ -1849,19 +1829,19 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="U2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="V2" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="W2" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="X2" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="Y2" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink ref="Z2" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="U2" r:id="rId1"/>
+    <hyperlink ref="V2" r:id="rId2"/>
+    <hyperlink ref="W2" r:id="rId3"/>
+    <hyperlink ref="X2" r:id="rId4"/>
+    <hyperlink ref="Y2" r:id="rId5"/>
+    <hyperlink ref="Z2" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA133DF5-A521-F54D-842D-E7B424603702}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ2"/>
   <sheetViews>
     <sheetView topLeftCell="W1" workbookViewId="0">
@@ -2132,11 +2112,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ2"/>
   <sheetViews>
-    <sheetView topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="AJ32" sqref="AJ32"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2398,23 +2378,23 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="U2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="V2" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
-    <hyperlink ref="W2" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
-    <hyperlink ref="X2" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
-    <hyperlink ref="Y2" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
-    <hyperlink ref="Z2" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
+    <hyperlink ref="U2" r:id="rId1"/>
+    <hyperlink ref="V2" r:id="rId2"/>
+    <hyperlink ref="W2" r:id="rId3"/>
+    <hyperlink ref="X2" r:id="rId4"/>
+    <hyperlink ref="Y2" r:id="rId5"/>
+    <hyperlink ref="Z2" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ2"/>
   <sheetViews>
-    <sheetView topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AJ2" sqref="AJ2"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="H1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2676,20 +2656,20 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="U2" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
-    <hyperlink ref="V2" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
-    <hyperlink ref="W2" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
-    <hyperlink ref="X2" r:id="rId4" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
-    <hyperlink ref="Y2" r:id="rId5" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
-    <hyperlink ref="Z2" r:id="rId6" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
-    <hyperlink ref="AC2" r:id="rId7" xr:uid="{00000000-0004-0000-0400-000006000000}"/>
+    <hyperlink ref="U2" r:id="rId1"/>
+    <hyperlink ref="V2" r:id="rId2"/>
+    <hyperlink ref="W2" r:id="rId3"/>
+    <hyperlink ref="X2" r:id="rId4"/>
+    <hyperlink ref="Y2" r:id="rId5"/>
+    <hyperlink ref="Z2" r:id="rId6"/>
+    <hyperlink ref="AC2" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ2"/>
   <sheetViews>
     <sheetView topLeftCell="AE1" workbookViewId="0">
@@ -2955,13 +2935,13 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="U2" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
-    <hyperlink ref="V2" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
-    <hyperlink ref="W2" r:id="rId3" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
-    <hyperlink ref="X2" r:id="rId4" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
-    <hyperlink ref="Y2" r:id="rId5" xr:uid="{00000000-0004-0000-0500-000004000000}"/>
-    <hyperlink ref="Z2" r:id="rId6" xr:uid="{00000000-0004-0000-0500-000005000000}"/>
-    <hyperlink ref="AC2" r:id="rId7" xr:uid="{00000000-0004-0000-0500-000006000000}"/>
+    <hyperlink ref="U2" r:id="rId1"/>
+    <hyperlink ref="V2" r:id="rId2"/>
+    <hyperlink ref="W2" r:id="rId3"/>
+    <hyperlink ref="X2" r:id="rId4"/>
+    <hyperlink ref="Y2" r:id="rId5"/>
+    <hyperlink ref="Z2" r:id="rId6"/>
+    <hyperlink ref="AC2" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/fsaautomation/resources/config_properties.xlsx
+++ b/fsaautomation/resources/config_properties.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28315"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/auto/SVMX_Catalyst/fsaautomation/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="28040" windowHeight="16240"/>
+    <workbookView windowHeight="16240" windowWidth="28040" xWindow="20" yWindow="460"/>
   </bookViews>
   <sheets>
-    <sheet name="config_local" sheetId="1" r:id="rId1"/>
-    <sheet name="config_automation_build" sheetId="2" r:id="rId2"/>
-    <sheet name="config_automation_tablet_go" sheetId="6" r:id="rId3"/>
-    <sheet name="config_automation_phone_go" sheetId="7" r:id="rId4"/>
-    <sheet name="config_automation_phone" sheetId="3" r:id="rId5"/>
-    <sheet name="config_fsa_pqt_build" sheetId="4" r:id="rId6"/>
-    <sheet name="config_fsa_track_build" sheetId="5" r:id="rId7"/>
+    <sheet name="config_local" r:id="rId1" sheetId="1"/>
+    <sheet name="config_automation_build" r:id="rId2" sheetId="2"/>
+    <sheet name="config_automation_tablet_go" r:id="rId3" sheetId="6"/>
+    <sheet name="config_automation_phone_go" r:id="rId4" sheetId="7"/>
+    <sheet name="config_automation_phone" r:id="rId5" sheetId="3"/>
+    <sheet name="config_fsa_pqt_build" r:id="rId6" sheetId="4"/>
+    <sheet name="config_fsa_track_build" r:id="rId7" sheetId="5"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="122">
   <si>
     <t>0053D000001fEk6QAE</t>
   </si>
@@ -107,9 +107,6 @@
     <t>ADMIN_USN</t>
   </si>
   <si>
-    <t>meghana.automation@servicemax.com</t>
-  </si>
-  <si>
     <t>NO_RESET</t>
   </si>
   <si>
@@ -120,9 +117,6 @@
   </si>
   <si>
     <t>TECH_PWD</t>
-  </si>
-  <si>
-    <t>servicemax2</t>
   </si>
   <si>
     <t>CLIENT_SECRET</t>
@@ -472,11 +466,21 @@
   <si>
     <t>cs77</t>
   </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>autoadmin@automation.com</t>
+  </si>
+  <si>
+    <t>servicemax3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -578,34 +582,34 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="5" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="10" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="12" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="1"/>
+    <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="12" quotePrefix="1" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="2"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -622,10 +626,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -660,7 +664,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -712,7 +716,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -823,21 +827,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -854,7 +858,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -906,61 +910,61 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="25.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="30" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="45.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="19.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="5.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="54" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="10.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="46.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="19.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="24" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="22.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="14.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="22.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="15.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="40.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="14.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="24.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="98.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="49.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="24.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="23.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="48.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="43.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="103.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="24" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="22.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="19.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="22.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="15.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="25.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="28.83203125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="22" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.6640625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="25.1640625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="30.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.33203125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="45.6640625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="19.1640625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="5.83203125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="54.0" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="14.33203125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="46.83203125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="19.1640625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="22.83203125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="14.33203125" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="22.83203125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="15.5" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="40.83203125" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="14.33203125" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="24.6640625" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="98.6640625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="49.83203125" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="24.5" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="23.1640625" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="48.83203125" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="43.83203125" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="103.5" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="22.83203125" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="19.1640625" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="22.83203125" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="15.5" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="25.1640625" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="28.83203125" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="1" s="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -968,16 +972,16 @@
         <v>21</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>6</v>
@@ -986,28 +990,28 @@
         <v>13</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>10</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="M1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="N1" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="O1" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q1" s="3" t="s">
         <v>16</v>
@@ -1019,16 +1023,16 @@
         <v>22</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="V1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="X1" s="3" t="s">
         <v>12</v>
@@ -1040,84 +1044,84 @@
         <v>20</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AB1" s="3" t="s">
         <v>18</v>
       </c>
       <c r="AC1" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AD1" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AE1" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AF1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AG1" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="AH1" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI1" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AJ1" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="AJ1" s="14" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="2" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row customFormat="1" r="2" s="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="O2" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>28</v>
+        <v>121</v>
       </c>
       <c r="Q2" s="2" t="s">
         <v>17</v>
@@ -1125,59 +1129,59 @@
       <c r="R2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="S2" s="2" t="s">
-        <v>23</v>
+      <c r="S2" s="7" t="s">
+        <v>120</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="U2" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="V2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y2" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="W2" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="X2" s="7" t="s">
+      <c r="Z2" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="Y2" s="7" t="s">
+      <c r="AA2" s="8" t="s">
         <v>72</v>
-      </c>
-      <c r="Z2" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA2" s="8" t="s">
-        <v>74</v>
       </c>
       <c r="AB2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="AC2" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AD2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AF2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AG2" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="AH2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI2" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AI2" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="AJ2" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.2">
@@ -1269,21 +1273,21 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="U2" r:id="rId1"/>
-    <hyperlink ref="W2" r:id="rId2" display="https://cs70.salesforce.com/services/data/v42.0/query/?q="/>
-    <hyperlink ref="Y2" r:id="rId3"/>
-    <hyperlink ref="O2" r:id="rId4"/>
-    <hyperlink ref="Q2" r:id="rId5"/>
-    <hyperlink ref="S2" r:id="rId6"/>
-    <hyperlink ref="X2" r:id="rId7"/>
-    <hyperlink ref="Z2" r:id="rId8"/>
+    <hyperlink r:id="rId1" ref="U2"/>
+    <hyperlink display="https://cs70.salesforce.com/services/data/v42.0/query/?q=" r:id="rId2" ref="W2"/>
+    <hyperlink r:id="rId3" ref="Y2"/>
+    <hyperlink r:id="rId4" ref="O2"/>
+    <hyperlink r:id="rId5" ref="Q2"/>
+    <hyperlink r:id="rId6" ref="S2"/>
+    <hyperlink r:id="rId7" ref="X2"/>
+    <hyperlink r:id="rId8" ref="Z2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ2"/>
   <sheetViews>
     <sheetView topLeftCell="AD1" workbookViewId="0">
@@ -1292,43 +1296,43 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="45.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="5.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="51.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="46.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="40.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="99.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="71.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="35.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="70.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="103.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="62.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="62.1640625" customWidth="1" collapsed="1"/>
-    <col min="31" max="32" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="28.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="45.33203125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="5.83203125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="51.33203125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="46.5" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="40.5" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="99.6640625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="71.83203125" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="35.6640625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="70.6640625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="103.1640625" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="62.1640625" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" width="62.1640625" collapsed="true"/>
+    <col min="31" max="32" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="28.5" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="1" s="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1336,16 +1340,16 @@
         <v>21</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>6</v>
@@ -1354,28 +1358,28 @@
         <v>13</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>10</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="M1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="N1" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="O1" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q1" s="3" t="s">
         <v>16</v>
@@ -1387,16 +1391,16 @@
         <v>22</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="V1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="X1" s="3" t="s">
         <v>12</v>
@@ -1411,160 +1415,160 @@
         <v>18</v>
       </c>
       <c r="AB1" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AC1" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AD1" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AE1" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AF1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AG1" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="AH1" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI1" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AJ1" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="AJ1" s="14" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="2" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row customFormat="1" r="2" s="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="K2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="O2" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Q2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y2" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z2" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA2" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="R2" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="U2" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="V2" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="W2" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="X2" s="7" t="s">
+      <c r="AB2" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC2" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="Y2" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z2" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA2" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB2" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC2" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="AD2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="AE2" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AF2" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AH2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI2" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AI2" s="2" t="s">
+      <c r="AJ2" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="AJ2" s="2" t="s">
-        <v>117</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="U2" r:id="rId1"/>
-    <hyperlink ref="V2" r:id="rId2"/>
-    <hyperlink ref="W2" r:id="rId3"/>
-    <hyperlink ref="X2" r:id="rId4"/>
-    <hyperlink ref="Y2" r:id="rId5"/>
-    <hyperlink ref="Z2" r:id="rId6"/>
-    <hyperlink ref="AC2" r:id="rId7"/>
+    <hyperlink r:id="rId1" ref="U2"/>
+    <hyperlink r:id="rId2" ref="V2"/>
+    <hyperlink r:id="rId3" ref="W2"/>
+    <hyperlink r:id="rId4" ref="X2"/>
+    <hyperlink r:id="rId5" ref="Y2"/>
+    <hyperlink r:id="rId6" ref="Z2"/>
+    <hyperlink r:id="rId7" ref="AC2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ2"/>
   <sheetViews>
     <sheetView topLeftCell="AB1" workbookViewId="0">
@@ -1573,41 +1577,41 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="45.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="5.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="53.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="55" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="12.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="74.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="51.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="25.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="23.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="50.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="45.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="103.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="32" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="28.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
+    <col min="4" max="5" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="45.33203125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="5.83203125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="53.83203125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="55.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="12.83203125" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="25.0" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="74.5" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="51.33203125" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="25.1640625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="23.83203125" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="50.5" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="45.1640625" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="103.1640625" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="30" max="32" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="28.5" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="1" s="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1615,16 +1619,16 @@
         <v>21</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>6</v>
@@ -1633,28 +1637,28 @@
         <v>13</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>10</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="M1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="N1" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="O1" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q1" s="3" t="s">
         <v>16</v>
@@ -1666,16 +1670,16 @@
         <v>22</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="V1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="X1" s="3" t="s">
         <v>12</v>
@@ -1687,161 +1691,161 @@
         <v>20</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AB1" s="3" t="s">
         <v>18</v>
       </c>
       <c r="AC1" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AD1" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AE1" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AF1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AG1" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="AH1" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI1" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AJ1" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="AJ1" s="14" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="2" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row customFormat="1" r="2" s="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="O2" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Q2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y2" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z2" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA2" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB2" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="R2" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="U2" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="V2" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="W2" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="X2" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y2" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z2" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA2" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB2" s="5" t="s">
-        <v>55</v>
-      </c>
       <c r="AC2" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AD2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="AE2" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AF2" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AH2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI2" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AI2" s="2" t="s">
+      <c r="AJ2" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="AJ2" s="2" t="s">
-        <v>117</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="U2" r:id="rId1"/>
-    <hyperlink ref="V2" r:id="rId2"/>
-    <hyperlink ref="W2" r:id="rId3"/>
-    <hyperlink ref="X2" r:id="rId4"/>
-    <hyperlink ref="Y2" r:id="rId5"/>
-    <hyperlink ref="Z2" r:id="rId6"/>
+    <hyperlink r:id="rId1" ref="U2"/>
+    <hyperlink r:id="rId2" ref="V2"/>
+    <hyperlink r:id="rId3" ref="W2"/>
+    <hyperlink r:id="rId4" ref="X2"/>
+    <hyperlink r:id="rId5" ref="Y2"/>
+    <hyperlink r:id="rId6" ref="Z2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ2"/>
   <sheetViews>
     <sheetView topLeftCell="W1" workbookViewId="0">
@@ -1850,40 +1854,40 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="45.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="5.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="53.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="46.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="12.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="18.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="74.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="51.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="25.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="23.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="50.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="45.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="93.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="77.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="32" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="28.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="45.33203125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="5.83203125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="53.83203125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="46.5" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="12.83203125" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="25.0" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="74.5" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="51.33203125" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="25.1640625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="23.83203125" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="50.5" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="45.1640625" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="93.5" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="77.83203125" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="31" max="32" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="28.5" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.2">
@@ -1894,16 +1898,16 @@
         <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
@@ -1912,28 +1916,28 @@
         <v>13</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="M1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="O1" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>16</v>
@@ -1945,16 +1949,16 @@
         <v>22</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>12</v>
@@ -1966,34 +1970,34 @@
         <v>20</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AF1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AG1" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="AH1" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI1" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AJ1" s="14" t="s">
         <v>114</v>
-      </c>
-      <c r="AJ1" s="14" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.2">
@@ -2004,159 +2008,159 @@
         <v>12.1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="O2" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q2" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="P2" s="12" t="s">
+      <c r="R2" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="S2" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="Q2" s="12" t="s">
+      <c r="T2" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="U2" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="V2" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="R2" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="S2" s="13" t="s">
+      <c r="W2" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="T2" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="U2" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="V2" s="13" t="s">
+      <c r="X2" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="W2" s="13" t="s">
+      <c r="Y2" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z2" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="X2" s="13" t="s">
+      <c r="AA2" t="s">
         <v>105</v>
       </c>
-      <c r="Y2" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z2" s="13" t="s">
+      <c r="AB2" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AC2" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="AB2" s="12" t="s">
+      <c r="AD2" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="AC2" s="12" t="s">
+      <c r="AE2" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="AD2" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="AE2" s="12" t="s">
+      <c r="AF2" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH2" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="AF2" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH2" s="2" t="s">
+      <c r="AI2" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AI2" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="AJ2" s="14" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="45.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="5.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="51.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="46.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="12.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="99.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="71.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="35.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="70.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="62.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="103.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="34.33203125" customWidth="1" collapsed="1"/>
-    <col min="30" max="32" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="28.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="45.33203125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="5.83203125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="51.33203125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="46.5" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="12.83203125" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="99.6640625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="71.83203125" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="35.6640625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="70.6640625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="62.1640625" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="103.1640625" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" width="34.33203125" collapsed="true"/>
+    <col min="30" max="32" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="28.5" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="1" s="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -2164,16 +2168,16 @@
         <v>21</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>6</v>
@@ -2182,28 +2186,28 @@
         <v>13</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>10</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="M1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="N1" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="O1" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q1" s="3" t="s">
         <v>16</v>
@@ -2215,16 +2219,16 @@
         <v>22</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="V1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="X1" s="3" t="s">
         <v>12</v>
@@ -2236,161 +2240,161 @@
         <v>20</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AB1" s="3" t="s">
         <v>18</v>
       </c>
       <c r="AC1" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AD1" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AE1" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AF1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AG1" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="AH1" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI1" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AJ1" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="AJ1" s="14" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="2" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row customFormat="1" r="2" s="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="O2" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Q2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y2" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z2" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA2" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB2" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="R2" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="U2" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="V2" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="W2" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="X2" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y2" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z2" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA2" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB2" s="5" t="s">
-        <v>55</v>
-      </c>
       <c r="AC2" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AD2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="AE2" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AF2" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AH2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI2" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AI2" s="2" t="s">
+      <c r="AJ2" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="AJ2" s="2" t="s">
-        <v>117</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="U2" r:id="rId1"/>
-    <hyperlink ref="V2" r:id="rId2"/>
-    <hyperlink ref="W2" r:id="rId3"/>
-    <hyperlink ref="X2" r:id="rId4"/>
-    <hyperlink ref="Y2" r:id="rId5"/>
-    <hyperlink ref="Z2" r:id="rId6"/>
+    <hyperlink r:id="rId1" ref="U2"/>
+    <hyperlink r:id="rId2" ref="V2"/>
+    <hyperlink r:id="rId3" ref="W2"/>
+    <hyperlink r:id="rId4" ref="X2"/>
+    <hyperlink r:id="rId5" ref="Y2"/>
+    <hyperlink r:id="rId6" ref="Z2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ2"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
@@ -2399,42 +2403,42 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="45.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="5.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="46.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="51.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="12.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="99.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="71.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="35.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="70.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="103.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="62.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="32" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="28.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="45.33203125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="5.83203125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="46.5" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="51.33203125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="12.83203125" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="99.6640625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="71.83203125" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="35.6640625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="70.6640625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="103.1640625" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="62.1640625" collapsed="true"/>
+    <col min="30" max="32" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="28.5" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="1" s="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -2442,16 +2446,16 @@
         <v>21</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>6</v>
@@ -2463,25 +2467,25 @@
         <v>13</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="L1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="N1" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="O1" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q1" s="3" t="s">
         <v>16</v>
@@ -2493,16 +2497,16 @@
         <v>22</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="V1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="X1" s="3" t="s">
         <v>12</v>
@@ -2517,54 +2521,54 @@
         <v>18</v>
       </c>
       <c r="AB1" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AC1" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AD1" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AE1" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AF1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AG1" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="AH1" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI1" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AJ1" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="AJ1" s="14" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="2" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row customFormat="1" r="2" s="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
@@ -2576,100 +2580,100 @@
         <v>1</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="O2" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="U2" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="P2" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="S2" s="6" t="s">
+      <c r="V2" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y2" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z2" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA2" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB2" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC2" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD2" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="T2" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="U2" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="V2" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="W2" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="X2" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y2" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z2" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA2" s="5" t="s">
+      <c r="AE2" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF2" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="AB2" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="AC2" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AD2" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE2" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="AF2" s="5" t="s">
-        <v>65</v>
-      </c>
       <c r="AG2" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AH2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI2" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AI2" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="AJ2" s="14" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="U2" r:id="rId1"/>
-    <hyperlink ref="V2" r:id="rId2"/>
-    <hyperlink ref="W2" r:id="rId3"/>
-    <hyperlink ref="X2" r:id="rId4"/>
-    <hyperlink ref="Y2" r:id="rId5"/>
-    <hyperlink ref="Z2" r:id="rId6"/>
-    <hyperlink ref="AC2" r:id="rId7"/>
+    <hyperlink r:id="rId1" ref="U2"/>
+    <hyperlink r:id="rId2" ref="V2"/>
+    <hyperlink r:id="rId3" ref="W2"/>
+    <hyperlink r:id="rId4" ref="X2"/>
+    <hyperlink r:id="rId5" ref="Y2"/>
+    <hyperlink r:id="rId6" ref="Z2"/>
+    <hyperlink r:id="rId7" ref="AC2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ2"/>
   <sheetViews>
     <sheetView topLeftCell="AE1" workbookViewId="0">
@@ -2678,42 +2682,42 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="45.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="5.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="46.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="51.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="29.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="30.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="12.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="28.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="24.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="74.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="51.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="25.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="23.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="50.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="103.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="77.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="45.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="32" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="28.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="45.33203125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="5.83203125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="46.5" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="51.33203125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="30.83203125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="12.83203125" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="28.5" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="24.1640625" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="74.5" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="51.33203125" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="25.1640625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="23.83203125" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="50.5" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="103.1640625" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="77.83203125" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="45.1640625" collapsed="true"/>
+    <col min="30" max="32" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="28.5" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="1" s="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -2721,16 +2725,16 @@
         <v>21</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>6</v>
@@ -2742,25 +2746,25 @@
         <v>13</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="L1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="N1" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="O1" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q1" s="3" t="s">
         <v>16</v>
@@ -2772,16 +2776,16 @@
         <v>22</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="V1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="X1" s="3" t="s">
         <v>12</v>
@@ -2796,54 +2800,54 @@
         <v>18</v>
       </c>
       <c r="AB1" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AC1" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AD1" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AE1" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AF1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AG1" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="AH1" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI1" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AJ1" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="AJ1" s="14" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="2" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row customFormat="1" r="2" s="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
@@ -2852,97 +2856,97 @@
         <v>14</v>
       </c>
       <c r="J2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="O2" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="U2" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="P2" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="S2" s="6" t="s">
+      <c r="V2" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y2" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z2" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA2" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB2" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC2" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD2" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="T2" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="U2" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="V2" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="W2" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="X2" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y2" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z2" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA2" s="5" t="s">
+      <c r="AE2" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF2" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="AB2" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="AC2" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AD2" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE2" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="AF2" s="5" t="s">
-        <v>65</v>
-      </c>
       <c r="AG2" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AH2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI2" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AI2" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="AJ2" s="14" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="U2" r:id="rId1"/>
-    <hyperlink ref="V2" r:id="rId2"/>
-    <hyperlink ref="W2" r:id="rId3"/>
-    <hyperlink ref="X2" r:id="rId4"/>
-    <hyperlink ref="Y2" r:id="rId5"/>
-    <hyperlink ref="Z2" r:id="rId6"/>
-    <hyperlink ref="AC2" r:id="rId7"/>
+    <hyperlink r:id="rId1" ref="U2"/>
+    <hyperlink r:id="rId2" ref="V2"/>
+    <hyperlink r:id="rId3" ref="W2"/>
+    <hyperlink r:id="rId4" ref="X2"/>
+    <hyperlink r:id="rId5" ref="Y2"/>
+    <hyperlink r:id="rId6" ref="Z2"/>
+    <hyperlink r:id="rId7" ref="AC2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/fsaautomation/resources/config_properties.xlsx
+++ b/fsaautomation/resources/config_properties.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28315"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/auto/SVMX_Catalyst/fsaautomation/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView windowHeight="16240" windowWidth="28040" xWindow="20" yWindow="460"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="28040" windowHeight="16240" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="config_local" r:id="rId1" sheetId="1"/>
-    <sheet name="config_automation_build" r:id="rId2" sheetId="2"/>
-    <sheet name="config_automation_tablet_go" r:id="rId3" sheetId="6"/>
-    <sheet name="config_automation_phone_go" r:id="rId4" sheetId="7"/>
-    <sheet name="config_automation_phone" r:id="rId5" sheetId="3"/>
-    <sheet name="config_fsa_pqt_build" r:id="rId6" sheetId="4"/>
-    <sheet name="config_fsa_track_build" r:id="rId7" sheetId="5"/>
+    <sheet name="config_local" sheetId="1" r:id="rId1"/>
+    <sheet name="config_automation_build" sheetId="2" r:id="rId2"/>
+    <sheet name="config_automation_tablet_go" sheetId="6" r:id="rId3"/>
+    <sheet name="config_automation_phone_go" sheetId="7" r:id="rId4"/>
+    <sheet name="config_automation_phone" sheetId="3" r:id="rId5"/>
+    <sheet name="config_fsa_pqt_build" sheetId="4" r:id="rId6"/>
+    <sheet name="config_fsa_track_build" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="121">
   <si>
     <t>0053D000001fEk6QAE</t>
   </si>
@@ -467,9 +467,6 @@
     <t>cs77</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
     <t>autoadmin@automation.com</t>
   </si>
   <si>
@@ -480,7 +477,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -582,34 +578,34 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="5" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="10" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="1"/>
-    <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="12" quotePrefix="1" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="12" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="2"/>
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -626,10 +622,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -664,7 +660,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -716,7 +712,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -827,21 +823,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -858,7 +854,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -910,61 +906,61 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.6640625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="25.1640625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="30.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.33203125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="10.6640625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="45.6640625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="19.1640625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="5.83203125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="54.0" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="14.33203125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="10.6640625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="46.83203125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="19.1640625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="24.0" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="22.83203125" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="14.33203125" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="22.83203125" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="15.5" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="40.83203125" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="14.33203125" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="24.6640625" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="98.6640625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="49.83203125" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="24.5" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="23.1640625" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="48.83203125" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="43.83203125" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="103.5" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="24.0" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="22.83203125" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="19.1640625" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="22.83203125" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="15.5" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="25.1640625" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="28.83203125" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="25.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="45.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="19.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="5.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="54" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="10.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="46.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="19.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="22.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="14.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="22.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="15.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="40.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="14.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="24.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="98.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="49.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="24.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="23.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="48.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="43.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="103.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="22.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="19.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="22.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="15.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="25.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="28.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="22" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="3" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1074,7 +1070,7 @@
         <v>114</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="2" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>95</v>
       </c>
@@ -1082,7 +1078,7 @@
         <v>90</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>59</v>
@@ -1121,7 +1117,7 @@
         <v>31</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Q2" s="2" t="s">
         <v>17</v>
@@ -1130,7 +1126,7 @@
         <v>3</v>
       </c>
       <c r="S2" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="T2" s="2" t="s">
         <v>52</v>
@@ -1273,21 +1269,21 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="U2"/>
-    <hyperlink display="https://cs70.salesforce.com/services/data/v42.0/query/?q=" r:id="rId2" ref="W2"/>
-    <hyperlink r:id="rId3" ref="Y2"/>
-    <hyperlink r:id="rId4" ref="O2"/>
-    <hyperlink r:id="rId5" ref="Q2"/>
-    <hyperlink r:id="rId6" ref="S2"/>
-    <hyperlink r:id="rId7" ref="X2"/>
-    <hyperlink r:id="rId8" ref="Z2"/>
+    <hyperlink ref="U2" r:id="rId1"/>
+    <hyperlink ref="W2" r:id="rId2" display="https://cs70.salesforce.com/services/data/v42.0/query/?q="/>
+    <hyperlink ref="Y2" r:id="rId3"/>
+    <hyperlink ref="O2" r:id="rId4"/>
+    <hyperlink ref="Q2" r:id="rId5"/>
+    <hyperlink ref="S2" r:id="rId6"/>
+    <hyperlink ref="X2" r:id="rId7"/>
+    <hyperlink ref="Z2" r:id="rId8"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ2"/>
   <sheetViews>
     <sheetView topLeftCell="AD1" workbookViewId="0">
@@ -1296,43 +1292,43 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="45.33203125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="5.83203125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="51.33203125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="46.5" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="40.5" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="99.6640625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="71.83203125" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="35.6640625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="70.6640625" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="103.1640625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="62.1640625" collapsed="true"/>
-    <col min="30" max="30" customWidth="true" width="62.1640625" collapsed="true"/>
-    <col min="31" max="32" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="28.5" collapsed="true"/>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="45.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="5.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="51.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="46.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="40.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="99.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="71.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="35.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="70.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="103.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="62.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="62.1640625" customWidth="1" collapsed="1"/>
+    <col min="31" max="32" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="28.5" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="3" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1442,7 +1438,7 @@
         <v>114</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="2" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -1554,21 +1550,21 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="U2"/>
-    <hyperlink r:id="rId2" ref="V2"/>
-    <hyperlink r:id="rId3" ref="W2"/>
-    <hyperlink r:id="rId4" ref="X2"/>
-    <hyperlink r:id="rId5" ref="Y2"/>
-    <hyperlink r:id="rId6" ref="Z2"/>
-    <hyperlink r:id="rId7" ref="AC2"/>
+    <hyperlink ref="U2" r:id="rId1"/>
+    <hyperlink ref="V2" r:id="rId2"/>
+    <hyperlink ref="W2" r:id="rId3"/>
+    <hyperlink ref="X2" r:id="rId4"/>
+    <hyperlink ref="Y2" r:id="rId5"/>
+    <hyperlink ref="Z2" r:id="rId6"/>
+    <hyperlink ref="AC2" r:id="rId7"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ2"/>
   <sheetViews>
     <sheetView topLeftCell="AB1" workbookViewId="0">
@@ -1577,41 +1573,41 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
-    <col min="4" max="5" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="45.33203125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="5.83203125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="53.83203125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="55.0" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="12.83203125" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="25.0" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="74.5" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="51.33203125" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="25.1640625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="23.83203125" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="50.5" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="45.1640625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="103.1640625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="30" max="32" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="28.5" collapsed="true"/>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="45.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="5.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="53.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="55" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="12.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="25" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="74.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="51.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="25.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="23.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="50.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="45.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="103.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="32" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="28.5" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="3" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1721,7 +1717,7 @@
         <v>114</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="2" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>95</v>
       </c>
@@ -1833,19 +1829,19 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="U2"/>
-    <hyperlink r:id="rId2" ref="V2"/>
-    <hyperlink r:id="rId3" ref="W2"/>
-    <hyperlink r:id="rId4" ref="X2"/>
-    <hyperlink r:id="rId5" ref="Y2"/>
-    <hyperlink r:id="rId6" ref="Z2"/>
+    <hyperlink ref="U2" r:id="rId1"/>
+    <hyperlink ref="V2" r:id="rId2"/>
+    <hyperlink ref="W2" r:id="rId3"/>
+    <hyperlink ref="X2" r:id="rId4"/>
+    <hyperlink ref="Y2" r:id="rId5"/>
+    <hyperlink ref="Z2" r:id="rId6"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ2"/>
   <sheetViews>
     <sheetView topLeftCell="W1" workbookViewId="0">
@@ -1854,40 +1850,40 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="45.33203125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="5.83203125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="53.83203125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="46.5" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="12.83203125" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="18.6640625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="25.0" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="74.5" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="51.33203125" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="25.1640625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="23.83203125" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="50.5" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="45.1640625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="93.5" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="77.83203125" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="31" max="32" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="28.5" collapsed="true"/>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="45.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="5.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="53.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="46.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="12.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="18.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="25" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="74.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="51.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="25.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="23.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="50.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="45.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="93.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="77.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="21" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="32" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="28.5" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.2">
@@ -2111,56 +2107,56 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="45.33203125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="5.83203125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="51.33203125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="46.5" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="12.83203125" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="99.6640625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="71.83203125" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="35.6640625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="70.6640625" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="62.1640625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="103.1640625" collapsed="true"/>
-    <col min="29" max="29" customWidth="true" width="34.33203125" collapsed="true"/>
-    <col min="30" max="32" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="28.5" collapsed="true"/>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="45.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="5.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="51.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="46.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="12.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="99.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="71.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="35.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="70.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="62.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="103.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="34.33203125" customWidth="1" collapsed="1"/>
+    <col min="30" max="32" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="28.5" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="3" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -2270,7 +2266,7 @@
         <v>114</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="2" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>95</v>
       </c>
@@ -2278,7 +2274,7 @@
         <v>90</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>59</v>
@@ -2382,19 +2378,19 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="U2"/>
-    <hyperlink r:id="rId2" ref="V2"/>
-    <hyperlink r:id="rId3" ref="W2"/>
-    <hyperlink r:id="rId4" ref="X2"/>
-    <hyperlink r:id="rId5" ref="Y2"/>
-    <hyperlink r:id="rId6" ref="Z2"/>
+    <hyperlink ref="U2" r:id="rId1"/>
+    <hyperlink ref="V2" r:id="rId2"/>
+    <hyperlink ref="W2" r:id="rId3"/>
+    <hyperlink ref="X2" r:id="rId4"/>
+    <hyperlink ref="Y2" r:id="rId5"/>
+    <hyperlink ref="Z2" r:id="rId6"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ2"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
@@ -2403,42 +2399,42 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="45.33203125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="5.83203125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="46.5" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="51.33203125" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="12.83203125" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="99.6640625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="71.83203125" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="35.6640625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="70.6640625" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="103.1640625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="62.1640625" collapsed="true"/>
-    <col min="30" max="32" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="28.5" collapsed="true"/>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="45.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="5.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="46.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="51.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="12.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="99.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="71.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="35.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="70.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="103.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="62.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="32" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="28.5" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="3" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -2548,7 +2544,7 @@
         <v>114</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="2" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -2660,20 +2656,20 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="U2"/>
-    <hyperlink r:id="rId2" ref="V2"/>
-    <hyperlink r:id="rId3" ref="W2"/>
-    <hyperlink r:id="rId4" ref="X2"/>
-    <hyperlink r:id="rId5" ref="Y2"/>
-    <hyperlink r:id="rId6" ref="Z2"/>
-    <hyperlink r:id="rId7" ref="AC2"/>
+    <hyperlink ref="U2" r:id="rId1"/>
+    <hyperlink ref="V2" r:id="rId2"/>
+    <hyperlink ref="W2" r:id="rId3"/>
+    <hyperlink ref="X2" r:id="rId4"/>
+    <hyperlink ref="Y2" r:id="rId5"/>
+    <hyperlink ref="Z2" r:id="rId6"/>
+    <hyperlink ref="AC2" r:id="rId7"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ2"/>
   <sheetViews>
     <sheetView topLeftCell="AE1" workbookViewId="0">
@@ -2682,42 +2678,42 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="45.33203125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="5.83203125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="46.5" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="51.33203125" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="30.83203125" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="12.83203125" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="28.5" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="24.1640625" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="74.5" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="51.33203125" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="25.1640625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="23.83203125" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="50.5" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="103.1640625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="77.83203125" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="45.1640625" collapsed="true"/>
-    <col min="30" max="32" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="28.5" collapsed="true"/>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="45.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="5.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="46.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="51.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="29.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="30.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="12.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="28.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="24.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="74.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="51.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="25.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="23.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="50.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="103.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="77.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="45.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="32" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="28.5" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="3" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -2827,7 +2823,7 @@
         <v>114</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="2" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>95</v>
       </c>
@@ -2939,14 +2935,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="U2"/>
-    <hyperlink r:id="rId2" ref="V2"/>
-    <hyperlink r:id="rId3" ref="W2"/>
-    <hyperlink r:id="rId4" ref="X2"/>
-    <hyperlink r:id="rId5" ref="Y2"/>
-    <hyperlink r:id="rId6" ref="Z2"/>
-    <hyperlink r:id="rId7" ref="AC2"/>
+    <hyperlink ref="U2" r:id="rId1"/>
+    <hyperlink ref="V2" r:id="rId2"/>
+    <hyperlink ref="W2" r:id="rId3"/>
+    <hyperlink ref="X2" r:id="rId4"/>
+    <hyperlink ref="Y2" r:id="rId5"/>
+    <hyperlink ref="Z2" r:id="rId6"/>
+    <hyperlink ref="AC2" r:id="rId7"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/fsaautomation/resources/config_properties.xlsx
+++ b/fsaautomation/resources/config_properties.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28315"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/auto/SVMX_Catalyst/fsaautomation/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\212718562\Documents\Newpull\ch\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E93026B3-DC57-4A11-A813-0A6E95FC1123}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="28040" windowHeight="16240" activeTab="4"/>
+    <workbookView xWindow="24" yWindow="456" windowWidth="28044" windowHeight="16236" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config_local" sheetId="1" r:id="rId1"/>
@@ -25,18 +26,18 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="136">
   <si>
     <t>0053D000001fEk6QAE</t>
   </si>
@@ -472,12 +473,57 @@
   <si>
     <t>servicemax3</t>
   </si>
+  <si>
+    <t>auto-tech@svmx-fsaauttest.org</t>
+  </si>
+  <si>
+    <t>servicemax2</t>
+  </si>
+  <si>
+    <t>auto-tech1@svmx-fsaauttest.org</t>
+  </si>
+  <si>
+    <t>servicemax1</t>
+  </si>
+  <si>
+    <t>garish.gargish@svmx-fsaauttest.org</t>
+  </si>
+  <si>
+    <t>https://cs3.salesforce.com/services/data/v42.0/sobjects/SVMXC__Service_Order__c?</t>
+  </si>
+  <si>
+    <t>https://cs3.salesforce.com/services/data/v42.0/query/?q=</t>
+  </si>
+  <si>
+    <t>https://cs3.salesforce.com/</t>
+  </si>
+  <si>
+    <t>3MVG9pHRjzOBdkd9BaQfCjsH6_lHdwBfY90QHXm2qF86NFsQujl7boLNL9muXBoHBE7phDbwm9h2Z6YH0bX0O</t>
+  </si>
+  <si>
+    <t>6176071B70D374CAD440765C56F1681A90DACFD534285D972B215BCC071005A5</t>
+  </si>
+  <si>
+    <t>https://cs3.salesforce.com/services/oauth2/token?</t>
+  </si>
+  <si>
+    <t>005Q000000QG383</t>
+  </si>
+  <si>
+    <t>a2DQ0000003dXymMAE</t>
+  </si>
+  <si>
+    <t>a2DQ0000003dXycMAE</t>
+  </si>
+  <si>
+    <t>cs3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -913,54 +959,54 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ31"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="25.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="16.69921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="25.19921875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="30" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="45.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="19.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="5.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.69921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="45.69921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="19.19921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="5.796875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="54" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="10.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="46.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="19.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="10.69921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="46.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="19.19921875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="14" max="14" width="24" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="22.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="14.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="22.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="22.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="14.296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="22.796875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="18" max="18" width="15.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="40.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="14.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="24.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="98.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="49.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="40.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="14.296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="24.69921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="98.69921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="49.796875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="24" max="24" width="24.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="23.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="48.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="43.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="23.19921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="48.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="43.796875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="28" max="28" width="103.5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="29" max="29" width="24" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="22.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="19.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="22.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="22.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="19.19921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="22.796875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="33" max="33" width="15.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="25.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="28.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="25.19921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="28.796875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="36" max="36" width="22" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" s="3" customFormat="1" ht="15">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1070,7 +1116,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36" s="2" customFormat="1">
       <c r="A2" s="2" t="s">
         <v>95</v>
       </c>
@@ -1180,155 +1226,155 @@
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:36">
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:36">
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:36">
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:36">
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:36">
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:36">
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:36">
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:36">
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:36">
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:36">
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:36">
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:36">
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:36">
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:36">
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="9:9">
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="9:9">
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="9:9">
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="9:9">
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="9:9">
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="9:9">
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="9:9">
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="9:9">
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="9:9">
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="9:9">
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="9:9">
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="9:9">
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="9:9">
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="9:9">
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="9:9">
       <c r="I31" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="U2" r:id="rId1"/>
-    <hyperlink ref="W2" r:id="rId2" display="https://cs70.salesforce.com/services/data/v42.0/query/?q="/>
-    <hyperlink ref="Y2" r:id="rId3"/>
-    <hyperlink ref="O2" r:id="rId4"/>
-    <hyperlink ref="Q2" r:id="rId5"/>
-    <hyperlink ref="S2" r:id="rId6"/>
-    <hyperlink ref="X2" r:id="rId7"/>
-    <hyperlink ref="Z2" r:id="rId8"/>
+    <hyperlink ref="U2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="W2" r:id="rId2" display="https://cs70.salesforce.com/services/data/v42.0/query/?q=" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="Y2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="O2" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="Q2" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="S2" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="X2" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="Z2" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AJ2"/>
   <sheetViews>
     <sheetView topLeftCell="AD1" workbookViewId="0">
       <selection activeCell="AF15" sqref="AF15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="29.69921875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="45.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="5.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="51.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="45.296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="5.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="51.296875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="14" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="46.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="18.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="23.69921875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="15" max="15" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="16" max="16" width="14" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="17" max="17" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="15.19921875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="19" max="19" width="40.5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="20" max="20" width="14" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="21" max="21" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="99.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="71.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="35.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="99.69921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="71.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="35.69921875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="25" max="25" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="70.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="103.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="70.69921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="103.19921875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="28" max="28" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="62.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="62.1640625" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="62.19921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="62.19921875" customWidth="1" collapsed="1"/>
     <col min="31" max="32" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="15.19921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="24.796875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="35" max="35" width="28.5" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" s="3" customFormat="1" ht="15">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1438,7 +1484,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36" s="2" customFormat="1">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -1550,13 +1596,13 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="U2" r:id="rId1"/>
-    <hyperlink ref="V2" r:id="rId2"/>
-    <hyperlink ref="W2" r:id="rId3"/>
-    <hyperlink ref="X2" r:id="rId4"/>
-    <hyperlink ref="Y2" r:id="rId5"/>
-    <hyperlink ref="Z2" r:id="rId6"/>
-    <hyperlink ref="AC2" r:id="rId7"/>
+    <hyperlink ref="U2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="V2" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="W2" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="X2" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="Y2" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="Z2" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="AC2" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -1564,50 +1610,50 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AJ2"/>
   <sheetViews>
     <sheetView topLeftCell="AB1" workbookViewId="0">
       <selection activeCell="AH1" sqref="AH1:AJ1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="29.69921875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="5" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="45.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="5.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="53.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="45.296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="5.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="53.796875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="14" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="55" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="18.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="23.69921875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="15" max="15" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="16" max="16" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="12.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="23.69921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="12.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="23.69921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="11.69921875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="21" max="21" width="25" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="22" max="22" width="74.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="51.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="25.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="23.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="51.296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="25.19921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="23.796875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="26" max="26" width="50.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="45.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="103.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="45.19921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="103.19921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="23.69921875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="30" max="32" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="15.19921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="24.796875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="35" max="35" width="28.5" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" s="3" customFormat="1" ht="15">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1717,7 +1763,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36" s="2" customFormat="1">
       <c r="A2" s="2" t="s">
         <v>95</v>
       </c>
@@ -1829,64 +1875,64 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="U2" r:id="rId1"/>
-    <hyperlink ref="V2" r:id="rId2"/>
-    <hyperlink ref="W2" r:id="rId3"/>
-    <hyperlink ref="X2" r:id="rId4"/>
-    <hyperlink ref="Y2" r:id="rId5"/>
-    <hyperlink ref="Z2" r:id="rId6"/>
+    <hyperlink ref="U2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="V2" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="W2" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="X2" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="Y2" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="Z2" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AJ2"/>
   <sheetViews>
     <sheetView topLeftCell="W1" workbookViewId="0">
       <selection activeCell="AJ2" sqref="AJ2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="29.69921875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="45.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="5.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="53.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="45.296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="5.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="53.796875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="14" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="46.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="18.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="23.69921875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="15" max="15" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="12.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="18.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="15.19921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="23.69921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="12.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="18.69921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="15.19921875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="21" max="21" width="25" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="22" max="22" width="74.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="51.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="25.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="23.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="51.296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="25.19921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="23.796875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="26" max="26" width="50.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="45.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="45.19921875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="28" max="28" width="93.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="77.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="77.796875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="30" max="30" width="21" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="31" max="32" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="15.19921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="24.796875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="35" max="35" width="28.5" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1996,7 +2042,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -2112,51 +2158,51 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AJ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="29.69921875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="45.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="5.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="51.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.69921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="45.296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="5.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="51.296875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="14" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="46.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="18.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="23.69921875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="15" max="15" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="16" max="16" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="12.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="23.69921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="12.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="23.69921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="11.69921875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="21" max="21" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="99.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="71.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="35.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="99.69921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="71.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="35.69921875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="25" max="25" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="70.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="62.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="103.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="34.33203125" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="70.69921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="62.19921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="103.19921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="34.296875" customWidth="1" collapsed="1"/>
     <col min="30" max="32" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="15.19921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="24.796875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="35" max="35" width="28.5" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" s="3" customFormat="1" ht="15">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -2266,7 +2312,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36" s="2" customFormat="1">
       <c r="A2" s="2" t="s">
         <v>95</v>
       </c>
@@ -2378,63 +2424,63 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="U2" r:id="rId1"/>
-    <hyperlink ref="V2" r:id="rId2"/>
-    <hyperlink ref="W2" r:id="rId3"/>
-    <hyperlink ref="X2" r:id="rId4"/>
-    <hyperlink ref="Y2" r:id="rId5"/>
-    <hyperlink ref="Z2" r:id="rId6"/>
+    <hyperlink ref="U2" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="V2" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="W2" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink ref="X2" r:id="rId4" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
+    <hyperlink ref="Y2" r:id="rId5" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
+    <hyperlink ref="Z2" r:id="rId6" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AJ2"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="H1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="29.69921875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="45.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.69921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="45.296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.796875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="5.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="5.796875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="46.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="51.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="18.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="23.69921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="51.296875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="15" max="15" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="16" max="16" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="12.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="23.69921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="12.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="23.69921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="11.69921875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="21" max="21" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="99.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="71.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="35.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="99.69921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="71.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="35.69921875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="25" max="25" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="70.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="103.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="70.69921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="103.19921875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="28" max="28" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="62.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="62.19921875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="30" max="32" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="15.19921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="24.796875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="35" max="35" width="28.5" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" s="3" customFormat="1" ht="15">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -2544,7 +2590,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36" s="2" customFormat="1">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -2656,64 +2702,64 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="U2" r:id="rId1"/>
-    <hyperlink ref="V2" r:id="rId2"/>
-    <hyperlink ref="W2" r:id="rId3"/>
-    <hyperlink ref="X2" r:id="rId4"/>
-    <hyperlink ref="Y2" r:id="rId5"/>
-    <hyperlink ref="Z2" r:id="rId6"/>
-    <hyperlink ref="AC2" r:id="rId7"/>
+    <hyperlink ref="U2" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="V2" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
+    <hyperlink ref="W2" r:id="rId3" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
+    <hyperlink ref="X2" r:id="rId4" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
+    <hyperlink ref="Y2" r:id="rId5" xr:uid="{00000000-0004-0000-0500-000004000000}"/>
+    <hyperlink ref="Z2" r:id="rId6" xr:uid="{00000000-0004-0000-0500-000005000000}"/>
+    <hyperlink ref="AC2" r:id="rId7" xr:uid="{00000000-0004-0000-0500-000006000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AJ2"/>
   <sheetViews>
-    <sheetView topLeftCell="AE1" workbookViewId="0">
-      <selection activeCell="AJ2" sqref="AJ2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="29.69921875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="45.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.69921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="45.296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.796875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="5.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="5.796875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="46.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="51.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="29.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="18.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="23.69921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="51.296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="29.69921875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="16" max="16" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="30.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="12.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="30.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="12.796875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="19" max="19" width="28.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="24.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="11.69921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="24.19921875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="22" max="22" width="74.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="51.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="25.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="23.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="51.296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="25.19921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="23.796875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="26" max="26" width="50.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="103.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="77.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="45.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="103.19921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="77.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="45.19921875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="30" max="32" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="15.19921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="24.796875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="35" max="35" width="28.5" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" s="3" customFormat="1" ht="15">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -2730,73 +2776,73 @@
         <v>9</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>94</v>
+        <v>6</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="Z1" s="3" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="AB1" s="3" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="AC1" s="3" t="s">
         <v>32</v>
@@ -2823,15 +2869,15 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36" s="2" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>89</v>
+        <v>7</v>
+      </c>
+      <c r="B2" s="11">
+        <v>12.1</v>
+      </c>
+      <c r="C2" s="11">
+        <v>8.1</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
@@ -2840,73 +2886,73 @@
         <v>50</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="I2" s="2" t="b">
+        <v>1</v>
+      </c>
       <c r="J2" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>47</v>
+        <v>121</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>65</v>
+        <v>122</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>52</v>
+        <v>123</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>60</v>
+        <v>124</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>52</v>
+        <v>125</v>
       </c>
       <c r="S2" s="6" t="s">
-        <v>62</v>
+        <v>126</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>52</v>
+        <v>127</v>
       </c>
       <c r="U2" s="7" t="s">
-        <v>67</v>
+        <v>128</v>
       </c>
       <c r="V2" s="7" t="s">
-        <v>79</v>
+        <v>129</v>
       </c>
       <c r="W2" s="7" t="s">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="X2" s="7" t="s">
-        <v>81</v>
+        <v>131</v>
       </c>
       <c r="Y2" s="7" t="s">
-        <v>70</v>
+        <v>132</v>
       </c>
       <c r="Z2" s="7" t="s">
-        <v>82</v>
+        <v>133</v>
       </c>
       <c r="AA2" s="5" t="s">
-        <v>61</v>
+        <v>134</v>
       </c>
       <c r="AB2" s="10" t="s">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="AC2" s="7" t="s">
         <v>83</v>
@@ -2930,18 +2976,12 @@
         <v>113</v>
       </c>
       <c r="AJ2" s="14" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="U2" r:id="rId1"/>
-    <hyperlink ref="V2" r:id="rId2"/>
-    <hyperlink ref="W2" r:id="rId3"/>
-    <hyperlink ref="X2" r:id="rId4"/>
-    <hyperlink ref="Y2" r:id="rId5"/>
-    <hyperlink ref="Z2" r:id="rId6"/>
-    <hyperlink ref="AC2" r:id="rId7"/>
+    <hyperlink ref="AC2" r:id="rId1" xr:uid="{4113BF76-8858-4D15-8D88-6FD7605F4249}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/fsaautomation/resources/config_properties.xlsx
+++ b/fsaautomation/resources/config_properties.xlsx
@@ -1,32 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\212718562\Documents\Newpull\ch\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\212718562\Documents\Newpull\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E93026B3-DC57-4A11-A813-0A6E95FC1123}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{D00EC857-D4D0-432E-8751-90A58B58EE17}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="456" windowWidth="28044" windowHeight="16236" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="6" firstSheet="3" windowHeight="16236" windowWidth="28044" xWindow="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="456"/>
   </bookViews>
   <sheets>
-    <sheet name="config_local" sheetId="1" r:id="rId1"/>
-    <sheet name="config_automation_build" sheetId="2" r:id="rId2"/>
-    <sheet name="config_automation_tablet_go" sheetId="6" r:id="rId3"/>
-    <sheet name="config_automation_phone_go" sheetId="7" r:id="rId4"/>
-    <sheet name="config_automation_phone" sheetId="3" r:id="rId5"/>
-    <sheet name="config_fsa_pqt_build" sheetId="4" r:id="rId6"/>
-    <sheet name="config_fsa_track_build" sheetId="5" r:id="rId7"/>
+    <sheet name="config_local" r:id="rId1" sheetId="1"/>
+    <sheet name="config_automation_build" r:id="rId2" sheetId="2"/>
+    <sheet name="config_automation_tablet_go" r:id="rId3" sheetId="6"/>
+    <sheet name="config_automation_phone_go" r:id="rId4" sheetId="7"/>
+    <sheet name="config_automation_phone" r:id="rId5" sheetId="3"/>
+    <sheet name="config_fsa_pqt_build" r:id="rId6" sheetId="4"/>
+    <sheet name="config_fsa_track_build" r:id="rId7" sheetId="5"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="150001"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="138">
   <si>
     <t>0053D000001fEk6QAE</t>
   </si>
@@ -489,6 +489,9 @@
     <t>garish.gargish@svmx-fsaauttest.org</t>
   </si>
   <si>
+    <t>fsa12345</t>
+  </si>
+  <si>
     <t>https://cs3.salesforce.com/services/data/v42.0/sobjects/SVMXC__Service_Order__c?</t>
   </si>
   <si>
@@ -498,6 +501,9 @@
     <t>https://cs3.salesforce.com/</t>
   </si>
   <si>
+    <t>https://cs3.salesforce.com/services/data/v42.0/sobjects/</t>
+  </si>
+  <si>
     <t>3MVG9pHRjzOBdkd9BaQfCjsH6_lHdwBfY90QHXm2qF86NFsQujl7boLNL9muXBoHBE7phDbwm9h2Z6YH0bX0O</t>
   </si>
   <si>
@@ -507,6 +513,9 @@
     <t>https://cs3.salesforce.com/services/oauth2/token?</t>
   </si>
   <si>
+    <t>cs3</t>
+  </si>
+  <si>
     <t>005Q000000QG383</t>
   </si>
   <si>
@@ -514,15 +523,13 @@
   </si>
   <si>
     <t>a2DQ0000003dXycMAE</t>
-  </si>
-  <si>
-    <t>cs3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="11">
     <font>
       <sz val="12"/>
@@ -624,34 +631,34 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="5" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="10" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="12" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="1"/>
+    <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="12" quotePrefix="1" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="2"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -668,10 +675,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -706,7 +713,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -758,7 +765,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -869,21 +876,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -900,7 +907,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -952,14 +959,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ31"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -968,45 +975,45 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="16.69921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="25.19921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="30" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.69921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="45.69921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="19.19921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="5.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="54" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="10.69921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="46.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="19.19921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="24" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="22.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="14.296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="22.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="15.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="40.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="14.296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="24.69921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="98.69921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="49.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="24.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="23.19921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="48.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="43.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="103.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="24" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="22.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="19.19921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="22.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="15.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="25.19921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="28.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="22" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.69921875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="25.19921875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="30.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.296875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.69921875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="45.69921875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="19.19921875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="5.796875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="54.0" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="14.296875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="10.69921875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="46.796875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="19.19921875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="22.796875" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="14.296875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="22.796875" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="15.5" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="40.796875" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="14.296875" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="24.69921875" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="98.69921875" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="49.796875" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="24.5" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="23.19921875" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="48.796875" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="43.796875" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="103.5" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="22.796875" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="19.19921875" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="22.796875" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="15.5" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="25.19921875" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="28.796875" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="3" customFormat="1" ht="15">
+    <row customFormat="1" ht="15" r="1" s="3" spans="1:36">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1116,7 +1123,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:36" s="2" customFormat="1">
+    <row customFormat="1" r="2" s="2" spans="1:36">
       <c r="A2" s="2" t="s">
         <v>95</v>
       </c>
@@ -1315,66 +1322,66 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="U2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="W2" r:id="rId2" display="https://cs70.salesforce.com/services/data/v42.0/query/?q=" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="Y2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="O2" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="Q2" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="S2" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="X2" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="Z2" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink r:id="rId1" ref="U2" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink display="https://cs70.salesforce.com/services/data/v42.0/query/?q=" r:id="rId2" ref="W2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink r:id="rId3" ref="Y2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink r:id="rId4" ref="O2" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink r:id="rId5" ref="Q2" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink r:id="rId6" ref="S2" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink r:id="rId7" ref="X2" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink r:id="rId8" ref="Z2" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AJ2"/>
   <sheetViews>
-    <sheetView topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="AF15" sqref="AF15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N2" sqref="A2:N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29.69921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="45.296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="5.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="51.296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="46.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="18.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="23.69921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="15.19921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="40.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="99.69921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="71.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="35.69921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="70.69921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="103.19921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="62.19921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="62.19921875" customWidth="1" collapsed="1"/>
-    <col min="31" max="32" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="15.19921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="24.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="28.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="24.796875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="29.69921875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="45.296875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="18.796875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="5.796875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="51.296875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="46.5" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="18.796875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="23.69921875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="15.19921875" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="40.5" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="99.69921875" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="71.796875" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="35.69921875" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="70.69921875" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="103.19921875" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="62.19921875" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" width="62.19921875" collapsed="true"/>
+    <col min="31" max="32" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="15.19921875" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="24.796875" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="28.5" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="3" customFormat="1" ht="15">
+    <row customFormat="1" ht="15" r="1" s="3" spans="1:36">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1484,7 +1491,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:36" s="2" customFormat="1">
+    <row customFormat="1" r="2" s="2" spans="1:36">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -1596,21 +1603,21 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="U2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="V2" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="W2" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="X2" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="Y2" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="Z2" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="AC2" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink r:id="rId1" ref="U2" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink r:id="rId2" ref="V2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink r:id="rId3" ref="W2" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink r:id="rId4" ref="X2" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink r:id="rId5" ref="Y2" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink r:id="rId6" ref="Z2" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink r:id="rId7" ref="AC2" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AJ2"/>
   <sheetViews>
     <sheetView topLeftCell="AB1" workbookViewId="0">
@@ -1619,41 +1626,41 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29.69921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="45.296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="5.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="53.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="55" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="18.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="23.69921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="23.69921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="12.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="23.69921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="11.69921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="74.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="51.296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="25.19921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="23.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="50.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="45.19921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="103.19921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="23.69921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="32" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="15.19921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="24.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="28.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="24.796875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="29.69921875" collapsed="true"/>
+    <col min="4" max="5" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="45.296875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="18.796875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="5.796875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="53.796875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="55.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="18.796875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="23.69921875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="23.69921875" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="12.796875" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="23.69921875" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="11.69921875" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="25.0" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="74.5" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="51.296875" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="25.19921875" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="23.796875" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="50.5" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="45.19921875" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="103.19921875" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="23.69921875" collapsed="true"/>
+    <col min="30" max="32" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="15.19921875" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="24.796875" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="28.5" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="3" customFormat="1" ht="15">
+    <row customFormat="1" ht="15" r="1" s="3" spans="1:36">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1763,7 +1770,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:36" s="2" customFormat="1">
+    <row customFormat="1" r="2" s="2" spans="1:36">
       <c r="A2" s="2" t="s">
         <v>95</v>
       </c>
@@ -1875,19 +1882,19 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="U2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="V2" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="W2" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="X2" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="Y2" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink ref="Z2" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink r:id="rId1" ref="U2" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink r:id="rId2" ref="V2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink r:id="rId3" ref="W2" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink r:id="rId4" ref="X2" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink r:id="rId5" ref="Y2" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink r:id="rId6" ref="Z2" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AJ2"/>
   <sheetViews>
     <sheetView topLeftCell="W1" workbookViewId="0">
@@ -1896,40 +1903,40 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29.69921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="45.296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="5.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="53.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="46.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="18.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="23.69921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="15.19921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="23.69921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="12.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="18.69921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="15.19921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="74.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="51.296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="25.19921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="23.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="50.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="45.19921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="93.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="77.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="32" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="15.19921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="24.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="28.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="24.796875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="29.69921875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="45.296875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="18.796875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="5.796875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="53.796875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="46.5" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="18.796875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="23.69921875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="15.19921875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="23.69921875" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="12.796875" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="18.69921875" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="15.19921875" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="25.0" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="74.5" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="51.296875" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="25.19921875" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="23.796875" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="50.5" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="45.19921875" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="93.5" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="77.796875" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="31" max="32" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="15.19921875" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="24.796875" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="28.5" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36">
@@ -2153,12 +2160,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AJ2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2167,42 +2174,42 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29.69921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.69921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="45.296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="5.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="51.296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="46.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="18.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="23.69921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="23.69921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="12.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="23.69921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="11.69921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="99.69921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="71.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="35.69921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="70.69921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="62.19921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="103.19921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="34.296875" customWidth="1" collapsed="1"/>
-    <col min="30" max="32" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="15.19921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="24.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="28.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="24.796875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="29.69921875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.69921875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="45.296875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="18.796875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="5.796875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="51.296875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="46.5" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="18.796875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="23.69921875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="23.69921875" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="12.796875" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="23.69921875" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="11.69921875" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="99.69921875" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="71.796875" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="35.69921875" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="70.69921875" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="62.19921875" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="103.19921875" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" width="34.296875" collapsed="true"/>
+    <col min="30" max="32" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="15.19921875" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="24.796875" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="28.5" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="3" customFormat="1" ht="15">
+    <row customFormat="1" ht="15" r="1" s="3" spans="1:36">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -2312,7 +2319,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:36" s="2" customFormat="1">
+    <row customFormat="1" r="2" s="2" spans="1:36">
       <c r="A2" s="2" t="s">
         <v>95</v>
       </c>
@@ -2424,19 +2431,19 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="U2" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
-    <hyperlink ref="V2" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
-    <hyperlink ref="W2" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
-    <hyperlink ref="X2" r:id="rId4" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
-    <hyperlink ref="Y2" r:id="rId5" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
-    <hyperlink ref="Z2" r:id="rId6" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
+    <hyperlink r:id="rId1" ref="U2" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink r:id="rId2" ref="V2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink r:id="rId3" ref="W2" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink r:id="rId4" ref="X2" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
+    <hyperlink r:id="rId5" ref="Y2" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
+    <hyperlink r:id="rId6" ref="Z2" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AJ2"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
@@ -2445,42 +2452,42 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29.69921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.69921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="45.296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="5.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="46.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="18.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="23.69921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="51.296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="23.69921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="12.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="23.69921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="11.69921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="99.69921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="71.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="35.69921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="70.69921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="103.19921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="62.19921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="32" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="15.19921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="24.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="28.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="24.796875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="29.69921875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.69921875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="45.296875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="18.796875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="5.796875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="46.5" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="18.796875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="23.69921875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="51.296875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="23.69921875" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="12.796875" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="23.69921875" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="11.69921875" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="99.69921875" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="71.796875" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="35.69921875" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="70.69921875" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="103.19921875" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="62.19921875" collapsed="true"/>
+    <col min="30" max="32" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="15.19921875" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="24.796875" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="28.5" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="3" customFormat="1" ht="15">
+    <row customFormat="1" ht="15" r="1" s="3" spans="1:36">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -2590,7 +2597,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:36" s="2" customFormat="1">
+    <row customFormat="1" r="2" s="2" spans="1:36">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -2702,64 +2709,66 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="U2" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
-    <hyperlink ref="V2" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
-    <hyperlink ref="W2" r:id="rId3" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
-    <hyperlink ref="X2" r:id="rId4" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
-    <hyperlink ref="Y2" r:id="rId5" xr:uid="{00000000-0004-0000-0500-000004000000}"/>
-    <hyperlink ref="Z2" r:id="rId6" xr:uid="{00000000-0004-0000-0500-000005000000}"/>
-    <hyperlink ref="AC2" r:id="rId7" xr:uid="{00000000-0004-0000-0500-000006000000}"/>
+    <hyperlink r:id="rId1" ref="U2" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink r:id="rId2" ref="V2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
+    <hyperlink r:id="rId3" ref="W2" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
+    <hyperlink r:id="rId4" ref="X2" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
+    <hyperlink r:id="rId5" ref="Y2" xr:uid="{00000000-0004-0000-0500-000004000000}"/>
+    <hyperlink r:id="rId6" ref="Z2" xr:uid="{00000000-0004-0000-0500-000005000000}"/>
+    <hyperlink r:id="rId7" ref="AC2" xr:uid="{00000000-0004-0000-0500-000006000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:AJ2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:BM21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29.69921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.69921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="45.296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="5.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="46.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="18.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="23.69921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="51.296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="29.69921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="30.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="12.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="28.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="11.69921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="24.19921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="74.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="51.296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="25.19921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="23.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="50.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="103.19921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="77.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="45.19921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="32" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="15.19921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="24.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="28.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="24.796875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="29.69921875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.69921875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="45.296875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="18.796875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="26.3984375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="46.5" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="18.796875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="23.69921875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="51.296875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="29.69921875" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="30.796875" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="12.796875" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="28.5" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="11.69921875" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="38.296875" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="78.59765625" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="66.59765625" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="38.59765625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="23.796875" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="60.3984375" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="103.19921875" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="77.796875" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" width="52.3984375" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" width="33.796875" collapsed="true"/>
+    <col min="32" max="32" customWidth="true" width="28.5" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="15.19921875" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="24.796875" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="28.5" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="3" customFormat="1" ht="15">
+    <row customFormat="1" ht="15" r="1" s="3" spans="1:65">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -2776,73 +2785,73 @@
         <v>9</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>13</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="W1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="AB1" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="AC1" s="3" t="s">
         <v>32</v>
@@ -2868,16 +2877,18 @@
       <c r="AJ1" s="14" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="2" spans="1:36" s="2" customFormat="1">
+      <c r="AZ1" s="4"/>
+      <c r="BM1" s="14"/>
+    </row>
+    <row customFormat="1" r="2" s="2" spans="1:65">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="11">
-        <v>12.1</v>
-      </c>
-      <c r="C2" s="11">
-        <v>8.1</v>
+      <c r="B2" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>89</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
@@ -2886,85 +2897,85 @@
         <v>50</v>
       </c>
       <c r="F2" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="I2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="P2" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="Q2" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="R2" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="S2" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="T2" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="U2" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="V2" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="U2" s="7" t="s">
+      <c r="W2" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="V2" s="7" t="s">
+      <c r="X2" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="W2" s="7" t="s">
+      <c r="Y2" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z2" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="X2" s="7" t="s">
+      <c r="AA2" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="Y2" s="7" t="s">
+      <c r="AB2" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="Z2" s="7" t="s">
+      <c r="AC2" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="AA2" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="AB2" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC2" s="7" t="s">
-        <v>83</v>
-      </c>
       <c r="AD2" s="5" t="s">
-        <v>64</v>
+        <v>135</v>
       </c>
       <c r="AE2" s="5" t="s">
-        <v>66</v>
+        <v>136</v>
       </c>
       <c r="AF2" s="5" t="s">
-        <v>63</v>
+        <v>137</v>
       </c>
       <c r="AG2" s="2" t="s">
         <v>38</v>
@@ -2975,14 +2986,43 @@
       <c r="AI2" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AJ2" s="14" t="s">
-        <v>135</v>
-      </c>
-    </row>
+      <c r="AJ2" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="AN2"/>
+      <c r="AR2" s="5"/>
+      <c r="AS2" s="5"/>
+      <c r="AT2" s="5"/>
+      <c r="AU2" s="5"/>
+      <c r="AV2" s="5"/>
+      <c r="AW2" s="5"/>
+      <c r="AX2" s="7"/>
+      <c r="AY2" s="7"/>
+      <c r="AZ2" s="7"/>
+      <c r="BA2" s="7"/>
+      <c r="BB2" s="7"/>
+      <c r="BC2" s="7"/>
+      <c r="BD2" s="5"/>
+      <c r="BE2" s="10"/>
+      <c r="BF2" s="7"/>
+      <c r="BG2" s="5"/>
+      <c r="BH2" s="5"/>
+      <c r="BI2" s="5"/>
+    </row>
+    <row customHeight="1" ht="16.2" r="21"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="AC2" r:id="rId1" xr:uid="{4113BF76-8858-4D15-8D88-6FD7605F4249}"/>
+    <hyperlink r:id="rId1" ref="U2" xr:uid="{6516E32D-FE0A-4503-83D9-DE99A3F1E29C}"/>
+    <hyperlink r:id="rId2" ref="V2" xr:uid="{72CA281B-FC1C-428B-BC59-EF0FD6B9C5C7}"/>
+    <hyperlink r:id="rId3" ref="W2" xr:uid="{5F5D8765-BDA0-428C-AD81-FF463FF71A68}"/>
+    <hyperlink r:id="rId4" ref="X2" xr:uid="{41FA5130-7210-4D59-BC4A-AAC4FE7528FA}"/>
+    <hyperlink r:id="rId5" ref="Y2" xr:uid="{21A99399-36E2-457E-B1C8-D64F93F30A87}"/>
+    <hyperlink r:id="rId6" ref="Z2" xr:uid="{6517EDBB-DF9B-4FEE-A84A-2095CA5AE718}"/>
+    <hyperlink r:id="rId7" ref="AC2" xr:uid="{BE738C7D-5AB0-46C4-87C7-91AB24849E0A}"/>
+    <hyperlink r:id="rId8" ref="O2" xr:uid="{B5687E67-4B2A-4681-A064-56C01943A0E1}"/>
+    <hyperlink r:id="rId9" ref="Q2" xr:uid="{F6761B0F-98E5-41F3-911B-44BF29C2FF0A}"/>
+    <hyperlink r:id="rId10" ref="S2" xr:uid="{3B4D386B-9113-4E10-A55D-7275F302BC98}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/fsaautomation/resources/config_properties.xlsx
+++ b/fsaautomation/resources/config_properties.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="142">
   <si>
     <t>0053D000001fEk6QAE</t>
   </si>
@@ -523,6 +523,18 @@
   </si>
   <si>
     <t>a2DQ0000003dXycMAE</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>false1</t>
+  </si>
+  <si>
+    <t>true2</t>
+  </si>
+  <si>
+    <t>false3</t>
   </si>
 </sst>
 </file>

--- a/fsaautomation/resources/config_properties.xlsx
+++ b/fsaautomation/resources/config_properties.xlsx
@@ -1,32 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\212718562\Documents\Newpull\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yadavthyagaraj/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{D00EC857-D4D0-432E-8751-90A58B58EE17}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2544CA83-5606-0640-BCBB-FF17598E1ACF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="6" firstSheet="3" windowHeight="16236" windowWidth="28044" xWindow="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="456"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="28040" windowHeight="16240" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="config_local" r:id="rId1" sheetId="1"/>
-    <sheet name="config_automation_build" r:id="rId2" sheetId="2"/>
-    <sheet name="config_automation_tablet_go" r:id="rId3" sheetId="6"/>
-    <sheet name="config_automation_phone_go" r:id="rId4" sheetId="7"/>
-    <sheet name="config_automation_phone" r:id="rId5" sheetId="3"/>
-    <sheet name="config_fsa_pqt_build" r:id="rId6" sheetId="4"/>
-    <sheet name="config_fsa_track_build" r:id="rId7" sheetId="5"/>
+    <sheet name="config_local" sheetId="1" r:id="rId1"/>
+    <sheet name="config_automation_build" sheetId="2" r:id="rId2"/>
+    <sheet name="config_automation_tablet_go" sheetId="6" r:id="rId3"/>
+    <sheet name="config_automation_phone_go" sheetId="7" r:id="rId4"/>
+    <sheet name="config_automation_phone" sheetId="3" r:id="rId5"/>
+    <sheet name="config_fsa_pqt_build" sheetId="4" r:id="rId6"/>
+    <sheet name="config_fsa_track_build" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="150001"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="138">
   <si>
     <t>0053D000001fEk6QAE</t>
   </si>
@@ -524,25 +524,12 @@
   <si>
     <t>a2DQ0000003dXycMAE</t>
   </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>false1</t>
-  </si>
-  <si>
-    <t>true2</t>
-  </si>
-  <si>
-    <t>false3</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -643,34 +630,34 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="5" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="10" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="1"/>
-    <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="12" quotePrefix="1" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="12" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="2"/>
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -687,10 +674,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -725,7 +712,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -777,7 +764,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -888,21 +875,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -919,7 +906,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -971,61 +958,61 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ31"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.69921875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="25.19921875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="30.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.296875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="10.69921875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="45.69921875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="19.19921875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="5.796875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="54.0" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="14.296875" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="10.69921875" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="46.796875" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="19.19921875" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="24.0" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="22.796875" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="14.296875" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="22.796875" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="15.5" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="40.796875" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="14.296875" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="24.69921875" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="98.69921875" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="49.796875" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="24.5" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="23.19921875" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="48.796875" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="43.796875" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="103.5" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="24.0" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="22.796875" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="19.19921875" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="22.796875" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="15.5" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="25.19921875" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="28.796875" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="25.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="45.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="19.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="5.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="54" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="10.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="46.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="19.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="22.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="14.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="22.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="15.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="40.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="14.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="24.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="98.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="49.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="24.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="23.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="48.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="43.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="103.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="22.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="19.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="22.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="15.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="25.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="28.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="22" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" ht="15" r="1" s="3" spans="1:36">
+    <row r="1" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1135,7 +1122,7 @@
         <v>114</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="2" spans="1:36">
+    <row r="2" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>95</v>
       </c>
@@ -1245,155 +1232,155 @@
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:36">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:36">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:36">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:36">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:36">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:36">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:36">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:36">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:36">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="9:9">
+    <row r="17" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="9:9">
+    <row r="18" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="9:9">
+    <row r="19" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="9:9">
+    <row r="20" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="9:9">
+    <row r="21" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="9:9">
+    <row r="22" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="9:9">
+    <row r="23" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="9:9">
+    <row r="24" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="9:9">
+    <row r="25" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="9:9">
+    <row r="26" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="9:9">
+    <row r="27" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="9:9">
+    <row r="28" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="9:9">
+    <row r="29" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="9:9">
+    <row r="30" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="9:9">
+    <row r="31" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I31" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="U2" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink display="https://cs70.salesforce.com/services/data/v42.0/query/?q=" r:id="rId2" ref="W2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink r:id="rId3" ref="Y2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink r:id="rId4" ref="O2" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink r:id="rId5" ref="Q2" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink r:id="rId6" ref="S2" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink r:id="rId7" ref="X2" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink r:id="rId8" ref="Z2" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="U2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="W2" r:id="rId2" display="https://cs70.salesforce.com/services/data/v42.0/query/?q=" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="Y2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="O2" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="Q2" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="S2" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="X2" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="Z2" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AJ2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N2" sqref="A2:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="24.796875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="29.69921875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="45.296875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="18.796875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="5.796875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="51.296875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="46.5" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="18.796875" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="23.69921875" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="15.19921875" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="40.5" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="99.69921875" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="71.796875" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="35.69921875" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="70.69921875" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="103.19921875" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="62.19921875" collapsed="true"/>
-    <col min="30" max="30" customWidth="true" width="62.19921875" collapsed="true"/>
-    <col min="31" max="32" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="15.19921875" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="24.796875" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="28.5" collapsed="true"/>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="45.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="5.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="51.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="46.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="40.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="99.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="71.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="35.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="70.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="103.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="62.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="62.1640625" customWidth="1" collapsed="1"/>
+    <col min="31" max="32" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="28.5" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" ht="15" r="1" s="3" spans="1:36">
+    <row r="1" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1503,7 +1490,7 @@
         <v>114</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="2" spans="1:36">
+    <row r="2" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -1615,64 +1602,64 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="U2" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink r:id="rId2" ref="V2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink r:id="rId3" ref="W2" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink r:id="rId4" ref="X2" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink r:id="rId5" ref="Y2" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink r:id="rId6" ref="Z2" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink r:id="rId7" ref="AC2" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="U2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="V2" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="W2" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="X2" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="Y2" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="Z2" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="AC2" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AJ2"/>
   <sheetViews>
     <sheetView topLeftCell="AB1" workbookViewId="0">
       <selection activeCell="AH1" sqref="AH1:AJ1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="24.796875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="29.69921875" collapsed="true"/>
-    <col min="4" max="5" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="45.296875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="18.796875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="5.796875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="53.796875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="55.0" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="18.796875" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="23.69921875" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="23.69921875" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="12.796875" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="23.69921875" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="11.69921875" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="25.0" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="74.5" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="51.296875" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="25.19921875" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="23.796875" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="50.5" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="45.19921875" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="103.19921875" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="23.69921875" collapsed="true"/>
-    <col min="30" max="32" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="15.19921875" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="24.796875" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="28.5" collapsed="true"/>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="45.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="5.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="53.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="55" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="12.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="25" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="74.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="51.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="25.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="23.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="50.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="45.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="103.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="32" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="28.5" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" ht="15" r="1" s="3" spans="1:36">
+    <row r="1" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1782,7 +1769,7 @@
         <v>114</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="2" spans="1:36">
+    <row r="2" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>95</v>
       </c>
@@ -1894,64 +1881,64 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="U2" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink r:id="rId2" ref="V2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink r:id="rId3" ref="W2" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink r:id="rId4" ref="X2" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink r:id="rId5" ref="Y2" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink r:id="rId6" ref="Z2" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="U2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="V2" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="W2" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="X2" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="Y2" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="Z2" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AJ2"/>
   <sheetViews>
     <sheetView topLeftCell="W1" workbookViewId="0">
       <selection activeCell="AJ2" sqref="AJ2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="24.796875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="29.69921875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="45.296875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="18.796875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="5.796875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="53.796875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="46.5" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="18.796875" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="23.69921875" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="15.19921875" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="23.69921875" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="12.796875" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="18.69921875" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="15.19921875" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="25.0" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="74.5" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="51.296875" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="25.19921875" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="23.796875" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="50.5" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="45.19921875" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="93.5" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="77.796875" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="31" max="32" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="15.19921875" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="24.796875" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="28.5" collapsed="true"/>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="45.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="5.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="53.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="46.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="12.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="18.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="25" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="74.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="51.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="25.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="23.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="50.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="45.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="93.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="77.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="21" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="32" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="28.5" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2061,7 +2048,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -2172,56 +2159,56 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AJ2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="24.796875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="29.69921875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.69921875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="45.296875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="18.796875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="5.796875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="51.296875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="46.5" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="18.796875" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="23.69921875" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="23.69921875" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="12.796875" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="23.69921875" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="11.69921875" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="99.69921875" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="71.796875" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="35.69921875" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="70.69921875" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="62.19921875" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="103.19921875" collapsed="true"/>
-    <col min="29" max="29" customWidth="true" width="34.296875" collapsed="true"/>
-    <col min="30" max="32" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="15.19921875" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="24.796875" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="28.5" collapsed="true"/>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="45.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="5.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="51.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="46.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="12.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="99.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="71.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="35.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="70.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="62.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="103.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="34.33203125" customWidth="1" collapsed="1"/>
+    <col min="30" max="32" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="28.5" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" ht="15" r="1" s="3" spans="1:36">
+    <row r="1" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -2331,7 +2318,7 @@
         <v>114</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="2" spans="1:36">
+    <row r="2" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>95</v>
       </c>
@@ -2443,63 +2430,63 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="U2" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
-    <hyperlink r:id="rId2" ref="V2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
-    <hyperlink r:id="rId3" ref="W2" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
-    <hyperlink r:id="rId4" ref="X2" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
-    <hyperlink r:id="rId5" ref="Y2" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
-    <hyperlink r:id="rId6" ref="Z2" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
+    <hyperlink ref="U2" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="V2" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="W2" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink ref="X2" r:id="rId4" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
+    <hyperlink ref="Y2" r:id="rId5" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
+    <hyperlink ref="Z2" r:id="rId6" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AJ2"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="H1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="24.796875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="29.69921875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.69921875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="45.296875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="18.796875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="5.796875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="46.5" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="18.796875" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="23.69921875" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="51.296875" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="23.69921875" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="12.796875" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="23.69921875" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="11.69921875" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="99.69921875" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="71.796875" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="35.69921875" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="70.69921875" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="103.19921875" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="62.19921875" collapsed="true"/>
-    <col min="30" max="32" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="15.19921875" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="24.796875" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="28.5" collapsed="true"/>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="45.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="5.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="46.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="51.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="12.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="99.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="71.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="35.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="70.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="103.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="62.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="32" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="28.5" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" ht="15" r="1" s="3" spans="1:36">
+    <row r="1" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -2609,7 +2596,7 @@
         <v>114</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="2" spans="1:36">
+    <row r="2" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -2721,66 +2708,29 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="U2" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
-    <hyperlink r:id="rId2" ref="V2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
-    <hyperlink r:id="rId3" ref="W2" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
-    <hyperlink r:id="rId4" ref="X2" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
-    <hyperlink r:id="rId5" ref="Y2" xr:uid="{00000000-0004-0000-0500-000004000000}"/>
-    <hyperlink r:id="rId6" ref="Z2" xr:uid="{00000000-0004-0000-0500-000005000000}"/>
-    <hyperlink r:id="rId7" ref="AC2" xr:uid="{00000000-0004-0000-0500-000006000000}"/>
+    <hyperlink ref="U2" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="V2" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
+    <hyperlink ref="W2" r:id="rId3" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
+    <hyperlink ref="X2" r:id="rId4" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
+    <hyperlink ref="Y2" r:id="rId5" xr:uid="{00000000-0004-0000-0500-000004000000}"/>
+    <hyperlink ref="Z2" r:id="rId6" xr:uid="{00000000-0004-0000-0500-000005000000}"/>
+    <hyperlink ref="AC2" r:id="rId7" xr:uid="{00000000-0004-0000-0500-000006000000}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:BM21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7343182B-5823-5B43-952E-98BFF421B252}">
+  <dimension ref="A1:AJ2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="24.796875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="29.69921875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.69921875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="45.296875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="18.796875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="26.3984375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="46.5" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="18.796875" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="23.69921875" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="51.296875" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="29.69921875" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="30.796875" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="12.796875" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="28.5" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="11.69921875" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" width="38.296875" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" width="78.59765625" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" width="66.59765625" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" width="38.59765625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="23.796875" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" width="60.3984375" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="103.19921875" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="77.796875" collapsed="true"/>
-    <col min="29" max="29" customWidth="true" width="52.3984375" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
-    <col min="31" max="31" customWidth="true" width="33.796875" collapsed="true"/>
-    <col min="32" max="32" customWidth="true" width="28.5" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="15.19921875" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="24.796875" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="28.5" collapsed="true"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row customFormat="1" ht="15" r="1" s="3" spans="1:65">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -2889,10 +2839,8 @@
       <c r="AJ1" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="AZ1" s="4"/>
-      <c r="BM1" s="14"/>
-    </row>
-    <row customFormat="1" r="2" s="2" spans="1:65">
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -3001,40 +2949,20 @@
       <c r="AJ2" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="AN2"/>
-      <c r="AR2" s="5"/>
-      <c r="AS2" s="5"/>
-      <c r="AT2" s="5"/>
-      <c r="AU2" s="5"/>
-      <c r="AV2" s="5"/>
-      <c r="AW2" s="5"/>
-      <c r="AX2" s="7"/>
-      <c r="AY2" s="7"/>
-      <c r="AZ2" s="7"/>
-      <c r="BA2" s="7"/>
-      <c r="BB2" s="7"/>
-      <c r="BC2" s="7"/>
-      <c r="BD2" s="5"/>
-      <c r="BE2" s="10"/>
-      <c r="BF2" s="7"/>
-      <c r="BG2" s="5"/>
-      <c r="BH2" s="5"/>
-      <c r="BI2" s="5"/>
-    </row>
-    <row customHeight="1" ht="16.2" r="21"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="U2" xr:uid="{6516E32D-FE0A-4503-83D9-DE99A3F1E29C}"/>
-    <hyperlink r:id="rId2" ref="V2" xr:uid="{72CA281B-FC1C-428B-BC59-EF0FD6B9C5C7}"/>
-    <hyperlink r:id="rId3" ref="W2" xr:uid="{5F5D8765-BDA0-428C-AD81-FF463FF71A68}"/>
-    <hyperlink r:id="rId4" ref="X2" xr:uid="{41FA5130-7210-4D59-BC4A-AAC4FE7528FA}"/>
-    <hyperlink r:id="rId5" ref="Y2" xr:uid="{21A99399-36E2-457E-B1C8-D64F93F30A87}"/>
-    <hyperlink r:id="rId6" ref="Z2" xr:uid="{6517EDBB-DF9B-4FEE-A84A-2095CA5AE718}"/>
-    <hyperlink r:id="rId7" ref="AC2" xr:uid="{BE738C7D-5AB0-46C4-87C7-91AB24849E0A}"/>
-    <hyperlink r:id="rId8" ref="O2" xr:uid="{B5687E67-4B2A-4681-A064-56C01943A0E1}"/>
-    <hyperlink r:id="rId9" ref="Q2" xr:uid="{F6761B0F-98E5-41F3-911B-44BF29C2FF0A}"/>
-    <hyperlink r:id="rId10" ref="S2" xr:uid="{3B4D386B-9113-4E10-A55D-7275F302BC98}"/>
+    <hyperlink ref="U2" r:id="rId1" xr:uid="{FE0782BB-4656-AC4F-95A8-8056560CB62B}"/>
+    <hyperlink ref="V2" r:id="rId2" xr:uid="{FC94340B-58F8-4F42-BFDE-64E37B1FEB87}"/>
+    <hyperlink ref="W2" r:id="rId3" xr:uid="{7B0BF450-92F6-284A-B7D7-985597167466}"/>
+    <hyperlink ref="X2" r:id="rId4" xr:uid="{D51848DC-E6B5-C645-8CF5-CC63D879B626}"/>
+    <hyperlink ref="Y2" r:id="rId5" xr:uid="{46FB1BFF-3624-4F4E-91EE-7ED05E75BBC1}"/>
+    <hyperlink ref="Z2" r:id="rId6" xr:uid="{B1FED6CE-CB06-BA4C-9AD2-AC145DEF0755}"/>
+    <hyperlink ref="AC2" r:id="rId7" xr:uid="{B1F926CC-B6ED-6245-AC8C-E1D1171BAA27}"/>
+    <hyperlink ref="O2" r:id="rId8" xr:uid="{FE33CB69-B4D3-6044-B7EC-DA31DCBDC7BC}"/>
+    <hyperlink ref="Q2" r:id="rId9" xr:uid="{514733AE-98BD-8244-8E28-1D6DDC5034ED}"/>
+    <hyperlink ref="S2" r:id="rId10" xr:uid="{9A28273D-6D17-A14D-AC4A-4ED8CB371AF6}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/fsaautomation/resources/config_properties.xlsx
+++ b/fsaautomation/resources/config_properties.xlsx
@@ -1,32 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yadavthyagaraj/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2544CA83-5606-0640-BCBB-FF17598E1ACF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{2544CA83-5606-0640-BCBB-FF17598E1ACF}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="28040" windowHeight="16240" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="6" firstSheet="1" windowHeight="16240" windowWidth="28040" xWindow="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="460"/>
   </bookViews>
   <sheets>
-    <sheet name="config_local" sheetId="1" r:id="rId1"/>
-    <sheet name="config_automation_build" sheetId="2" r:id="rId2"/>
-    <sheet name="config_automation_tablet_go" sheetId="6" r:id="rId3"/>
-    <sheet name="config_automation_phone_go" sheetId="7" r:id="rId4"/>
-    <sheet name="config_automation_phone" sheetId="3" r:id="rId5"/>
-    <sheet name="config_fsa_pqt_build" sheetId="4" r:id="rId6"/>
-    <sheet name="config_fsa_track_build" sheetId="8" r:id="rId7"/>
+    <sheet name="config_local" r:id="rId1" sheetId="1"/>
+    <sheet name="config_automation_build" r:id="rId2" sheetId="2"/>
+    <sheet name="config_automation_tablet_go" r:id="rId3" sheetId="6"/>
+    <sheet name="config_automation_phone_go" r:id="rId4" sheetId="7"/>
+    <sheet name="config_automation_phone" r:id="rId5" sheetId="3"/>
+    <sheet name="config_fsa_pqt_build" r:id="rId6" sheetId="4"/>
+    <sheet name="config_fsa_track_build" r:id="rId7" sheetId="8"/>
   </sheets>
   <calcPr calcId="150001"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="138">
   <si>
     <t>0053D000001fEk6QAE</t>
   </si>
@@ -529,6 +529,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -630,34 +631,34 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="5" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="10" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="12" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="1"/>
+    <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="12" quotePrefix="1" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="2"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -674,10 +675,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -712,7 +713,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -764,7 +765,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -875,21 +876,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -906,7 +907,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -958,14 +959,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ31"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -974,45 +975,45 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="25.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="30" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="45.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="19.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="5.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="54" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="10.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="46.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="19.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="24" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="22.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="14.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="22.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="15.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="40.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="14.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="24.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="98.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="49.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="24.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="23.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="48.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="43.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="103.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="24" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="22.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="19.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="22.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="15.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="25.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="28.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="22" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.6640625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="25.1640625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="30.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.33203125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="45.6640625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="19.1640625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="5.83203125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="54.0" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="14.33203125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="46.83203125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="19.1640625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="22.83203125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="14.33203125" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="22.83203125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="15.5" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="40.83203125" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="14.33203125" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="24.6640625" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="98.6640625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="49.83203125" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="24.5" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="23.1640625" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="48.83203125" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="43.83203125" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="103.5" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="22.83203125" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="19.1640625" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="22.83203125" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="15.5" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="25.1640625" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="28.83203125" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="1" s="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1122,7 +1123,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="2" s="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>95</v>
       </c>
@@ -1321,21 +1322,21 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="U2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="W2" r:id="rId2" display="https://cs70.salesforce.com/services/data/v42.0/query/?q=" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="Y2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="O2" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="Q2" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="S2" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="X2" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="Z2" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink r:id="rId1" ref="U2" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink display="https://cs70.salesforce.com/services/data/v42.0/query/?q=" r:id="rId2" ref="W2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink r:id="rId3" ref="Y2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink r:id="rId4" ref="O2" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink r:id="rId5" ref="Q2" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink r:id="rId6" ref="S2" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink r:id="rId7" ref="X2" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink r:id="rId8" ref="Z2" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AJ2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1344,43 +1345,43 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="45.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="5.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="51.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="46.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="40.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="99.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="71.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="35.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="70.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="103.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="62.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="62.1640625" customWidth="1" collapsed="1"/>
-    <col min="31" max="32" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="28.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="45.33203125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="5.83203125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="51.33203125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="46.5" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="40.5" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="99.6640625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="71.83203125" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="35.6640625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="70.6640625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="103.1640625" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="62.1640625" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" width="62.1640625" collapsed="true"/>
+    <col min="31" max="32" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="28.5" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="1" s="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1490,7 +1491,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="2" s="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -1602,21 +1603,21 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="U2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="V2" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="W2" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="X2" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="Y2" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="Z2" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="AC2" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink r:id="rId1" ref="U2" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink r:id="rId2" ref="V2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink r:id="rId3" ref="W2" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink r:id="rId4" ref="X2" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink r:id="rId5" ref="Y2" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink r:id="rId6" ref="Z2" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink r:id="rId7" ref="AC2" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AJ2"/>
   <sheetViews>
     <sheetView topLeftCell="AB1" workbookViewId="0">
@@ -1625,41 +1626,41 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="45.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="5.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="53.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="55" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="12.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="74.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="51.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="25.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="23.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="50.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="45.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="103.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="32" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="28.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
+    <col min="4" max="5" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="45.33203125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="5.83203125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="53.83203125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="55.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="12.83203125" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="25.0" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="74.5" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="51.33203125" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="25.1640625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="23.83203125" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="50.5" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="45.1640625" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="103.1640625" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="30" max="32" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="28.5" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="1" s="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1769,7 +1770,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="2" s="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>95</v>
       </c>
@@ -1881,19 +1882,19 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="U2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="V2" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="W2" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="X2" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="Y2" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink ref="Z2" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink r:id="rId1" ref="U2" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink r:id="rId2" ref="V2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink r:id="rId3" ref="W2" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink r:id="rId4" ref="X2" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink r:id="rId5" ref="Y2" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink r:id="rId6" ref="Z2" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AJ2"/>
   <sheetViews>
     <sheetView topLeftCell="W1" workbookViewId="0">
@@ -1902,40 +1903,40 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="45.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="5.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="53.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="46.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="12.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="18.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="74.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="51.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="25.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="23.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="50.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="45.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="93.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="77.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="32" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="28.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="45.33203125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="5.83203125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="53.83203125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="46.5" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="12.83203125" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="25.0" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="74.5" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="51.33203125" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="25.1640625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="23.83203125" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="50.5" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="45.1640625" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="93.5" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="77.83203125" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="31" max="32" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="28.5" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.2">
@@ -2159,12 +2160,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AJ2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2173,42 +2174,42 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="45.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="5.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="51.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="46.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="12.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="99.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="71.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="35.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="70.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="62.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="103.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="34.33203125" customWidth="1" collapsed="1"/>
-    <col min="30" max="32" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="28.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="45.33203125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="5.83203125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="51.33203125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="46.5" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="12.83203125" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="99.6640625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="71.83203125" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="35.6640625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="70.6640625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="62.1640625" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="103.1640625" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" width="34.33203125" collapsed="true"/>
+    <col min="30" max="32" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="28.5" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="1" s="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -2318,7 +2319,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="2" s="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>95</v>
       </c>
@@ -2430,19 +2431,19 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="U2" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
-    <hyperlink ref="V2" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
-    <hyperlink ref="W2" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
-    <hyperlink ref="X2" r:id="rId4" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
-    <hyperlink ref="Y2" r:id="rId5" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
-    <hyperlink ref="Z2" r:id="rId6" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
+    <hyperlink r:id="rId1" ref="U2" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink r:id="rId2" ref="V2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink r:id="rId3" ref="W2" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink r:id="rId4" ref="X2" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
+    <hyperlink r:id="rId5" ref="Y2" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
+    <hyperlink r:id="rId6" ref="Z2" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AJ2"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
@@ -2451,42 +2452,42 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="45.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="5.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="46.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="51.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="12.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="99.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="71.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="35.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="70.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="103.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="62.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="32" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="28.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="45.33203125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="5.83203125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="46.5" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="51.33203125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="12.83203125" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="99.6640625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="71.83203125" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="35.6640625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="70.6640625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="103.1640625" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="62.1640625" collapsed="true"/>
+    <col min="30" max="32" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="28.5" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="1" s="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -2596,7 +2597,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="2" s="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -2708,20 +2709,20 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="U2" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
-    <hyperlink ref="V2" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
-    <hyperlink ref="W2" r:id="rId3" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
-    <hyperlink ref="X2" r:id="rId4" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
-    <hyperlink ref="Y2" r:id="rId5" xr:uid="{00000000-0004-0000-0500-000004000000}"/>
-    <hyperlink ref="Z2" r:id="rId6" xr:uid="{00000000-0004-0000-0500-000005000000}"/>
-    <hyperlink ref="AC2" r:id="rId7" xr:uid="{00000000-0004-0000-0500-000006000000}"/>
+    <hyperlink r:id="rId1" ref="U2" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink r:id="rId2" ref="V2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
+    <hyperlink r:id="rId3" ref="W2" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
+    <hyperlink r:id="rId4" ref="X2" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
+    <hyperlink r:id="rId5" ref="Y2" xr:uid="{00000000-0004-0000-0500-000004000000}"/>
+    <hyperlink r:id="rId6" ref="Z2" xr:uid="{00000000-0004-0000-0500-000005000000}"/>
+    <hyperlink r:id="rId7" ref="AC2" xr:uid="{00000000-0004-0000-0500-000006000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7343182B-5823-5B43-952E-98BFF421B252}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7343182B-5823-5B43-952E-98BFF421B252}">
   <dimension ref="A1:AJ2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2952,17 +2953,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="U2" r:id="rId1" xr:uid="{FE0782BB-4656-AC4F-95A8-8056560CB62B}"/>
-    <hyperlink ref="V2" r:id="rId2" xr:uid="{FC94340B-58F8-4F42-BFDE-64E37B1FEB87}"/>
-    <hyperlink ref="W2" r:id="rId3" xr:uid="{7B0BF450-92F6-284A-B7D7-985597167466}"/>
-    <hyperlink ref="X2" r:id="rId4" xr:uid="{D51848DC-E6B5-C645-8CF5-CC63D879B626}"/>
-    <hyperlink ref="Y2" r:id="rId5" xr:uid="{46FB1BFF-3624-4F4E-91EE-7ED05E75BBC1}"/>
-    <hyperlink ref="Z2" r:id="rId6" xr:uid="{B1FED6CE-CB06-BA4C-9AD2-AC145DEF0755}"/>
-    <hyperlink ref="AC2" r:id="rId7" xr:uid="{B1F926CC-B6ED-6245-AC8C-E1D1171BAA27}"/>
-    <hyperlink ref="O2" r:id="rId8" xr:uid="{FE33CB69-B4D3-6044-B7EC-DA31DCBDC7BC}"/>
-    <hyperlink ref="Q2" r:id="rId9" xr:uid="{514733AE-98BD-8244-8E28-1D6DDC5034ED}"/>
-    <hyperlink ref="S2" r:id="rId10" xr:uid="{9A28273D-6D17-A14D-AC4A-4ED8CB371AF6}"/>
+    <hyperlink r:id="rId1" ref="U2" xr:uid="{FE0782BB-4656-AC4F-95A8-8056560CB62B}"/>
+    <hyperlink r:id="rId2" ref="V2" xr:uid="{FC94340B-58F8-4F42-BFDE-64E37B1FEB87}"/>
+    <hyperlink r:id="rId3" ref="W2" xr:uid="{7B0BF450-92F6-284A-B7D7-985597167466}"/>
+    <hyperlink r:id="rId4" ref="X2" xr:uid="{D51848DC-E6B5-C645-8CF5-CC63D879B626}"/>
+    <hyperlink r:id="rId5" ref="Y2" xr:uid="{46FB1BFF-3624-4F4E-91EE-7ED05E75BBC1}"/>
+    <hyperlink r:id="rId6" ref="Z2" xr:uid="{B1FED6CE-CB06-BA4C-9AD2-AC145DEF0755}"/>
+    <hyperlink r:id="rId7" ref="AC2" xr:uid="{B1F926CC-B6ED-6245-AC8C-E1D1171BAA27}"/>
+    <hyperlink r:id="rId8" ref="O2" xr:uid="{FE33CB69-B4D3-6044-B7EC-DA31DCBDC7BC}"/>
+    <hyperlink r:id="rId9" ref="Q2" xr:uid="{514733AE-98BD-8244-8E28-1D6DDC5034ED}"/>
+    <hyperlink r:id="rId10" ref="S2" xr:uid="{9A28273D-6D17-A14D-AC4A-4ED8CB371AF6}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/fsaautomation/resources/config_properties.xlsx
+++ b/fsaautomation/resources/config_properties.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28315"/>
+  <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yadavthyagaraj/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/auto/SVMX_Catalyst/fsaautomation/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{2544CA83-5606-0640-BCBB-FF17598E1ACF}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36"/>
   <bookViews>
-    <workbookView activeTab="6" firstSheet="1" windowHeight="16240" windowWidth="28040" xWindow="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="460"/>
+    <workbookView activeTab="1" firstSheet="1" windowHeight="16240" windowWidth="28040" xWindow="20" yWindow="460"/>
   </bookViews>
   <sheets>
     <sheet name="config_local" r:id="rId1" sheetId="1"/>
@@ -21,23 +20,23 @@
     <sheet name="config_fsa_pqt_build" r:id="rId6" sheetId="4"/>
     <sheet name="config_fsa_track_build" r:id="rId7" sheetId="8"/>
   </sheets>
-  <calcPr calcId="150001"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="139">
   <si>
     <t>0053D000001fEk6QAE</t>
   </si>
@@ -524,11 +523,14 @@
   <si>
     <t>a2DQ0000003dXycMAE</t>
   </si>
+  <si>
+    <t>9</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -966,7 +968,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ31"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -1322,25 +1324,25 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="U2" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink display="https://cs70.salesforce.com/services/data/v42.0/query/?q=" r:id="rId2" ref="W2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink r:id="rId3" ref="Y2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink r:id="rId4" ref="O2" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink r:id="rId5" ref="Q2" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink r:id="rId6" ref="S2" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink r:id="rId7" ref="X2" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink r:id="rId8" ref="Z2" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink r:id="rId1" ref="U2"/>
+    <hyperlink display="https://cs70.salesforce.com/services/data/v42.0/query/?q=" r:id="rId2" ref="W2"/>
+    <hyperlink r:id="rId3" ref="Y2"/>
+    <hyperlink r:id="rId4" ref="O2"/>
+    <hyperlink r:id="rId5" ref="Q2"/>
+    <hyperlink r:id="rId6" ref="S2"/>
+    <hyperlink r:id="rId7" ref="X2"/>
+    <hyperlink r:id="rId8" ref="Z2"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N2" sqref="A2:N2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1493,19 +1495,19 @@
     </row>
     <row customFormat="1" r="2" s="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>95</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>90</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>89</v>
+        <v>138</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>93</v>
@@ -1603,13 +1605,13 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="U2" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink r:id="rId2" ref="V2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink r:id="rId3" ref="W2" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink r:id="rId4" ref="X2" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink r:id="rId5" ref="Y2" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink r:id="rId6" ref="Z2" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink r:id="rId7" ref="AC2" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink r:id="rId1" ref="U2"/>
+    <hyperlink r:id="rId2" ref="V2"/>
+    <hyperlink r:id="rId3" ref="W2"/>
+    <hyperlink r:id="rId4" ref="X2"/>
+    <hyperlink r:id="rId5" ref="Y2"/>
+    <hyperlink r:id="rId6" ref="Z2"/>
+    <hyperlink r:id="rId7" ref="AC2"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup horizontalDpi="0" orientation="portrait" verticalDpi="0"/>
@@ -1617,7 +1619,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ2"/>
   <sheetViews>
     <sheetView topLeftCell="AB1" workbookViewId="0">
@@ -1882,19 +1884,19 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="U2" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink r:id="rId2" ref="V2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink r:id="rId3" ref="W2" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink r:id="rId4" ref="X2" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink r:id="rId5" ref="Y2" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink r:id="rId6" ref="Z2" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink r:id="rId1" ref="U2"/>
+    <hyperlink r:id="rId2" ref="V2"/>
+    <hyperlink r:id="rId3" ref="W2"/>
+    <hyperlink r:id="rId4" ref="X2"/>
+    <hyperlink r:id="rId5" ref="Y2"/>
+    <hyperlink r:id="rId6" ref="Z2"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ2"/>
   <sheetViews>
     <sheetView topLeftCell="W1" workbookViewId="0">
@@ -2165,7 +2167,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2431,19 +2433,19 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="U2" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
-    <hyperlink r:id="rId2" ref="V2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
-    <hyperlink r:id="rId3" ref="W2" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
-    <hyperlink r:id="rId4" ref="X2" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
-    <hyperlink r:id="rId5" ref="Y2" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
-    <hyperlink r:id="rId6" ref="Z2" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
+    <hyperlink r:id="rId1" ref="U2"/>
+    <hyperlink r:id="rId2" ref="V2"/>
+    <hyperlink r:id="rId3" ref="W2"/>
+    <hyperlink r:id="rId4" ref="X2"/>
+    <hyperlink r:id="rId5" ref="Y2"/>
+    <hyperlink r:id="rId6" ref="Z2"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ2"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
@@ -2709,23 +2711,23 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="U2" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
-    <hyperlink r:id="rId2" ref="V2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
-    <hyperlink r:id="rId3" ref="W2" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
-    <hyperlink r:id="rId4" ref="X2" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
-    <hyperlink r:id="rId5" ref="Y2" xr:uid="{00000000-0004-0000-0500-000004000000}"/>
-    <hyperlink r:id="rId6" ref="Z2" xr:uid="{00000000-0004-0000-0500-000005000000}"/>
-    <hyperlink r:id="rId7" ref="AC2" xr:uid="{00000000-0004-0000-0500-000006000000}"/>
+    <hyperlink r:id="rId1" ref="U2"/>
+    <hyperlink r:id="rId2" ref="V2"/>
+    <hyperlink r:id="rId3" ref="W2"/>
+    <hyperlink r:id="rId4" ref="X2"/>
+    <hyperlink r:id="rId5" ref="Y2"/>
+    <hyperlink r:id="rId6" ref="Z2"/>
+    <hyperlink r:id="rId7" ref="AC2"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7343182B-5823-5B43-952E-98BFF421B252}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
@@ -2953,16 +2955,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="U2" xr:uid="{FE0782BB-4656-AC4F-95A8-8056560CB62B}"/>
-    <hyperlink r:id="rId2" ref="V2" xr:uid="{FC94340B-58F8-4F42-BFDE-64E37B1FEB87}"/>
-    <hyperlink r:id="rId3" ref="W2" xr:uid="{7B0BF450-92F6-284A-B7D7-985597167466}"/>
-    <hyperlink r:id="rId4" ref="X2" xr:uid="{D51848DC-E6B5-C645-8CF5-CC63D879B626}"/>
-    <hyperlink r:id="rId5" ref="Y2" xr:uid="{46FB1BFF-3624-4F4E-91EE-7ED05E75BBC1}"/>
-    <hyperlink r:id="rId6" ref="Z2" xr:uid="{B1FED6CE-CB06-BA4C-9AD2-AC145DEF0755}"/>
-    <hyperlink r:id="rId7" ref="AC2" xr:uid="{B1F926CC-B6ED-6245-AC8C-E1D1171BAA27}"/>
-    <hyperlink r:id="rId8" ref="O2" xr:uid="{FE33CB69-B4D3-6044-B7EC-DA31DCBDC7BC}"/>
-    <hyperlink r:id="rId9" ref="Q2" xr:uid="{514733AE-98BD-8244-8E28-1D6DDC5034ED}"/>
-    <hyperlink r:id="rId10" ref="S2" xr:uid="{9A28273D-6D17-A14D-AC4A-4ED8CB371AF6}"/>
+    <hyperlink r:id="rId1" ref="U2"/>
+    <hyperlink r:id="rId2" ref="V2"/>
+    <hyperlink r:id="rId3" ref="W2"/>
+    <hyperlink r:id="rId4" ref="X2"/>
+    <hyperlink r:id="rId5" ref="Y2"/>
+    <hyperlink r:id="rId6" ref="Z2"/>
+    <hyperlink r:id="rId7" ref="AC2"/>
+    <hyperlink r:id="rId8" ref="O2"/>
+    <hyperlink r:id="rId9" ref="Q2"/>
+    <hyperlink r:id="rId10" ref="S2"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/fsaautomation/resources/config_properties.xlsx
+++ b/fsaautomation/resources/config_properties.xlsx
@@ -1,42 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28315"/>
-  <workbookPr/>
-  <mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/auto/SVMX_Catalyst/fsaautomation/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46B9C454-3E7B-0647-B4CB-168609EC3C1E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="1" firstSheet="1" windowHeight="16240" windowWidth="28040" xWindow="20" yWindow="460"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="28040" windowHeight="16240" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="config_local" r:id="rId1" sheetId="1"/>
-    <sheet name="config_automation_build" r:id="rId2" sheetId="2"/>
-    <sheet name="config_automation_tablet_go" r:id="rId3" sheetId="6"/>
-    <sheet name="config_automation_phone_go" r:id="rId4" sheetId="7"/>
-    <sheet name="config_automation_phone" r:id="rId5" sheetId="3"/>
-    <sheet name="config_fsa_pqt_build" r:id="rId6" sheetId="4"/>
-    <sheet name="config_fsa_track_build" r:id="rId7" sheetId="8"/>
+    <sheet name="config_local" sheetId="1" r:id="rId1"/>
+    <sheet name="config_automation_build" sheetId="2" r:id="rId2"/>
+    <sheet name="config_automation_tablet_go" sheetId="6" r:id="rId3"/>
+    <sheet name="config_automation_phone_go" sheetId="7" r:id="rId4"/>
+    <sheet name="config_automation_phone" sheetId="3" r:id="rId5"/>
+    <sheet name="config_fsa_pqt_build" sheetId="4" r:id="rId6"/>
+    <sheet name="config_fsa_track_build" sheetId="8" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="150001"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="139">
   <si>
     <t>0053D000001fEk6QAE</t>
   </si>
@@ -530,8 +531,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -633,34 +633,34 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="5" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="10" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="1"/>
-    <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="12" quotePrefix="1" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="12" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="2"/>
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -677,10 +677,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -715,7 +715,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -767,7 +767,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -878,21 +878,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -909,7 +909,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -961,14 +961,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ31"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -977,45 +977,45 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.6640625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="25.1640625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="30.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.33203125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="10.6640625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="45.6640625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="19.1640625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="5.83203125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="54.0" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="14.33203125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="10.6640625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="46.83203125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="19.1640625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="24.0" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="22.83203125" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="14.33203125" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="22.83203125" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="15.5" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="40.83203125" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="14.33203125" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="24.6640625" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="98.6640625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="49.83203125" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="24.5" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="23.1640625" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="48.83203125" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="43.83203125" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="103.5" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="24.0" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="22.83203125" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="19.1640625" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="22.83203125" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="15.5" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="25.1640625" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="28.83203125" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="25.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="45.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="19.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="5.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="54" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="10.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="46.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="19.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="22.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="14.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="22.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="15.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="40.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="14.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="24.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="98.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="49.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="24.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="23.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="48.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="43.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="103.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="22.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="19.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="22.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="15.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="25.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="28.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="22" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="3" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1125,7 +1125,7 @@
         <v>114</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="2" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>95</v>
       </c>
@@ -1324,66 +1324,66 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="U2"/>
-    <hyperlink display="https://cs70.salesforce.com/services/data/v42.0/query/?q=" r:id="rId2" ref="W2"/>
-    <hyperlink r:id="rId3" ref="Y2"/>
-    <hyperlink r:id="rId4" ref="O2"/>
-    <hyperlink r:id="rId5" ref="Q2"/>
-    <hyperlink r:id="rId6" ref="S2"/>
-    <hyperlink r:id="rId7" ref="X2"/>
-    <hyperlink r:id="rId8" ref="Z2"/>
+    <hyperlink ref="U2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="W2" r:id="rId2" display="https://cs70.salesforce.com/services/data/v42.0/query/?q=" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="Y2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="O2" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="Q2" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="S2" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="X2" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="Z2" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AJ2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="45.33203125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="5.83203125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="51.33203125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="46.5" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="40.5" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="99.6640625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="71.83203125" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="35.6640625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="70.6640625" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="103.1640625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="62.1640625" collapsed="true"/>
-    <col min="30" max="30" customWidth="true" width="62.1640625" collapsed="true"/>
-    <col min="31" max="32" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="28.5" collapsed="true"/>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="45.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="5.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="51.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="46.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="40.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="99.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="71.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="35.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="70.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="103.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="62.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="62.1640625" customWidth="1" collapsed="1"/>
+    <col min="31" max="32" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="28.5" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="3" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1493,7 +1493,7 @@
         <v>114</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="2" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>95</v>
       </c>
@@ -1504,10 +1504,10 @@
         <v>138</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>93</v>
@@ -1605,21 +1605,21 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="U2"/>
-    <hyperlink r:id="rId2" ref="V2"/>
-    <hyperlink r:id="rId3" ref="W2"/>
-    <hyperlink r:id="rId4" ref="X2"/>
-    <hyperlink r:id="rId5" ref="Y2"/>
-    <hyperlink r:id="rId6" ref="Z2"/>
-    <hyperlink r:id="rId7" ref="AC2"/>
+    <hyperlink ref="U2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="V2" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="W2" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="X2" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="Y2" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="Z2" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="AC2" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AJ2"/>
   <sheetViews>
     <sheetView topLeftCell="AB1" workbookViewId="0">
@@ -1628,41 +1628,41 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
-    <col min="4" max="5" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="45.33203125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="5.83203125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="53.83203125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="55.0" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="12.83203125" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="25.0" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="74.5" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="51.33203125" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="25.1640625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="23.83203125" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="50.5" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="45.1640625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="103.1640625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="30" max="32" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="28.5" collapsed="true"/>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="45.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="5.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="53.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="55" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="12.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="25" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="74.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="51.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="25.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="23.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="50.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="45.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="103.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="32" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="28.5" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="3" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1772,7 +1772,7 @@
         <v>114</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="2" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>95</v>
       </c>
@@ -1884,19 +1884,19 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="U2"/>
-    <hyperlink r:id="rId2" ref="V2"/>
-    <hyperlink r:id="rId3" ref="W2"/>
-    <hyperlink r:id="rId4" ref="X2"/>
-    <hyperlink r:id="rId5" ref="Y2"/>
-    <hyperlink r:id="rId6" ref="Z2"/>
+    <hyperlink ref="U2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="V2" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="W2" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="X2" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="Y2" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="Z2" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AJ2"/>
   <sheetViews>
     <sheetView topLeftCell="W1" workbookViewId="0">
@@ -1905,40 +1905,40 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="45.33203125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="5.83203125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="53.83203125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="46.5" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="12.83203125" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="18.6640625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="25.0" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="74.5" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="51.33203125" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="25.1640625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="23.83203125" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="50.5" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="45.1640625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="93.5" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="77.83203125" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="31" max="32" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="28.5" collapsed="true"/>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="45.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="5.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="53.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="46.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="12.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="18.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="25" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="74.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="51.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="25.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="23.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="50.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="45.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="93.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="77.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="21" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="32" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="28.5" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.2">
@@ -2162,12 +2162,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AJ2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2176,42 +2176,42 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="45.33203125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="5.83203125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="51.33203125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="46.5" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="12.83203125" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="99.6640625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="71.83203125" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="35.6640625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="70.6640625" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="62.1640625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="103.1640625" collapsed="true"/>
-    <col min="29" max="29" customWidth="true" width="34.33203125" collapsed="true"/>
-    <col min="30" max="32" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="28.5" collapsed="true"/>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="45.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="5.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="51.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="46.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="12.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="99.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="71.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="35.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="70.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="62.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="103.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="34.33203125" customWidth="1" collapsed="1"/>
+    <col min="30" max="32" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="28.5" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="3" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -2321,7 +2321,7 @@
         <v>114</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="2" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>95</v>
       </c>
@@ -2433,19 +2433,19 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="U2"/>
-    <hyperlink r:id="rId2" ref="V2"/>
-    <hyperlink r:id="rId3" ref="W2"/>
-    <hyperlink r:id="rId4" ref="X2"/>
-    <hyperlink r:id="rId5" ref="Y2"/>
-    <hyperlink r:id="rId6" ref="Z2"/>
+    <hyperlink ref="U2" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="V2" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="W2" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink ref="X2" r:id="rId4" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
+    <hyperlink ref="Y2" r:id="rId5" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
+    <hyperlink ref="Z2" r:id="rId6" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AJ2"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
@@ -2454,42 +2454,42 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="45.33203125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="5.83203125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="46.5" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="18.83203125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="51.33203125" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="12.83203125" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="99.6640625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="71.83203125" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="35.6640625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="34.5" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="70.6640625" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="103.1640625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="16.5" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="62.1640625" collapsed="true"/>
-    <col min="30" max="32" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="24.83203125" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="28.5" collapsed="true"/>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="45.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="5.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="46.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="18.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="51.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="12.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="99.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="71.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="35.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="34.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="70.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="103.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="16.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="62.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="32" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="15.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="28.5" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="3" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -2599,7 +2599,7 @@
         <v>114</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="2" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -2711,20 +2711,20 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="U2"/>
-    <hyperlink r:id="rId2" ref="V2"/>
-    <hyperlink r:id="rId3" ref="W2"/>
-    <hyperlink r:id="rId4" ref="X2"/>
-    <hyperlink r:id="rId5" ref="Y2"/>
-    <hyperlink r:id="rId6" ref="Z2"/>
-    <hyperlink r:id="rId7" ref="AC2"/>
+    <hyperlink ref="U2" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="V2" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
+    <hyperlink ref="W2" r:id="rId3" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
+    <hyperlink ref="X2" r:id="rId4" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
+    <hyperlink ref="Y2" r:id="rId5" xr:uid="{00000000-0004-0000-0500-000004000000}"/>
+    <hyperlink ref="Z2" r:id="rId6" xr:uid="{00000000-0004-0000-0500-000005000000}"/>
+    <hyperlink ref="AC2" r:id="rId7" xr:uid="{00000000-0004-0000-0500-000006000000}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AJ2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2955,17 +2955,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="U2"/>
-    <hyperlink r:id="rId2" ref="V2"/>
-    <hyperlink r:id="rId3" ref="W2"/>
-    <hyperlink r:id="rId4" ref="X2"/>
-    <hyperlink r:id="rId5" ref="Y2"/>
-    <hyperlink r:id="rId6" ref="Z2"/>
-    <hyperlink r:id="rId7" ref="AC2"/>
-    <hyperlink r:id="rId8" ref="O2"/>
-    <hyperlink r:id="rId9" ref="Q2"/>
-    <hyperlink r:id="rId10" ref="S2"/>
+    <hyperlink ref="U2" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="V2" r:id="rId2" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
+    <hyperlink ref="W2" r:id="rId3" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
+    <hyperlink ref="X2" r:id="rId4" xr:uid="{00000000-0004-0000-0600-000003000000}"/>
+    <hyperlink ref="Y2" r:id="rId5" xr:uid="{00000000-0004-0000-0600-000004000000}"/>
+    <hyperlink ref="Z2" r:id="rId6" xr:uid="{00000000-0004-0000-0600-000005000000}"/>
+    <hyperlink ref="AC2" r:id="rId7" xr:uid="{00000000-0004-0000-0600-000006000000}"/>
+    <hyperlink ref="O2" r:id="rId8" xr:uid="{00000000-0004-0000-0600-000007000000}"/>
+    <hyperlink ref="Q2" r:id="rId9" xr:uid="{00000000-0004-0000-0600-000008000000}"/>
+    <hyperlink ref="S2" r:id="rId10" xr:uid="{00000000-0004-0000-0600-000009000000}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/fsaautomation/resources/config_properties.xlsx
+++ b/fsaautomation/resources/config_properties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/auto/SVMX_Catalyst/fsaautomation/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46B9C454-3E7B-0647-B4CB-168609EC3C1E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EAF94D2-CD3D-B64B-893E-998A3BED2C57}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="28040" windowHeight="16240" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="38400" windowHeight="20320" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config_local" sheetId="1" r:id="rId1"/>
@@ -63,9 +63,6 @@
     <t>ios</t>
   </si>
   <si>
-    <t>fsaPhone</t>
-  </si>
-  <si>
     <t>APP_NAME</t>
   </si>
   <si>
@@ -526,6 +523,9 @@
   </si>
   <si>
     <t>9</t>
+  </si>
+  <si>
+    <t>goPhone</t>
   </si>
 </sst>
 </file>
@@ -972,7 +972,7 @@
   <dimension ref="A1:AJ31"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1020,219 +1020,219 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="M1" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Z1" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AB1" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AC1" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AD1" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AE1" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AF1" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AG1" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AH1" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AI1" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AJ1" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="D2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="J2" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="S2" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="U2" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="V2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="X2" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="W2" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="X2" s="7" t="s">
+      <c r="Y2" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="Y2" s="7" t="s">
+      <c r="Z2" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="Z2" s="7" t="s">
+      <c r="AA2" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="AA2" s="8" t="s">
-        <v>72</v>
-      </c>
       <c r="AB2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AC2" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AD2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.2">
@@ -1341,8 +1341,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AJ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1388,219 +1388,219 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="M1" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Z1" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AB1" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AC1" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AD1" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AE1" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AF1" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AG1" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AH1" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AI1" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AJ1" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q2" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" t="s">
-        <v>88</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="O2" s="5" t="s">
+      <c r="R2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="S2" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="T2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y2" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z2" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA2" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="Q2" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="U2" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="V2" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="W2" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="X2" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y2" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z2" s="7" t="s">
+      <c r="AB2" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC2" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="AA2" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB2" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="AC2" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="AD2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="AE2" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AF2" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -1622,8 +1622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AJ2"/>
   <sheetViews>
-    <sheetView topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="AH1" sqref="AH1:AJ1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1667,219 +1667,219 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="M1" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Z1" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AB1" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AC1" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AD1" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AE1" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AF1" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AG1" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AH1" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AI1" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AJ1" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q2" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K2" t="s">
-        <v>88</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="O2" s="5" t="s">
+      <c r="R2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="S2" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="T2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y2" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z2" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA2" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB2" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="Q2" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="U2" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="V2" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="W2" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="X2" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y2" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z2" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="AA2" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="AB2" s="5" t="s">
-        <v>53</v>
-      </c>
       <c r="AC2" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AD2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="AE2" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AF2" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -1899,8 +1899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AJ2"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AJ2" sqref="AJ2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1946,109 +1946,109 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AH1" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AI1" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AJ1" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.2">
@@ -2059,106 +2059,106 @@
         <v>12.1</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="O2" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="P2" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="R2" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="S2" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="T2" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="U2" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="V2" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="W2" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="X2" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y2" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z2" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB2" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC2" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="AD2" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE2" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF2" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K2" t="s">
-        <v>88</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="O2" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="P2" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q2" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="R2" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="S2" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="T2" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="U2" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="V2" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="W2" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="X2" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="Y2" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z2" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>105</v>
-      </c>
-      <c r="AB2" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="AC2" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD2" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="AE2" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="AF2" s="12" t="s">
-        <v>49</v>
-      </c>
       <c r="AG2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AJ2" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -2171,7 +2171,7 @@
   <dimension ref="A1:AJ2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2216,219 +2216,219 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="M1" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Z1" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AB1" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AC1" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AD1" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AE1" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AF1" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AG1" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AH1" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AI1" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AJ1" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="D2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="J2" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="S2" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="T2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y2" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z2" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA2" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB2" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="Q2" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="U2" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="V2" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="W2" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="X2" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y2" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z2" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="AA2" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="AB2" s="5" t="s">
-        <v>53</v>
-      </c>
       <c r="AC2" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AD2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="AE2" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AF2" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -2448,7 +2448,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AJ2"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -2494,109 +2494,109 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="L1" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Z1" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AB1" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AC1" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AD1" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AE1" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AF1" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AG1" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AH1" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AI1" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AJ1" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2604,109 +2604,109 @@
         <v>7</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J2" s="2" t="b">
         <v>1</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y2" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z2" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB2" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC2" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD2" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE2" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="P2" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="S2" s="6" t="s">
+      <c r="AF2" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="T2" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="U2" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="V2" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="W2" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="X2" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y2" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z2" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="AA2" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB2" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC2" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="AD2" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE2" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="AF2" s="5" t="s">
-        <v>63</v>
-      </c>
       <c r="AG2" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AJ2" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -2727,8 +2727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AJ2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">